--- a/VerveStacks_BGR/source_data/VerveStacks_BGR.xlsx
+++ b/VerveStacks_BGR/source_data/VerveStacks_BGR.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VerveStacks\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8FCF64-CBE3-4CD9-843B-4AB8748FF59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F170535-F5C0-4D09-B11D-2518B4698044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="iamc_data" sheetId="17" r:id="rId1"/>
-    <sheet name="iamc_charts" sheetId="16" r:id="rId2"/>
-    <sheet name="weo_pg" sheetId="15" r:id="rId3"/>
-    <sheet name="re_targets" sheetId="14" r:id="rId4"/>
-    <sheet name="ccs_retrofits" sheetId="13" r:id="rId5"/>
-    <sheet name="Calibration" sheetId="12" r:id="rId6"/>
-    <sheet name="existing_stock" sheetId="11" r:id="rId7"/>
+    <sheet name="iamc_data" sheetId="24" r:id="rId1"/>
+    <sheet name="iamc_charts" sheetId="23" r:id="rId2"/>
+    <sheet name="weo_pg" sheetId="22" r:id="rId3"/>
+    <sheet name="re_targets" sheetId="21" r:id="rId4"/>
+    <sheet name="ccs_retrofits" sheetId="20" r:id="rId5"/>
+    <sheet name="Calibration" sheetId="19" r:id="rId6"/>
+    <sheet name="existing_stock" sheetId="18" r:id="rId7"/>
     <sheet name="historical_data_long" sheetId="5" r:id="rId8"/>
     <sheet name="historical_data" sheetId="4" r:id="rId9"/>
     <sheet name="system_settings" sheetId="1" r:id="rId10"/>
@@ -1434,7 +1434,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AF9D9CC-B9E3-55F7-4788-B1780FC5FA2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B490DBFE-2EDC-1DD3-E3C6-EE01F101990B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1489,7 +1489,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94E0DC91-EBC5-37DA-57A9-F8664CAD0C2C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6EE06EB-829A-3158-6B2B-55F295FC4D5E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1544,7 +1544,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25337F66-A146-AE17-C7B9-743ACC298BEB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F07D87AD-B585-8402-0EC8-1CEBB1E2472D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1599,7 +1599,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA6C3253-11ED-E62A-489E-DFF9B9D3AF9F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C01B3378-C57C-63A0-058B-843E48F337B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1654,7 +1654,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F34FDAB-B568-4610-F32D-4D2FBD842CF6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19E2008C-09B8-EA00-7AA4-EDE66EF5CC81}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1760,6 +1760,56 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83E2F0DE-1D25-9C20-9764-1023DB90EC83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17479963" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>296863</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46FEDDAC-82E7-2620-2D2F-FB15153F2E3E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2110,7 +2160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D48F01B8-00AB-4727-9787-A5E1D34EA47D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A11E5D-7B70-4CBE-89A8-C94261BA1A9F}">
   <dimension ref="A1:L638"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -24876,7 +24926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFF9D31-5B40-4DA6-A8B6-7EE1321B0574}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9DD4FF-FFFD-49D3-AD0F-547DB769EEC6}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -24889,7 +24939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92831F4F-54D7-4E64-8583-D1AADA08E27D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B728F576-D95F-42F5-BA21-9413A2DEA8D1}">
   <dimension ref="A1:I129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28109,7 +28159,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FA3728-9713-4FDE-9965-856FD8B4D974}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F76916-BD73-49D4-A7C7-472CFFD25DE1}">
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28786,7 +28836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB617B3-76B9-45BB-BB06-170BEE0451C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{725B9E78-F1A6-4F40-BD5B-3977A1B01DA0}">
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -29728,7 +29778,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C21B4079-ACA7-4E5B-BA3E-29AC43CB579C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05DA2ABA-F596-4739-9D81-596E8B47A380}">
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -30203,7 +30253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D51CBD0-E605-4BFE-93DB-20658A83A5DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319A6DF8-1289-402E-A0B7-840585C67D5A}">
   <dimension ref="A1:W95"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/VerveStacks_BGR/source_data/VerveStacks_BGR.xlsx
+++ b/VerveStacks_BGR/source_data/VerveStacks_BGR.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VerveStacks\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F170535-F5C0-4D09-B11D-2518B4698044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2334204A-75C8-4D9F-BDCB-E3BD1016CDE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="iamc_data" sheetId="24" r:id="rId1"/>
-    <sheet name="iamc_charts" sheetId="23" r:id="rId2"/>
-    <sheet name="weo_pg" sheetId="22" r:id="rId3"/>
-    <sheet name="re_targets" sheetId="21" r:id="rId4"/>
-    <sheet name="ccs_retrofits" sheetId="20" r:id="rId5"/>
-    <sheet name="Calibration" sheetId="19" r:id="rId6"/>
-    <sheet name="existing_stock" sheetId="18" r:id="rId7"/>
+    <sheet name="iamc_data" sheetId="31" r:id="rId1"/>
+    <sheet name="iamc_charts" sheetId="30" r:id="rId2"/>
+    <sheet name="weo_pg" sheetId="29" r:id="rId3"/>
+    <sheet name="re_targets" sheetId="28" r:id="rId4"/>
+    <sheet name="ccs_retrofits" sheetId="27" r:id="rId5"/>
+    <sheet name="Calibration" sheetId="26" r:id="rId6"/>
+    <sheet name="existing_stock" sheetId="25" r:id="rId7"/>
     <sheet name="historical_data_long" sheetId="5" r:id="rId8"/>
     <sheet name="historical_data" sheetId="4" r:id="rId9"/>
     <sheet name="system_settings" sheetId="1" r:id="rId10"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8725" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8727" uniqueCount="396">
   <si>
     <t>Time Slices</t>
   </si>
@@ -1213,6 +1213,14 @@
     <t>Net Zero 2050</t>
   </si>
   <si>
+    <t xml:space="preserve">Data Source: Global Energy Monitor plant database + IRENA/EMBER statistics with spatial gap-filling
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete power plant inventory combining GEM facility-level data with statistical capacity gaps from IRENA  (renewables) and EMBER (thermal). Missing capacity distributed spatially using resource quality rankings  and existing plant locations. Technology costs calculated as capacity-weighted averages with regional and  size adjustments. All parameters validated against realistic ranges. Hover over column headers for detailed  calculation methods and data sources.
+</t>
+  </si>
+  <si>
     <t>capacity_gw_gem</t>
   </si>
   <si>
@@ -1262,7 +1270,7 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1303,6 +1311,13 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -1375,7 +1390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1390,12 +1405,22 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="167" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1434,7 +1459,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B490DBFE-2EDC-1DD3-E3C6-EE01F101990B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EEF94B5-5785-EBDD-1431-D7EC581F066A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1489,7 +1514,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6EE06EB-829A-3158-6B2B-55F295FC4D5E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{508E80D7-C05F-121E-D4B0-4FC641236FED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1544,7 +1569,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F07D87AD-B585-8402-0EC8-1CEBB1E2472D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2A9742F-7AC8-72B4-D588-69B6FD915B5E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1599,7 +1624,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C01B3378-C57C-63A0-058B-843E48F337B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBE7D6AB-1AB8-20AF-45A2-882CAE6DD572}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1635,61 +1660,6 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>1054100</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19E2008C-09B8-EA00-7AA4-EDE66EF5CC81}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13665200" y="12700"/>
-          <a:ext cx="990600" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1810,6 +1780,56 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46FEDDAC-82E7-2620-2D2F-FB15153F2E3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17479963" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>296863</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{379AF9E4-F5B8-EBB0-E183-F86045CB9F5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2160,7 +2180,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A11E5D-7B70-4CBE-89A8-C94261BA1A9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF49BB0-79E7-409A-9DA5-6EBBABBEEB37}">
   <dimension ref="A1:L638"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -24926,7 +24946,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9DD4FF-FFFD-49D3-AD0F-547DB769EEC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B78C7C5-EE78-41B1-BA90-2E675D8A3ECB}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -24939,7 +24959,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B728F576-D95F-42F5-BA21-9413A2DEA8D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56351EB6-0433-4BC4-AEA3-0781F60823F1}">
   <dimension ref="A1:I129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24957,16 +24977,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="2" t="s">
@@ -28159,7 +28179,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F76916-BD73-49D4-A7C7-472CFFD25DE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19314087-19B4-4D33-A5B2-6089D0CCEF9F}">
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28179,17 +28199,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="2" t="s">
@@ -28253,7 +28273,7 @@
       <c r="H4" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="18">
         <v>45343</v>
       </c>
       <c r="J4" s="4" t="s">
@@ -28288,7 +28308,7 @@
       <c r="H5" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="19">
         <v>44949</v>
       </c>
       <c r="J5" s="9" t="s">
@@ -28323,7 +28343,7 @@
       <c r="H6" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="18">
         <v>44949</v>
       </c>
       <c r="J6" s="4" t="s">
@@ -28358,7 +28378,7 @@
       <c r="H7" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="19">
         <v>45343</v>
       </c>
       <c r="J7" s="9" t="s">
@@ -28393,7 +28413,7 @@
       <c r="H8" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="18">
         <v>44949</v>
       </c>
       <c r="J8" s="4" t="s">
@@ -28428,7 +28448,7 @@
       <c r="H9" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="19">
         <v>45343</v>
       </c>
       <c r="J9" s="9" t="s">
@@ -28463,7 +28483,7 @@
       <c r="H10" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="18">
         <v>44949</v>
       </c>
       <c r="J10" s="4" t="s">
@@ -28498,7 +28518,7 @@
       <c r="H11" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="19">
         <v>44949</v>
       </c>
       <c r="J11" s="9" t="s">
@@ -28533,7 +28553,7 @@
       <c r="H12" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="18">
         <v>45343</v>
       </c>
       <c r="J12" s="4" t="s">
@@ -28568,7 +28588,7 @@
       <c r="H13" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="19">
         <v>44949</v>
       </c>
       <c r="J13" s="9" t="s">
@@ -28603,7 +28623,7 @@
       <c r="H14" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="18">
         <v>45343</v>
       </c>
       <c r="J14" s="4" t="s">
@@ -28638,7 +28658,7 @@
       <c r="H15" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="19">
         <v>45343</v>
       </c>
       <c r="J15" s="9" t="s">
@@ -28673,7 +28693,7 @@
       <c r="H16" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="I16" s="16">
+      <c r="I16" s="18">
         <v>45343</v>
       </c>
       <c r="J16" s="4" t="s">
@@ -28708,7 +28728,7 @@
       <c r="H17" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="19">
         <v>45343</v>
       </c>
       <c r="J17" s="9" t="s">
@@ -28743,7 +28763,7 @@
       <c r="H18" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="I18" s="16">
+      <c r="I18" s="18">
         <v>45343</v>
       </c>
       <c r="J18" s="4" t="s">
@@ -28778,7 +28798,7 @@
       <c r="H19" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="19">
         <v>45343</v>
       </c>
       <c r="J19" s="9" t="s">
@@ -28813,7 +28833,7 @@
       <c r="H20" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="I20" s="16">
+      <c r="I20" s="18">
         <v>45343</v>
       </c>
       <c r="J20" s="4" t="s">
@@ -28836,7 +28856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{725B9E78-F1A6-4F40-BD5B-3977A1B01DA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCFC4E85-AA15-442F-8C40-C705D36805AC}">
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28853,16 +28873,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="2" t="s">
@@ -29778,7 +29798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05DA2ABA-F596-4739-9D81-596E8B47A380}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B7A054F-DDCD-4411-B838-9CADE12D7337}">
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -29793,13 +29813,13 @@
         <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -29923,16 +29943,16 @@
         <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D11" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E11" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F11" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
@@ -30071,22 +30091,22 @@
         <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D21" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E21" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F21" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G21" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H21" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
@@ -30253,12 +30273,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319A6DF8-1289-402E-A0B7-840585C67D5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3C1F04-B930-4689-A659-EE13FD75A8B4}">
   <dimension ref="A1:W95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:U1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -30281,30 +30299,32 @@
     <col min="23" max="23" width="21.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A1" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
+    </row>
+    <row r="3" spans="1:23" ht="52.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="15" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A4" s="21" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A5" s="22"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A6" s="22"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A7" s="22"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A8" s="22"/>
     </row>
     <row r="9" spans="1:23" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="2" t="s">
@@ -35457,10 +35477,9 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A4:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -45157,31 +45176,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
     </row>
     <row r="2" spans="1:25" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
@@ -48539,76 +48558,76 @@
       <c r="A57" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B57" s="14">
+      <c r="B57" s="16">
         <v>0</v>
       </c>
-      <c r="C57" s="14">
+      <c r="C57" s="16">
         <v>0</v>
       </c>
-      <c r="D57" s="14">
+      <c r="D57" s="16">
         <v>0</v>
       </c>
-      <c r="E57" s="14">
+      <c r="E57" s="16">
         <v>0</v>
       </c>
-      <c r="F57" s="14">
+      <c r="F57" s="16">
         <v>0</v>
       </c>
-      <c r="G57" s="14">
+      <c r="G57" s="16">
         <v>0</v>
       </c>
-      <c r="H57" s="14">
+      <c r="H57" s="16">
         <v>0</v>
       </c>
-      <c r="I57" s="14">
+      <c r="I57" s="16">
         <v>0</v>
       </c>
-      <c r="J57" s="14">
+      <c r="J57" s="16">
         <v>0.22831050228310504</v>
       </c>
-      <c r="K57" s="14">
+      <c r="K57" s="16">
         <v>0.11415525114155252</v>
       </c>
-      <c r="L57" s="14">
+      <c r="L57" s="16">
         <v>0.45662100456621008</v>
       </c>
-      <c r="M57" s="14">
+      <c r="M57" s="16">
         <v>0.68493150684931503</v>
       </c>
-      <c r="N57" s="14">
+      <c r="N57" s="16">
         <v>0.7990867579908677</v>
       </c>
-      <c r="O57" s="14">
+      <c r="O57" s="16">
         <v>0.41856925418569257</v>
       </c>
-      <c r="P57" s="14">
+      <c r="P57" s="16">
         <v>0.57077625570776258</v>
       </c>
-      <c r="Q57" s="14">
+      <c r="Q57" s="16">
         <v>0.61643835616438358</v>
       </c>
-      <c r="R57" s="14">
+      <c r="R57" s="16">
         <v>0.66590563165905636</v>
       </c>
-      <c r="S57" s="14">
+      <c r="S57" s="16">
         <v>0.91324200913242015</v>
       </c>
-      <c r="T57" s="14">
+      <c r="T57" s="16">
         <v>2.5603392041748205</v>
       </c>
-      <c r="U57" s="14">
+      <c r="U57" s="16">
         <v>3.4627092846270933</v>
       </c>
-      <c r="V57" s="14">
+      <c r="V57" s="16">
         <v>3.8812785388127851</v>
       </c>
-      <c r="W57" s="14">
+      <c r="W57" s="16">
         <v>5.9132420091324196</v>
       </c>
-      <c r="X57" s="14">
+      <c r="X57" s="16">
         <v>5.1141552511415531</v>
       </c>
-      <c r="Y57" s="14">
+      <c r="Y57" s="16">
         <v>4.9771689497716896</v>
       </c>
     </row>
@@ -48616,76 +48635,76 @@
       <c r="A58" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B58" s="15">
+      <c r="B58" s="17">
         <v>0.34409073920603195</v>
       </c>
-      <c r="C58" s="15">
+      <c r="C58" s="17">
         <v>0.39609028421001313</v>
       </c>
-      <c r="D58" s="15">
+      <c r="D58" s="17">
         <v>0.34896569655015519</v>
       </c>
-      <c r="E58" s="15">
+      <c r="E58" s="17">
         <v>0.3908090804205463</v>
       </c>
-      <c r="F58" s="15">
+      <c r="F58" s="17">
         <v>0.3922789539227895</v>
       </c>
-      <c r="G58" s="15">
+      <c r="G58" s="17">
         <v>0.38314653383146535</v>
       </c>
-      <c r="H58" s="15">
+      <c r="H58" s="17">
         <v>0.396222498962225</v>
       </c>
-      <c r="I58" s="15">
+      <c r="I58" s="17">
         <v>0.46430053964300544</v>
       </c>
-      <c r="J58" s="15">
+      <c r="J58" s="17">
         <v>0.48111249481112495</v>
       </c>
-      <c r="K58" s="15">
+      <c r="K58" s="17">
         <v>0.42782873873654675</v>
       </c>
-      <c r="L58" s="15">
+      <c r="L58" s="17">
         <v>0.45844586648499153</v>
       </c>
-      <c r="M58" s="15">
+      <c r="M58" s="17">
         <v>0.49726171897578175</v>
       </c>
-      <c r="N58" s="15">
+      <c r="N58" s="17">
         <v>0.41309028379862439</v>
       </c>
-      <c r="O58" s="15">
+      <c r="O58" s="17">
         <v>0.36227010141320837</v>
       </c>
-      <c r="P58" s="15">
+      <c r="P58" s="17">
         <v>0.41231328844516674</v>
       </c>
-      <c r="Q58" s="15">
+      <c r="Q58" s="17">
         <v>0.50828415182197206</v>
       </c>
-      <c r="R58" s="15">
+      <c r="R58" s="17">
         <v>0.4369935206742831</v>
       </c>
-      <c r="S58" s="15">
+      <c r="S58" s="17">
         <v>0.46734400271649285</v>
       </c>
-      <c r="T58" s="15">
+      <c r="T58" s="17">
         <v>0.41685655309224456</v>
       </c>
-      <c r="U58" s="15">
+      <c r="U58" s="17">
         <v>0.38424076705180099</v>
       </c>
-      <c r="V58" s="15">
+      <c r="V58" s="17">
         <v>0.30180771877150181</v>
       </c>
-      <c r="W58" s="15">
+      <c r="W58" s="17">
         <v>0.38178341330902782</v>
       </c>
-      <c r="X58" s="15">
+      <c r="X58" s="17">
         <v>0.48677943686388042</v>
       </c>
-      <c r="Y58" s="15">
+      <c r="Y58" s="17">
         <v>0.25824553878597789</v>
       </c>
     </row>
@@ -48693,76 +48712,76 @@
       <c r="A59" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B59" s="14">
+      <c r="B59" s="16">
         <v>0.19642930601834707</v>
       </c>
-      <c r="C59" s="14">
+      <c r="C59" s="16">
         <v>0.19642930601834707</v>
       </c>
-      <c r="D59" s="14">
+      <c r="D59" s="16">
         <v>0.1583775556378296</v>
       </c>
-      <c r="E59" s="14">
+      <c r="E59" s="16">
         <v>0.18100292072894811</v>
       </c>
-      <c r="F59" s="14">
+      <c r="F59" s="16">
         <v>0.15323542720802993</v>
       </c>
-      <c r="G59" s="14">
+      <c r="G59" s="16">
         <v>0.1779176436710683</v>
       </c>
-      <c r="H59" s="14">
+      <c r="H59" s="16">
         <v>0.22213994816734542</v>
       </c>
-      <c r="I59" s="14">
+      <c r="I59" s="16">
         <v>0.23228111971411552</v>
       </c>
-      <c r="J59" s="14">
+      <c r="J59" s="16">
         <v>0.23426642842962081</v>
       </c>
-      <c r="K59" s="14">
+      <c r="K59" s="16">
         <v>0.19456025411951558</v>
       </c>
-      <c r="L59" s="14">
+      <c r="L59" s="16">
         <v>0.19555290847726822</v>
       </c>
-      <c r="M59" s="14">
+      <c r="M59" s="16">
         <v>0.19786910197869106</v>
       </c>
-      <c r="N59" s="14">
+      <c r="N59" s="16">
         <v>0.22450532724505329</v>
       </c>
-      <c r="O59" s="14">
+      <c r="O59" s="16">
         <v>0.2226027397260274</v>
       </c>
-      <c r="P59" s="14">
+      <c r="P59" s="16">
         <v>0.20357686453576868</v>
       </c>
-      <c r="Q59" s="14">
+      <c r="Q59" s="16">
         <v>0.17694063926940642</v>
       </c>
-      <c r="R59" s="14">
+      <c r="R59" s="16">
         <v>0.1950152207001522</v>
       </c>
-      <c r="S59" s="14">
+      <c r="S59" s="16">
         <v>0.18359969558599698</v>
       </c>
-      <c r="T59" s="14">
+      <c r="T59" s="16">
         <v>0.19216133942161343</v>
       </c>
-      <c r="U59" s="14">
+      <c r="U59" s="16">
         <v>0.20452815829528159</v>
       </c>
-      <c r="V59" s="14">
+      <c r="V59" s="16">
         <v>0.21784627092846273</v>
       </c>
-      <c r="W59" s="14">
+      <c r="W59" s="16">
         <v>0.29014459665144599</v>
       </c>
-      <c r="X59" s="14">
+      <c r="X59" s="16">
         <v>0.1950152207001522</v>
       </c>
-      <c r="Y59" s="14">
+      <c r="Y59" s="16">
         <v>0.14840182648401828</v>
       </c>
     </row>
@@ -48770,76 +48789,76 @@
       <c r="A60" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="B60" s="15">
+      <c r="B60" s="17">
         <v>0.29434148088459128</v>
       </c>
-      <c r="C60" s="15">
+      <c r="C60" s="17">
         <v>0.22423352902804958</v>
       </c>
-      <c r="D60" s="15">
+      <c r="D60" s="17">
         <v>0.22408253001860307</v>
       </c>
-      <c r="E60" s="15">
+      <c r="E60" s="17">
         <v>0.20686315206863154</v>
       </c>
-      <c r="F60" s="15">
+      <c r="F60" s="17">
         <v>0.18103408514367419</v>
       </c>
-      <c r="G60" s="15">
+      <c r="G60" s="17">
         <v>0.24791291914579586</v>
       </c>
-      <c r="H60" s="15">
+      <c r="H60" s="17">
         <v>0.2427240440939071</v>
       </c>
-      <c r="I60" s="15">
+      <c r="I60" s="17">
         <v>0.16072605011472321</v>
       </c>
-      <c r="J60" s="15">
+      <c r="J60" s="17">
         <v>0.1502326182476092</v>
       </c>
-      <c r="K60" s="15">
+      <c r="K60" s="17">
         <v>0.18296846327828276</v>
       </c>
-      <c r="L60" s="15">
+      <c r="L60" s="17">
         <v>0.26339491433119683</v>
       </c>
-      <c r="M60" s="15">
+      <c r="M60" s="17">
         <v>0.14626141552511415</v>
       </c>
-      <c r="N60" s="15">
+      <c r="N60" s="17">
         <v>0.15647142182333496</v>
       </c>
-      <c r="O60" s="15">
+      <c r="O60" s="17">
         <v>0.19708855325293684</v>
       </c>
-      <c r="P60" s="15">
+      <c r="P60" s="17">
         <v>0.22250599798777185</v>
       </c>
-      <c r="Q60" s="15">
+      <c r="Q60" s="17">
         <v>0.27329541057193724</v>
       </c>
-      <c r="R60" s="15">
+      <c r="R60" s="17">
         <v>0.18767897221577279</v>
       </c>
-      <c r="S60" s="15">
+      <c r="S60" s="17">
         <v>0.12870890865760704</v>
       </c>
-      <c r="T60" s="15">
+      <c r="T60" s="17">
         <v>0.23422292564900221</v>
       </c>
-      <c r="U60" s="15">
+      <c r="U60" s="17">
         <v>0.13325692663137406</v>
       </c>
-      <c r="V60" s="15">
+      <c r="V60" s="17">
         <v>0.12825410686023031</v>
       </c>
-      <c r="W60" s="15">
+      <c r="W60" s="17">
         <v>0.21921446633557101</v>
       </c>
-      <c r="X60" s="15">
+      <c r="X60" s="17">
         <v>0.17145847997545438</v>
       </c>
-      <c r="Y60" s="15">
+      <c r="Y60" s="17">
         <v>0.14032522966412186</v>
       </c>
     </row>
@@ -48847,76 +48866,76 @@
       <c r="A61" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B61" s="14">
+      <c r="B61" s="16">
         <v>0.58791571267802401</v>
       </c>
-      <c r="C61" s="14">
+      <c r="C61" s="16">
         <v>0.632219592016247</v>
       </c>
-      <c r="D61" s="14">
+      <c r="D61" s="16">
         <v>0.84860999194198217</v>
       </c>
-      <c r="E61" s="14">
+      <c r="E61" s="16">
         <v>0.72522159548751008</v>
       </c>
-      <c r="F61" s="14">
+      <c r="F61" s="16">
         <v>0.70591592801504166</v>
       </c>
-      <c r="G61" s="14">
+      <c r="G61" s="16">
         <v>0.78271890948160072</v>
       </c>
-      <c r="H61" s="14">
+      <c r="H61" s="16">
         <v>0.81797273704002138</v>
       </c>
-      <c r="I61" s="14">
+      <c r="I61" s="16">
         <v>0.88425019931869253</v>
       </c>
-      <c r="J61" s="14">
+      <c r="J61" s="16">
         <v>0.95250175158850958</v>
       </c>
-      <c r="K61" s="14">
+      <c r="K61" s="16">
         <v>0.92169795366142393</v>
       </c>
-      <c r="L61" s="14">
+      <c r="L61" s="16">
         <v>0.92109395762363799</v>
       </c>
-      <c r="M61" s="14">
+      <c r="M61" s="16">
         <v>0.98511753762895304</v>
       </c>
-      <c r="N61" s="14">
+      <c r="N61" s="16">
         <v>0.94312558272968505</v>
       </c>
-      <c r="O61" s="14">
+      <c r="O61" s="16">
         <v>0.81695954983626218</v>
       </c>
-      <c r="P61" s="14">
+      <c r="P61" s="16">
         <v>0.91497163414971638</v>
       </c>
-      <c r="Q61" s="14">
+      <c r="Q61" s="16">
         <v>0.88672109220054429</v>
       </c>
-      <c r="R61" s="14">
+      <c r="R61" s="16">
         <v>0.91440094569223274</v>
       </c>
-      <c r="S61" s="14">
+      <c r="S61" s="16">
         <v>0.90107317525438657</v>
       </c>
-      <c r="T61" s="14">
+      <c r="T61" s="16">
         <v>0.91608169199663791</v>
       </c>
-      <c r="U61" s="14">
+      <c r="U61" s="16">
         <v>0.94050296462891025</v>
       </c>
-      <c r="V61" s="14">
+      <c r="V61" s="16">
         <v>0.9444785206388151</v>
       </c>
-      <c r="W61" s="14">
+      <c r="W61" s="16">
         <v>0.93652740861900541</v>
       </c>
-      <c r="X61" s="14">
+      <c r="X61" s="16">
         <v>0.93482359890047495</v>
       </c>
-      <c r="Y61" s="14">
+      <c r="Y61" s="16">
         <v>0.91778550171516859</v>
       </c>
     </row>
@@ -48924,76 +48943,76 @@
       <c r="A62" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="B62" s="15">
+      <c r="B62" s="17">
         <v>65535</v>
       </c>
-      <c r="C62" s="15">
+      <c r="C62" s="17">
         <v>65535</v>
       </c>
-      <c r="D62" s="15">
+      <c r="D62" s="17">
         <v>65535</v>
       </c>
-      <c r="E62" s="15">
+      <c r="E62" s="17">
         <v>65535</v>
       </c>
-      <c r="F62" s="15">
+      <c r="F62" s="17">
         <v>65535</v>
       </c>
-      <c r="G62" s="15">
+      <c r="G62" s="17">
         <v>65535</v>
       </c>
-      <c r="H62" s="15">
+      <c r="H62" s="17">
         <v>65535</v>
       </c>
-      <c r="I62" s="15">
+      <c r="I62" s="17">
         <v>65535</v>
       </c>
-      <c r="J62" s="15">
+      <c r="J62" s="17">
         <v>65535</v>
       </c>
-      <c r="K62" s="15">
+      <c r="K62" s="17">
         <v>65535</v>
       </c>
-      <c r="L62" s="15">
+      <c r="L62" s="17">
         <v>65535</v>
       </c>
-      <c r="M62" s="15">
+      <c r="M62" s="17">
         <v>65535</v>
       </c>
-      <c r="N62" s="15">
+      <c r="N62" s="17">
         <v>65535</v>
       </c>
-      <c r="O62" s="15">
+      <c r="O62" s="17">
         <v>65535</v>
       </c>
-      <c r="P62" s="15">
+      <c r="P62" s="17">
         <v>65535</v>
       </c>
-      <c r="Q62" s="15">
+      <c r="Q62" s="17">
         <v>65535</v>
       </c>
-      <c r="R62" s="15">
+      <c r="R62" s="17">
         <v>65535</v>
       </c>
-      <c r="S62" s="15">
+      <c r="S62" s="17">
         <v>65535</v>
       </c>
-      <c r="T62" s="15">
+      <c r="T62" s="17">
         <v>65535</v>
       </c>
-      <c r="U62" s="15">
+      <c r="U62" s="17">
         <v>65535</v>
       </c>
-      <c r="V62" s="15">
+      <c r="V62" s="17">
         <v>65535</v>
       </c>
-      <c r="W62" s="15">
+      <c r="W62" s="17">
         <v>65535</v>
       </c>
-      <c r="X62" s="15">
+      <c r="X62" s="17">
         <v>65535</v>
       </c>
-      <c r="Y62" s="15">
+      <c r="Y62" s="17">
         <v>65535</v>
       </c>
     </row>
@@ -49001,56 +49020,56 @@
       <c r="A63" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="14"/>
-      <c r="K63" s="14"/>
-      <c r="L63" s="14">
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="16"/>
+      <c r="L63" s="16">
         <v>3.8051750380517509E-2</v>
       </c>
-      <c r="M63" s="14">
+      <c r="M63" s="16">
         <v>7.6103500761035017E-2</v>
       </c>
-      <c r="N63" s="14">
+      <c r="N63" s="16">
         <v>9.6783799880881469E-2</v>
       </c>
-      <c r="O63" s="14">
+      <c r="O63" s="16">
         <v>0.1525728837372673</v>
       </c>
-      <c r="P63" s="14">
+      <c r="P63" s="16">
         <v>0.13964622955180209</v>
       </c>
-      <c r="Q63" s="14">
+      <c r="Q63" s="16">
         <v>0.15294587046149752</v>
       </c>
-      <c r="R63" s="14">
+      <c r="R63" s="16">
         <v>0.1540541738706388</v>
       </c>
-      <c r="S63" s="14">
+      <c r="S63" s="16">
         <v>0.15516247727978011</v>
       </c>
-      <c r="T63" s="14">
+      <c r="T63" s="16">
         <v>0.14851265682493239</v>
       </c>
-      <c r="U63" s="14">
+      <c r="U63" s="16">
         <v>0.15586582367404284</v>
       </c>
-      <c r="V63" s="14">
+      <c r="V63" s="16">
         <v>0.15255292652552924</v>
       </c>
-      <c r="W63" s="14">
+      <c r="W63" s="16">
         <v>0.13213245604573401</v>
       </c>
-      <c r="X63" s="14">
+      <c r="X63" s="16">
         <v>0.13711751430220961</v>
       </c>
-      <c r="Y63" s="14">
+      <c r="Y63" s="16">
         <v>0.13667567483614451</v>
       </c>
     </row>
@@ -49058,66 +49077,66 @@
       <c r="A64" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15">
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17">
         <v>0</v>
       </c>
-      <c r="H64" s="15">
+      <c r="H64" s="17">
         <v>7.6103500761035017E-2</v>
       </c>
-      <c r="I64" s="15">
+      <c r="I64" s="17">
         <v>0.19025875190258754</v>
       </c>
-      <c r="J64" s="15">
+      <c r="J64" s="17">
         <v>0.12453300124533001</v>
       </c>
-      <c r="K64" s="15">
+      <c r="K64" s="17">
         <v>8.3022000830220002E-2</v>
       </c>
-      <c r="L64" s="15">
+      <c r="L64" s="17">
         <v>0.15841953219644023</v>
       </c>
-      <c r="M64" s="15">
+      <c r="M64" s="17">
         <v>0.18180280737358362</v>
       </c>
-      <c r="N64" s="15">
+      <c r="N64" s="17">
         <v>0.20480795057749127</v>
       </c>
-      <c r="O64" s="15">
+      <c r="O64" s="17">
         <v>0.22998925597636316</v>
       </c>
-      <c r="P64" s="15">
+      <c r="P64" s="17">
         <v>0.21689497716894979</v>
       </c>
-      <c r="Q64" s="15">
+      <c r="Q64" s="17">
         <v>0.23646444879321593</v>
       </c>
-      <c r="R64" s="15">
+      <c r="R64" s="17">
         <v>0.23157208088714937</v>
       </c>
-      <c r="S64" s="15">
+      <c r="S64" s="17">
         <v>0.24461839530332682</v>
       </c>
-      <c r="T64" s="15">
+      <c r="T64" s="17">
         <v>0.21526418786692761</v>
       </c>
-      <c r="U64" s="15">
+      <c r="U64" s="17">
         <v>0.21526418786692761</v>
       </c>
-      <c r="V64" s="15">
+      <c r="V64" s="17">
         <v>0.24135681669928247</v>
       </c>
-      <c r="W64" s="15">
+      <c r="W64" s="17">
         <v>0.23320287018917157</v>
       </c>
-      <c r="X64" s="15">
+      <c r="X64" s="17">
         <v>0.23483365949119375</v>
       </c>
-      <c r="Y64" s="15">
+      <c r="Y64" s="17">
         <v>0.25277234181343772</v>
       </c>
     </row>
@@ -49204,57 +49223,57 @@
       <c r="A68" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="14">
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="16">
         <v>0.30441400304414001</v>
       </c>
-      <c r="K68" s="14">
+      <c r="K68" s="16">
         <v>0.10147133434804669</v>
       </c>
-      <c r="L68" s="14">
+      <c r="L68" s="16">
         <v>0.40447488584474894</v>
       </c>
-      <c r="M68" s="14">
+      <c r="M68" s="16">
         <v>0.5811540058115402</v>
       </c>
-      <c r="N68" s="14">
+      <c r="N68" s="16">
         <v>0.53816046966731901</v>
       </c>
-      <c r="O68" s="14">
+      <c r="O68" s="16">
         <v>0.37067553048616708</v>
       </c>
-      <c r="P68" s="14">
+      <c r="P68" s="16">
         <v>0.57077625570776258</v>
       </c>
-      <c r="Q68" s="14">
+      <c r="Q68" s="16">
         <v>0.57500422797226458</v>
       </c>
-      <c r="R68" s="14">
+      <c r="R68" s="16">
         <v>0.70696146759593048</v>
       </c>
-      <c r="S68" s="14">
+      <c r="S68" s="16">
         <v>0.86924428402751963</v>
       </c>
-      <c r="T68" s="14">
+      <c r="T68" s="16">
         <v>2.5863099724480505</v>
       </c>
-      <c r="U68" s="14">
+      <c r="U68" s="16">
         <v>3.6549813955986812</v>
       </c>
-      <c r="V68" s="14">
+      <c r="V68" s="16">
         <v>4.036889720525596</v>
       </c>
-      <c r="W68" s="14">
+      <c r="W68" s="16">
         <v>6.2453375126974553</v>
       </c>
-      <c r="X68" s="14">
+      <c r="X68" s="16">
         <v>3.2548137163984849</v>
       </c>
     </row>
@@ -49262,73 +49281,73 @@
       <c r="A69" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="B69" s="15">
+      <c r="B69" s="17">
         <v>0.17918731176527739</v>
       </c>
-      <c r="C69" s="15">
+      <c r="C69" s="17">
         <v>0.14535545467936098</v>
       </c>
-      <c r="D69" s="15">
+      <c r="D69" s="17">
         <v>0.15845780240593327</v>
       </c>
-      <c r="E69" s="15">
+      <c r="E69" s="17">
         <v>0.1498316039834055</v>
       </c>
-      <c r="F69" s="15">
+      <c r="F69" s="17">
         <v>0.1347902156764661</v>
       </c>
-      <c r="G69" s="15">
+      <c r="G69" s="17">
         <v>0.18958653994151151</v>
       </c>
-      <c r="H69" s="15">
+      <c r="H69" s="17">
         <v>0.18353719344825822</v>
       </c>
-      <c r="I69" s="15">
+      <c r="I69" s="17">
         <v>0.12836507928947488</v>
       </c>
-      <c r="J69" s="15">
+      <c r="J69" s="17">
         <v>0.12535509016122517</v>
       </c>
-      <c r="K69" s="15">
+      <c r="K69" s="17">
         <v>0.15416139825537606</v>
       </c>
-      <c r="L69" s="15">
+      <c r="L69" s="17">
         <v>0.21319901365069094</v>
       </c>
-      <c r="M69" s="15">
+      <c r="M69" s="17">
         <v>0.13556538436675425</v>
       </c>
-      <c r="N69" s="15">
+      <c r="N69" s="17">
         <v>0.1426745416205524</v>
       </c>
-      <c r="O69" s="15">
+      <c r="O69" s="17">
         <v>0.17089921406444017</v>
       </c>
-      <c r="P69" s="15">
+      <c r="P69" s="17">
         <v>0.18308207829936693</v>
       </c>
-      <c r="Q69" s="15">
+      <c r="Q69" s="17">
         <v>0.21797454043557021</v>
       </c>
-      <c r="R69" s="15">
+      <c r="R69" s="17">
         <v>0.16178813238750592</v>
       </c>
-      <c r="S69" s="15">
+      <c r="S69" s="17">
         <v>0.11826549026371555</v>
       </c>
-      <c r="T69" s="15">
+      <c r="T69" s="17">
         <v>0.18320015783762453</v>
       </c>
-      <c r="U69" s="15">
+      <c r="U69" s="17">
         <v>0.11430375923833559</v>
       </c>
-      <c r="V69" s="15">
+      <c r="V69" s="17">
         <v>0.11225524213694742</v>
       </c>
-      <c r="W69" s="15">
+      <c r="W69" s="17">
         <v>0.1716829439171017</v>
       </c>
-      <c r="X69" s="15">
+      <c r="X69" s="17">
         <v>0.13069358514235713</v>
       </c>
     </row>
@@ -49336,73 +49355,73 @@
       <c r="A70" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B70" s="14">
+      <c r="B70" s="16">
         <v>0.58751816400088952</v>
       </c>
-      <c r="C70" s="14">
+      <c r="C70" s="16">
         <v>0.63195855763612019</v>
       </c>
-      <c r="D70" s="14">
+      <c r="D70" s="16">
         <v>0.84807034848805107</v>
       </c>
-      <c r="E70" s="14">
+      <c r="E70" s="16">
         <v>0.72468873612271401</v>
       </c>
-      <c r="F70" s="14">
+      <c r="F70" s="16">
         <v>0.70518756353607848</v>
       </c>
-      <c r="G70" s="14">
+      <c r="G70" s="16">
         <v>0.78226961776024206</v>
       </c>
-      <c r="H70" s="14">
+      <c r="H70" s="16">
         <v>0.81749754243287398</v>
       </c>
-      <c r="I70" s="14">
+      <c r="I70" s="16">
         <v>0.88349648121868596</v>
       </c>
-      <c r="J70" s="14">
+      <c r="J70" s="16">
         <v>0.95119319991890894</v>
       </c>
-      <c r="K70" s="14">
+      <c r="K70" s="16">
         <v>0.92048229990249752</v>
       </c>
-      <c r="L70" s="14">
+      <c r="L70" s="16">
         <v>0.92005994960757642</v>
       </c>
-      <c r="M70" s="14">
+      <c r="M70" s="16">
         <v>0.98431753019201262</v>
       </c>
-      <c r="N70" s="14">
+      <c r="N70" s="16">
         <v>0.94540432280661413</v>
       </c>
-      <c r="O70" s="14">
+      <c r="O70" s="16">
         <v>0.81619276686525755</v>
       </c>
-      <c r="P70" s="14">
+      <c r="P70" s="16">
         <v>0.91711461765215874</v>
       </c>
-      <c r="Q70" s="14">
+      <c r="Q70" s="16">
         <v>0.88913935610658323</v>
       </c>
-      <c r="R70" s="14">
+      <c r="R70" s="16">
         <v>0.91556341739152636</v>
       </c>
-      <c r="S70" s="14">
+      <c r="S70" s="16">
         <v>0.90218624426321981</v>
       </c>
-      <c r="T70" s="14">
+      <c r="T70" s="16">
         <v>0.91672584775055033</v>
       </c>
-      <c r="U70" s="14">
+      <c r="U70" s="16">
         <v>0.942110199083116</v>
       </c>
-      <c r="V70" s="14">
+      <c r="V70" s="16">
         <v>0.94612082701666678</v>
       </c>
-      <c r="W70" s="14">
+      <c r="W70" s="16">
         <v>0.9382181082323805</v>
       </c>
-      <c r="X70" s="14">
+      <c r="X70" s="16">
         <v>0.93680249206717758</v>
       </c>
     </row>
@@ -49410,73 +49429,73 @@
       <c r="A71" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="B71" s="15">
+      <c r="B71" s="17">
         <v>1.3728687025740881E-2</v>
       </c>
-      <c r="C71" s="15">
+      <c r="C71" s="17">
         <v>8.9246408872480296E-3</v>
       </c>
-      <c r="D71" s="15">
+      <c r="D71" s="17">
         <v>1.4064542368890371E-2</v>
       </c>
-      <c r="E71" s="15">
+      <c r="E71" s="17">
         <v>1.3440969291696423E-2</v>
       </c>
-      <c r="F71" s="15">
+      <c r="F71" s="17">
         <v>1.4367639360976603E-2</v>
       </c>
-      <c r="G71" s="15">
+      <c r="G71" s="17">
         <v>1.06544901065449E-2</v>
       </c>
-      <c r="H71" s="15">
+      <c r="H71" s="17">
         <v>6.8721033906174785E-3</v>
       </c>
-      <c r="I71" s="15">
+      <c r="I71" s="17">
         <v>1.3383397499030053E-2</v>
       </c>
-      <c r="J71" s="15">
+      <c r="J71" s="17">
         <v>6.8134032678754683E-3</v>
       </c>
-      <c r="K71" s="15">
+      <c r="K71" s="17">
         <v>8.974387151398696E-3</v>
       </c>
-      <c r="L71" s="15">
+      <c r="L71" s="17">
         <v>1.0171012962918537E-2</v>
       </c>
-      <c r="M71" s="15">
+      <c r="M71" s="17">
         <v>4.0275281549390085E-3</v>
       </c>
-      <c r="N71" s="15">
+      <c r="N71" s="17">
         <v>5.4770281784942507E-3</v>
       </c>
-      <c r="O71" s="15">
+      <c r="O71" s="17">
         <v>5.9193423561722108E-3</v>
       </c>
-      <c r="P71" s="15">
+      <c r="P71" s="17">
         <v>5.7979529360833674E-3</v>
       </c>
-      <c r="Q71" s="15">
+      <c r="Q71" s="17">
         <v>5.9440758150922698E-3</v>
       </c>
-      <c r="R71" s="15">
+      <c r="R71" s="17">
         <v>1.0672682178439969E-2</v>
       </c>
-      <c r="S71" s="15">
+      <c r="S71" s="17">
         <v>1.3166338195431674E-2</v>
       </c>
-      <c r="T71" s="15">
+      <c r="T71" s="17">
         <v>1.0273264456408587E-2</v>
       </c>
-      <c r="U71" s="15">
+      <c r="U71" s="17">
         <v>1.1459284473580975E-2</v>
       </c>
-      <c r="V71" s="15">
+      <c r="V71" s="17">
         <v>1.0273784895450284E-2</v>
       </c>
-      <c r="W71" s="15">
+      <c r="W71" s="17">
         <v>1.1799059936493149E-2</v>
       </c>
-      <c r="X71" s="15">
+      <c r="X71" s="17">
         <v>1.5180712412366853E-2</v>
       </c>
     </row>
@@ -49484,59 +49503,59 @@
       <c r="A72" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14">
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16">
         <v>0.22831050228310501</v>
       </c>
-      <c r="J72" s="14">
+      <c r="J72" s="16">
         <v>0.1906392694063927</v>
       </c>
-      <c r="K72" s="14">
+      <c r="K72" s="16">
         <v>0.18647260273972602</v>
       </c>
-      <c r="L72" s="14">
+      <c r="L72" s="16">
         <v>6.7876712328767116E-2</v>
       </c>
-      <c r="M72" s="14">
+      <c r="M72" s="16">
         <v>7.476575935480044E-2</v>
       </c>
-      <c r="N72" s="14">
+      <c r="N72" s="16">
         <v>9.6412405035707568E-2</v>
       </c>
-      <c r="O72" s="14">
+      <c r="O72" s="16">
         <v>0.15293804193529958</v>
       </c>
-      <c r="P72" s="14">
+      <c r="P72" s="16">
         <v>0.13941040865139273</v>
       </c>
-      <c r="Q72" s="14">
+      <c r="Q72" s="16">
         <v>0.1534278778672068</v>
       </c>
-      <c r="R72" s="14">
+      <c r="R72" s="16">
         <v>0.15383140488540142</v>
       </c>
-      <c r="S72" s="14">
+      <c r="S72" s="16">
         <v>0.15538589047072227</v>
       </c>
-      <c r="T72" s="14">
+      <c r="T72" s="16">
         <v>0.14838111835914639</v>
       </c>
-      <c r="U72" s="14">
+      <c r="U72" s="16">
         <v>0.15491400651998427</v>
       </c>
-      <c r="V72" s="14">
+      <c r="V72" s="16">
         <v>0.15239085998651261</v>
       </c>
-      <c r="W72" s="14">
+      <c r="W72" s="16">
         <v>0.13133926069138591</v>
       </c>
-      <c r="X72" s="14">
+      <c r="X72" s="16">
         <v>0.13764325363624622</v>
       </c>
     </row>
@@ -49544,65 +49563,65 @@
       <c r="A73" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15">
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17">
         <v>0.11415525114155251</v>
       </c>
-      <c r="G73" s="15">
+      <c r="G73" s="17">
         <v>6.5453767123287668E-2</v>
       </c>
-      <c r="H73" s="15">
+      <c r="H73" s="17">
         <v>8.4758159986470502E-2</v>
       </c>
-      <c r="I73" s="15">
+      <c r="I73" s="17">
         <v>0.17808980213089803</v>
       </c>
-      <c r="J73" s="15">
+      <c r="J73" s="17">
         <v>0.12192381639029079</v>
       </c>
-      <c r="K73" s="15">
+      <c r="K73" s="17">
         <v>8.1248714467892558E-2</v>
       </c>
-      <c r="L73" s="15">
+      <c r="L73" s="17">
         <v>0.15938903548169775</v>
       </c>
-      <c r="M73" s="15">
+      <c r="M73" s="17">
         <v>0.18169781142649755</v>
       </c>
-      <c r="N73" s="15">
+      <c r="N73" s="17">
         <v>0.2058669391554197</v>
       </c>
-      <c r="O73" s="15">
+      <c r="O73" s="17">
         <v>0.22956604290766625</v>
       </c>
-      <c r="P73" s="15">
+      <c r="P73" s="17">
         <v>0.2172995015710637</v>
       </c>
-      <c r="Q73" s="15">
+      <c r="Q73" s="17">
         <v>0.23704950320418605</v>
       </c>
-      <c r="R73" s="15">
+      <c r="R73" s="17">
         <v>0.23271503321770831</v>
       </c>
-      <c r="S73" s="15">
+      <c r="S73" s="17">
         <v>0.24584659524473154</v>
       </c>
-      <c r="T73" s="15">
+      <c r="T73" s="17">
         <v>0.21529025081619735</v>
       </c>
-      <c r="U73" s="15">
+      <c r="U73" s="17">
         <v>0.21381996798613462</v>
       </c>
-      <c r="V73" s="15">
+      <c r="V73" s="17">
         <v>0.23992922634315969</v>
       </c>
-      <c r="W73" s="15">
+      <c r="W73" s="17">
         <v>0.2323315222455867</v>
       </c>
-      <c r="X73" s="15">
+      <c r="X73" s="17">
         <v>0.24297964087912982</v>
       </c>
     </row>

--- a/VerveStacks_BGR/source_data/VerveStacks_BGR.xlsx
+++ b/VerveStacks_BGR/source_data/VerveStacks_BGR.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VerveStacks\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2334204A-75C8-4D9F-BDCB-E3BD1016CDE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4157B902-7471-47BE-B09D-57EC8DB527D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="iamc_data" sheetId="31" r:id="rId1"/>
-    <sheet name="iamc_charts" sheetId="30" r:id="rId2"/>
-    <sheet name="weo_pg" sheetId="29" r:id="rId3"/>
-    <sheet name="re_targets" sheetId="28" r:id="rId4"/>
-    <sheet name="ccs_retrofits" sheetId="27" r:id="rId5"/>
-    <sheet name="Calibration" sheetId="26" r:id="rId6"/>
-    <sheet name="existing_stock" sheetId="25" r:id="rId7"/>
+    <sheet name="iamc_data" sheetId="38" r:id="rId1"/>
+    <sheet name="iamc_charts" sheetId="37" r:id="rId2"/>
+    <sheet name="weo_pg" sheetId="36" r:id="rId3"/>
+    <sheet name="re_targets" sheetId="35" r:id="rId4"/>
+    <sheet name="ccs_retrofits" sheetId="34" r:id="rId5"/>
+    <sheet name="Calibration" sheetId="33" r:id="rId6"/>
+    <sheet name="existing_stock" sheetId="32" r:id="rId7"/>
     <sheet name="historical_data_long" sheetId="5" r:id="rId8"/>
     <sheet name="historical_data" sheetId="4" r:id="rId9"/>
     <sheet name="system_settings" sheetId="1" r:id="rId10"/>
@@ -1459,7 +1459,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EEF94B5-5785-EBDD-1431-D7EC581F066A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{850F4F8E-C74C-D0CD-A234-351883EDB2CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1514,7 +1514,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{508E80D7-C05F-121E-D4B0-4FC641236FED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A41892B4-8388-B44F-33A3-4880ED7127E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1569,7 +1569,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2A9742F-7AC8-72B4-D588-69B6FD915B5E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B89D301-A3C0-FEDC-F1E9-1BF2C0C92E09}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1624,7 +1624,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBE7D6AB-1AB8-20AF-45A2-882CAE6DD572}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FA267BC-70D7-D4D8-8DEA-BDEC963139E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1830,6 +1830,56 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{379AF9E4-F5B8-EBB0-E183-F86045CB9F5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17479963" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>296863</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B04EBD10-A743-7D0D-F25A-6D16FBA13B49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2180,7 +2230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF49BB0-79E7-409A-9DA5-6EBBABBEEB37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA95C08C-2269-4A25-8C32-79C5CF142961}">
   <dimension ref="A1:L638"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -24946,7 +24996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B78C7C5-EE78-41B1-BA90-2E675D8A3ECB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B09EF6F8-0FA6-45BC-AE7D-0A941A060B1B}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -24959,7 +25009,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56351EB6-0433-4BC4-AEA3-0781F60823F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF89CCAD-1142-417D-BDFE-B9E07DB9CEBE}">
   <dimension ref="A1:I129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28179,7 +28229,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19314087-19B4-4D33-A5B2-6089D0CCEF9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F8CC1B-BA29-4157-9968-A7C45F9E2AFE}">
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28856,7 +28906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCFC4E85-AA15-442F-8C40-C705D36805AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB684803-021C-4EF3-90D1-1C346C2A8548}">
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -29798,7 +29848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B7A054F-DDCD-4411-B838-9CADE12D7337}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD422A3-EB90-487C-8991-C71D827DE25A}">
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -30273,7 +30323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3C1F04-B930-4689-A659-EE13FD75A8B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8969C9AF-C74E-4281-9A3F-32C90F41E286}">
   <dimension ref="A1:W95"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -30309,21 +30359,21 @@
         <v>381</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:23" ht="80" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="21" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:23" ht="80" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="22"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:23" ht="80" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="22"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:23" ht="80" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="22"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:23" ht="80" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="22"/>
     </row>
     <row r="9" spans="1:23" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">

--- a/VerveStacks_BGR/source_data/VerveStacks_BGR.xlsx
+++ b/VerveStacks_BGR/source_data/VerveStacks_BGR.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VerveStacks\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4157B902-7471-47BE-B09D-57EC8DB527D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAE0568-E676-427E-909A-DCB378E3A853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="iamc_data" sheetId="38" r:id="rId1"/>
-    <sheet name="iamc_charts" sheetId="37" r:id="rId2"/>
-    <sheet name="weo_pg" sheetId="36" r:id="rId3"/>
-    <sheet name="re_targets" sheetId="35" r:id="rId4"/>
-    <sheet name="ccs_retrofits" sheetId="34" r:id="rId5"/>
-    <sheet name="Calibration" sheetId="33" r:id="rId6"/>
-    <sheet name="existing_stock" sheetId="32" r:id="rId7"/>
+    <sheet name="iamc_data" sheetId="45" r:id="rId1"/>
+    <sheet name="iamc_charts" sheetId="44" r:id="rId2"/>
+    <sheet name="weo_pg" sheetId="43" r:id="rId3"/>
+    <sheet name="re_targets" sheetId="42" r:id="rId4"/>
+    <sheet name="ccs_retrofits" sheetId="41" r:id="rId5"/>
+    <sheet name="Calibration" sheetId="40" r:id="rId6"/>
+    <sheet name="existing_stock" sheetId="39" r:id="rId7"/>
     <sheet name="historical_data_long" sheetId="5" r:id="rId8"/>
     <sheet name="historical_data" sheetId="4" r:id="rId9"/>
     <sheet name="system_settings" sheetId="1" r:id="rId10"/>
@@ -29,6 +29,149 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Amit Kanudia</author>
+  </authors>
+  <commentList>
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{2B676044-F7F3-41B7-BC73-EEA48EDB859F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>💡 Standardized fuel type for VEDA/TIMES model compatibility
+📊 CALCULATION: Technology mapping from GEM fuel types to model categories
+📁 DATA SOURCE: VS_mappings.xlsx (gem_fuel_mapping sheet)
+🔧 METHODOLOGY: GEM fuel types mapped to standard categories: nuclear, gas, coal, hydro, solar, wind, etc.
+✅ QUALITY: All fuel types validated against VEDA conventions. Unmapped fuels flagged for review.
+→ See row 4 for complete methodology</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{CB16AA59-6CB9-4886-9848-4E3B76BD621A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>💡 Plant commissioning year for retirement scheduling
+📊 CALCULATION: GEM commissioning date or estimated for gap-filled plants
+📁 DATA SOURCE: GEM database, gap plants assigned 2022 (latest statistical year)
+🔧 METHODOLOGY: Historical plants use GEM dates. Gap plants represent recent additions not in GEM
+✅ QUALITY: Years validated against realistic ranges (1900-2025). Future plants excluded.
+→ See row 4 for complete methodology</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J10" authorId="0" shapeId="0" xr:uid="{64059AA3-0F9D-44A2-906F-E8CCDAB86DD3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>💡 Output commodity for VEDA/TIMES model linkage
+📊 CALCULATION: Spatial assignment based on grid modeling mode and technology type
+📁 DATA SOURCE: Generated from REZoning zones (grid ON) or country codes (grid OFF)
+🔧 METHODOLOGY: Grid ON: elc_spv-CHE_001 (renewables), e_w123 (thermal). Grid OFF: elc_sol-CHE, ELC
+✅ QUALITY: All assignments verified against spatial boundaries. Commodity names follow VEDA conventions.
+→ See row 4 for complete methodology</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L10" authorId="0" shapeId="0" xr:uid="{700CB635-487B-415A-B2E2-ACAE669B845A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>💡 Capital expenditure in $/kW (capacity-weighted average)
+📊 CALCULATION: Multi-factor: Base cost × Size multiplier × Regional multiplier
+📁 DATA SOURCE: ep_technoeconomic_assumptions.xlsx (costs, size_multipliers, regional_multipliers sheets)
+🔧 METHODOLOGY: Weighted average: SUM(MW × capex) / SUM(MW) by technology group and vintage
+✅ QUALITY: Values validated against international benchmarks. Outliers investigated and documented.
+→ See row 4 for complete methodology</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M10" authorId="0" shapeId="0" xr:uid="{55095C11-A11A-4383-A4ED-7179C8F787AA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>💡 Fixed O&amp;M costs in $/kW-year (capacity-weighted average)
+📊 CALCULATION: Multi-factor: Base cost × Size multiplier × Regional multiplier
+📁 DATA SOURCE: ep_technoeconomic_assumptions.xlsx (costs, size_multipliers, regional_multipliers sheets)
+🔧 METHODOLOGY: Weighted average: SUM(MW × fixom) / SUM(MW) by technology group and vintage
+✅ QUALITY: Includes maintenance, insurance, and fixed labor costs. Regional adjustments applied.
+→ See row 4 for complete methodology</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N10" authorId="0" shapeId="0" xr:uid="{896133F6-2068-4B0A-B906-162EB0960A4B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>💡 Variable O&amp;M costs in $/MWh (capacity-weighted average)
+📊 CALCULATION: Multi-factor: Base cost × Size multiplier × Regional multiplier
+📁 DATA SOURCE: ep_technoeconomic_assumptions.xlsx (costs, size_multipliers, regional_multipliers sheets)
+🔧 METHODOLOGY: Weighted average: SUM(MW × varom) / SUM(MW) by technology group and vintage
+✅ QUALITY: Excludes fuel costs. Covers variable maintenance and consumables only.
+→ See row 4 for complete methodology</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O10" authorId="0" shapeId="0" xr:uid="{C180FEF4-D5D6-48C9-AA9F-F093D90C170C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>💡 Thermal efficiency - electrical output / fuel input (capacity-weighted average)
+📊 CALCULATION: Vintage-based efficiency × Regional multiplier, capacity-weighted
+📁 DATA SOURCE: ep_technoeconomic_assumptions.xlsx (thermal_eff, regional_multipliers sheets)
+🔧 METHODOLOGY: Efficiency by commissioning year and size class. Weighted: SUM(MW × eff) / SUM(MW)
+✅ QUALITY: Range validated (0.25-0.65 for thermal plants). Technology-specific realistic bounds applied.
+→ See row 4 for complete methodology</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Amit Kanudia</author>
@@ -1270,7 +1413,7 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1318,6 +1461,20 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0064C8"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -1390,7 +1547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1409,6 +1566,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1459,7 +1617,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{850F4F8E-C74C-D0CD-A234-351883EDB2CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{519AD263-3550-5080-78F7-082230132EA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1514,7 +1672,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A41892B4-8388-B44F-33A3-4880ED7127E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C0A3F2E-AFC6-CE62-1A35-82886875FE2B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1569,7 +1727,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B89D301-A3C0-FEDC-F1E9-1BF2C0C92E09}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A12C4DD8-0D7E-6EFC-FE24-B4E9FFC649C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1624,7 +1782,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FA267BC-70D7-D4D8-8DEA-BDEC963139E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E44D5449-79CE-678F-072A-FF7E518B9BAD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1880,6 +2038,56 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B04EBD10-A743-7D0D-F25A-6D16FBA13B49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17479963" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>296863</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CD04F11-A554-4E64-CDF7-B151061C9E43}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2230,7 +2438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA95C08C-2269-4A25-8C32-79C5CF142961}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90719D03-9BC2-453E-9503-1524CD3301B2}">
   <dimension ref="A1:L638"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -24996,7 +25204,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B09EF6F8-0FA6-45BC-AE7D-0A941A060B1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6D46E3-40FC-4994-9958-E7B1A73424EC}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -25009,7 +25217,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF89CCAD-1142-417D-BDFE-B9E07DB9CEBE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C763F264-5A50-43E0-8680-8786B58390F0}">
   <dimension ref="A1:I129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -25027,16 +25235,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="2" t="s">
@@ -28229,7 +28437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F8CC1B-BA29-4157-9968-A7C45F9E2AFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB19387-B45B-4FE5-9986-7429546CC7D0}">
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28249,17 +28457,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
     </row>
     <row r="2" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="2" t="s">
@@ -28323,7 +28531,7 @@
       <c r="H4" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="19">
         <v>45343</v>
       </c>
       <c r="J4" s="4" t="s">
@@ -28358,7 +28566,7 @@
       <c r="H5" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="20">
         <v>44949</v>
       </c>
       <c r="J5" s="9" t="s">
@@ -28393,7 +28601,7 @@
       <c r="H6" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="19">
         <v>44949</v>
       </c>
       <c r="J6" s="4" t="s">
@@ -28428,7 +28636,7 @@
       <c r="H7" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="20">
         <v>45343</v>
       </c>
       <c r="J7" s="9" t="s">
@@ -28463,7 +28671,7 @@
       <c r="H8" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="19">
         <v>44949</v>
       </c>
       <c r="J8" s="4" t="s">
@@ -28498,7 +28706,7 @@
       <c r="H9" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="20">
         <v>45343</v>
       </c>
       <c r="J9" s="9" t="s">
@@ -28533,7 +28741,7 @@
       <c r="H10" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="19">
         <v>44949</v>
       </c>
       <c r="J10" s="4" t="s">
@@ -28568,7 +28776,7 @@
       <c r="H11" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="20">
         <v>44949</v>
       </c>
       <c r="J11" s="9" t="s">
@@ -28603,7 +28811,7 @@
       <c r="H12" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="19">
         <v>45343</v>
       </c>
       <c r="J12" s="4" t="s">
@@ -28638,7 +28846,7 @@
       <c r="H13" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="20">
         <v>44949</v>
       </c>
       <c r="J13" s="9" t="s">
@@ -28673,7 +28881,7 @@
       <c r="H14" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="19">
         <v>45343</v>
       </c>
       <c r="J14" s="4" t="s">
@@ -28708,7 +28916,7 @@
       <c r="H15" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="20">
         <v>45343</v>
       </c>
       <c r="J15" s="9" t="s">
@@ -28743,7 +28951,7 @@
       <c r="H16" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="19">
         <v>45343</v>
       </c>
       <c r="J16" s="4" t="s">
@@ -28778,7 +28986,7 @@
       <c r="H17" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I17" s="20">
         <v>45343</v>
       </c>
       <c r="J17" s="9" t="s">
@@ -28813,7 +29021,7 @@
       <c r="H18" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="19">
         <v>45343</v>
       </c>
       <c r="J18" s="4" t="s">
@@ -28848,7 +29056,7 @@
       <c r="H19" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="20">
         <v>45343</v>
       </c>
       <c r="J19" s="9" t="s">
@@ -28883,7 +29091,7 @@
       <c r="H20" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20" s="19">
         <v>45343</v>
       </c>
       <c r="J20" s="4" t="s">
@@ -28906,7 +29114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB684803-021C-4EF3-90D1-1C346C2A8548}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC17F07-293A-42C4-B770-A73D14F02547}">
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28923,16 +29131,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="2" t="s">
@@ -29848,7 +30056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD422A3-EB90-487C-8991-C71D827DE25A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03EE3B1C-62AF-4B0D-A26D-A203FA18B263}">
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -30323,7 +30531,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8969C9AF-C74E-4281-9A3F-32C90F41E286}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BEFCE9-40E9-4BA0-9D59-26A4AB511EF6}">
   <dimension ref="A1:W95"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -30360,21 +30568,21 @@
       </c>
     </row>
     <row r="4" spans="1:23" ht="80" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="22" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="80" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="22"/>
+      <c r="A5" s="23"/>
     </row>
     <row r="6" spans="1:23" ht="80" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="22"/>
+      <c r="A6" s="23"/>
     </row>
     <row r="7" spans="1:23" ht="80" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
     </row>
     <row r="8" spans="1:23" ht="80" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="22"/>
+      <c r="A8" s="23"/>
     </row>
     <row r="9" spans="1:23" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="2" t="s">
@@ -30388,13 +30596,13 @@
       <c r="B10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="16" t="s">
         <v>56</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="16" t="s">
         <v>58</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -30409,22 +30617,22 @@
       <c r="I10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="16" t="s">
         <v>63</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M10" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="N10" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="O10" s="16" t="s">
         <v>68</v>
       </c>
       <c r="P10" s="3" t="s">
@@ -35530,6 +35738,7 @@
     <mergeCell ref="A4:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -45226,31 +45435,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
     </row>
     <row r="2" spans="1:25" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
@@ -48608,76 +48817,76 @@
       <c r="A57" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B57" s="16">
+      <c r="B57" s="17">
         <v>0</v>
       </c>
-      <c r="C57" s="16">
+      <c r="C57" s="17">
         <v>0</v>
       </c>
-      <c r="D57" s="16">
+      <c r="D57" s="17">
         <v>0</v>
       </c>
-      <c r="E57" s="16">
+      <c r="E57" s="17">
         <v>0</v>
       </c>
-      <c r="F57" s="16">
+      <c r="F57" s="17">
         <v>0</v>
       </c>
-      <c r="G57" s="16">
+      <c r="G57" s="17">
         <v>0</v>
       </c>
-      <c r="H57" s="16">
+      <c r="H57" s="17">
         <v>0</v>
       </c>
-      <c r="I57" s="16">
+      <c r="I57" s="17">
         <v>0</v>
       </c>
-      <c r="J57" s="16">
+      <c r="J57" s="17">
         <v>0.22831050228310504</v>
       </c>
-      <c r="K57" s="16">
+      <c r="K57" s="17">
         <v>0.11415525114155252</v>
       </c>
-      <c r="L57" s="16">
+      <c r="L57" s="17">
         <v>0.45662100456621008</v>
       </c>
-      <c r="M57" s="16">
+      <c r="M57" s="17">
         <v>0.68493150684931503</v>
       </c>
-      <c r="N57" s="16">
+      <c r="N57" s="17">
         <v>0.7990867579908677</v>
       </c>
-      <c r="O57" s="16">
+      <c r="O57" s="17">
         <v>0.41856925418569257</v>
       </c>
-      <c r="P57" s="16">
+      <c r="P57" s="17">
         <v>0.57077625570776258</v>
       </c>
-      <c r="Q57" s="16">
+      <c r="Q57" s="17">
         <v>0.61643835616438358</v>
       </c>
-      <c r="R57" s="16">
+      <c r="R57" s="17">
         <v>0.66590563165905636</v>
       </c>
-      <c r="S57" s="16">
+      <c r="S57" s="17">
         <v>0.91324200913242015</v>
       </c>
-      <c r="T57" s="16">
+      <c r="T57" s="17">
         <v>2.5603392041748205</v>
       </c>
-      <c r="U57" s="16">
+      <c r="U57" s="17">
         <v>3.4627092846270933</v>
       </c>
-      <c r="V57" s="16">
+      <c r="V57" s="17">
         <v>3.8812785388127851</v>
       </c>
-      <c r="W57" s="16">
+      <c r="W57" s="17">
         <v>5.9132420091324196</v>
       </c>
-      <c r="X57" s="16">
+      <c r="X57" s="17">
         <v>5.1141552511415531</v>
       </c>
-      <c r="Y57" s="16">
+      <c r="Y57" s="17">
         <v>4.9771689497716896</v>
       </c>
     </row>
@@ -48685,76 +48894,76 @@
       <c r="A58" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B58" s="17">
+      <c r="B58" s="18">
         <v>0.34409073920603195</v>
       </c>
-      <c r="C58" s="17">
+      <c r="C58" s="18">
         <v>0.39609028421001313</v>
       </c>
-      <c r="D58" s="17">
+      <c r="D58" s="18">
         <v>0.34896569655015519</v>
       </c>
-      <c r="E58" s="17">
+      <c r="E58" s="18">
         <v>0.3908090804205463</v>
       </c>
-      <c r="F58" s="17">
+      <c r="F58" s="18">
         <v>0.3922789539227895</v>
       </c>
-      <c r="G58" s="17">
+      <c r="G58" s="18">
         <v>0.38314653383146535</v>
       </c>
-      <c r="H58" s="17">
+      <c r="H58" s="18">
         <v>0.396222498962225</v>
       </c>
-      <c r="I58" s="17">
+      <c r="I58" s="18">
         <v>0.46430053964300544</v>
       </c>
-      <c r="J58" s="17">
+      <c r="J58" s="18">
         <v>0.48111249481112495</v>
       </c>
-      <c r="K58" s="17">
+      <c r="K58" s="18">
         <v>0.42782873873654675</v>
       </c>
-      <c r="L58" s="17">
+      <c r="L58" s="18">
         <v>0.45844586648499153</v>
       </c>
-      <c r="M58" s="17">
+      <c r="M58" s="18">
         <v>0.49726171897578175</v>
       </c>
-      <c r="N58" s="17">
+      <c r="N58" s="18">
         <v>0.41309028379862439</v>
       </c>
-      <c r="O58" s="17">
+      <c r="O58" s="18">
         <v>0.36227010141320837</v>
       </c>
-      <c r="P58" s="17">
+      <c r="P58" s="18">
         <v>0.41231328844516674</v>
       </c>
-      <c r="Q58" s="17">
+      <c r="Q58" s="18">
         <v>0.50828415182197206</v>
       </c>
-      <c r="R58" s="17">
+      <c r="R58" s="18">
         <v>0.4369935206742831</v>
       </c>
-      <c r="S58" s="17">
+      <c r="S58" s="18">
         <v>0.46734400271649285</v>
       </c>
-      <c r="T58" s="17">
+      <c r="T58" s="18">
         <v>0.41685655309224456</v>
       </c>
-      <c r="U58" s="17">
+      <c r="U58" s="18">
         <v>0.38424076705180099</v>
       </c>
-      <c r="V58" s="17">
+      <c r="V58" s="18">
         <v>0.30180771877150181</v>
       </c>
-      <c r="W58" s="17">
+      <c r="W58" s="18">
         <v>0.38178341330902782</v>
       </c>
-      <c r="X58" s="17">
+      <c r="X58" s="18">
         <v>0.48677943686388042</v>
       </c>
-      <c r="Y58" s="17">
+      <c r="Y58" s="18">
         <v>0.25824553878597789</v>
       </c>
     </row>
@@ -48762,76 +48971,76 @@
       <c r="A59" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B59" s="16">
+      <c r="B59" s="17">
         <v>0.19642930601834707</v>
       </c>
-      <c r="C59" s="16">
+      <c r="C59" s="17">
         <v>0.19642930601834707</v>
       </c>
-      <c r="D59" s="16">
+      <c r="D59" s="17">
         <v>0.1583775556378296</v>
       </c>
-      <c r="E59" s="16">
+      <c r="E59" s="17">
         <v>0.18100292072894811</v>
       </c>
-      <c r="F59" s="16">
+      <c r="F59" s="17">
         <v>0.15323542720802993</v>
       </c>
-      <c r="G59" s="16">
+      <c r="G59" s="17">
         <v>0.1779176436710683</v>
       </c>
-      <c r="H59" s="16">
+      <c r="H59" s="17">
         <v>0.22213994816734542</v>
       </c>
-      <c r="I59" s="16">
+      <c r="I59" s="17">
         <v>0.23228111971411552</v>
       </c>
-      <c r="J59" s="16">
+      <c r="J59" s="17">
         <v>0.23426642842962081</v>
       </c>
-      <c r="K59" s="16">
+      <c r="K59" s="17">
         <v>0.19456025411951558</v>
       </c>
-      <c r="L59" s="16">
+      <c r="L59" s="17">
         <v>0.19555290847726822</v>
       </c>
-      <c r="M59" s="16">
+      <c r="M59" s="17">
         <v>0.19786910197869106</v>
       </c>
-      <c r="N59" s="16">
+      <c r="N59" s="17">
         <v>0.22450532724505329</v>
       </c>
-      <c r="O59" s="16">
+      <c r="O59" s="17">
         <v>0.2226027397260274</v>
       </c>
-      <c r="P59" s="16">
+      <c r="P59" s="17">
         <v>0.20357686453576868</v>
       </c>
-      <c r="Q59" s="16">
+      <c r="Q59" s="17">
         <v>0.17694063926940642</v>
       </c>
-      <c r="R59" s="16">
+      <c r="R59" s="17">
         <v>0.1950152207001522</v>
       </c>
-      <c r="S59" s="16">
+      <c r="S59" s="17">
         <v>0.18359969558599698</v>
       </c>
-      <c r="T59" s="16">
+      <c r="T59" s="17">
         <v>0.19216133942161343</v>
       </c>
-      <c r="U59" s="16">
+      <c r="U59" s="17">
         <v>0.20452815829528159</v>
       </c>
-      <c r="V59" s="16">
+      <c r="V59" s="17">
         <v>0.21784627092846273</v>
       </c>
-      <c r="W59" s="16">
+      <c r="W59" s="17">
         <v>0.29014459665144599</v>
       </c>
-      <c r="X59" s="16">
+      <c r="X59" s="17">
         <v>0.1950152207001522</v>
       </c>
-      <c r="Y59" s="16">
+      <c r="Y59" s="17">
         <v>0.14840182648401828</v>
       </c>
     </row>
@@ -48839,76 +49048,76 @@
       <c r="A60" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="B60" s="17">
+      <c r="B60" s="18">
         <v>0.29434148088459128</v>
       </c>
-      <c r="C60" s="17">
+      <c r="C60" s="18">
         <v>0.22423352902804958</v>
       </c>
-      <c r="D60" s="17">
+      <c r="D60" s="18">
         <v>0.22408253001860307</v>
       </c>
-      <c r="E60" s="17">
+      <c r="E60" s="18">
         <v>0.20686315206863154</v>
       </c>
-      <c r="F60" s="17">
+      <c r="F60" s="18">
         <v>0.18103408514367419</v>
       </c>
-      <c r="G60" s="17">
+      <c r="G60" s="18">
         <v>0.24791291914579586</v>
       </c>
-      <c r="H60" s="17">
+      <c r="H60" s="18">
         <v>0.2427240440939071</v>
       </c>
-      <c r="I60" s="17">
+      <c r="I60" s="18">
         <v>0.16072605011472321</v>
       </c>
-      <c r="J60" s="17">
+      <c r="J60" s="18">
         <v>0.1502326182476092</v>
       </c>
-      <c r="K60" s="17">
+      <c r="K60" s="18">
         <v>0.18296846327828276</v>
       </c>
-      <c r="L60" s="17">
+      <c r="L60" s="18">
         <v>0.26339491433119683</v>
       </c>
-      <c r="M60" s="17">
+      <c r="M60" s="18">
         <v>0.14626141552511415</v>
       </c>
-      <c r="N60" s="17">
+      <c r="N60" s="18">
         <v>0.15647142182333496</v>
       </c>
-      <c r="O60" s="17">
+      <c r="O60" s="18">
         <v>0.19708855325293684</v>
       </c>
-      <c r="P60" s="17">
+      <c r="P60" s="18">
         <v>0.22250599798777185</v>
       </c>
-      <c r="Q60" s="17">
+      <c r="Q60" s="18">
         <v>0.27329541057193724</v>
       </c>
-      <c r="R60" s="17">
+      <c r="R60" s="18">
         <v>0.18767897221577279</v>
       </c>
-      <c r="S60" s="17">
+      <c r="S60" s="18">
         <v>0.12870890865760704</v>
       </c>
-      <c r="T60" s="17">
+      <c r="T60" s="18">
         <v>0.23422292564900221</v>
       </c>
-      <c r="U60" s="17">
+      <c r="U60" s="18">
         <v>0.13325692663137406</v>
       </c>
-      <c r="V60" s="17">
+      <c r="V60" s="18">
         <v>0.12825410686023031</v>
       </c>
-      <c r="W60" s="17">
+      <c r="W60" s="18">
         <v>0.21921446633557101</v>
       </c>
-      <c r="X60" s="17">
+      <c r="X60" s="18">
         <v>0.17145847997545438</v>
       </c>
-      <c r="Y60" s="17">
+      <c r="Y60" s="18">
         <v>0.14032522966412186</v>
       </c>
     </row>
@@ -48916,76 +49125,76 @@
       <c r="A61" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B61" s="16">
+      <c r="B61" s="17">
         <v>0.58791571267802401</v>
       </c>
-      <c r="C61" s="16">
+      <c r="C61" s="17">
         <v>0.632219592016247</v>
       </c>
-      <c r="D61" s="16">
+      <c r="D61" s="17">
         <v>0.84860999194198217</v>
       </c>
-      <c r="E61" s="16">
+      <c r="E61" s="17">
         <v>0.72522159548751008</v>
       </c>
-      <c r="F61" s="16">
+      <c r="F61" s="17">
         <v>0.70591592801504166</v>
       </c>
-      <c r="G61" s="16">
+      <c r="G61" s="17">
         <v>0.78271890948160072</v>
       </c>
-      <c r="H61" s="16">
+      <c r="H61" s="17">
         <v>0.81797273704002138</v>
       </c>
-      <c r="I61" s="16">
+      <c r="I61" s="17">
         <v>0.88425019931869253</v>
       </c>
-      <c r="J61" s="16">
+      <c r="J61" s="17">
         <v>0.95250175158850958</v>
       </c>
-      <c r="K61" s="16">
+      <c r="K61" s="17">
         <v>0.92169795366142393</v>
       </c>
-      <c r="L61" s="16">
+      <c r="L61" s="17">
         <v>0.92109395762363799</v>
       </c>
-      <c r="M61" s="16">
+      <c r="M61" s="17">
         <v>0.98511753762895304</v>
       </c>
-      <c r="N61" s="16">
+      <c r="N61" s="17">
         <v>0.94312558272968505</v>
       </c>
-      <c r="O61" s="16">
+      <c r="O61" s="17">
         <v>0.81695954983626218</v>
       </c>
-      <c r="P61" s="16">
+      <c r="P61" s="17">
         <v>0.91497163414971638</v>
       </c>
-      <c r="Q61" s="16">
+      <c r="Q61" s="17">
         <v>0.88672109220054429</v>
       </c>
-      <c r="R61" s="16">
+      <c r="R61" s="17">
         <v>0.91440094569223274</v>
       </c>
-      <c r="S61" s="16">
+      <c r="S61" s="17">
         <v>0.90107317525438657</v>
       </c>
-      <c r="T61" s="16">
+      <c r="T61" s="17">
         <v>0.91608169199663791</v>
       </c>
-      <c r="U61" s="16">
+      <c r="U61" s="17">
         <v>0.94050296462891025</v>
       </c>
-      <c r="V61" s="16">
+      <c r="V61" s="17">
         <v>0.9444785206388151</v>
       </c>
-      <c r="W61" s="16">
+      <c r="W61" s="17">
         <v>0.93652740861900541</v>
       </c>
-      <c r="X61" s="16">
+      <c r="X61" s="17">
         <v>0.93482359890047495</v>
       </c>
-      <c r="Y61" s="16">
+      <c r="Y61" s="17">
         <v>0.91778550171516859</v>
       </c>
     </row>
@@ -48993,76 +49202,76 @@
       <c r="A62" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="B62" s="17">
+      <c r="B62" s="18">
         <v>65535</v>
       </c>
-      <c r="C62" s="17">
+      <c r="C62" s="18">
         <v>65535</v>
       </c>
-      <c r="D62" s="17">
+      <c r="D62" s="18">
         <v>65535</v>
       </c>
-      <c r="E62" s="17">
+      <c r="E62" s="18">
         <v>65535</v>
       </c>
-      <c r="F62" s="17">
+      <c r="F62" s="18">
         <v>65535</v>
       </c>
-      <c r="G62" s="17">
+      <c r="G62" s="18">
         <v>65535</v>
       </c>
-      <c r="H62" s="17">
+      <c r="H62" s="18">
         <v>65535</v>
       </c>
-      <c r="I62" s="17">
+      <c r="I62" s="18">
         <v>65535</v>
       </c>
-      <c r="J62" s="17">
+      <c r="J62" s="18">
         <v>65535</v>
       </c>
-      <c r="K62" s="17">
+      <c r="K62" s="18">
         <v>65535</v>
       </c>
-      <c r="L62" s="17">
+      <c r="L62" s="18">
         <v>65535</v>
       </c>
-      <c r="M62" s="17">
+      <c r="M62" s="18">
         <v>65535</v>
       </c>
-      <c r="N62" s="17">
+      <c r="N62" s="18">
         <v>65535</v>
       </c>
-      <c r="O62" s="17">
+      <c r="O62" s="18">
         <v>65535</v>
       </c>
-      <c r="P62" s="17">
+      <c r="P62" s="18">
         <v>65535</v>
       </c>
-      <c r="Q62" s="17">
+      <c r="Q62" s="18">
         <v>65535</v>
       </c>
-      <c r="R62" s="17">
+      <c r="R62" s="18">
         <v>65535</v>
       </c>
-      <c r="S62" s="17">
+      <c r="S62" s="18">
         <v>65535</v>
       </c>
-      <c r="T62" s="17">
+      <c r="T62" s="18">
         <v>65535</v>
       </c>
-      <c r="U62" s="17">
+      <c r="U62" s="18">
         <v>65535</v>
       </c>
-      <c r="V62" s="17">
+      <c r="V62" s="18">
         <v>65535</v>
       </c>
-      <c r="W62" s="17">
+      <c r="W62" s="18">
         <v>65535</v>
       </c>
-      <c r="X62" s="17">
+      <c r="X62" s="18">
         <v>65535</v>
       </c>
-      <c r="Y62" s="17">
+      <c r="Y62" s="18">
         <v>65535</v>
       </c>
     </row>
@@ -49070,56 +49279,56 @@
       <c r="A63" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B63" s="16"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="16"/>
-      <c r="I63" s="16"/>
-      <c r="J63" s="16"/>
-      <c r="K63" s="16"/>
-      <c r="L63" s="16">
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="17"/>
+      <c r="L63" s="17">
         <v>3.8051750380517509E-2</v>
       </c>
-      <c r="M63" s="16">
+      <c r="M63" s="17">
         <v>7.6103500761035017E-2</v>
       </c>
-      <c r="N63" s="16">
+      <c r="N63" s="17">
         <v>9.6783799880881469E-2</v>
       </c>
-      <c r="O63" s="16">
+      <c r="O63" s="17">
         <v>0.1525728837372673</v>
       </c>
-      <c r="P63" s="16">
+      <c r="P63" s="17">
         <v>0.13964622955180209</v>
       </c>
-      <c r="Q63" s="16">
+      <c r="Q63" s="17">
         <v>0.15294587046149752</v>
       </c>
-      <c r="R63" s="16">
+      <c r="R63" s="17">
         <v>0.1540541738706388</v>
       </c>
-      <c r="S63" s="16">
+      <c r="S63" s="17">
         <v>0.15516247727978011</v>
       </c>
-      <c r="T63" s="16">
+      <c r="T63" s="17">
         <v>0.14851265682493239</v>
       </c>
-      <c r="U63" s="16">
+      <c r="U63" s="17">
         <v>0.15586582367404284</v>
       </c>
-      <c r="V63" s="16">
+      <c r="V63" s="17">
         <v>0.15255292652552924</v>
       </c>
-      <c r="W63" s="16">
+      <c r="W63" s="17">
         <v>0.13213245604573401</v>
       </c>
-      <c r="X63" s="16">
+      <c r="X63" s="17">
         <v>0.13711751430220961</v>
       </c>
-      <c r="Y63" s="16">
+      <c r="Y63" s="17">
         <v>0.13667567483614451</v>
       </c>
     </row>
@@ -49127,66 +49336,66 @@
       <c r="A64" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17">
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18">
         <v>0</v>
       </c>
-      <c r="H64" s="17">
+      <c r="H64" s="18">
         <v>7.6103500761035017E-2</v>
       </c>
-      <c r="I64" s="17">
+      <c r="I64" s="18">
         <v>0.19025875190258754</v>
       </c>
-      <c r="J64" s="17">
+      <c r="J64" s="18">
         <v>0.12453300124533001</v>
       </c>
-      <c r="K64" s="17">
+      <c r="K64" s="18">
         <v>8.3022000830220002E-2</v>
       </c>
-      <c r="L64" s="17">
+      <c r="L64" s="18">
         <v>0.15841953219644023</v>
       </c>
-      <c r="M64" s="17">
+      <c r="M64" s="18">
         <v>0.18180280737358362</v>
       </c>
-      <c r="N64" s="17">
+      <c r="N64" s="18">
         <v>0.20480795057749127</v>
       </c>
-      <c r="O64" s="17">
+      <c r="O64" s="18">
         <v>0.22998925597636316</v>
       </c>
-      <c r="P64" s="17">
+      <c r="P64" s="18">
         <v>0.21689497716894979</v>
       </c>
-      <c r="Q64" s="17">
+      <c r="Q64" s="18">
         <v>0.23646444879321593</v>
       </c>
-      <c r="R64" s="17">
+      <c r="R64" s="18">
         <v>0.23157208088714937</v>
       </c>
-      <c r="S64" s="17">
+      <c r="S64" s="18">
         <v>0.24461839530332682</v>
       </c>
-      <c r="T64" s="17">
+      <c r="T64" s="18">
         <v>0.21526418786692761</v>
       </c>
-      <c r="U64" s="17">
+      <c r="U64" s="18">
         <v>0.21526418786692761</v>
       </c>
-      <c r="V64" s="17">
+      <c r="V64" s="18">
         <v>0.24135681669928247</v>
       </c>
-      <c r="W64" s="17">
+      <c r="W64" s="18">
         <v>0.23320287018917157</v>
       </c>
-      <c r="X64" s="17">
+      <c r="X64" s="18">
         <v>0.23483365949119375</v>
       </c>
-      <c r="Y64" s="17">
+      <c r="Y64" s="18">
         <v>0.25277234181343772</v>
       </c>
     </row>
@@ -49273,57 +49482,57 @@
       <c r="A68" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="16"/>
-      <c r="J68" s="16">
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="17">
         <v>0.30441400304414001</v>
       </c>
-      <c r="K68" s="16">
+      <c r="K68" s="17">
         <v>0.10147133434804669</v>
       </c>
-      <c r="L68" s="16">
+      <c r="L68" s="17">
         <v>0.40447488584474894</v>
       </c>
-      <c r="M68" s="16">
+      <c r="M68" s="17">
         <v>0.5811540058115402</v>
       </c>
-      <c r="N68" s="16">
+      <c r="N68" s="17">
         <v>0.53816046966731901</v>
       </c>
-      <c r="O68" s="16">
+      <c r="O68" s="17">
         <v>0.37067553048616708</v>
       </c>
-      <c r="P68" s="16">
+      <c r="P68" s="17">
         <v>0.57077625570776258</v>
       </c>
-      <c r="Q68" s="16">
+      <c r="Q68" s="17">
         <v>0.57500422797226458</v>
       </c>
-      <c r="R68" s="16">
+      <c r="R68" s="17">
         <v>0.70696146759593048</v>
       </c>
-      <c r="S68" s="16">
+      <c r="S68" s="17">
         <v>0.86924428402751963</v>
       </c>
-      <c r="T68" s="16">
+      <c r="T68" s="17">
         <v>2.5863099724480505</v>
       </c>
-      <c r="U68" s="16">
+      <c r="U68" s="17">
         <v>3.6549813955986812</v>
       </c>
-      <c r="V68" s="16">
+      <c r="V68" s="17">
         <v>4.036889720525596</v>
       </c>
-      <c r="W68" s="16">
+      <c r="W68" s="17">
         <v>6.2453375126974553</v>
       </c>
-      <c r="X68" s="16">
+      <c r="X68" s="17">
         <v>3.2548137163984849</v>
       </c>
     </row>
@@ -49331,73 +49540,73 @@
       <c r="A69" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="B69" s="17">
+      <c r="B69" s="18">
         <v>0.17918731176527739</v>
       </c>
-      <c r="C69" s="17">
+      <c r="C69" s="18">
         <v>0.14535545467936098</v>
       </c>
-      <c r="D69" s="17">
+      <c r="D69" s="18">
         <v>0.15845780240593327</v>
       </c>
-      <c r="E69" s="17">
+      <c r="E69" s="18">
         <v>0.1498316039834055</v>
       </c>
-      <c r="F69" s="17">
+      <c r="F69" s="18">
         <v>0.1347902156764661</v>
       </c>
-      <c r="G69" s="17">
+      <c r="G69" s="18">
         <v>0.18958653994151151</v>
       </c>
-      <c r="H69" s="17">
+      <c r="H69" s="18">
         <v>0.18353719344825822</v>
       </c>
-      <c r="I69" s="17">
+      <c r="I69" s="18">
         <v>0.12836507928947488</v>
       </c>
-      <c r="J69" s="17">
+      <c r="J69" s="18">
         <v>0.12535509016122517</v>
       </c>
-      <c r="K69" s="17">
+      <c r="K69" s="18">
         <v>0.15416139825537606</v>
       </c>
-      <c r="L69" s="17">
+      <c r="L69" s="18">
         <v>0.21319901365069094</v>
       </c>
-      <c r="M69" s="17">
+      <c r="M69" s="18">
         <v>0.13556538436675425</v>
       </c>
-      <c r="N69" s="17">
+      <c r="N69" s="18">
         <v>0.1426745416205524</v>
       </c>
-      <c r="O69" s="17">
+      <c r="O69" s="18">
         <v>0.17089921406444017</v>
       </c>
-      <c r="P69" s="17">
+      <c r="P69" s="18">
         <v>0.18308207829936693</v>
       </c>
-      <c r="Q69" s="17">
+      <c r="Q69" s="18">
         <v>0.21797454043557021</v>
       </c>
-      <c r="R69" s="17">
+      <c r="R69" s="18">
         <v>0.16178813238750592</v>
       </c>
-      <c r="S69" s="17">
+      <c r="S69" s="18">
         <v>0.11826549026371555</v>
       </c>
-      <c r="T69" s="17">
+      <c r="T69" s="18">
         <v>0.18320015783762453</v>
       </c>
-      <c r="U69" s="17">
+      <c r="U69" s="18">
         <v>0.11430375923833559</v>
       </c>
-      <c r="V69" s="17">
+      <c r="V69" s="18">
         <v>0.11225524213694742</v>
       </c>
-      <c r="W69" s="17">
+      <c r="W69" s="18">
         <v>0.1716829439171017</v>
       </c>
-      <c r="X69" s="17">
+      <c r="X69" s="18">
         <v>0.13069358514235713</v>
       </c>
     </row>
@@ -49405,73 +49614,73 @@
       <c r="A70" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B70" s="16">
+      <c r="B70" s="17">
         <v>0.58751816400088952</v>
       </c>
-      <c r="C70" s="16">
+      <c r="C70" s="17">
         <v>0.63195855763612019</v>
       </c>
-      <c r="D70" s="16">
+      <c r="D70" s="17">
         <v>0.84807034848805107</v>
       </c>
-      <c r="E70" s="16">
+      <c r="E70" s="17">
         <v>0.72468873612271401</v>
       </c>
-      <c r="F70" s="16">
+      <c r="F70" s="17">
         <v>0.70518756353607848</v>
       </c>
-      <c r="G70" s="16">
+      <c r="G70" s="17">
         <v>0.78226961776024206</v>
       </c>
-      <c r="H70" s="16">
+      <c r="H70" s="17">
         <v>0.81749754243287398</v>
       </c>
-      <c r="I70" s="16">
+      <c r="I70" s="17">
         <v>0.88349648121868596</v>
       </c>
-      <c r="J70" s="16">
+      <c r="J70" s="17">
         <v>0.95119319991890894</v>
       </c>
-      <c r="K70" s="16">
+      <c r="K70" s="17">
         <v>0.92048229990249752</v>
       </c>
-      <c r="L70" s="16">
+      <c r="L70" s="17">
         <v>0.92005994960757642</v>
       </c>
-      <c r="M70" s="16">
+      <c r="M70" s="17">
         <v>0.98431753019201262</v>
       </c>
-      <c r="N70" s="16">
+      <c r="N70" s="17">
         <v>0.94540432280661413</v>
       </c>
-      <c r="O70" s="16">
+      <c r="O70" s="17">
         <v>0.81619276686525755</v>
       </c>
-      <c r="P70" s="16">
+      <c r="P70" s="17">
         <v>0.91711461765215874</v>
       </c>
-      <c r="Q70" s="16">
+      <c r="Q70" s="17">
         <v>0.88913935610658323</v>
       </c>
-      <c r="R70" s="16">
+      <c r="R70" s="17">
         <v>0.91556341739152636</v>
       </c>
-      <c r="S70" s="16">
+      <c r="S70" s="17">
         <v>0.90218624426321981</v>
       </c>
-      <c r="T70" s="16">
+      <c r="T70" s="17">
         <v>0.91672584775055033</v>
       </c>
-      <c r="U70" s="16">
+      <c r="U70" s="17">
         <v>0.942110199083116</v>
       </c>
-      <c r="V70" s="16">
+      <c r="V70" s="17">
         <v>0.94612082701666678</v>
       </c>
-      <c r="W70" s="16">
+      <c r="W70" s="17">
         <v>0.9382181082323805</v>
       </c>
-      <c r="X70" s="16">
+      <c r="X70" s="17">
         <v>0.93680249206717758</v>
       </c>
     </row>
@@ -49479,73 +49688,73 @@
       <c r="A71" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="B71" s="17">
+      <c r="B71" s="18">
         <v>1.3728687025740881E-2</v>
       </c>
-      <c r="C71" s="17">
+      <c r="C71" s="18">
         <v>8.9246408872480296E-3</v>
       </c>
-      <c r="D71" s="17">
+      <c r="D71" s="18">
         <v>1.4064542368890371E-2</v>
       </c>
-      <c r="E71" s="17">
+      <c r="E71" s="18">
         <v>1.3440969291696423E-2</v>
       </c>
-      <c r="F71" s="17">
+      <c r="F71" s="18">
         <v>1.4367639360976603E-2</v>
       </c>
-      <c r="G71" s="17">
+      <c r="G71" s="18">
         <v>1.06544901065449E-2</v>
       </c>
-      <c r="H71" s="17">
+      <c r="H71" s="18">
         <v>6.8721033906174785E-3</v>
       </c>
-      <c r="I71" s="17">
+      <c r="I71" s="18">
         <v>1.3383397499030053E-2</v>
       </c>
-      <c r="J71" s="17">
+      <c r="J71" s="18">
         <v>6.8134032678754683E-3</v>
       </c>
-      <c r="K71" s="17">
+      <c r="K71" s="18">
         <v>8.974387151398696E-3</v>
       </c>
-      <c r="L71" s="17">
+      <c r="L71" s="18">
         <v>1.0171012962918537E-2</v>
       </c>
-      <c r="M71" s="17">
+      <c r="M71" s="18">
         <v>4.0275281549390085E-3</v>
       </c>
-      <c r="N71" s="17">
+      <c r="N71" s="18">
         <v>5.4770281784942507E-3</v>
       </c>
-      <c r="O71" s="17">
+      <c r="O71" s="18">
         <v>5.9193423561722108E-3</v>
       </c>
-      <c r="P71" s="17">
+      <c r="P71" s="18">
         <v>5.7979529360833674E-3</v>
       </c>
-      <c r="Q71" s="17">
+      <c r="Q71" s="18">
         <v>5.9440758150922698E-3</v>
       </c>
-      <c r="R71" s="17">
+      <c r="R71" s="18">
         <v>1.0672682178439969E-2</v>
       </c>
-      <c r="S71" s="17">
+      <c r="S71" s="18">
         <v>1.3166338195431674E-2</v>
       </c>
-      <c r="T71" s="17">
+      <c r="T71" s="18">
         <v>1.0273264456408587E-2</v>
       </c>
-      <c r="U71" s="17">
+      <c r="U71" s="18">
         <v>1.1459284473580975E-2</v>
       </c>
-      <c r="V71" s="17">
+      <c r="V71" s="18">
         <v>1.0273784895450284E-2</v>
       </c>
-      <c r="W71" s="17">
+      <c r="W71" s="18">
         <v>1.1799059936493149E-2</v>
       </c>
-      <c r="X71" s="17">
+      <c r="X71" s="18">
         <v>1.5180712412366853E-2</v>
       </c>
     </row>
@@ -49553,59 +49762,59 @@
       <c r="A72" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16">
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17">
         <v>0.22831050228310501</v>
       </c>
-      <c r="J72" s="16">
+      <c r="J72" s="17">
         <v>0.1906392694063927</v>
       </c>
-      <c r="K72" s="16">
+      <c r="K72" s="17">
         <v>0.18647260273972602</v>
       </c>
-      <c r="L72" s="16">
+      <c r="L72" s="17">
         <v>6.7876712328767116E-2</v>
       </c>
-      <c r="M72" s="16">
+      <c r="M72" s="17">
         <v>7.476575935480044E-2</v>
       </c>
-      <c r="N72" s="16">
+      <c r="N72" s="17">
         <v>9.6412405035707568E-2</v>
       </c>
-      <c r="O72" s="16">
+      <c r="O72" s="17">
         <v>0.15293804193529958</v>
       </c>
-      <c r="P72" s="16">
+      <c r="P72" s="17">
         <v>0.13941040865139273</v>
       </c>
-      <c r="Q72" s="16">
+      <c r="Q72" s="17">
         <v>0.1534278778672068</v>
       </c>
-      <c r="R72" s="16">
+      <c r="R72" s="17">
         <v>0.15383140488540142</v>
       </c>
-      <c r="S72" s="16">
+      <c r="S72" s="17">
         <v>0.15538589047072227</v>
       </c>
-      <c r="T72" s="16">
+      <c r="T72" s="17">
         <v>0.14838111835914639</v>
       </c>
-      <c r="U72" s="16">
+      <c r="U72" s="17">
         <v>0.15491400651998427</v>
       </c>
-      <c r="V72" s="16">
+      <c r="V72" s="17">
         <v>0.15239085998651261</v>
       </c>
-      <c r="W72" s="16">
+      <c r="W72" s="17">
         <v>0.13133926069138591</v>
       </c>
-      <c r="X72" s="16">
+      <c r="X72" s="17">
         <v>0.13764325363624622</v>
       </c>
     </row>
@@ -49613,65 +49822,65 @@
       <c r="A73" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="B73" s="17"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="17">
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18">
         <v>0.11415525114155251</v>
       </c>
-      <c r="G73" s="17">
+      <c r="G73" s="18">
         <v>6.5453767123287668E-2</v>
       </c>
-      <c r="H73" s="17">
+      <c r="H73" s="18">
         <v>8.4758159986470502E-2</v>
       </c>
-      <c r="I73" s="17">
+      <c r="I73" s="18">
         <v>0.17808980213089803</v>
       </c>
-      <c r="J73" s="17">
+      <c r="J73" s="18">
         <v>0.12192381639029079</v>
       </c>
-      <c r="K73" s="17">
+      <c r="K73" s="18">
         <v>8.1248714467892558E-2</v>
       </c>
-      <c r="L73" s="17">
+      <c r="L73" s="18">
         <v>0.15938903548169775</v>
       </c>
-      <c r="M73" s="17">
+      <c r="M73" s="18">
         <v>0.18169781142649755</v>
       </c>
-      <c r="N73" s="17">
+      <c r="N73" s="18">
         <v>0.2058669391554197</v>
       </c>
-      <c r="O73" s="17">
+      <c r="O73" s="18">
         <v>0.22956604290766625</v>
       </c>
-      <c r="P73" s="17">
+      <c r="P73" s="18">
         <v>0.2172995015710637</v>
       </c>
-      <c r="Q73" s="17">
+      <c r="Q73" s="18">
         <v>0.23704950320418605</v>
       </c>
-      <c r="R73" s="17">
+      <c r="R73" s="18">
         <v>0.23271503321770831</v>
       </c>
-      <c r="S73" s="17">
+      <c r="S73" s="18">
         <v>0.24584659524473154</v>
       </c>
-      <c r="T73" s="17">
+      <c r="T73" s="18">
         <v>0.21529025081619735</v>
       </c>
-      <c r="U73" s="17">
+      <c r="U73" s="18">
         <v>0.21381996798613462</v>
       </c>
-      <c r="V73" s="17">
+      <c r="V73" s="18">
         <v>0.23992922634315969</v>
       </c>
-      <c r="W73" s="17">
+      <c r="W73" s="18">
         <v>0.2323315222455867</v>
       </c>
-      <c r="X73" s="17">
+      <c r="X73" s="18">
         <v>0.24297964087912982</v>
       </c>
     </row>

--- a/VerveStacks_BGR/source_data/VerveStacks_BGR.xlsx
+++ b/VerveStacks_BGR/source_data/VerveStacks_BGR.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VerveStacks\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAE0568-E676-427E-909A-DCB378E3A853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776B9635-1C3B-4CEC-BB8B-690072DDD8A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="iamc_data" sheetId="45" r:id="rId1"/>
-    <sheet name="iamc_charts" sheetId="44" r:id="rId2"/>
-    <sheet name="weo_pg" sheetId="43" r:id="rId3"/>
-    <sheet name="re_targets" sheetId="42" r:id="rId4"/>
-    <sheet name="ccs_retrofits" sheetId="41" r:id="rId5"/>
-    <sheet name="Calibration" sheetId="40" r:id="rId6"/>
-    <sheet name="existing_stock" sheetId="39" r:id="rId7"/>
+    <sheet name="iamc_data" sheetId="52" r:id="rId1"/>
+    <sheet name="iamc_charts" sheetId="51" r:id="rId2"/>
+    <sheet name="weo_pg" sheetId="50" r:id="rId3"/>
+    <sheet name="re_targets" sheetId="49" r:id="rId4"/>
+    <sheet name="ccs_retrofits" sheetId="48" r:id="rId5"/>
+    <sheet name="Calibration" sheetId="47" r:id="rId6"/>
+    <sheet name="existing_stock" sheetId="46" r:id="rId7"/>
     <sheet name="historical_data_long" sheetId="5" r:id="rId8"/>
     <sheet name="historical_data" sheetId="4" r:id="rId9"/>
     <sheet name="system_settings" sheetId="1" r:id="rId10"/>
@@ -34,7 +34,7 @@
     <author>Amit Kanudia</author>
   </authors>
   <commentList>
-    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{2B676044-F7F3-41B7-BC73-EEA48EDB859F}">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{D0C6E871-6599-48C7-89E6-4BFD3AD9648E}">
       <text>
         <r>
           <rPr>
@@ -53,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{CB16AA59-6CB9-4886-9848-4E3B76BD621A}">
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{98BADCE3-279E-4852-98C4-16712602C81E}">
       <text>
         <r>
           <rPr>
@@ -72,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J10" authorId="0" shapeId="0" xr:uid="{64059AA3-0F9D-44A2-906F-E8CCDAB86DD3}">
+    <comment ref="J6" authorId="0" shapeId="0" xr:uid="{5B099A74-E58F-4189-B776-C2258261ACEA}">
       <text>
         <r>
           <rPr>
@@ -91,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L10" authorId="0" shapeId="0" xr:uid="{700CB635-487B-415A-B2E2-ACAE669B845A}">
+    <comment ref="L6" authorId="0" shapeId="0" xr:uid="{F7F74ECE-79CC-4E96-B871-F1BE528121C0}">
       <text>
         <r>
           <rPr>
@@ -110,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M10" authorId="0" shapeId="0" xr:uid="{55095C11-A11A-4383-A4ED-7179C8F787AA}">
+    <comment ref="M6" authorId="0" shapeId="0" xr:uid="{82E0A85E-A5AB-413A-B5F9-23B8F7C77C67}">
       <text>
         <r>
           <rPr>
@@ -129,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N10" authorId="0" shapeId="0" xr:uid="{896133F6-2068-4B0A-B906-162EB0960A4B}">
+    <comment ref="N6" authorId="0" shapeId="0" xr:uid="{E3D2F5FF-2DAE-4ABC-9D88-2D222F2C129E}">
       <text>
         <r>
           <rPr>
@@ -148,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O10" authorId="0" shapeId="0" xr:uid="{C180FEF4-D5D6-48C9-AA9F-F093D90C170C}">
+    <comment ref="O6" authorId="0" shapeId="0" xr:uid="{E87D643F-9F70-4AC8-A4FA-A447DD16A779}">
       <text>
         <r>
           <rPr>
@@ -1547,7 +1547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1562,7 +1562,6 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1617,7 +1616,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{519AD263-3550-5080-78F7-082230132EA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED40DD69-8359-1624-B44D-DC43856CFBA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1672,7 +1671,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C0A3F2E-AFC6-CE62-1A35-82886875FE2B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39B34218-125A-2518-2D47-922FB0242BF8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1727,7 +1726,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A12C4DD8-0D7E-6EFC-FE24-B4E9FFC649C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C5E12FE-E31B-AE44-6449-526FCDFA2D89}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1782,7 +1781,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E44D5449-79CE-678F-072A-FF7E518B9BAD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE1F5003-DCC9-0760-3C9A-2663B1E80F12}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1818,6 +1817,61 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1054100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90BA50D6-2096-A591-A0A8-DF728D41D25C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13665200" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2088,6 +2142,56 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CD04F11-A554-4E64-CDF7-B151061C9E43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17479963" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>296863</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4393B01-34B2-E3B6-98AF-8CBD6E2141F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2438,7 +2542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90719D03-9BC2-453E-9503-1524CD3301B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8CD042-181A-48D4-A25E-7291C12F5B20}">
   <dimension ref="A1:L638"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -25204,7 +25308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6D46E3-40FC-4994-9958-E7B1A73424EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5AF7F9-2C19-4169-B4D4-41492AE3BB89}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -25217,7 +25321,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C763F264-5A50-43E0-8680-8786B58390F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B13DA24-CBD1-422F-951E-CE524E3BAFCF}">
   <dimension ref="A1:I129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -25235,16 +25339,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="2" t="s">
@@ -28437,7 +28541,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB19387-B45B-4FE5-9986-7429546CC7D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337E6906-358E-4ADF-AE45-D964AB2ABF20}">
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28457,17 +28561,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="2" t="s">
@@ -28531,7 +28635,7 @@
       <c r="H4" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="18">
         <v>45343</v>
       </c>
       <c r="J4" s="4" t="s">
@@ -28566,7 +28670,7 @@
       <c r="H5" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="19">
         <v>44949</v>
       </c>
       <c r="J5" s="9" t="s">
@@ -28601,7 +28705,7 @@
       <c r="H6" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="18">
         <v>44949</v>
       </c>
       <c r="J6" s="4" t="s">
@@ -28636,7 +28740,7 @@
       <c r="H7" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="19">
         <v>45343</v>
       </c>
       <c r="J7" s="9" t="s">
@@ -28671,7 +28775,7 @@
       <c r="H8" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="18">
         <v>44949</v>
       </c>
       <c r="J8" s="4" t="s">
@@ -28706,7 +28810,7 @@
       <c r="H9" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="19">
         <v>45343</v>
       </c>
       <c r="J9" s="9" t="s">
@@ -28741,7 +28845,7 @@
       <c r="H10" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="18">
         <v>44949</v>
       </c>
       <c r="J10" s="4" t="s">
@@ -28776,7 +28880,7 @@
       <c r="H11" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="19">
         <v>44949</v>
       </c>
       <c r="J11" s="9" t="s">
@@ -28811,7 +28915,7 @@
       <c r="H12" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="18">
         <v>45343</v>
       </c>
       <c r="J12" s="4" t="s">
@@ -28846,7 +28950,7 @@
       <c r="H13" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="19">
         <v>44949</v>
       </c>
       <c r="J13" s="9" t="s">
@@ -28881,7 +28985,7 @@
       <c r="H14" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="18">
         <v>45343</v>
       </c>
       <c r="J14" s="4" t="s">
@@ -28916,7 +29020,7 @@
       <c r="H15" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="19">
         <v>45343</v>
       </c>
       <c r="J15" s="9" t="s">
@@ -28951,7 +29055,7 @@
       <c r="H16" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="18">
         <v>45343</v>
       </c>
       <c r="J16" s="4" t="s">
@@ -28986,7 +29090,7 @@
       <c r="H17" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="19">
         <v>45343</v>
       </c>
       <c r="J17" s="9" t="s">
@@ -29021,7 +29125,7 @@
       <c r="H18" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I18" s="18">
         <v>45343</v>
       </c>
       <c r="J18" s="4" t="s">
@@ -29056,7 +29160,7 @@
       <c r="H19" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="I19" s="20">
+      <c r="I19" s="19">
         <v>45343</v>
       </c>
       <c r="J19" s="9" t="s">
@@ -29091,7 +29195,7 @@
       <c r="H20" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="18">
         <v>45343</v>
       </c>
       <c r="J20" s="4" t="s">
@@ -29114,7 +29218,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC17F07-293A-42C4-B770-A73D14F02547}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403345C7-9906-47E3-8916-14B8735DF34E}">
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -29131,16 +29235,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="2" t="s">
@@ -30056,7 +30160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03EE3B1C-62AF-4B0D-A26D-A203FA18B263}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BCC87C7-6880-46C8-BAD7-2E5A3765ABB3}">
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -30531,10 +30635,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BEFCE9-40E9-4BA0-9D59-26A4AB511EF6}">
-  <dimension ref="A1:W95"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431C3AAB-3DF1-40BF-BDD4-1DE4DC718BBC}">
+  <dimension ref="A1:W91"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:U1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -30557,124 +30663,401 @@
     <col min="23" max="23" width="21.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:23" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="20" t="s">
         <v>214</v>
       </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
     </row>
     <row r="3" spans="1:23" ht="52.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="80" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="22" t="s">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A4" s="21" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" ht="80" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="23"/>
-    </row>
-    <row r="6" spans="1:23" ht="80" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="23"/>
-    </row>
-    <row r="7" spans="1:23" ht="80" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="23"/>
-    </row>
-    <row r="8" spans="1:23" ht="80" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="23"/>
-    </row>
-    <row r="9" spans="1:23" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="2" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+    </row>
+    <row r="5" spans="1:23" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="3" t="s">
+    <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J6" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="L6" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="M10" s="16" t="s">
+      <c r="M6" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="N10" s="16" t="s">
+      <c r="N6" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="O10" s="16" t="s">
+      <c r="O6" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="R6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="S10" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="T10" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="U10" s="3" t="s">
+      <c r="U6" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="V10" s="3" t="s">
+      <c r="V6" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="W10" s="3" t="s">
+      <c r="W6" s="3" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="L7" s="7">
+        <v>5197.5</v>
+      </c>
+      <c r="M7" s="7">
+        <v>185.9</v>
+      </c>
+      <c r="N7" s="7">
+        <v>10.08</v>
+      </c>
+      <c r="O7" s="8">
+        <v>0.3296</v>
+      </c>
+      <c r="P7" s="7">
+        <v>38</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>5</v>
+      </c>
+      <c r="R7" s="7">
+        <v>5</v>
+      </c>
+      <c r="S7" s="7">
+        <v>30</v>
+      </c>
+      <c r="T7" s="7">
+        <v>30</v>
+      </c>
+      <c r="U7" s="7">
+        <v>5</v>
+      </c>
+      <c r="V7" s="5">
+        <v>40</v>
+      </c>
+      <c r="W7" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="10">
+        <v>1959</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="L8" s="12">
+        <v>2970.0000000000005</v>
+      </c>
+      <c r="M8" s="12">
+        <v>85.800000000000011</v>
+      </c>
+      <c r="N8" s="12">
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="O8" s="13">
+        <v>0.27810000000000001</v>
+      </c>
+      <c r="P8" s="12">
+        <v>38</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>5</v>
+      </c>
+      <c r="R8" s="12">
+        <v>5</v>
+      </c>
+      <c r="S8" s="12">
+        <v>30</v>
+      </c>
+      <c r="T8" s="12">
+        <v>30</v>
+      </c>
+      <c r="U8" s="12">
+        <v>5</v>
+      </c>
+      <c r="V8" s="10">
+        <v>40</v>
+      </c>
+      <c r="W8" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A9" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1961</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="L9" s="7">
+        <v>2970.0000000000005</v>
+      </c>
+      <c r="M9" s="7">
+        <v>85.800000000000011</v>
+      </c>
+      <c r="N9" s="7">
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="O9" s="8">
+        <v>0.29869999999999997</v>
+      </c>
+      <c r="P9" s="7">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>5</v>
+      </c>
+      <c r="R9" s="7">
+        <v>5</v>
+      </c>
+      <c r="S9" s="7">
+        <v>30</v>
+      </c>
+      <c r="T9" s="7">
+        <v>30</v>
+      </c>
+      <c r="U9" s="7">
+        <v>5</v>
+      </c>
+      <c r="V9" s="5">
+        <v>40</v>
+      </c>
+      <c r="W9" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="10">
+        <v>1962</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="L10" s="12">
+        <v>2970.0000000000005</v>
+      </c>
+      <c r="M10" s="12">
+        <v>85.800000000000011</v>
+      </c>
+      <c r="N10" s="12">
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="O10" s="13">
+        <v>0.29869999999999997</v>
+      </c>
+      <c r="P10" s="12">
+        <v>38</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>5</v>
+      </c>
+      <c r="R10" s="12">
+        <v>5</v>
+      </c>
+      <c r="S10" s="12">
+        <v>30</v>
+      </c>
+      <c r="T10" s="12">
+        <v>30</v>
+      </c>
+      <c r="U10" s="12">
+        <v>5</v>
+      </c>
+      <c r="V10" s="10">
+        <v>40</v>
+      </c>
+      <c r="W10" s="12">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>78</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E11" s="5">
-        <v>2022</v>
+        <v>1969</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -30686,19 +31069,19 @@
         <v>81</v>
       </c>
       <c r="K11" s="6">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="L11" s="7">
-        <v>5197.5</v>
+        <v>2970.0000000000005</v>
       </c>
       <c r="M11" s="7">
-        <v>185.9</v>
+        <v>85.800000000000011</v>
       </c>
       <c r="N11" s="7">
-        <v>10.08</v>
+        <v>6.3000000000000007</v>
       </c>
       <c r="O11" s="8">
-        <v>0.3296</v>
+        <v>0.29869999999999997</v>
       </c>
       <c r="P11" s="7">
         <v>38</v>
@@ -30739,7 +31122,7 @@
         <v>52</v>
       </c>
       <c r="E12" s="10">
-        <v>1959</v>
+        <v>1985</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -30751,19 +31134,19 @@
         <v>81</v>
       </c>
       <c r="K12" s="11">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
       <c r="L12" s="12">
-        <v>2970.0000000000005</v>
+        <v>2530</v>
       </c>
       <c r="M12" s="12">
-        <v>85.800000000000011</v>
+        <v>72.600000000000009</v>
       </c>
       <c r="N12" s="12">
-        <v>6.3000000000000007</v>
+        <v>5.7750000000000004</v>
       </c>
       <c r="O12" s="13">
-        <v>0.27810000000000001</v>
+        <v>0.33990000000000004</v>
       </c>
       <c r="P12" s="12">
         <v>38</v>
@@ -30804,7 +31187,7 @@
         <v>52</v>
       </c>
       <c r="E13" s="5">
-        <v>1961</v>
+        <v>2017</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -30816,19 +31199,19 @@
         <v>81</v>
       </c>
       <c r="K13" s="6">
-        <v>0.1</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="L13" s="7">
-        <v>2970.0000000000005</v>
+        <v>2530</v>
       </c>
       <c r="M13" s="7">
-        <v>85.800000000000011</v>
+        <v>72.600000000000009</v>
       </c>
       <c r="N13" s="7">
-        <v>6.3000000000000007</v>
+        <v>5.7750000000000012</v>
       </c>
       <c r="O13" s="8">
-        <v>0.29869999999999997</v>
+        <v>0.35020000000000001</v>
       </c>
       <c r="P13" s="7">
         <v>38</v>
@@ -30869,7 +31252,7 @@
         <v>52</v>
       </c>
       <c r="E14" s="10">
-        <v>1962</v>
+        <v>2022</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -30881,7 +31264,7 @@
         <v>81</v>
       </c>
       <c r="K14" s="11">
-        <v>0.05</v>
+        <v>1.000000000000334E-3</v>
       </c>
       <c r="L14" s="12">
         <v>2970.0000000000005</v>
@@ -30893,7 +31276,7 @@
         <v>6.3000000000000007</v>
       </c>
       <c r="O14" s="13">
-        <v>0.29869999999999997</v>
+        <v>0.33990000000000004</v>
       </c>
       <c r="P14" s="12">
         <v>38</v>
@@ -30922,10 +31305,10 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>83</v>
@@ -30934,11 +31317,15 @@
         <v>52</v>
       </c>
       <c r="E15" s="5">
-        <v>1969</v>
+        <v>1973</v>
       </c>
       <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="I15" s="4" t="s">
         <v>80</v>
       </c>
@@ -30946,19 +31333,19 @@
         <v>81</v>
       </c>
       <c r="K15" s="6">
-        <v>0.03</v>
+        <v>0.21</v>
       </c>
       <c r="L15" s="7">
-        <v>2970.0000000000005</v>
+        <v>2530</v>
       </c>
       <c r="M15" s="7">
-        <v>85.800000000000011</v>
+        <v>72.600000000000009</v>
       </c>
       <c r="N15" s="7">
-        <v>6.3000000000000007</v>
+        <v>5.7750000000000004</v>
       </c>
       <c r="O15" s="8">
-        <v>0.29869999999999997</v>
+        <v>0.32959999999999995</v>
       </c>
       <c r="P15" s="7">
         <v>38</v>
@@ -30987,10 +31374,10 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A16" s="9" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>83</v>
@@ -30999,11 +31386,15 @@
         <v>52</v>
       </c>
       <c r="E16" s="10">
-        <v>1985</v>
+        <v>1974</v>
       </c>
       <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
+      <c r="G16" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>87</v>
+      </c>
       <c r="I16" s="9" t="s">
         <v>80</v>
       </c>
@@ -31011,7 +31402,7 @@
         <v>81</v>
       </c>
       <c r="K16" s="11">
-        <v>0.12</v>
+        <v>0.21</v>
       </c>
       <c r="L16" s="12">
         <v>2530</v>
@@ -31023,7 +31414,7 @@
         <v>5.7750000000000004</v>
       </c>
       <c r="O16" s="13">
-        <v>0.33990000000000004</v>
+        <v>0.32959999999999995</v>
       </c>
       <c r="P16" s="12">
         <v>38</v>
@@ -31052,10 +31443,10 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>83</v>
@@ -31064,11 +31455,15 @@
         <v>52</v>
       </c>
       <c r="E17" s="5">
-        <v>2017</v>
+        <v>1975</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+      <c r="G17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="I17" s="4" t="s">
         <v>80</v>
       </c>
@@ -31076,7 +31471,7 @@
         <v>81</v>
       </c>
       <c r="K17" s="6">
-        <v>5.2999999999999999E-2</v>
+        <v>0.21</v>
       </c>
       <c r="L17" s="7">
         <v>2530</v>
@@ -31085,10 +31480,10 @@
         <v>72.600000000000009</v>
       </c>
       <c r="N17" s="7">
-        <v>5.7750000000000012</v>
+        <v>5.7750000000000004</v>
       </c>
       <c r="O17" s="8">
-        <v>0.35020000000000001</v>
+        <v>0.32959999999999995</v>
       </c>
       <c r="P17" s="7">
         <v>38</v>
@@ -31117,10 +31512,10 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A18" s="9" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>83</v>
@@ -31129,11 +31524,15 @@
         <v>52</v>
       </c>
       <c r="E18" s="10">
-        <v>2022</v>
+        <v>2009</v>
       </c>
       <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
+      <c r="G18" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="I18" s="9" t="s">
         <v>80</v>
       </c>
@@ -31141,19 +31540,19 @@
         <v>81</v>
       </c>
       <c r="K18" s="11">
-        <v>1.000000000000334E-3</v>
+        <v>0.121</v>
       </c>
       <c r="L18" s="12">
-        <v>2970.0000000000005</v>
+        <v>2530</v>
       </c>
       <c r="M18" s="12">
-        <v>85.800000000000011</v>
+        <v>72.600000000000009</v>
       </c>
       <c r="N18" s="12">
-        <v>6.3000000000000007</v>
+        <v>5.7750000000000004</v>
       </c>
       <c r="O18" s="13">
-        <v>0.33990000000000004</v>
+        <v>0.35020000000000001</v>
       </c>
       <c r="P18" s="12">
         <v>38</v>
@@ -31182,10 +31581,10 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>83</v>
@@ -31194,23 +31593,23 @@
         <v>52</v>
       </c>
       <c r="E19" s="5">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>81</v>
       </c>
       <c r="K19" s="6">
-        <v>0.21</v>
+        <v>0.12</v>
       </c>
       <c r="L19" s="7">
         <v>2530</v>
@@ -31222,7 +31621,7 @@
         <v>5.7750000000000004</v>
       </c>
       <c r="O19" s="8">
-        <v>0.32959999999999995</v>
+        <v>0.3296</v>
       </c>
       <c r="P19" s="7">
         <v>38</v>
@@ -31251,10 +31650,10 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A20" s="9" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>83</v>
@@ -31263,14 +31662,14 @@
         <v>52</v>
       </c>
       <c r="E20" s="10">
-        <v>1974</v>
+        <v>1966</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>80</v>
@@ -31279,7 +31678,7 @@
         <v>81</v>
       </c>
       <c r="K20" s="11">
-        <v>0.21</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="L20" s="12">
         <v>2530</v>
@@ -31291,7 +31690,7 @@
         <v>5.7750000000000004</v>
       </c>
       <c r="O20" s="13">
-        <v>0.32959999999999995</v>
+        <v>0.309</v>
       </c>
       <c r="P20" s="12">
         <v>38</v>
@@ -31320,10 +31719,10 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>83</v>
@@ -31332,14 +31731,14 @@
         <v>52</v>
       </c>
       <c r="E21" s="5">
-        <v>1975</v>
+        <v>1967</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>80</v>
@@ -31348,7 +31747,7 @@
         <v>81</v>
       </c>
       <c r="K21" s="6">
-        <v>0.21</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="L21" s="7">
         <v>2530</v>
@@ -31360,7 +31759,7 @@
         <v>5.7750000000000004</v>
       </c>
       <c r="O21" s="8">
-        <v>0.32959999999999995</v>
+        <v>0.309</v>
       </c>
       <c r="P21" s="7">
         <v>38</v>
@@ -31389,10 +31788,10 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A22" s="9" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>83</v>
@@ -31401,14 +31800,14 @@
         <v>52</v>
       </c>
       <c r="E22" s="10">
-        <v>2009</v>
+        <v>1967</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>80</v>
@@ -31417,7 +31816,7 @@
         <v>81</v>
       </c>
       <c r="K22" s="11">
-        <v>0.121</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="L22" s="12">
         <v>2530</v>
@@ -31429,7 +31828,7 @@
         <v>5.7750000000000004</v>
       </c>
       <c r="O22" s="13">
-        <v>0.35020000000000001</v>
+        <v>0.309</v>
       </c>
       <c r="P22" s="12">
         <v>38</v>
@@ -31458,10 +31857,10 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>83</v>
@@ -31470,23 +31869,23 @@
         <v>52</v>
       </c>
       <c r="E23" s="5">
-        <v>1971</v>
+        <v>1968</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>81</v>
       </c>
       <c r="K23" s="6">
-        <v>0.12</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="L23" s="7">
         <v>2530</v>
@@ -31498,7 +31897,7 @@
         <v>5.7750000000000004</v>
       </c>
       <c r="O23" s="8">
-        <v>0.3296</v>
+        <v>0.309</v>
       </c>
       <c r="P23" s="7">
         <v>38</v>
@@ -31527,10 +31926,10 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A24" s="9" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>83</v>
@@ -31539,7 +31938,7 @@
         <v>52</v>
       </c>
       <c r="E24" s="10">
-        <v>1966</v>
+        <v>1985</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9" t="s">
@@ -31555,7 +31954,7 @@
         <v>81</v>
       </c>
       <c r="K24" s="11">
-        <v>0.17699999999999999</v>
+        <v>0.21</v>
       </c>
       <c r="L24" s="12">
         <v>2530</v>
@@ -31567,7 +31966,7 @@
         <v>5.7750000000000004</v>
       </c>
       <c r="O24" s="13">
-        <v>0.309</v>
+        <v>0.33990000000000004</v>
       </c>
       <c r="P24" s="12">
         <v>38</v>
@@ -31596,10 +31995,10 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>83</v>
@@ -31608,7 +32007,7 @@
         <v>52</v>
       </c>
       <c r="E25" s="5">
-        <v>1967</v>
+        <v>1985</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4" t="s">
@@ -31624,7 +32023,7 @@
         <v>81</v>
       </c>
       <c r="K25" s="6">
-        <v>0.16500000000000001</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="L25" s="7">
         <v>2530</v>
@@ -31636,7 +32035,7 @@
         <v>5.7750000000000004</v>
       </c>
       <c r="O25" s="8">
-        <v>0.309</v>
+        <v>0.33990000000000004</v>
       </c>
       <c r="P25" s="7">
         <v>38</v>
@@ -31665,10 +32064,10 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A26" s="9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>83</v>
@@ -31677,7 +32076,7 @@
         <v>52</v>
       </c>
       <c r="E26" s="10">
-        <v>1967</v>
+        <v>1990</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9" t="s">
@@ -31693,7 +32092,7 @@
         <v>81</v>
       </c>
       <c r="K26" s="11">
-        <v>0.17699999999999999</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="L26" s="12">
         <v>2530</v>
@@ -31705,7 +32104,7 @@
         <v>5.7750000000000004</v>
       </c>
       <c r="O26" s="13">
-        <v>0.309</v>
+        <v>0.33990000000000004</v>
       </c>
       <c r="P26" s="12">
         <v>38</v>
@@ -31734,10 +32133,10 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>83</v>
@@ -31746,7 +32145,7 @@
         <v>52</v>
       </c>
       <c r="E27" s="5">
-        <v>1968</v>
+        <v>1995</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
@@ -31762,7 +32161,7 @@
         <v>81</v>
       </c>
       <c r="K27" s="6">
-        <v>0.17699999999999999</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="L27" s="7">
         <v>2530</v>
@@ -31774,7 +32173,7 @@
         <v>5.7750000000000004</v>
       </c>
       <c r="O27" s="8">
-        <v>0.309</v>
+        <v>0.35020000000000001</v>
       </c>
       <c r="P27" s="7">
         <v>38</v>
@@ -31803,10 +32202,10 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A28" s="9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>83</v>
@@ -31815,14 +32214,14 @@
         <v>52</v>
       </c>
       <c r="E28" s="10">
-        <v>1985</v>
+        <v>1978</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="9" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>80</v>
@@ -31831,7 +32230,7 @@
         <v>81</v>
       </c>
       <c r="K28" s="11">
-        <v>0.21</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="L28" s="12">
         <v>2530</v>
@@ -31840,10 +32239,10 @@
         <v>72.600000000000009</v>
       </c>
       <c r="N28" s="12">
-        <v>5.7750000000000004</v>
+        <v>5.7750000000000012</v>
       </c>
       <c r="O28" s="13">
-        <v>0.33990000000000004</v>
+        <v>0.3296</v>
       </c>
       <c r="P28" s="12">
         <v>38</v>
@@ -31872,10 +32271,10 @@
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>83</v>
@@ -31884,14 +32283,14 @@
         <v>52</v>
       </c>
       <c r="E29" s="5">
-        <v>1985</v>
+        <v>1979</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>80</v>
@@ -31900,7 +32299,7 @@
         <v>81</v>
       </c>
       <c r="K29" s="6">
-        <v>0.23200000000000001</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="L29" s="7">
         <v>2530</v>
@@ -31909,10 +32308,10 @@
         <v>72.600000000000009</v>
       </c>
       <c r="N29" s="7">
-        <v>5.7750000000000004</v>
+        <v>5.7750000000000012</v>
       </c>
       <c r="O29" s="8">
-        <v>0.33990000000000004</v>
+        <v>0.3296</v>
       </c>
       <c r="P29" s="7">
         <v>38</v>
@@ -31941,10 +32340,10 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A30" s="9" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>83</v>
@@ -31953,14 +32352,14 @@
         <v>52</v>
       </c>
       <c r="E30" s="10">
-        <v>1990</v>
+        <v>1980</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="I30" s="9" t="s">
         <v>80</v>
@@ -31969,7 +32368,7 @@
         <v>81</v>
       </c>
       <c r="K30" s="11">
-        <v>0.23200000000000001</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="L30" s="12">
         <v>2530</v>
@@ -31978,10 +32377,10 @@
         <v>72.600000000000009</v>
       </c>
       <c r="N30" s="12">
-        <v>5.7750000000000004</v>
+        <v>5.7750000000000012</v>
       </c>
       <c r="O30" s="13">
-        <v>0.33990000000000004</v>
+        <v>0.3296</v>
       </c>
       <c r="P30" s="12">
         <v>38</v>
@@ -32010,10 +32409,10 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A31" s="4" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>83</v>
@@ -32022,14 +32421,14 @@
         <v>52</v>
       </c>
       <c r="E31" s="5">
-        <v>1995</v>
+        <v>1981</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>80</v>
@@ -32038,7 +32437,7 @@
         <v>81</v>
       </c>
       <c r="K31" s="6">
-        <v>0.23200000000000001</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="L31" s="7">
         <v>2530</v>
@@ -32047,10 +32446,10 @@
         <v>72.600000000000009</v>
       </c>
       <c r="N31" s="7">
-        <v>5.7750000000000004</v>
+        <v>5.7750000000000012</v>
       </c>
       <c r="O31" s="8">
-        <v>0.35020000000000001</v>
+        <v>0.33990000000000004</v>
       </c>
       <c r="P31" s="7">
         <v>38</v>
@@ -32079,10 +32478,10 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A32" s="9" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>83</v>
@@ -32091,14 +32490,14 @@
         <v>52</v>
       </c>
       <c r="E32" s="10">
-        <v>1978</v>
+        <v>2011</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9" t="s">
         <v>121</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9" t="s">
         <v>80</v>
@@ -32107,51 +32506,51 @@
         <v>81</v>
       </c>
       <c r="K32" s="11">
-        <v>0.22700000000000001</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="L32" s="12">
-        <v>2530</v>
+        <v>2200</v>
       </c>
       <c r="M32" s="12">
-        <v>72.600000000000009</v>
+        <v>66</v>
       </c>
       <c r="N32" s="12">
-        <v>5.7750000000000012</v>
+        <v>5.25</v>
       </c>
       <c r="O32" s="13">
-        <v>0.3296</v>
+        <v>0.37080000000000002</v>
       </c>
       <c r="P32" s="12">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Q32" s="12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R32" s="12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S32" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T32" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="U32" s="12">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="V32" s="10">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="W32" s="12">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>83</v>
@@ -32160,14 +32559,14 @@
         <v>52</v>
       </c>
       <c r="E33" s="5">
-        <v>1979</v>
+        <v>2011</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4" t="s">
         <v>121</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>80</v>
@@ -32176,51 +32575,51 @@
         <v>81</v>
       </c>
       <c r="K33" s="6">
-        <v>0.22700000000000001</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="L33" s="7">
-        <v>2530</v>
+        <v>2200</v>
       </c>
       <c r="M33" s="7">
-        <v>72.600000000000009</v>
+        <v>66</v>
       </c>
       <c r="N33" s="7">
-        <v>5.7750000000000012</v>
+        <v>5.25</v>
       </c>
       <c r="O33" s="8">
-        <v>0.3296</v>
+        <v>0.37080000000000002</v>
       </c>
       <c r="P33" s="7">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Q33" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R33" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S33" s="7">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T33" s="7">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="U33" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="V33" s="5">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="W33" s="7">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A34" s="9" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>83</v>
@@ -32229,14 +32628,14 @@
         <v>52</v>
       </c>
       <c r="E34" s="10">
-        <v>1980</v>
+        <v>1951</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="I34" s="9" t="s">
         <v>80</v>
@@ -32245,7 +32644,7 @@
         <v>81</v>
       </c>
       <c r="K34" s="11">
-        <v>0.22700000000000001</v>
+        <v>0.105</v>
       </c>
       <c r="L34" s="12">
         <v>2530</v>
@@ -32254,10 +32653,10 @@
         <v>72.600000000000009</v>
       </c>
       <c r="N34" s="12">
-        <v>5.7750000000000012</v>
+        <v>5.7750000000000004</v>
       </c>
       <c r="O34" s="13">
-        <v>0.3296</v>
+        <v>0.28840000000000005</v>
       </c>
       <c r="P34" s="12">
         <v>38</v>
@@ -32286,10 +32685,10 @@
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A35" s="4" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>83</v>
@@ -32298,23 +32697,23 @@
         <v>52</v>
       </c>
       <c r="E35" s="5">
-        <v>1981</v>
+        <v>1966</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="J35" s="4" t="s">
         <v>81</v>
       </c>
       <c r="K35" s="6">
-        <v>0.22700000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="L35" s="7">
         <v>2530</v>
@@ -32323,10 +32722,10 @@
         <v>72.600000000000009</v>
       </c>
       <c r="N35" s="7">
-        <v>5.7750000000000012</v>
+        <v>5.7750000000000004</v>
       </c>
       <c r="O35" s="8">
-        <v>0.33990000000000004</v>
+        <v>0.309</v>
       </c>
       <c r="P35" s="7">
         <v>38</v>
@@ -32355,10 +32754,10 @@
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A36" s="9" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>83</v>
@@ -32367,14 +32766,14 @@
         <v>52</v>
       </c>
       <c r="E36" s="10">
-        <v>2011</v>
+        <v>1971</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="I36" s="9" t="s">
         <v>80</v>
@@ -32383,51 +32782,51 @@
         <v>81</v>
       </c>
       <c r="K36" s="11">
-        <v>0.34499999999999997</v>
+        <v>0.11</v>
       </c>
       <c r="L36" s="12">
-        <v>2200</v>
+        <v>2530</v>
       </c>
       <c r="M36" s="12">
-        <v>66</v>
+        <v>72.600000000000009</v>
       </c>
       <c r="N36" s="12">
-        <v>5.25</v>
+        <v>5.7750000000000004</v>
       </c>
       <c r="O36" s="13">
-        <v>0.37080000000000002</v>
+        <v>0.3296</v>
       </c>
       <c r="P36" s="12">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="Q36" s="12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R36" s="12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S36" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T36" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="U36" s="12">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V36" s="10">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="W36" s="12">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A37" s="4" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>83</v>
@@ -32436,67 +32835,63 @@
         <v>52</v>
       </c>
       <c r="E37" s="5">
-        <v>2011</v>
+        <v>1962</v>
       </c>
       <c r="F37" s="4"/>
-      <c r="G37" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>103</v>
-      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
       <c r="I37" s="4" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="J37" s="4" t="s">
         <v>81</v>
       </c>
       <c r="K37" s="6">
-        <v>0.34499999999999997</v>
+        <v>0.1</v>
       </c>
       <c r="L37" s="7">
-        <v>2200</v>
+        <v>2970.0000000000005</v>
       </c>
       <c r="M37" s="7">
-        <v>66</v>
+        <v>85.800000000000011</v>
       </c>
       <c r="N37" s="7">
-        <v>5.25</v>
+        <v>6.3000000000000007</v>
       </c>
       <c r="O37" s="8">
-        <v>0.37080000000000002</v>
+        <v>0.29869999999999997</v>
       </c>
       <c r="P37" s="7">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="Q37" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R37" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S37" s="7">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T37" s="7">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="U37" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V37" s="5">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="W37" s="7">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A38" s="9" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>83</v>
@@ -32505,35 +32900,31 @@
         <v>52</v>
       </c>
       <c r="E38" s="10">
-        <v>1951</v>
+        <v>1964</v>
       </c>
       <c r="F38" s="9"/>
-      <c r="G38" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>136</v>
-      </c>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
       <c r="I38" s="9" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="J38" s="9" t="s">
         <v>81</v>
       </c>
       <c r="K38" s="11">
-        <v>0.105</v>
+        <v>0.06</v>
       </c>
       <c r="L38" s="12">
-        <v>2530</v>
+        <v>2970.0000000000005</v>
       </c>
       <c r="M38" s="12">
-        <v>72.600000000000009</v>
+        <v>85.800000000000011</v>
       </c>
       <c r="N38" s="12">
-        <v>5.7750000000000004</v>
+        <v>6.3000000000000007</v>
       </c>
       <c r="O38" s="13">
-        <v>0.28840000000000005</v>
+        <v>0.29869999999999997</v>
       </c>
       <c r="P38" s="12">
         <v>38</v>
@@ -32562,10 +32953,10 @@
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A39" s="4" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>83</v>
@@ -32574,15 +32965,11 @@
         <v>52</v>
       </c>
       <c r="E39" s="5">
-        <v>1966</v>
+        <v>1969</v>
       </c>
       <c r="F39" s="4"/>
-      <c r="G39" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>139</v>
-      </c>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
       <c r="I39" s="4" t="s">
         <v>100</v>
       </c>
@@ -32590,19 +32977,19 @@
         <v>81</v>
       </c>
       <c r="K39" s="6">
-        <v>0.11</v>
+        <v>0.03</v>
       </c>
       <c r="L39" s="7">
-        <v>2530</v>
+        <v>2970.0000000000005</v>
       </c>
       <c r="M39" s="7">
-        <v>72.600000000000009</v>
+        <v>85.800000000000011</v>
       </c>
       <c r="N39" s="7">
-        <v>5.7750000000000004</v>
+        <v>6.3000000000000007</v>
       </c>
       <c r="O39" s="8">
-        <v>0.309</v>
+        <v>0.29869999999999997</v>
       </c>
       <c r="P39" s="7">
         <v>38</v>
@@ -32631,10 +33018,10 @@
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A40" s="9" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>83</v>
@@ -32643,23 +33030,19 @@
         <v>52</v>
       </c>
       <c r="E40" s="10">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="F40" s="9"/>
-      <c r="G40" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>139</v>
-      </c>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
       <c r="I40" s="9" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="J40" s="9" t="s">
         <v>81</v>
       </c>
       <c r="K40" s="11">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="L40" s="12">
         <v>2530</v>
@@ -32671,7 +33054,7 @@
         <v>5.7750000000000004</v>
       </c>
       <c r="O40" s="13">
-        <v>0.3296</v>
+        <v>0.309</v>
       </c>
       <c r="P40" s="12">
         <v>38</v>
@@ -32700,267 +33083,267 @@
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A41" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>78</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E41" s="5">
-        <v>1962</v>
+        <v>2007</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J41" s="4" t="s">
         <v>81</v>
       </c>
       <c r="K41" s="6">
-        <v>0.1</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="L41" s="7">
-        <v>2970.0000000000005</v>
+        <v>1485.0000000000002</v>
       </c>
       <c r="M41" s="7">
-        <v>85.800000000000011</v>
+        <v>42.900000000000006</v>
       </c>
       <c r="N41" s="7">
-        <v>6.3000000000000007</v>
+        <v>3.78</v>
       </c>
       <c r="O41" s="8">
-        <v>0.29869999999999997</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="P41" s="7">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="Q41" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R41" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S41" s="7">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="T41" s="7">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="U41" s="7">
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="V41" s="5">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="W41" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A42" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>78</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E42" s="10">
-        <v>1964</v>
+        <v>2011</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J42" s="9" t="s">
         <v>81</v>
       </c>
       <c r="K42" s="11">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="L42" s="12">
-        <v>2970.0000000000005</v>
+        <v>1485.0000000000002</v>
       </c>
       <c r="M42" s="12">
-        <v>85.800000000000011</v>
+        <v>42.900000000000006</v>
       </c>
       <c r="N42" s="12">
-        <v>6.3000000000000007</v>
+        <v>3.78</v>
       </c>
       <c r="O42" s="13">
-        <v>0.29869999999999997</v>
+        <v>0.55620000000000003</v>
       </c>
       <c r="P42" s="12">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="Q42" s="12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R42" s="12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S42" s="12">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="T42" s="12">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="U42" s="12">
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="V42" s="10">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="W42" s="12">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A43" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>78</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E43" s="5">
-        <v>1969</v>
+        <v>2022</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J43" s="4" t="s">
         <v>81</v>
       </c>
       <c r="K43" s="6">
-        <v>0.03</v>
+        <v>1.8999999999999909E-2</v>
       </c>
       <c r="L43" s="7">
-        <v>2970.0000000000005</v>
+        <v>1485.0000000000002</v>
       </c>
       <c r="M43" s="7">
-        <v>85.800000000000011</v>
+        <v>42.900000000000006</v>
       </c>
       <c r="N43" s="7">
-        <v>6.3000000000000007</v>
+        <v>3.7800000000000002</v>
       </c>
       <c r="O43" s="8">
-        <v>0.29869999999999997</v>
+        <v>0.57680000000000009</v>
       </c>
       <c r="P43" s="7">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="Q43" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R43" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S43" s="7">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="T43" s="7">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="U43" s="7">
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="V43" s="5">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="W43" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A44" s="9" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>78</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E44" s="10">
-        <v>1970</v>
+        <v>1962</v>
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J44" s="9" t="s">
         <v>81</v>
       </c>
       <c r="K44" s="11">
-        <v>0.12</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="L44" s="12">
-        <v>2530</v>
+        <v>1782.0000000000005</v>
       </c>
       <c r="M44" s="12">
-        <v>72.600000000000009</v>
+        <v>57.2</v>
       </c>
       <c r="N44" s="12">
-        <v>5.7750000000000004</v>
+        <v>5.67</v>
       </c>
       <c r="O44" s="13">
-        <v>0.309</v>
+        <v>0.29869999999999997</v>
       </c>
       <c r="P44" s="12">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q44" s="12">
+        <v>3</v>
+      </c>
+      <c r="R44" s="12">
+        <v>3</v>
+      </c>
+      <c r="S44" s="12">
+        <v>40</v>
+      </c>
+      <c r="T44" s="12">
+        <v>40</v>
+      </c>
+      <c r="U44" s="12">
+        <v>2</v>
+      </c>
+      <c r="V44" s="10">
+        <v>25</v>
+      </c>
+      <c r="W44" s="12">
         <v>5</v>
-      </c>
-      <c r="R44" s="12">
-        <v>5</v>
-      </c>
-      <c r="S44" s="12">
-        <v>30</v>
-      </c>
-      <c r="T44" s="12">
-        <v>30</v>
-      </c>
-      <c r="U44" s="12">
-        <v>5</v>
-      </c>
-      <c r="V44" s="10">
-        <v>40</v>
-      </c>
-      <c r="W44" s="12">
-        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A45" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>78</v>
@@ -32972,7 +33355,7 @@
         <v>52</v>
       </c>
       <c r="E45" s="5">
-        <v>2007</v>
+        <v>1976</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
@@ -32984,48 +33367,48 @@
         <v>81</v>
       </c>
       <c r="K45" s="6">
-        <v>4.2999999999999997E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="L45" s="7">
-        <v>1485.0000000000002</v>
+        <v>1518.0000000000002</v>
       </c>
       <c r="M45" s="7">
-        <v>42.900000000000006</v>
+        <v>48.400000000000006</v>
       </c>
       <c r="N45" s="7">
-        <v>3.78</v>
+        <v>5.1975000000000007</v>
       </c>
       <c r="O45" s="8">
-        <v>0.51500000000000001</v>
+        <v>0.31930000000000003</v>
       </c>
       <c r="P45" s="7">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="Q45" s="7">
+        <v>3</v>
+      </c>
+      <c r="R45" s="7">
+        <v>3</v>
+      </c>
+      <c r="S45" s="7">
+        <v>40</v>
+      </c>
+      <c r="T45" s="7">
+        <v>40</v>
+      </c>
+      <c r="U45" s="7">
         <v>2</v>
-      </c>
-      <c r="R45" s="7">
-        <v>2</v>
-      </c>
-      <c r="S45" s="7">
-        <v>60</v>
-      </c>
-      <c r="T45" s="7">
-        <v>60</v>
-      </c>
-      <c r="U45" s="7">
-        <v>1.75</v>
       </c>
       <c r="V45" s="5">
         <v>25</v>
       </c>
       <c r="W45" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A46" s="9" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>78</v>
@@ -33037,7 +33420,7 @@
         <v>52</v>
       </c>
       <c r="E46" s="10">
-        <v>2011</v>
+        <v>1977</v>
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
@@ -33049,48 +33432,48 @@
         <v>81</v>
       </c>
       <c r="K46" s="11">
-        <v>0.05</v>
+        <v>6.3E-2</v>
       </c>
       <c r="L46" s="12">
-        <v>1485.0000000000002</v>
+        <v>1518.0000000000002</v>
       </c>
       <c r="M46" s="12">
-        <v>42.900000000000006</v>
+        <v>48.400000000000006</v>
       </c>
       <c r="N46" s="12">
-        <v>3.78</v>
+        <v>5.1975000000000007</v>
       </c>
       <c r="O46" s="13">
-        <v>0.55620000000000003</v>
+        <v>0.31930000000000003</v>
       </c>
       <c r="P46" s="12">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="Q46" s="12">
+        <v>3</v>
+      </c>
+      <c r="R46" s="12">
+        <v>3</v>
+      </c>
+      <c r="S46" s="12">
+        <v>40</v>
+      </c>
+      <c r="T46" s="12">
+        <v>40</v>
+      </c>
+      <c r="U46" s="12">
         <v>2</v>
-      </c>
-      <c r="R46" s="12">
-        <v>2</v>
-      </c>
-      <c r="S46" s="12">
-        <v>60</v>
-      </c>
-      <c r="T46" s="12">
-        <v>60</v>
-      </c>
-      <c r="U46" s="12">
-        <v>1.75</v>
       </c>
       <c r="V46" s="10">
         <v>25</v>
       </c>
       <c r="W46" s="12">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A47" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>78</v>
@@ -33102,7 +33485,7 @@
         <v>52</v>
       </c>
       <c r="E47" s="5">
-        <v>2022</v>
+        <v>1978</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
@@ -33114,43 +33497,43 @@
         <v>81</v>
       </c>
       <c r="K47" s="6">
-        <v>1.8999999999999909E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="L47" s="7">
-        <v>1485.0000000000002</v>
+        <v>1518.0000000000002</v>
       </c>
       <c r="M47" s="7">
-        <v>42.900000000000006</v>
+        <v>48.400000000000006</v>
       </c>
       <c r="N47" s="7">
-        <v>3.7800000000000002</v>
+        <v>5.1975000000000007</v>
       </c>
       <c r="O47" s="8">
-        <v>0.57680000000000009</v>
+        <v>0.31930000000000003</v>
       </c>
       <c r="P47" s="7">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="Q47" s="7">
+        <v>3</v>
+      </c>
+      <c r="R47" s="7">
+        <v>3</v>
+      </c>
+      <c r="S47" s="7">
+        <v>40</v>
+      </c>
+      <c r="T47" s="7">
+        <v>40</v>
+      </c>
+      <c r="U47" s="7">
         <v>2</v>
-      </c>
-      <c r="R47" s="7">
-        <v>2</v>
-      </c>
-      <c r="S47" s="7">
-        <v>60</v>
-      </c>
-      <c r="T47" s="7">
-        <v>60</v>
-      </c>
-      <c r="U47" s="7">
-        <v>1.75</v>
       </c>
       <c r="V47" s="5">
         <v>25</v>
       </c>
       <c r="W47" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.45">
@@ -33167,7 +33550,7 @@
         <v>52</v>
       </c>
       <c r="E48" s="10">
-        <v>1962</v>
+        <v>1985</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
@@ -33179,10 +33562,10 @@
         <v>81</v>
       </c>
       <c r="K48" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="L48" s="12">
-        <v>1782.0000000000005</v>
+        <v>1782.0000000000002</v>
       </c>
       <c r="M48" s="12">
         <v>57.2</v>
@@ -33191,7 +33574,7 @@
         <v>5.67</v>
       </c>
       <c r="O48" s="13">
-        <v>0.29869999999999997</v>
+        <v>0.31930000000000003</v>
       </c>
       <c r="P48" s="12">
         <v>35</v>
@@ -33220,10 +33603,10 @@
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A49" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>144</v>
@@ -33232,11 +33615,15 @@
         <v>52</v>
       </c>
       <c r="E49" s="5">
-        <v>1976</v>
+        <v>1964</v>
       </c>
       <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
+      <c r="G49" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="I49" s="4" t="s">
         <v>80</v>
       </c>
@@ -33244,7 +33631,7 @@
         <v>81</v>
       </c>
       <c r="K49" s="6">
-        <v>6.5000000000000002E-2</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="L49" s="7">
         <v>1518.0000000000002</v>
@@ -33256,7 +33643,7 @@
         <v>5.1975000000000007</v>
       </c>
       <c r="O49" s="8">
-        <v>0.31930000000000003</v>
+        <v>0.309</v>
       </c>
       <c r="P49" s="7">
         <v>35</v>
@@ -33285,10 +33672,10 @@
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A50" s="9" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>144</v>
@@ -33297,11 +33684,15 @@
         <v>52</v>
       </c>
       <c r="E50" s="10">
-        <v>1977</v>
+        <v>2019</v>
       </c>
       <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
+      <c r="G50" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="I50" s="9" t="s">
         <v>80</v>
       </c>
@@ -33309,7 +33700,7 @@
         <v>81</v>
       </c>
       <c r="K50" s="11">
-        <v>6.3E-2</v>
+        <v>0.21</v>
       </c>
       <c r="L50" s="12">
         <v>1518.0000000000002</v>
@@ -33321,39 +33712,39 @@
         <v>5.1975000000000007</v>
       </c>
       <c r="O50" s="13">
-        <v>0.31930000000000003</v>
+        <v>0.35534999999999994</v>
       </c>
       <c r="P50" s="12">
+        <v>40</v>
+      </c>
+      <c r="Q50" s="12">
+        <v>5</v>
+      </c>
+      <c r="R50" s="12">
+        <v>5</v>
+      </c>
+      <c r="S50" s="12">
+        <v>30</v>
+      </c>
+      <c r="T50" s="12">
+        <v>30</v>
+      </c>
+      <c r="U50" s="12">
+        <v>3</v>
+      </c>
+      <c r="V50" s="10">
         <v>35</v>
       </c>
-      <c r="Q50" s="12">
-        <v>3</v>
-      </c>
-      <c r="R50" s="12">
-        <v>3</v>
-      </c>
-      <c r="S50" s="12">
-        <v>40</v>
-      </c>
-      <c r="T50" s="12">
-        <v>40</v>
-      </c>
-      <c r="U50" s="12">
-        <v>2</v>
-      </c>
-      <c r="V50" s="10">
-        <v>25</v>
-      </c>
       <c r="W50" s="12">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A51" s="4" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>78</v>
+        <v>154</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>144</v>
@@ -33362,19 +33753,23 @@
         <v>52</v>
       </c>
       <c r="E51" s="5">
-        <v>1978</v>
+        <v>2019</v>
       </c>
       <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
+      <c r="G51" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="I51" s="4" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="J51" s="4" t="s">
         <v>81</v>
       </c>
       <c r="K51" s="6">
-        <v>6.3E-2</v>
+        <v>0.21</v>
       </c>
       <c r="L51" s="7">
         <v>1518.0000000000002</v>
@@ -33386,39 +33781,39 @@
         <v>5.1975000000000007</v>
       </c>
       <c r="O51" s="8">
-        <v>0.31930000000000003</v>
+        <v>0.35534999999999994</v>
       </c>
       <c r="P51" s="7">
+        <v>40</v>
+      </c>
+      <c r="Q51" s="7">
+        <v>5</v>
+      </c>
+      <c r="R51" s="7">
+        <v>5</v>
+      </c>
+      <c r="S51" s="7">
+        <v>30</v>
+      </c>
+      <c r="T51" s="7">
+        <v>30</v>
+      </c>
+      <c r="U51" s="7">
+        <v>3</v>
+      </c>
+      <c r="V51" s="5">
         <v>35</v>
       </c>
-      <c r="Q51" s="7">
-        <v>3</v>
-      </c>
-      <c r="R51" s="7">
-        <v>3</v>
-      </c>
-      <c r="S51" s="7">
-        <v>40</v>
-      </c>
-      <c r="T51" s="7">
-        <v>40</v>
-      </c>
-      <c r="U51" s="7">
-        <v>2</v>
-      </c>
-      <c r="V51" s="5">
-        <v>25</v>
-      </c>
       <c r="W51" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A52" s="9" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>144</v>
@@ -33427,80 +33822,80 @@
         <v>52</v>
       </c>
       <c r="E52" s="10">
-        <v>1985</v>
+        <v>2019</v>
       </c>
       <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
+      <c r="G52" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="I52" s="9" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="J52" s="9" t="s">
         <v>81</v>
       </c>
       <c r="K52" s="11">
-        <v>2.5000000000000001E-2</v>
+        <v>0.21</v>
       </c>
       <c r="L52" s="12">
-        <v>1782.0000000000002</v>
+        <v>1518.0000000000002</v>
       </c>
       <c r="M52" s="12">
-        <v>57.2</v>
+        <v>48.400000000000006</v>
       </c>
       <c r="N52" s="12">
-        <v>5.67</v>
+        <v>5.1975000000000007</v>
       </c>
       <c r="O52" s="13">
-        <v>0.31930000000000003</v>
+        <v>0.35534999999999994</v>
       </c>
       <c r="P52" s="12">
+        <v>40</v>
+      </c>
+      <c r="Q52" s="12">
+        <v>5</v>
+      </c>
+      <c r="R52" s="12">
+        <v>5</v>
+      </c>
+      <c r="S52" s="12">
+        <v>30</v>
+      </c>
+      <c r="T52" s="12">
+        <v>30</v>
+      </c>
+      <c r="U52" s="12">
+        <v>3</v>
+      </c>
+      <c r="V52" s="10">
         <v>35</v>
       </c>
-      <c r="Q52" s="12">
-        <v>3</v>
-      </c>
-      <c r="R52" s="12">
-        <v>3</v>
-      </c>
-      <c r="S52" s="12">
-        <v>40</v>
-      </c>
-      <c r="T52" s="12">
-        <v>40</v>
-      </c>
-      <c r="U52" s="12">
-        <v>2</v>
-      </c>
-      <c r="V52" s="10">
-        <v>25</v>
-      </c>
       <c r="W52" s="12">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A53" s="4" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E53" s="5">
-        <v>1964</v>
+        <v>1958</v>
       </c>
       <c r="F53" s="4"/>
-      <c r="G53" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>149</v>
-      </c>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
       <c r="I53" s="4" t="s">
         <v>80</v>
       </c>
@@ -33508,68 +33903,48 @@
         <v>81</v>
       </c>
       <c r="K53" s="6">
-        <v>0.16700000000000001</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L53" s="7">
-        <v>1518.0000000000002</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="M53" s="7">
-        <v>48.400000000000006</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="N53" s="7">
-        <v>5.1975000000000007</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="O53" s="8">
-        <v>0.309</v>
-      </c>
-      <c r="P53" s="7">
-        <v>35</v>
-      </c>
-      <c r="Q53" s="7">
-        <v>3</v>
-      </c>
-      <c r="R53" s="7">
-        <v>3</v>
-      </c>
-      <c r="S53" s="7">
-        <v>40</v>
-      </c>
-      <c r="T53" s="7">
-        <v>40</v>
-      </c>
-      <c r="U53" s="7">
-        <v>2</v>
-      </c>
-      <c r="V53" s="5">
-        <v>25</v>
-      </c>
-      <c r="W53" s="7">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="7"/>
+      <c r="T53" s="7"/>
+      <c r="U53" s="7"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="7"/>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A54" s="9" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E54" s="10">
-        <v>2019</v>
+        <v>1972</v>
       </c>
       <c r="F54" s="9"/>
-      <c r="G54" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="H54" s="9" t="s">
-        <v>152</v>
-      </c>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
       <c r="I54" s="9" t="s">
         <v>80</v>
       </c>
@@ -33577,189 +33952,133 @@
         <v>81</v>
       </c>
       <c r="K54" s="11">
-        <v>0.21</v>
+        <v>0.08</v>
       </c>
       <c r="L54" s="12">
-        <v>1518.0000000000002</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="M54" s="12">
-        <v>48.400000000000006</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="N54" s="12">
-        <v>5.1975000000000007</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="O54" s="13">
-        <v>0.35534999999999994</v>
-      </c>
-      <c r="P54" s="12">
-        <v>40</v>
-      </c>
-      <c r="Q54" s="12">
-        <v>5</v>
-      </c>
-      <c r="R54" s="12">
-        <v>5</v>
-      </c>
-      <c r="S54" s="12">
-        <v>30</v>
-      </c>
-      <c r="T54" s="12">
-        <v>30</v>
-      </c>
-      <c r="U54" s="12">
-        <v>3</v>
-      </c>
-      <c r="V54" s="10">
-        <v>35</v>
-      </c>
-      <c r="W54" s="12">
-        <v>7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="12"/>
+      <c r="S54" s="12"/>
+      <c r="T54" s="12"/>
+      <c r="U54" s="12"/>
+      <c r="V54" s="10"/>
+      <c r="W54" s="12"/>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A55" s="4" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E55" s="5">
-        <v>2019</v>
+        <v>2009</v>
       </c>
       <c r="F55" s="4"/>
-      <c r="G55" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>152</v>
-      </c>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
       <c r="I55" s="4" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J55" s="4" t="s">
         <v>81</v>
       </c>
       <c r="K55" s="6">
-        <v>0.21</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="L55" s="7">
-        <v>1518.0000000000002</v>
+        <v>3162.5000000000009</v>
       </c>
       <c r="M55" s="7">
-        <v>48.400000000000006</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="N55" s="7">
-        <v>5.1975000000000007</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="O55" s="8">
-        <v>0.35534999999999994</v>
-      </c>
-      <c r="P55" s="7">
-        <v>40</v>
-      </c>
-      <c r="Q55" s="7">
-        <v>5</v>
-      </c>
-      <c r="R55" s="7">
-        <v>5</v>
-      </c>
-      <c r="S55" s="7">
-        <v>30</v>
-      </c>
-      <c r="T55" s="7">
-        <v>30</v>
-      </c>
-      <c r="U55" s="7">
-        <v>3</v>
-      </c>
-      <c r="V55" s="5">
-        <v>35</v>
-      </c>
-      <c r="W55" s="7">
-        <v>7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7"/>
+      <c r="S55" s="7"/>
+      <c r="T55" s="7"/>
+      <c r="U55" s="7"/>
+      <c r="V55" s="5"/>
+      <c r="W55" s="7"/>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A56" s="9" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E56" s="10">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="F56" s="9"/>
-      <c r="G56" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="H56" s="9" t="s">
-        <v>152</v>
-      </c>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
       <c r="I56" s="9" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J56" s="9" t="s">
         <v>81</v>
       </c>
       <c r="K56" s="11">
-        <v>0.21</v>
+        <v>0.76518499999999978</v>
       </c>
       <c r="L56" s="12">
-        <v>1518.0000000000002</v>
+        <v>2750</v>
       </c>
       <c r="M56" s="12">
-        <v>48.400000000000006</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="N56" s="12">
-        <v>5.1975000000000007</v>
+        <v>2.1</v>
       </c>
       <c r="O56" s="13">
-        <v>0.35534999999999994</v>
-      </c>
-      <c r="P56" s="12">
-        <v>40</v>
-      </c>
-      <c r="Q56" s="12">
-        <v>5</v>
-      </c>
-      <c r="R56" s="12">
-        <v>5</v>
-      </c>
-      <c r="S56" s="12">
-        <v>30</v>
-      </c>
-      <c r="T56" s="12">
-        <v>30</v>
-      </c>
-      <c r="U56" s="12">
-        <v>3</v>
-      </c>
-      <c r="V56" s="10">
-        <v>35</v>
-      </c>
-      <c r="W56" s="12">
-        <v>7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="12"/>
+      <c r="R56" s="12"/>
+      <c r="S56" s="12"/>
+      <c r="T56" s="12"/>
+      <c r="U56" s="12"/>
+      <c r="V56" s="10"/>
+      <c r="W56" s="12"/>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A57" s="4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>158</v>
@@ -33768,10 +34087,12 @@
         <v>52</v>
       </c>
       <c r="E57" s="5">
-        <v>1958</v>
+        <v>1974</v>
       </c>
       <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
+      <c r="G57" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="H57" s="4"/>
       <c r="I57" s="4" t="s">
         <v>80</v>
@@ -33780,16 +34101,16 @@
         <v>81</v>
       </c>
       <c r="K57" s="6">
-        <v>8.1000000000000003E-2</v>
+        <v>0.375</v>
       </c>
       <c r="L57" s="7">
-        <v>3162.5000000000005</v>
+        <v>2750</v>
       </c>
       <c r="M57" s="7">
-        <v>60.500000000000014</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="N57" s="7">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="O57" s="8">
         <v>1</v>
@@ -33805,10 +34126,10 @@
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A58" s="9" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>78</v>
+        <v>165</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>158</v>
@@ -33817,10 +34138,12 @@
         <v>52</v>
       </c>
       <c r="E58" s="10">
-        <v>1972</v>
+        <v>1964</v>
       </c>
       <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
+      <c r="G58" s="9" t="s">
+        <v>98</v>
+      </c>
       <c r="H58" s="9"/>
       <c r="I58" s="9" t="s">
         <v>80</v>
@@ -33829,7 +34152,7 @@
         <v>81</v>
       </c>
       <c r="K58" s="11">
-        <v>0.08</v>
+        <v>0.114</v>
       </c>
       <c r="L58" s="12">
         <v>3162.5000000000005</v>
@@ -33854,10 +34177,10 @@
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A59" s="4" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>78</v>
+        <v>167</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>158</v>
@@ -33866,11 +34189,15 @@
         <v>52</v>
       </c>
       <c r="E59" s="5">
-        <v>2009</v>
+        <v>1963</v>
       </c>
       <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
+      <c r="G59" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>168</v>
+      </c>
       <c r="I59" s="4" t="s">
         <v>80</v>
       </c>
@@ -33878,10 +34205,10 @@
         <v>81</v>
       </c>
       <c r="K59" s="6">
-        <v>8.5000000000000006E-2</v>
+        <v>0.11</v>
       </c>
       <c r="L59" s="7">
-        <v>3162.5000000000009</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="M59" s="7">
         <v>60.500000000000014</v>
@@ -33903,10 +34230,10 @@
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A60" s="9" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>158</v>
@@ -33915,10 +34242,12 @@
         <v>52</v>
       </c>
       <c r="E60" s="10">
-        <v>2022</v>
+        <v>1975</v>
       </c>
       <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
+      <c r="G60" s="9" t="s">
+        <v>163</v>
+      </c>
       <c r="H60" s="9"/>
       <c r="I60" s="9" t="s">
         <v>80</v>
@@ -33927,16 +34256,16 @@
         <v>81</v>
       </c>
       <c r="K60" s="11">
-        <v>0.76518499999999978</v>
+        <v>0.12</v>
       </c>
       <c r="L60" s="12">
-        <v>2750</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="M60" s="12">
-        <v>55.000000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="N60" s="12">
-        <v>2.1</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="O60" s="13">
         <v>1</v>
@@ -33952,10 +34281,10 @@
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A61" s="4" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>158</v>
@@ -33964,7 +34293,7 @@
         <v>52</v>
       </c>
       <c r="E61" s="5">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="4" t="s">
@@ -33978,16 +34307,16 @@
         <v>81</v>
       </c>
       <c r="K61" s="6">
-        <v>0.375</v>
+        <v>0.16</v>
       </c>
       <c r="L61" s="7">
-        <v>2750</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="M61" s="7">
-        <v>55.000000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="N61" s="7">
-        <v>2.1</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="O61" s="8">
         <v>1</v>
@@ -34003,10 +34332,10 @@
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A62" s="9" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>158</v>
@@ -34015,11 +34344,11 @@
         <v>52</v>
       </c>
       <c r="E62" s="10">
-        <v>1964</v>
+        <v>1959</v>
       </c>
       <c r="F62" s="9"/>
       <c r="G62" s="9" t="s">
-        <v>98</v>
+        <v>163</v>
       </c>
       <c r="H62" s="9"/>
       <c r="I62" s="9" t="s">
@@ -34029,7 +34358,7 @@
         <v>81</v>
       </c>
       <c r="K62" s="11">
-        <v>0.114</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="L62" s="12">
         <v>3162.5000000000005</v>
@@ -34054,10 +34383,10 @@
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A63" s="4" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>158</v>
@@ -34066,15 +34395,13 @@
         <v>52</v>
       </c>
       <c r="E63" s="5">
-        <v>1963</v>
+        <v>1974</v>
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>168</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="H63" s="4"/>
       <c r="I63" s="4" t="s">
         <v>80</v>
       </c>
@@ -34082,7 +34409,7 @@
         <v>81</v>
       </c>
       <c r="K63" s="6">
-        <v>0.11</v>
+        <v>0.24</v>
       </c>
       <c r="L63" s="7">
         <v>3162.5000000000005</v>
@@ -34107,10 +34434,10 @@
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A64" s="9" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>158</v>
@@ -34119,7 +34446,7 @@
         <v>52</v>
       </c>
       <c r="E64" s="10">
-        <v>1975</v>
+        <v>1995</v>
       </c>
       <c r="F64" s="9"/>
       <c r="G64" s="9" t="s">
@@ -34133,16 +34460,16 @@
         <v>81</v>
       </c>
       <c r="K64" s="11">
-        <v>0.12</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="L64" s="12">
-        <v>3162.5000000000005</v>
+        <v>1980.0000000000002</v>
       </c>
       <c r="M64" s="12">
-        <v>60.500000000000014</v>
+        <v>44</v>
       </c>
       <c r="N64" s="12">
-        <v>2.3100000000000005</v>
+        <v>1.5750000000000002</v>
       </c>
       <c r="O64" s="13">
         <v>1</v>
@@ -34158,10 +34485,10 @@
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A65" s="4" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>158</v>
@@ -34170,12 +34497,10 @@
         <v>52</v>
       </c>
       <c r="E65" s="5">
-        <v>1975</v>
+        <v>1984</v>
       </c>
       <c r="F65" s="4"/>
-      <c r="G65" s="4" t="s">
-        <v>163</v>
-      </c>
+      <c r="G65" s="4"/>
       <c r="H65" s="4"/>
       <c r="I65" s="4" t="s">
         <v>80</v>
@@ -34184,16 +34509,16 @@
         <v>81</v>
       </c>
       <c r="K65" s="6">
-        <v>0.16</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="L65" s="7">
-        <v>3162.5000000000005</v>
+        <v>2783</v>
       </c>
       <c r="M65" s="7">
-        <v>60.500000000000014</v>
+        <v>66.550000000000011</v>
       </c>
       <c r="N65" s="7">
-        <v>2.3100000000000005</v>
+        <v>2.8875000000000002</v>
       </c>
       <c r="O65" s="8">
         <v>1</v>
@@ -34209,10 +34534,10 @@
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A66" s="9" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>174</v>
+        <v>78</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>158</v>
@@ -34221,12 +34546,10 @@
         <v>52</v>
       </c>
       <c r="E66" s="10">
-        <v>1959</v>
+        <v>2015</v>
       </c>
       <c r="F66" s="9"/>
-      <c r="G66" s="9" t="s">
-        <v>163</v>
-      </c>
+      <c r="G66" s="9"/>
       <c r="H66" s="9"/>
       <c r="I66" s="9" t="s">
         <v>80</v>
@@ -34235,16 +34558,16 @@
         <v>81</v>
       </c>
       <c r="K66" s="11">
-        <v>0.13500000000000001</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="L66" s="12">
-        <v>3162.5000000000005</v>
+        <v>2783</v>
       </c>
       <c r="M66" s="12">
-        <v>60.500000000000014</v>
+        <v>66.550000000000011</v>
       </c>
       <c r="N66" s="12">
-        <v>2.3100000000000005</v>
+        <v>2.8875000000000002</v>
       </c>
       <c r="O66" s="13">
         <v>1</v>
@@ -34260,24 +34583,22 @@
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A67" s="4" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E67" s="5">
-        <v>1974</v>
+        <v>1993</v>
       </c>
       <c r="F67" s="4"/>
-      <c r="G67" s="4" t="s">
-        <v>163</v>
-      </c>
+      <c r="G67" s="4"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4" t="s">
         <v>80</v>
@@ -34286,49 +34607,63 @@
         <v>81</v>
       </c>
       <c r="K67" s="6">
-        <v>0.24</v>
+        <v>1.04</v>
       </c>
       <c r="L67" s="7">
-        <v>3162.5000000000005</v>
+        <v>7150.0000000000009</v>
       </c>
       <c r="M67" s="7">
-        <v>60.500000000000014</v>
+        <v>165</v>
       </c>
       <c r="N67" s="7">
-        <v>2.3100000000000005</v>
+        <v>4.2</v>
       </c>
       <c r="O67" s="8">
         <v>1</v>
       </c>
-      <c r="P67" s="7"/>
-      <c r="Q67" s="7"/>
-      <c r="R67" s="7"/>
-      <c r="S67" s="7"/>
-      <c r="T67" s="7"/>
-      <c r="U67" s="7"/>
-      <c r="V67" s="5"/>
-      <c r="W67" s="7"/>
+      <c r="P67" s="7">
+        <v>70</v>
+      </c>
+      <c r="Q67" s="7">
+        <v>24</v>
+      </c>
+      <c r="R67" s="7">
+        <v>24</v>
+      </c>
+      <c r="S67" s="7">
+        <v>5</v>
+      </c>
+      <c r="T67" s="7">
+        <v>5</v>
+      </c>
+      <c r="U67" s="7">
+        <v>48</v>
+      </c>
+      <c r="V67" s="5">
+        <v>100</v>
+      </c>
+      <c r="W67" s="7">
+        <v>50</v>
+      </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A68" s="9" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="D68" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E68" s="10">
-        <v>1995</v>
+        <v>1988</v>
       </c>
       <c r="F68" s="9"/>
-      <c r="G68" s="9" t="s">
-        <v>163</v>
-      </c>
+      <c r="G68" s="9"/>
       <c r="H68" s="9"/>
       <c r="I68" s="9" t="s">
         <v>80</v>
@@ -34337,44 +34672,60 @@
         <v>81</v>
       </c>
       <c r="K68" s="11">
-        <v>0.86399999999999999</v>
+        <v>1.04</v>
       </c>
       <c r="L68" s="12">
-        <v>1980.0000000000002</v>
+        <v>7150.0000000000009</v>
       </c>
       <c r="M68" s="12">
-        <v>44</v>
+        <v>165</v>
       </c>
       <c r="N68" s="12">
-        <v>1.5750000000000002</v>
+        <v>4.2</v>
       </c>
       <c r="O68" s="13">
         <v>1</v>
       </c>
-      <c r="P68" s="12"/>
-      <c r="Q68" s="12"/>
-      <c r="R68" s="12"/>
-      <c r="S68" s="12"/>
-      <c r="T68" s="12"/>
-      <c r="U68" s="12"/>
-      <c r="V68" s="10"/>
-      <c r="W68" s="12"/>
+      <c r="P68" s="12">
+        <v>70</v>
+      </c>
+      <c r="Q68" s="12">
+        <v>24</v>
+      </c>
+      <c r="R68" s="12">
+        <v>24</v>
+      </c>
+      <c r="S68" s="12">
+        <v>5</v>
+      </c>
+      <c r="T68" s="12">
+        <v>5</v>
+      </c>
+      <c r="U68" s="12">
+        <v>48</v>
+      </c>
+      <c r="V68" s="10">
+        <v>100</v>
+      </c>
+      <c r="W68" s="12">
+        <v>50</v>
+      </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A69" s="4" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>78</v>
+        <v>186</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E69" s="5">
-        <v>1984</v>
+        <v>2022</v>
       </c>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
@@ -34383,19 +34734,19 @@
         <v>80</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>81</v>
+        <v>188</v>
       </c>
       <c r="K69" s="6">
-        <v>0.14799999999999999</v>
+        <v>0.16943700000000006</v>
       </c>
       <c r="L69" s="7">
-        <v>2783</v>
+        <v>1138.5</v>
       </c>
       <c r="M69" s="7">
-        <v>66.550000000000011</v>
+        <v>18.150000000000002</v>
       </c>
       <c r="N69" s="7">
-        <v>2.8875000000000002</v>
+        <v>0</v>
       </c>
       <c r="O69" s="8">
         <v>1</v>
@@ -34411,19 +34762,19 @@
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A70" s="9" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="B70" s="9" t="s">
         <v>78</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="D70" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E70" s="10">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
@@ -34432,19 +34783,19 @@
         <v>80</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>81</v>
+        <v>188</v>
       </c>
       <c r="K70" s="11">
-        <v>7.0999999999999994E-2</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="L70" s="12">
-        <v>2783</v>
+        <v>1336.5</v>
       </c>
       <c r="M70" s="12">
-        <v>66.550000000000011</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="N70" s="12">
-        <v>2.8875000000000002</v>
+        <v>0</v>
       </c>
       <c r="O70" s="13">
         <v>1</v>
@@ -34460,19 +34811,19 @@
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A71" s="4" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>181</v>
+        <v>78</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E71" s="5">
-        <v>1993</v>
+        <v>2011</v>
       </c>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
@@ -34481,63 +34832,47 @@
         <v>80</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>81</v>
+        <v>188</v>
       </c>
       <c r="K71" s="6">
-        <v>1.04</v>
+        <v>4.0799999999999996E-2</v>
       </c>
       <c r="L71" s="7">
-        <v>7150.0000000000009</v>
+        <v>1336.5</v>
       </c>
       <c r="M71" s="7">
-        <v>165</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="N71" s="7">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="O71" s="8">
         <v>1</v>
       </c>
-      <c r="P71" s="7">
-        <v>70</v>
-      </c>
-      <c r="Q71" s="7">
-        <v>24</v>
-      </c>
-      <c r="R71" s="7">
-        <v>24</v>
-      </c>
-      <c r="S71" s="7">
-        <v>5</v>
-      </c>
-      <c r="T71" s="7">
-        <v>5</v>
-      </c>
-      <c r="U71" s="7">
-        <v>48</v>
-      </c>
-      <c r="V71" s="5">
-        <v>100</v>
-      </c>
-      <c r="W71" s="7">
-        <v>50</v>
-      </c>
+      <c r="P71" s="7"/>
+      <c r="Q71" s="7"/>
+      <c r="R71" s="7"/>
+      <c r="S71" s="7"/>
+      <c r="T71" s="7"/>
+      <c r="U71" s="7"/>
+      <c r="V71" s="5"/>
+      <c r="W71" s="7"/>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A72" s="9" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E72" s="10">
-        <v>1988</v>
+        <v>2012</v>
       </c>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
@@ -34546,54 +34881,38 @@
         <v>80</v>
       </c>
       <c r="J72" s="9" t="s">
-        <v>81</v>
+        <v>188</v>
       </c>
       <c r="K72" s="11">
-        <v>1.04</v>
+        <v>0.34</v>
       </c>
       <c r="L72" s="12">
-        <v>7150.0000000000009</v>
+        <v>1271.8588235294117</v>
       </c>
       <c r="M72" s="12">
-        <v>165</v>
+        <v>20.372647058823539</v>
       </c>
       <c r="N72" s="12">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="O72" s="13">
         <v>1</v>
       </c>
-      <c r="P72" s="12">
-        <v>70</v>
-      </c>
-      <c r="Q72" s="12">
-        <v>24</v>
-      </c>
-      <c r="R72" s="12">
-        <v>24</v>
-      </c>
-      <c r="S72" s="12">
-        <v>5</v>
-      </c>
-      <c r="T72" s="12">
-        <v>5</v>
-      </c>
-      <c r="U72" s="12">
-        <v>48</v>
-      </c>
-      <c r="V72" s="10">
-        <v>100</v>
-      </c>
-      <c r="W72" s="12">
-        <v>50</v>
-      </c>
+      <c r="P72" s="12"/>
+      <c r="Q72" s="12"/>
+      <c r="R72" s="12"/>
+      <c r="S72" s="12"/>
+      <c r="T72" s="12"/>
+      <c r="U72" s="12"/>
+      <c r="V72" s="10"/>
+      <c r="W72" s="12"/>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A73" s="4" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>187</v>
@@ -34602,7 +34921,7 @@
         <v>52</v>
       </c>
       <c r="E73" s="5">
-        <v>2022</v>
+        <v>2013</v>
       </c>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
@@ -34614,13 +34933,13 @@
         <v>188</v>
       </c>
       <c r="K73" s="6">
-        <v>0.16943700000000006</v>
+        <v>2.12E-2</v>
       </c>
       <c r="L73" s="7">
-        <v>1138.5</v>
+        <v>1336.5</v>
       </c>
       <c r="M73" s="7">
-        <v>18.150000000000002</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="N73" s="7">
         <v>0</v>
@@ -34651,7 +34970,7 @@
         <v>52</v>
       </c>
       <c r="E74" s="10">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
@@ -34663,13 +34982,13 @@
         <v>188</v>
       </c>
       <c r="K74" s="11">
-        <v>4.7999999999999996E-3</v>
+        <v>0.88529999999999998</v>
       </c>
       <c r="L74" s="12">
-        <v>1336.5</v>
+        <v>1336.4999999999995</v>
       </c>
       <c r="M74" s="12">
-        <v>21.450000000000003</v>
+        <v>21.449999999999989</v>
       </c>
       <c r="N74" s="12">
         <v>0</v>
@@ -34700,7 +35019,7 @@
         <v>52</v>
       </c>
       <c r="E75" s="5">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
@@ -34712,7 +35031,7 @@
         <v>188</v>
       </c>
       <c r="K75" s="6">
-        <v>4.0799999999999996E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="L75" s="7">
         <v>1336.5</v>
@@ -34749,7 +35068,7 @@
         <v>52</v>
       </c>
       <c r="E76" s="10">
-        <v>2012</v>
+        <v>2021</v>
       </c>
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
@@ -34761,13 +35080,13 @@
         <v>188</v>
       </c>
       <c r="K76" s="11">
-        <v>0.34</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="L76" s="12">
-        <v>1271.8588235294117</v>
+        <v>1186.02</v>
       </c>
       <c r="M76" s="12">
-        <v>20.372647058823539</v>
+        <v>18.942</v>
       </c>
       <c r="N76" s="12">
         <v>0</v>
@@ -34798,7 +35117,7 @@
         <v>52</v>
       </c>
       <c r="E77" s="5">
-        <v>2013</v>
+        <v>2022</v>
       </c>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
@@ -34810,13 +35129,13 @@
         <v>188</v>
       </c>
       <c r="K77" s="6">
-        <v>2.12E-2</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="L77" s="7">
-        <v>1336.5</v>
+        <v>1155.5689655172414</v>
       </c>
       <c r="M77" s="7">
-        <v>21.450000000000003</v>
+        <v>18.434482758620693</v>
       </c>
       <c r="N77" s="7">
         <v>0</v>
@@ -34847,7 +35166,7 @@
         <v>52</v>
       </c>
       <c r="E78" s="10">
-        <v>2015</v>
+        <v>2024</v>
       </c>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
@@ -34859,13 +35178,13 @@
         <v>188</v>
       </c>
       <c r="K78" s="11">
-        <v>0.88529999999999998</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="L78" s="12">
-        <v>1336.4999999999995</v>
+        <v>1232.4085714285713</v>
       </c>
       <c r="M78" s="12">
-        <v>21.449999999999989</v>
+        <v>19.715142857142862</v>
       </c>
       <c r="N78" s="12">
         <v>0</v>
@@ -34884,10 +35203,10 @@
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A79" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>187</v>
@@ -34896,11 +35215,15 @@
         <v>52</v>
       </c>
       <c r="E79" s="5">
-        <v>2019</v>
+        <v>2025</v>
       </c>
       <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
+      <c r="G79" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="I79" s="4" t="s">
         <v>80</v>
       </c>
@@ -34908,13 +35231,13 @@
         <v>188</v>
       </c>
       <c r="K79" s="6">
-        <v>2.5999999999999999E-2</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="L79" s="7">
-        <v>1336.5</v>
+        <v>1138.5</v>
       </c>
       <c r="M79" s="7">
-        <v>21.450000000000003</v>
+        <v>18.150000000000002</v>
       </c>
       <c r="N79" s="7">
         <v>0</v>
@@ -34933,10 +35256,10 @@
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A80" s="9" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="C80" s="9" t="s">
         <v>187</v>
@@ -34945,7 +35268,7 @@
         <v>52</v>
       </c>
       <c r="E80" s="10">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
@@ -34957,13 +35280,13 @@
         <v>188</v>
       </c>
       <c r="K80" s="11">
-        <v>7.4999999999999997E-2</v>
+        <v>0.124</v>
       </c>
       <c r="L80" s="12">
-        <v>1186.02</v>
+        <v>1138.5</v>
       </c>
       <c r="M80" s="12">
-        <v>18.942</v>
+        <v>18.150000000000002</v>
       </c>
       <c r="N80" s="12">
         <v>0</v>
@@ -34982,10 +35305,10 @@
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A81" s="4" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>187</v>
@@ -34994,11 +35317,15 @@
         <v>52</v>
       </c>
       <c r="E81" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
+      <c r="G81" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="I81" s="4" t="s">
         <v>80</v>
       </c>
@@ -35006,13 +35333,13 @@
         <v>188</v>
       </c>
       <c r="K81" s="6">
-        <v>0.17399999999999999</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="L81" s="7">
-        <v>1155.5689655172414</v>
+        <v>1138.5</v>
       </c>
       <c r="M81" s="7">
-        <v>18.434482758620693</v>
+        <v>18.150000000000002</v>
       </c>
       <c r="N81" s="7">
         <v>0</v>
@@ -35031,10 +35358,10 @@
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A82" s="9" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>78</v>
+        <v>199</v>
       </c>
       <c r="C82" s="9" t="s">
         <v>187</v>
@@ -35046,8 +35373,12 @@
         <v>2024</v>
       </c>
       <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9"/>
+      <c r="G82" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="H82" s="9" t="s">
+        <v>201</v>
+      </c>
       <c r="I82" s="9" t="s">
         <v>80</v>
       </c>
@@ -35055,13 +35386,13 @@
         <v>188</v>
       </c>
       <c r="K82" s="11">
-        <v>0.17499999999999999</v>
+        <v>0.107</v>
       </c>
       <c r="L82" s="12">
-        <v>1232.4085714285713</v>
+        <v>1138.5</v>
       </c>
       <c r="M82" s="12">
-        <v>19.715142857142862</v>
+        <v>18.150000000000002</v>
       </c>
       <c r="N82" s="12">
         <v>0</v>
@@ -35080,10 +35411,10 @@
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A83" s="4" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>187</v>
@@ -35095,11 +35426,9 @@
         <v>2025</v>
       </c>
       <c r="F83" s="4"/>
-      <c r="G83" s="4" t="s">
-        <v>192</v>
-      </c>
+      <c r="G83" s="4"/>
       <c r="H83" s="4" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="I83" s="4" t="s">
         <v>80</v>
@@ -35108,7 +35437,7 @@
         <v>188</v>
       </c>
       <c r="K83" s="6">
-        <v>0.23799999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="L83" s="7">
         <v>1138.5</v>
@@ -35133,10 +35462,10 @@
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A84" s="9" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="C84" s="9" t="s">
         <v>187</v>
@@ -35145,10 +35474,12 @@
         <v>52</v>
       </c>
       <c r="E84" s="10">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
+      <c r="G84" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="H84" s="9"/>
       <c r="I84" s="9" t="s">
         <v>80</v>
@@ -35157,7 +35488,7 @@
         <v>188</v>
       </c>
       <c r="K84" s="11">
-        <v>0.124</v>
+        <v>0.25</v>
       </c>
       <c r="L84" s="12">
         <v>1138.5</v>
@@ -35182,44 +35513,40 @@
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A85" s="4" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>197</v>
+        <v>78</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E85" s="5">
-        <v>2023</v>
+        <v>2008</v>
       </c>
       <c r="F85" s="4"/>
-      <c r="G85" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H85" s="4" t="s">
-        <v>122</v>
-      </c>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
       <c r="I85" s="4" t="s">
         <v>80</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="K85" s="6">
-        <v>0.20100000000000001</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="L85" s="7">
-        <v>1138.5</v>
+        <v>2376</v>
       </c>
       <c r="M85" s="7">
-        <v>18.150000000000002</v>
+        <v>57.2</v>
       </c>
       <c r="N85" s="7">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="O85" s="8">
         <v>1</v>
@@ -35235,44 +35562,40 @@
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A86" s="9" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E86" s="10">
-        <v>2024</v>
+        <v>2009</v>
       </c>
       <c r="F86" s="9"/>
-      <c r="G86" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="H86" s="9" t="s">
-        <v>201</v>
-      </c>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
       <c r="I86" s="9" t="s">
         <v>80</v>
       </c>
       <c r="J86" s="9" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="K86" s="11">
-        <v>0.107</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="L86" s="12">
-        <v>1138.5</v>
+        <v>2376</v>
       </c>
       <c r="M86" s="12">
-        <v>18.150000000000002</v>
+        <v>57.2</v>
       </c>
       <c r="N86" s="12">
-        <v>0</v>
+        <v>2.5200000000000005</v>
       </c>
       <c r="O86" s="13">
         <v>1</v>
@@ -35288,42 +35611,40 @@
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A87" s="4" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>203</v>
+        <v>78</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E87" s="5">
-        <v>2025</v>
+        <v>2010</v>
       </c>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
-      <c r="H87" s="4" t="s">
-        <v>204</v>
-      </c>
+      <c r="H87" s="4"/>
       <c r="I87" s="4" t="s">
         <v>80</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="K87" s="6">
-        <v>0.1</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="L87" s="7">
-        <v>1138.5</v>
+        <v>2376</v>
       </c>
       <c r="M87" s="7">
-        <v>18.150000000000002</v>
+        <v>57.199999999999996</v>
       </c>
       <c r="N87" s="7">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="O87" s="8">
         <v>1</v>
@@ -35339,42 +35660,40 @@
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A88" s="9" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>206</v>
+        <v>78</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E88" s="10">
-        <v>2024</v>
+        <v>2011</v>
       </c>
       <c r="F88" s="9"/>
-      <c r="G88" s="9" t="s">
-        <v>207</v>
-      </c>
+      <c r="G88" s="9"/>
       <c r="H88" s="9"/>
       <c r="I88" s="9" t="s">
         <v>80</v>
       </c>
       <c r="J88" s="9" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="K88" s="11">
-        <v>0.25</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="L88" s="12">
-        <v>1138.5</v>
+        <v>2232.3265306122448</v>
       </c>
       <c r="M88" s="12">
-        <v>18.150000000000002</v>
+        <v>53.608163265306118</v>
       </c>
       <c r="N88" s="12">
-        <v>0</v>
+        <v>2.4342857142857146</v>
       </c>
       <c r="O88" s="13">
         <v>1</v>
@@ -35402,7 +35721,7 @@
         <v>52</v>
       </c>
       <c r="E89" s="5">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
@@ -35414,7 +35733,7 @@
         <v>210</v>
       </c>
       <c r="K89" s="6">
-        <v>4.4999999999999998E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="L89" s="7">
         <v>2376</v>
@@ -35423,7 +35742,7 @@
         <v>57.2</v>
       </c>
       <c r="N89" s="7">
-        <v>2.52</v>
+        <v>2.5199999999999996</v>
       </c>
       <c r="O89" s="8">
         <v>1</v>
@@ -35451,7 +35770,7 @@
         <v>52</v>
       </c>
       <c r="E90" s="10">
-        <v>2009</v>
+        <v>2022</v>
       </c>
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
@@ -35463,16 +35782,16 @@
         <v>210</v>
       </c>
       <c r="K90" s="11">
-        <v>3.6999999999999998E-2</v>
+        <v>9.6310000000000007E-2</v>
       </c>
       <c r="L90" s="12">
-        <v>2376</v>
+        <v>2024</v>
       </c>
       <c r="M90" s="12">
-        <v>57.2</v>
+        <v>48.400000000000006</v>
       </c>
       <c r="N90" s="12">
-        <v>2.5200000000000005</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="O90" s="13">
         <v>1</v>
@@ -35488,10 +35807,10 @@
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A91" s="4" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>78</v>
+        <v>212</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>209</v>
@@ -35503,7 +35822,9 @@
         <v>2010</v>
       </c>
       <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
+      <c r="G91" s="4" t="s">
+        <v>213</v>
+      </c>
       <c r="H91" s="4"/>
       <c r="I91" s="4" t="s">
         <v>80</v>
@@ -35512,16 +35833,16 @@
         <v>210</v>
       </c>
       <c r="K91" s="6">
-        <v>0.16900000000000001</v>
+        <v>0.156</v>
       </c>
       <c r="L91" s="7">
-        <v>2376</v>
+        <v>2024</v>
       </c>
       <c r="M91" s="7">
-        <v>57.199999999999996</v>
+        <v>48.400000000000006</v>
       </c>
       <c r="N91" s="7">
-        <v>2.52</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="O91" s="8">
         <v>1</v>
@@ -35535,210 +35856,14 @@
       <c r="V91" s="5"/>
       <c r="W91" s="7"/>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A92" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="B92" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E92" s="10">
-        <v>2011</v>
-      </c>
-      <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
-      <c r="H92" s="9"/>
-      <c r="I92" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="J92" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="K92" s="11">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="L92" s="12">
-        <v>2232.3265306122448</v>
-      </c>
-      <c r="M92" s="12">
-        <v>53.608163265306118</v>
-      </c>
-      <c r="N92" s="12">
-        <v>2.4342857142857146</v>
-      </c>
-      <c r="O92" s="13">
-        <v>1</v>
-      </c>
-      <c r="P92" s="12"/>
-      <c r="Q92" s="12"/>
-      <c r="R92" s="12"/>
-      <c r="S92" s="12"/>
-      <c r="T92" s="12"/>
-      <c r="U92" s="12"/>
-      <c r="V92" s="10"/>
-      <c r="W92" s="12"/>
-    </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A93" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E93" s="5">
-        <v>2012</v>
-      </c>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
-      <c r="I93" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="J93" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="K93" s="6">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="L93" s="7">
-        <v>2376</v>
-      </c>
-      <c r="M93" s="7">
-        <v>57.2</v>
-      </c>
-      <c r="N93" s="7">
-        <v>2.5199999999999996</v>
-      </c>
-      <c r="O93" s="8">
-        <v>1</v>
-      </c>
-      <c r="P93" s="7"/>
-      <c r="Q93" s="7"/>
-      <c r="R93" s="7"/>
-      <c r="S93" s="7"/>
-      <c r="T93" s="7"/>
-      <c r="U93" s="7"/>
-      <c r="V93" s="5"/>
-      <c r="W93" s="7"/>
-    </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A94" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E94" s="10">
-        <v>2022</v>
-      </c>
-      <c r="F94" s="9"/>
-      <c r="G94" s="9"/>
-      <c r="H94" s="9"/>
-      <c r="I94" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="J94" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="K94" s="11">
-        <v>9.6310000000000007E-2</v>
-      </c>
-      <c r="L94" s="12">
-        <v>2024</v>
-      </c>
-      <c r="M94" s="12">
-        <v>48.400000000000006</v>
-      </c>
-      <c r="N94" s="12">
-        <v>2.3100000000000005</v>
-      </c>
-      <c r="O94" s="13">
-        <v>1</v>
-      </c>
-      <c r="P94" s="12"/>
-      <c r="Q94" s="12"/>
-      <c r="R94" s="12"/>
-      <c r="S94" s="12"/>
-      <c r="T94" s="12"/>
-      <c r="U94" s="12"/>
-      <c r="V94" s="10"/>
-      <c r="W94" s="12"/>
-    </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A95" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E95" s="5">
-        <v>2010</v>
-      </c>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="H95" s="4"/>
-      <c r="I95" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="J95" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="K95" s="6">
-        <v>0.156</v>
-      </c>
-      <c r="L95" s="7">
-        <v>2024</v>
-      </c>
-      <c r="M95" s="7">
-        <v>48.400000000000006</v>
-      </c>
-      <c r="N95" s="7">
-        <v>2.3100000000000005</v>
-      </c>
-      <c r="O95" s="8">
-        <v>1</v>
-      </c>
-      <c r="P95" s="7"/>
-      <c r="Q95" s="7"/>
-      <c r="R95" s="7"/>
-      <c r="S95" s="7"/>
-      <c r="T95" s="7"/>
-      <c r="U95" s="7"/>
-      <c r="V95" s="5"/>
-      <c r="W95" s="7"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A4:A8"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -45435,31 +45560,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
     </row>
     <row r="2" spans="1:25" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
@@ -48817,76 +48942,76 @@
       <c r="A57" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B57" s="17">
+      <c r="B57" s="16">
         <v>0</v>
       </c>
-      <c r="C57" s="17">
+      <c r="C57" s="16">
         <v>0</v>
       </c>
-      <c r="D57" s="17">
+      <c r="D57" s="16">
         <v>0</v>
       </c>
-      <c r="E57" s="17">
+      <c r="E57" s="16">
         <v>0</v>
       </c>
-      <c r="F57" s="17">
+      <c r="F57" s="16">
         <v>0</v>
       </c>
-      <c r="G57" s="17">
+      <c r="G57" s="16">
         <v>0</v>
       </c>
-      <c r="H57" s="17">
+      <c r="H57" s="16">
         <v>0</v>
       </c>
-      <c r="I57" s="17">
+      <c r="I57" s="16">
         <v>0</v>
       </c>
-      <c r="J57" s="17">
+      <c r="J57" s="16">
         <v>0.22831050228310504</v>
       </c>
-      <c r="K57" s="17">
+      <c r="K57" s="16">
         <v>0.11415525114155252</v>
       </c>
-      <c r="L57" s="17">
+      <c r="L57" s="16">
         <v>0.45662100456621008</v>
       </c>
-      <c r="M57" s="17">
+      <c r="M57" s="16">
         <v>0.68493150684931503</v>
       </c>
-      <c r="N57" s="17">
+      <c r="N57" s="16">
         <v>0.7990867579908677</v>
       </c>
-      <c r="O57" s="17">
+      <c r="O57" s="16">
         <v>0.41856925418569257</v>
       </c>
-      <c r="P57" s="17">
+      <c r="P57" s="16">
         <v>0.57077625570776258</v>
       </c>
-      <c r="Q57" s="17">
+      <c r="Q57" s="16">
         <v>0.61643835616438358</v>
       </c>
-      <c r="R57" s="17">
+      <c r="R57" s="16">
         <v>0.66590563165905636</v>
       </c>
-      <c r="S57" s="17">
+      <c r="S57" s="16">
         <v>0.91324200913242015</v>
       </c>
-      <c r="T57" s="17">
+      <c r="T57" s="16">
         <v>2.5603392041748205</v>
       </c>
-      <c r="U57" s="17">
+      <c r="U57" s="16">
         <v>3.4627092846270933</v>
       </c>
-      <c r="V57" s="17">
+      <c r="V57" s="16">
         <v>3.8812785388127851</v>
       </c>
-      <c r="W57" s="17">
+      <c r="W57" s="16">
         <v>5.9132420091324196</v>
       </c>
-      <c r="X57" s="17">
+      <c r="X57" s="16">
         <v>5.1141552511415531</v>
       </c>
-      <c r="Y57" s="17">
+      <c r="Y57" s="16">
         <v>4.9771689497716896</v>
       </c>
     </row>
@@ -48894,76 +49019,76 @@
       <c r="A58" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B58" s="18">
+      <c r="B58" s="17">
         <v>0.34409073920603195</v>
       </c>
-      <c r="C58" s="18">
+      <c r="C58" s="17">
         <v>0.39609028421001313</v>
       </c>
-      <c r="D58" s="18">
+      <c r="D58" s="17">
         <v>0.34896569655015519</v>
       </c>
-      <c r="E58" s="18">
+      <c r="E58" s="17">
         <v>0.3908090804205463</v>
       </c>
-      <c r="F58" s="18">
+      <c r="F58" s="17">
         <v>0.3922789539227895</v>
       </c>
-      <c r="G58" s="18">
+      <c r="G58" s="17">
         <v>0.38314653383146535</v>
       </c>
-      <c r="H58" s="18">
+      <c r="H58" s="17">
         <v>0.396222498962225</v>
       </c>
-      <c r="I58" s="18">
+      <c r="I58" s="17">
         <v>0.46430053964300544</v>
       </c>
-      <c r="J58" s="18">
+      <c r="J58" s="17">
         <v>0.48111249481112495</v>
       </c>
-      <c r="K58" s="18">
+      <c r="K58" s="17">
         <v>0.42782873873654675</v>
       </c>
-      <c r="L58" s="18">
+      <c r="L58" s="17">
         <v>0.45844586648499153</v>
       </c>
-      <c r="M58" s="18">
+      <c r="M58" s="17">
         <v>0.49726171897578175</v>
       </c>
-      <c r="N58" s="18">
+      <c r="N58" s="17">
         <v>0.41309028379862439</v>
       </c>
-      <c r="O58" s="18">
+      <c r="O58" s="17">
         <v>0.36227010141320837</v>
       </c>
-      <c r="P58" s="18">
+      <c r="P58" s="17">
         <v>0.41231328844516674</v>
       </c>
-      <c r="Q58" s="18">
+      <c r="Q58" s="17">
         <v>0.50828415182197206</v>
       </c>
-      <c r="R58" s="18">
+      <c r="R58" s="17">
         <v>0.4369935206742831</v>
       </c>
-      <c r="S58" s="18">
+      <c r="S58" s="17">
         <v>0.46734400271649285</v>
       </c>
-      <c r="T58" s="18">
+      <c r="T58" s="17">
         <v>0.41685655309224456</v>
       </c>
-      <c r="U58" s="18">
+      <c r="U58" s="17">
         <v>0.38424076705180099</v>
       </c>
-      <c r="V58" s="18">
+      <c r="V58" s="17">
         <v>0.30180771877150181</v>
       </c>
-      <c r="W58" s="18">
+      <c r="W58" s="17">
         <v>0.38178341330902782</v>
       </c>
-      <c r="X58" s="18">
+      <c r="X58" s="17">
         <v>0.48677943686388042</v>
       </c>
-      <c r="Y58" s="18">
+      <c r="Y58" s="17">
         <v>0.25824553878597789</v>
       </c>
     </row>
@@ -48971,76 +49096,76 @@
       <c r="A59" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B59" s="17">
+      <c r="B59" s="16">
         <v>0.19642930601834707</v>
       </c>
-      <c r="C59" s="17">
+      <c r="C59" s="16">
         <v>0.19642930601834707</v>
       </c>
-      <c r="D59" s="17">
+      <c r="D59" s="16">
         <v>0.1583775556378296</v>
       </c>
-      <c r="E59" s="17">
+      <c r="E59" s="16">
         <v>0.18100292072894811</v>
       </c>
-      <c r="F59" s="17">
+      <c r="F59" s="16">
         <v>0.15323542720802993</v>
       </c>
-      <c r="G59" s="17">
+      <c r="G59" s="16">
         <v>0.1779176436710683</v>
       </c>
-      <c r="H59" s="17">
+      <c r="H59" s="16">
         <v>0.22213994816734542</v>
       </c>
-      <c r="I59" s="17">
+      <c r="I59" s="16">
         <v>0.23228111971411552</v>
       </c>
-      <c r="J59" s="17">
+      <c r="J59" s="16">
         <v>0.23426642842962081</v>
       </c>
-      <c r="K59" s="17">
+      <c r="K59" s="16">
         <v>0.19456025411951558</v>
       </c>
-      <c r="L59" s="17">
+      <c r="L59" s="16">
         <v>0.19555290847726822</v>
       </c>
-      <c r="M59" s="17">
+      <c r="M59" s="16">
         <v>0.19786910197869106</v>
       </c>
-      <c r="N59" s="17">
+      <c r="N59" s="16">
         <v>0.22450532724505329</v>
       </c>
-      <c r="O59" s="17">
+      <c r="O59" s="16">
         <v>0.2226027397260274</v>
       </c>
-      <c r="P59" s="17">
+      <c r="P59" s="16">
         <v>0.20357686453576868</v>
       </c>
-      <c r="Q59" s="17">
+      <c r="Q59" s="16">
         <v>0.17694063926940642</v>
       </c>
-      <c r="R59" s="17">
+      <c r="R59" s="16">
         <v>0.1950152207001522</v>
       </c>
-      <c r="S59" s="17">
+      <c r="S59" s="16">
         <v>0.18359969558599698</v>
       </c>
-      <c r="T59" s="17">
+      <c r="T59" s="16">
         <v>0.19216133942161343</v>
       </c>
-      <c r="U59" s="17">
+      <c r="U59" s="16">
         <v>0.20452815829528159</v>
       </c>
-      <c r="V59" s="17">
+      <c r="V59" s="16">
         <v>0.21784627092846273</v>
       </c>
-      <c r="W59" s="17">
+      <c r="W59" s="16">
         <v>0.29014459665144599</v>
       </c>
-      <c r="X59" s="17">
+      <c r="X59" s="16">
         <v>0.1950152207001522</v>
       </c>
-      <c r="Y59" s="17">
+      <c r="Y59" s="16">
         <v>0.14840182648401828</v>
       </c>
     </row>
@@ -49048,76 +49173,76 @@
       <c r="A60" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="B60" s="18">
+      <c r="B60" s="17">
         <v>0.29434148088459128</v>
       </c>
-      <c r="C60" s="18">
+      <c r="C60" s="17">
         <v>0.22423352902804958</v>
       </c>
-      <c r="D60" s="18">
+      <c r="D60" s="17">
         <v>0.22408253001860307</v>
       </c>
-      <c r="E60" s="18">
+      <c r="E60" s="17">
         <v>0.20686315206863154</v>
       </c>
-      <c r="F60" s="18">
+      <c r="F60" s="17">
         <v>0.18103408514367419</v>
       </c>
-      <c r="G60" s="18">
+      <c r="G60" s="17">
         <v>0.24791291914579586</v>
       </c>
-      <c r="H60" s="18">
+      <c r="H60" s="17">
         <v>0.2427240440939071</v>
       </c>
-      <c r="I60" s="18">
+      <c r="I60" s="17">
         <v>0.16072605011472321</v>
       </c>
-      <c r="J60" s="18">
+      <c r="J60" s="17">
         <v>0.1502326182476092</v>
       </c>
-      <c r="K60" s="18">
+      <c r="K60" s="17">
         <v>0.18296846327828276</v>
       </c>
-      <c r="L60" s="18">
+      <c r="L60" s="17">
         <v>0.26339491433119683</v>
       </c>
-      <c r="M60" s="18">
+      <c r="M60" s="17">
         <v>0.14626141552511415</v>
       </c>
-      <c r="N60" s="18">
+      <c r="N60" s="17">
         <v>0.15647142182333496</v>
       </c>
-      <c r="O60" s="18">
+      <c r="O60" s="17">
         <v>0.19708855325293684</v>
       </c>
-      <c r="P60" s="18">
+      <c r="P60" s="17">
         <v>0.22250599798777185</v>
       </c>
-      <c r="Q60" s="18">
+      <c r="Q60" s="17">
         <v>0.27329541057193724</v>
       </c>
-      <c r="R60" s="18">
+      <c r="R60" s="17">
         <v>0.18767897221577279</v>
       </c>
-      <c r="S60" s="18">
+      <c r="S60" s="17">
         <v>0.12870890865760704</v>
       </c>
-      <c r="T60" s="18">
+      <c r="T60" s="17">
         <v>0.23422292564900221</v>
       </c>
-      <c r="U60" s="18">
+      <c r="U60" s="17">
         <v>0.13325692663137406</v>
       </c>
-      <c r="V60" s="18">
+      <c r="V60" s="17">
         <v>0.12825410686023031</v>
       </c>
-      <c r="W60" s="18">
+      <c r="W60" s="17">
         <v>0.21921446633557101</v>
       </c>
-      <c r="X60" s="18">
+      <c r="X60" s="17">
         <v>0.17145847997545438</v>
       </c>
-      <c r="Y60" s="18">
+      <c r="Y60" s="17">
         <v>0.14032522966412186</v>
       </c>
     </row>
@@ -49125,76 +49250,76 @@
       <c r="A61" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B61" s="17">
+      <c r="B61" s="16">
         <v>0.58791571267802401</v>
       </c>
-      <c r="C61" s="17">
+      <c r="C61" s="16">
         <v>0.632219592016247</v>
       </c>
-      <c r="D61" s="17">
+      <c r="D61" s="16">
         <v>0.84860999194198217</v>
       </c>
-      <c r="E61" s="17">
+      <c r="E61" s="16">
         <v>0.72522159548751008</v>
       </c>
-      <c r="F61" s="17">
+      <c r="F61" s="16">
         <v>0.70591592801504166</v>
       </c>
-      <c r="G61" s="17">
+      <c r="G61" s="16">
         <v>0.78271890948160072</v>
       </c>
-      <c r="H61" s="17">
+      <c r="H61" s="16">
         <v>0.81797273704002138</v>
       </c>
-      <c r="I61" s="17">
+      <c r="I61" s="16">
         <v>0.88425019931869253</v>
       </c>
-      <c r="J61" s="17">
+      <c r="J61" s="16">
         <v>0.95250175158850958</v>
       </c>
-      <c r="K61" s="17">
+      <c r="K61" s="16">
         <v>0.92169795366142393</v>
       </c>
-      <c r="L61" s="17">
+      <c r="L61" s="16">
         <v>0.92109395762363799</v>
       </c>
-      <c r="M61" s="17">
+      <c r="M61" s="16">
         <v>0.98511753762895304</v>
       </c>
-      <c r="N61" s="17">
+      <c r="N61" s="16">
         <v>0.94312558272968505</v>
       </c>
-      <c r="O61" s="17">
+      <c r="O61" s="16">
         <v>0.81695954983626218</v>
       </c>
-      <c r="P61" s="17">
+      <c r="P61" s="16">
         <v>0.91497163414971638</v>
       </c>
-      <c r="Q61" s="17">
+      <c r="Q61" s="16">
         <v>0.88672109220054429</v>
       </c>
-      <c r="R61" s="17">
+      <c r="R61" s="16">
         <v>0.91440094569223274</v>
       </c>
-      <c r="S61" s="17">
+      <c r="S61" s="16">
         <v>0.90107317525438657</v>
       </c>
-      <c r="T61" s="17">
+      <c r="T61" s="16">
         <v>0.91608169199663791</v>
       </c>
-      <c r="U61" s="17">
+      <c r="U61" s="16">
         <v>0.94050296462891025</v>
       </c>
-      <c r="V61" s="17">
+      <c r="V61" s="16">
         <v>0.9444785206388151</v>
       </c>
-      <c r="W61" s="17">
+      <c r="W61" s="16">
         <v>0.93652740861900541</v>
       </c>
-      <c r="X61" s="17">
+      <c r="X61" s="16">
         <v>0.93482359890047495</v>
       </c>
-      <c r="Y61" s="17">
+      <c r="Y61" s="16">
         <v>0.91778550171516859</v>
       </c>
     </row>
@@ -49202,76 +49327,76 @@
       <c r="A62" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="B62" s="18">
+      <c r="B62" s="17">
         <v>65535</v>
       </c>
-      <c r="C62" s="18">
+      <c r="C62" s="17">
         <v>65535</v>
       </c>
-      <c r="D62" s="18">
+      <c r="D62" s="17">
         <v>65535</v>
       </c>
-      <c r="E62" s="18">
+      <c r="E62" s="17">
         <v>65535</v>
       </c>
-      <c r="F62" s="18">
+      <c r="F62" s="17">
         <v>65535</v>
       </c>
-      <c r="G62" s="18">
+      <c r="G62" s="17">
         <v>65535</v>
       </c>
-      <c r="H62" s="18">
+      <c r="H62" s="17">
         <v>65535</v>
       </c>
-      <c r="I62" s="18">
+      <c r="I62" s="17">
         <v>65535</v>
       </c>
-      <c r="J62" s="18">
+      <c r="J62" s="17">
         <v>65535</v>
       </c>
-      <c r="K62" s="18">
+      <c r="K62" s="17">
         <v>65535</v>
       </c>
-      <c r="L62" s="18">
+      <c r="L62" s="17">
         <v>65535</v>
       </c>
-      <c r="M62" s="18">
+      <c r="M62" s="17">
         <v>65535</v>
       </c>
-      <c r="N62" s="18">
+      <c r="N62" s="17">
         <v>65535</v>
       </c>
-      <c r="O62" s="18">
+      <c r="O62" s="17">
         <v>65535</v>
       </c>
-      <c r="P62" s="18">
+      <c r="P62" s="17">
         <v>65535</v>
       </c>
-      <c r="Q62" s="18">
+      <c r="Q62" s="17">
         <v>65535</v>
       </c>
-      <c r="R62" s="18">
+      <c r="R62" s="17">
         <v>65535</v>
       </c>
-      <c r="S62" s="18">
+      <c r="S62" s="17">
         <v>65535</v>
       </c>
-      <c r="T62" s="18">
+      <c r="T62" s="17">
         <v>65535</v>
       </c>
-      <c r="U62" s="18">
+      <c r="U62" s="17">
         <v>65535</v>
       </c>
-      <c r="V62" s="18">
+      <c r="V62" s="17">
         <v>65535</v>
       </c>
-      <c r="W62" s="18">
+      <c r="W62" s="17">
         <v>65535</v>
       </c>
-      <c r="X62" s="18">
+      <c r="X62" s="17">
         <v>65535</v>
       </c>
-      <c r="Y62" s="18">
+      <c r="Y62" s="17">
         <v>65535</v>
       </c>
     </row>
@@ -49279,56 +49404,56 @@
       <c r="A63" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="17"/>
-      <c r="I63" s="17"/>
-      <c r="J63" s="17"/>
-      <c r="K63" s="17"/>
-      <c r="L63" s="17">
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="16"/>
+      <c r="L63" s="16">
         <v>3.8051750380517509E-2</v>
       </c>
-      <c r="M63" s="17">
+      <c r="M63" s="16">
         <v>7.6103500761035017E-2</v>
       </c>
-      <c r="N63" s="17">
+      <c r="N63" s="16">
         <v>9.6783799880881469E-2</v>
       </c>
-      <c r="O63" s="17">
+      <c r="O63" s="16">
         <v>0.1525728837372673</v>
       </c>
-      <c r="P63" s="17">
+      <c r="P63" s="16">
         <v>0.13964622955180209</v>
       </c>
-      <c r="Q63" s="17">
+      <c r="Q63" s="16">
         <v>0.15294587046149752</v>
       </c>
-      <c r="R63" s="17">
+      <c r="R63" s="16">
         <v>0.1540541738706388</v>
       </c>
-      <c r="S63" s="17">
+      <c r="S63" s="16">
         <v>0.15516247727978011</v>
       </c>
-      <c r="T63" s="17">
+      <c r="T63" s="16">
         <v>0.14851265682493239</v>
       </c>
-      <c r="U63" s="17">
+      <c r="U63" s="16">
         <v>0.15586582367404284</v>
       </c>
-      <c r="V63" s="17">
+      <c r="V63" s="16">
         <v>0.15255292652552924</v>
       </c>
-      <c r="W63" s="17">
+      <c r="W63" s="16">
         <v>0.13213245604573401</v>
       </c>
-      <c r="X63" s="17">
+      <c r="X63" s="16">
         <v>0.13711751430220961</v>
       </c>
-      <c r="Y63" s="17">
+      <c r="Y63" s="16">
         <v>0.13667567483614451</v>
       </c>
     </row>
@@ -49336,66 +49461,66 @@
       <c r="A64" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18">
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17">
         <v>0</v>
       </c>
-      <c r="H64" s="18">
+      <c r="H64" s="17">
         <v>7.6103500761035017E-2</v>
       </c>
-      <c r="I64" s="18">
+      <c r="I64" s="17">
         <v>0.19025875190258754</v>
       </c>
-      <c r="J64" s="18">
+      <c r="J64" s="17">
         <v>0.12453300124533001</v>
       </c>
-      <c r="K64" s="18">
+      <c r="K64" s="17">
         <v>8.3022000830220002E-2</v>
       </c>
-      <c r="L64" s="18">
+      <c r="L64" s="17">
         <v>0.15841953219644023</v>
       </c>
-      <c r="M64" s="18">
+      <c r="M64" s="17">
         <v>0.18180280737358362</v>
       </c>
-      <c r="N64" s="18">
+      <c r="N64" s="17">
         <v>0.20480795057749127</v>
       </c>
-      <c r="O64" s="18">
+      <c r="O64" s="17">
         <v>0.22998925597636316</v>
       </c>
-      <c r="P64" s="18">
+      <c r="P64" s="17">
         <v>0.21689497716894979</v>
       </c>
-      <c r="Q64" s="18">
+      <c r="Q64" s="17">
         <v>0.23646444879321593</v>
       </c>
-      <c r="R64" s="18">
+      <c r="R64" s="17">
         <v>0.23157208088714937</v>
       </c>
-      <c r="S64" s="18">
+      <c r="S64" s="17">
         <v>0.24461839530332682</v>
       </c>
-      <c r="T64" s="18">
+      <c r="T64" s="17">
         <v>0.21526418786692761</v>
       </c>
-      <c r="U64" s="18">
+      <c r="U64" s="17">
         <v>0.21526418786692761</v>
       </c>
-      <c r="V64" s="18">
+      <c r="V64" s="17">
         <v>0.24135681669928247</v>
       </c>
-      <c r="W64" s="18">
+      <c r="W64" s="17">
         <v>0.23320287018917157</v>
       </c>
-      <c r="X64" s="18">
+      <c r="X64" s="17">
         <v>0.23483365949119375</v>
       </c>
-      <c r="Y64" s="18">
+      <c r="Y64" s="17">
         <v>0.25277234181343772</v>
       </c>
     </row>
@@ -49482,57 +49607,57 @@
       <c r="A68" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B68" s="17"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="17"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="17"/>
-      <c r="I68" s="17"/>
-      <c r="J68" s="17">
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="16">
         <v>0.30441400304414001</v>
       </c>
-      <c r="K68" s="17">
+      <c r="K68" s="16">
         <v>0.10147133434804669</v>
       </c>
-      <c r="L68" s="17">
+      <c r="L68" s="16">
         <v>0.40447488584474894</v>
       </c>
-      <c r="M68" s="17">
+      <c r="M68" s="16">
         <v>0.5811540058115402</v>
       </c>
-      <c r="N68" s="17">
+      <c r="N68" s="16">
         <v>0.53816046966731901</v>
       </c>
-      <c r="O68" s="17">
+      <c r="O68" s="16">
         <v>0.37067553048616708</v>
       </c>
-      <c r="P68" s="17">
+      <c r="P68" s="16">
         <v>0.57077625570776258</v>
       </c>
-      <c r="Q68" s="17">
+      <c r="Q68" s="16">
         <v>0.57500422797226458</v>
       </c>
-      <c r="R68" s="17">
+      <c r="R68" s="16">
         <v>0.70696146759593048</v>
       </c>
-      <c r="S68" s="17">
+      <c r="S68" s="16">
         <v>0.86924428402751963</v>
       </c>
-      <c r="T68" s="17">
+      <c r="T68" s="16">
         <v>2.5863099724480505</v>
       </c>
-      <c r="U68" s="17">
+      <c r="U68" s="16">
         <v>3.6549813955986812</v>
       </c>
-      <c r="V68" s="17">
+      <c r="V68" s="16">
         <v>4.036889720525596</v>
       </c>
-      <c r="W68" s="17">
+      <c r="W68" s="16">
         <v>6.2453375126974553</v>
       </c>
-      <c r="X68" s="17">
+      <c r="X68" s="16">
         <v>3.2548137163984849</v>
       </c>
     </row>
@@ -49540,73 +49665,73 @@
       <c r="A69" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="B69" s="18">
+      <c r="B69" s="17">
         <v>0.17918731176527739</v>
       </c>
-      <c r="C69" s="18">
+      <c r="C69" s="17">
         <v>0.14535545467936098</v>
       </c>
-      <c r="D69" s="18">
+      <c r="D69" s="17">
         <v>0.15845780240593327</v>
       </c>
-      <c r="E69" s="18">
+      <c r="E69" s="17">
         <v>0.1498316039834055</v>
       </c>
-      <c r="F69" s="18">
+      <c r="F69" s="17">
         <v>0.1347902156764661</v>
       </c>
-      <c r="G69" s="18">
+      <c r="G69" s="17">
         <v>0.18958653994151151</v>
       </c>
-      <c r="H69" s="18">
+      <c r="H69" s="17">
         <v>0.18353719344825822</v>
       </c>
-      <c r="I69" s="18">
+      <c r="I69" s="17">
         <v>0.12836507928947488</v>
       </c>
-      <c r="J69" s="18">
+      <c r="J69" s="17">
         <v>0.12535509016122517</v>
       </c>
-      <c r="K69" s="18">
+      <c r="K69" s="17">
         <v>0.15416139825537606</v>
       </c>
-      <c r="L69" s="18">
+      <c r="L69" s="17">
         <v>0.21319901365069094</v>
       </c>
-      <c r="M69" s="18">
+      <c r="M69" s="17">
         <v>0.13556538436675425</v>
       </c>
-      <c r="N69" s="18">
+      <c r="N69" s="17">
         <v>0.1426745416205524</v>
       </c>
-      <c r="O69" s="18">
+      <c r="O69" s="17">
         <v>0.17089921406444017</v>
       </c>
-      <c r="P69" s="18">
+      <c r="P69" s="17">
         <v>0.18308207829936693</v>
       </c>
-      <c r="Q69" s="18">
+      <c r="Q69" s="17">
         <v>0.21797454043557021</v>
       </c>
-      <c r="R69" s="18">
+      <c r="R69" s="17">
         <v>0.16178813238750592</v>
       </c>
-      <c r="S69" s="18">
+      <c r="S69" s="17">
         <v>0.11826549026371555</v>
       </c>
-      <c r="T69" s="18">
+      <c r="T69" s="17">
         <v>0.18320015783762453</v>
       </c>
-      <c r="U69" s="18">
+      <c r="U69" s="17">
         <v>0.11430375923833559</v>
       </c>
-      <c r="V69" s="18">
+      <c r="V69" s="17">
         <v>0.11225524213694742</v>
       </c>
-      <c r="W69" s="18">
+      <c r="W69" s="17">
         <v>0.1716829439171017</v>
       </c>
-      <c r="X69" s="18">
+      <c r="X69" s="17">
         <v>0.13069358514235713</v>
       </c>
     </row>
@@ -49614,73 +49739,73 @@
       <c r="A70" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B70" s="17">
+      <c r="B70" s="16">
         <v>0.58751816400088952</v>
       </c>
-      <c r="C70" s="17">
+      <c r="C70" s="16">
         <v>0.63195855763612019</v>
       </c>
-      <c r="D70" s="17">
+      <c r="D70" s="16">
         <v>0.84807034848805107</v>
       </c>
-      <c r="E70" s="17">
+      <c r="E70" s="16">
         <v>0.72468873612271401</v>
       </c>
-      <c r="F70" s="17">
+      <c r="F70" s="16">
         <v>0.70518756353607848</v>
       </c>
-      <c r="G70" s="17">
+      <c r="G70" s="16">
         <v>0.78226961776024206</v>
       </c>
-      <c r="H70" s="17">
+      <c r="H70" s="16">
         <v>0.81749754243287398</v>
       </c>
-      <c r="I70" s="17">
+      <c r="I70" s="16">
         <v>0.88349648121868596</v>
       </c>
-      <c r="J70" s="17">
+      <c r="J70" s="16">
         <v>0.95119319991890894</v>
       </c>
-      <c r="K70" s="17">
+      <c r="K70" s="16">
         <v>0.92048229990249752</v>
       </c>
-      <c r="L70" s="17">
+      <c r="L70" s="16">
         <v>0.92005994960757642</v>
       </c>
-      <c r="M70" s="17">
+      <c r="M70" s="16">
         <v>0.98431753019201262</v>
       </c>
-      <c r="N70" s="17">
+      <c r="N70" s="16">
         <v>0.94540432280661413</v>
       </c>
-      <c r="O70" s="17">
+      <c r="O70" s="16">
         <v>0.81619276686525755</v>
       </c>
-      <c r="P70" s="17">
+      <c r="P70" s="16">
         <v>0.91711461765215874</v>
       </c>
-      <c r="Q70" s="17">
+      <c r="Q70" s="16">
         <v>0.88913935610658323</v>
       </c>
-      <c r="R70" s="17">
+      <c r="R70" s="16">
         <v>0.91556341739152636</v>
       </c>
-      <c r="S70" s="17">
+      <c r="S70" s="16">
         <v>0.90218624426321981</v>
       </c>
-      <c r="T70" s="17">
+      <c r="T70" s="16">
         <v>0.91672584775055033</v>
       </c>
-      <c r="U70" s="17">
+      <c r="U70" s="16">
         <v>0.942110199083116</v>
       </c>
-      <c r="V70" s="17">
+      <c r="V70" s="16">
         <v>0.94612082701666678</v>
       </c>
-      <c r="W70" s="17">
+      <c r="W70" s="16">
         <v>0.9382181082323805</v>
       </c>
-      <c r="X70" s="17">
+      <c r="X70" s="16">
         <v>0.93680249206717758</v>
       </c>
     </row>
@@ -49688,73 +49813,73 @@
       <c r="A71" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="B71" s="18">
+      <c r="B71" s="17">
         <v>1.3728687025740881E-2</v>
       </c>
-      <c r="C71" s="18">
+      <c r="C71" s="17">
         <v>8.9246408872480296E-3</v>
       </c>
-      <c r="D71" s="18">
+      <c r="D71" s="17">
         <v>1.4064542368890371E-2</v>
       </c>
-      <c r="E71" s="18">
+      <c r="E71" s="17">
         <v>1.3440969291696423E-2</v>
       </c>
-      <c r="F71" s="18">
+      <c r="F71" s="17">
         <v>1.4367639360976603E-2</v>
       </c>
-      <c r="G71" s="18">
+      <c r="G71" s="17">
         <v>1.06544901065449E-2</v>
       </c>
-      <c r="H71" s="18">
+      <c r="H71" s="17">
         <v>6.8721033906174785E-3</v>
       </c>
-      <c r="I71" s="18">
+      <c r="I71" s="17">
         <v>1.3383397499030053E-2</v>
       </c>
-      <c r="J71" s="18">
+      <c r="J71" s="17">
         <v>6.8134032678754683E-3</v>
       </c>
-      <c r="K71" s="18">
+      <c r="K71" s="17">
         <v>8.974387151398696E-3</v>
       </c>
-      <c r="L71" s="18">
+      <c r="L71" s="17">
         <v>1.0171012962918537E-2</v>
       </c>
-      <c r="M71" s="18">
+      <c r="M71" s="17">
         <v>4.0275281549390085E-3</v>
       </c>
-      <c r="N71" s="18">
+      <c r="N71" s="17">
         <v>5.4770281784942507E-3</v>
       </c>
-      <c r="O71" s="18">
+      <c r="O71" s="17">
         <v>5.9193423561722108E-3</v>
       </c>
-      <c r="P71" s="18">
+      <c r="P71" s="17">
         <v>5.7979529360833674E-3</v>
       </c>
-      <c r="Q71" s="18">
+      <c r="Q71" s="17">
         <v>5.9440758150922698E-3</v>
       </c>
-      <c r="R71" s="18">
+      <c r="R71" s="17">
         <v>1.0672682178439969E-2</v>
       </c>
-      <c r="S71" s="18">
+      <c r="S71" s="17">
         <v>1.3166338195431674E-2</v>
       </c>
-      <c r="T71" s="18">
+      <c r="T71" s="17">
         <v>1.0273264456408587E-2</v>
       </c>
-      <c r="U71" s="18">
+      <c r="U71" s="17">
         <v>1.1459284473580975E-2</v>
       </c>
-      <c r="V71" s="18">
+      <c r="V71" s="17">
         <v>1.0273784895450284E-2</v>
       </c>
-      <c r="W71" s="18">
+      <c r="W71" s="17">
         <v>1.1799059936493149E-2</v>
       </c>
-      <c r="X71" s="18">
+      <c r="X71" s="17">
         <v>1.5180712412366853E-2</v>
       </c>
     </row>
@@ -49762,59 +49887,59 @@
       <c r="A72" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B72" s="17"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="17">
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16">
         <v>0.22831050228310501</v>
       </c>
-      <c r="J72" s="17">
+      <c r="J72" s="16">
         <v>0.1906392694063927</v>
       </c>
-      <c r="K72" s="17">
+      <c r="K72" s="16">
         <v>0.18647260273972602</v>
       </c>
-      <c r="L72" s="17">
+      <c r="L72" s="16">
         <v>6.7876712328767116E-2</v>
       </c>
-      <c r="M72" s="17">
+      <c r="M72" s="16">
         <v>7.476575935480044E-2</v>
       </c>
-      <c r="N72" s="17">
+      <c r="N72" s="16">
         <v>9.6412405035707568E-2</v>
       </c>
-      <c r="O72" s="17">
+      <c r="O72" s="16">
         <v>0.15293804193529958</v>
       </c>
-      <c r="P72" s="17">
+      <c r="P72" s="16">
         <v>0.13941040865139273</v>
       </c>
-      <c r="Q72" s="17">
+      <c r="Q72" s="16">
         <v>0.1534278778672068</v>
       </c>
-      <c r="R72" s="17">
+      <c r="R72" s="16">
         <v>0.15383140488540142</v>
       </c>
-      <c r="S72" s="17">
+      <c r="S72" s="16">
         <v>0.15538589047072227</v>
       </c>
-      <c r="T72" s="17">
+      <c r="T72" s="16">
         <v>0.14838111835914639</v>
       </c>
-      <c r="U72" s="17">
+      <c r="U72" s="16">
         <v>0.15491400651998427</v>
       </c>
-      <c r="V72" s="17">
+      <c r="V72" s="16">
         <v>0.15239085998651261</v>
       </c>
-      <c r="W72" s="17">
+      <c r="W72" s="16">
         <v>0.13133926069138591</v>
       </c>
-      <c r="X72" s="17">
+      <c r="X72" s="16">
         <v>0.13764325363624622</v>
       </c>
     </row>
@@ -49822,65 +49947,65 @@
       <c r="A73" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="B73" s="18"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18">
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17">
         <v>0.11415525114155251</v>
       </c>
-      <c r="G73" s="18">
+      <c r="G73" s="17">
         <v>6.5453767123287668E-2</v>
       </c>
-      <c r="H73" s="18">
+      <c r="H73" s="17">
         <v>8.4758159986470502E-2</v>
       </c>
-      <c r="I73" s="18">
+      <c r="I73" s="17">
         <v>0.17808980213089803</v>
       </c>
-      <c r="J73" s="18">
+      <c r="J73" s="17">
         <v>0.12192381639029079</v>
       </c>
-      <c r="K73" s="18">
+      <c r="K73" s="17">
         <v>8.1248714467892558E-2</v>
       </c>
-      <c r="L73" s="18">
+      <c r="L73" s="17">
         <v>0.15938903548169775</v>
       </c>
-      <c r="M73" s="18">
+      <c r="M73" s="17">
         <v>0.18169781142649755</v>
       </c>
-      <c r="N73" s="18">
+      <c r="N73" s="17">
         <v>0.2058669391554197</v>
       </c>
-      <c r="O73" s="18">
+      <c r="O73" s="17">
         <v>0.22956604290766625</v>
       </c>
-      <c r="P73" s="18">
+      <c r="P73" s="17">
         <v>0.2172995015710637</v>
       </c>
-      <c r="Q73" s="18">
+      <c r="Q73" s="17">
         <v>0.23704950320418605</v>
       </c>
-      <c r="R73" s="18">
+      <c r="R73" s="17">
         <v>0.23271503321770831</v>
       </c>
-      <c r="S73" s="18">
+      <c r="S73" s="17">
         <v>0.24584659524473154</v>
       </c>
-      <c r="T73" s="18">
+      <c r="T73" s="17">
         <v>0.21529025081619735</v>
       </c>
-      <c r="U73" s="18">
+      <c r="U73" s="17">
         <v>0.21381996798613462</v>
       </c>
-      <c r="V73" s="18">
+      <c r="V73" s="17">
         <v>0.23992922634315969</v>
       </c>
-      <c r="W73" s="18">
+      <c r="W73" s="17">
         <v>0.2323315222455867</v>
       </c>
-      <c r="X73" s="18">
+      <c r="X73" s="17">
         <v>0.24297964087912982</v>
       </c>
     </row>

--- a/VerveStacks_BGR/source_data/VerveStacks_BGR.xlsx
+++ b/VerveStacks_BGR/source_data/VerveStacks_BGR.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VerveStacks\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776B9635-1C3B-4CEC-BB8B-690072DDD8A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6100157-C9A0-40BB-8C04-D7F98881DD26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="iamc_data" sheetId="52" r:id="rId1"/>
-    <sheet name="iamc_charts" sheetId="51" r:id="rId2"/>
-    <sheet name="weo_pg" sheetId="50" r:id="rId3"/>
-    <sheet name="re_targets" sheetId="49" r:id="rId4"/>
-    <sheet name="ccs_retrofits" sheetId="48" r:id="rId5"/>
-    <sheet name="Calibration" sheetId="47" r:id="rId6"/>
-    <sheet name="existing_stock" sheetId="46" r:id="rId7"/>
+    <sheet name="iamc_data" sheetId="59" r:id="rId1"/>
+    <sheet name="iamc_charts" sheetId="58" r:id="rId2"/>
+    <sheet name="weo_pg" sheetId="57" r:id="rId3"/>
+    <sheet name="re_targets" sheetId="56" r:id="rId4"/>
+    <sheet name="ccs_retrofits" sheetId="55" r:id="rId5"/>
+    <sheet name="Calibration" sheetId="54" r:id="rId6"/>
+    <sheet name="existing_stock" sheetId="53" r:id="rId7"/>
     <sheet name="historical_data_long" sheetId="5" r:id="rId8"/>
     <sheet name="historical_data" sheetId="4" r:id="rId9"/>
     <sheet name="system_settings" sheetId="1" r:id="rId10"/>
@@ -34,7 +34,7 @@
     <author>Amit Kanudia</author>
   </authors>
   <commentList>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{D0C6E871-6599-48C7-89E6-4BFD3AD9648E}">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{FF9212EF-2CD7-40CF-97A7-BCFB21732665}">
       <text>
         <r>
           <rPr>
@@ -53,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{98BADCE3-279E-4852-98C4-16712602C81E}">
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{71613E1D-9F5C-486B-BB93-ECA51EAAE738}">
       <text>
         <r>
           <rPr>
@@ -72,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J6" authorId="0" shapeId="0" xr:uid="{5B099A74-E58F-4189-B776-C2258261ACEA}">
+    <comment ref="J6" authorId="0" shapeId="0" xr:uid="{FB0405B8-3B39-453D-BEDC-1DED4B774082}">
       <text>
         <r>
           <rPr>
@@ -91,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L6" authorId="0" shapeId="0" xr:uid="{F7F74ECE-79CC-4E96-B871-F1BE528121C0}">
+    <comment ref="L6" authorId="0" shapeId="0" xr:uid="{D531B340-C231-43B7-8707-E6458F8557E5}">
       <text>
         <r>
           <rPr>
@@ -110,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M6" authorId="0" shapeId="0" xr:uid="{82E0A85E-A5AB-413A-B5F9-23B8F7C77C67}">
+    <comment ref="M6" authorId="0" shapeId="0" xr:uid="{CCB968CF-46BC-430B-8431-5653C70E5A8C}">
       <text>
         <r>
           <rPr>
@@ -129,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N6" authorId="0" shapeId="0" xr:uid="{E3D2F5FF-2DAE-4ABC-9D88-2D222F2C129E}">
+    <comment ref="N6" authorId="0" shapeId="0" xr:uid="{8EFC1DC0-F9B6-4C7D-93B5-06DF7CAE61D4}">
       <text>
         <r>
           <rPr>
@@ -148,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O6" authorId="0" shapeId="0" xr:uid="{E87D643F-9F70-4AC8-A4FA-A447DD16A779}">
+    <comment ref="O6" authorId="0" shapeId="0" xr:uid="{F5B48DAE-8D94-4679-9FE5-241312BF6463}">
       <text>
         <r>
           <rPr>
@@ -1547,7 +1547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1562,9 +1562,6 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1572,6 +1569,12 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1616,7 +1619,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED40DD69-8359-1624-B44D-DC43856CFBA0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85E32FE2-CDE6-5283-95CB-7F11B092732F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1671,7 +1674,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39B34218-125A-2518-2D47-922FB0242BF8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36CFCF30-3C8A-0A15-E284-5E6CE10340CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1726,7 +1729,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C5E12FE-E31B-AE44-6449-526FCDFA2D89}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44D2E562-8E93-49C3-3E28-B9282D111558}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1781,7 +1784,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE1F5003-DCC9-0760-3C9A-2663B1E80F12}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{565F6AFF-0F8B-1825-CE18-EC892A233475}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1836,7 +1839,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90BA50D6-2096-A591-A0A8-DF728D41D25C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDF0B4DB-1F17-F513-05F7-5CD1387DA604}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2223,6 +2226,56 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>296863</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF4FD145-673B-1A35-3607-646AFB950956}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17479963" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2542,7 +2595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8CD042-181A-48D4-A25E-7291C12F5B20}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DCF889-1951-431D-8B44-EEDB671CB881}">
   <dimension ref="A1:L638"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -25308,7 +25361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5AF7F9-2C19-4169-B4D4-41492AE3BB89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD19821-BD73-470D-BAC9-90E9B59DD1A3}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -25321,7 +25374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B13DA24-CBD1-422F-951E-CE524E3BAFCF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E956688A-01FE-40BC-81FA-D76BA36AFB53}">
   <dimension ref="A1:I129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -25339,16 +25392,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="2" t="s">
@@ -28541,7 +28594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337E6906-358E-4ADF-AE45-D964AB2ABF20}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C817CB3D-80AB-40F9-A490-4D2BEF631D7A}">
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28561,17 +28614,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="2" t="s">
@@ -28635,7 +28688,7 @@
       <c r="H4" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="17">
         <v>45343</v>
       </c>
       <c r="J4" s="4" t="s">
@@ -28670,7 +28723,7 @@
       <c r="H5" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="18">
         <v>44949</v>
       </c>
       <c r="J5" s="9" t="s">
@@ -28705,7 +28758,7 @@
       <c r="H6" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="17">
         <v>44949</v>
       </c>
       <c r="J6" s="4" t="s">
@@ -28740,7 +28793,7 @@
       <c r="H7" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="18">
         <v>45343</v>
       </c>
       <c r="J7" s="9" t="s">
@@ -28775,7 +28828,7 @@
       <c r="H8" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="17">
         <v>44949</v>
       </c>
       <c r="J8" s="4" t="s">
@@ -28810,7 +28863,7 @@
       <c r="H9" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="18">
         <v>45343</v>
       </c>
       <c r="J9" s="9" t="s">
@@ -28845,7 +28898,7 @@
       <c r="H10" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="17">
         <v>44949</v>
       </c>
       <c r="J10" s="4" t="s">
@@ -28880,7 +28933,7 @@
       <c r="H11" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="18">
         <v>44949</v>
       </c>
       <c r="J11" s="9" t="s">
@@ -28915,7 +28968,7 @@
       <c r="H12" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="17">
         <v>45343</v>
       </c>
       <c r="J12" s="4" t="s">
@@ -28950,7 +29003,7 @@
       <c r="H13" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="18">
         <v>44949</v>
       </c>
       <c r="J13" s="9" t="s">
@@ -28985,7 +29038,7 @@
       <c r="H14" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="17">
         <v>45343</v>
       </c>
       <c r="J14" s="4" t="s">
@@ -29020,7 +29073,7 @@
       <c r="H15" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="18">
         <v>45343</v>
       </c>
       <c r="J15" s="9" t="s">
@@ -29055,7 +29108,7 @@
       <c r="H16" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="17">
         <v>45343</v>
       </c>
       <c r="J16" s="4" t="s">
@@ -29090,7 +29143,7 @@
       <c r="H17" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I17" s="18">
         <v>45343</v>
       </c>
       <c r="J17" s="9" t="s">
@@ -29125,7 +29178,7 @@
       <c r="H18" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="17">
         <v>45343</v>
       </c>
       <c r="J18" s="4" t="s">
@@ -29160,7 +29213,7 @@
       <c r="H19" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="18">
         <v>45343</v>
       </c>
       <c r="J19" s="9" t="s">
@@ -29195,7 +29248,7 @@
       <c r="H20" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20" s="17">
         <v>45343</v>
       </c>
       <c r="J20" s="4" t="s">
@@ -29218,7 +29271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403345C7-9906-47E3-8916-14B8735DF34E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239396D2-8E8E-4B47-BE18-EA14FEDA16BD}">
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -29235,16 +29288,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="2" t="s">
@@ -30160,7 +30213,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BCC87C7-6880-46C8-BAD7-2E5A3765ABB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D9F578-C299-489B-879A-80B159368308}">
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -30635,7 +30688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431C3AAB-3DF1-40BF-BDD4-1DE4DC718BBC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B48326AF-AD64-410F-8803-2EC02370AECF}">
   <dimension ref="A1:W91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -30664,48 +30717,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-    </row>
-    <row r="3" spans="1:23" ht="52.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="14" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A3" s="20" t="s">
         <v>381</v>
       </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="22" t="s">
         <v>382</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
     </row>
     <row r="5" spans="1:23" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
@@ -30719,13 +30781,13 @@
       <c r="B6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>56</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -30740,22 +30802,22 @@
       <c r="I6" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="14" t="s">
         <v>63</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="M6" s="15" t="s">
+      <c r="M6" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="N6" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="O6" s="15" t="s">
+      <c r="O6" s="14" t="s">
         <v>68</v>
       </c>
       <c r="P6" s="3" t="s">
@@ -35857,8 +35919,9 @@
       <c r="W91" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A3:J3"/>
     <mergeCell ref="A4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45560,31 +45623,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
     </row>
     <row r="2" spans="1:25" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
@@ -48942,76 +49005,76 @@
       <c r="A57" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B57" s="16">
+      <c r="B57" s="15">
         <v>0</v>
       </c>
-      <c r="C57" s="16">
+      <c r="C57" s="15">
         <v>0</v>
       </c>
-      <c r="D57" s="16">
+      <c r="D57" s="15">
         <v>0</v>
       </c>
-      <c r="E57" s="16">
+      <c r="E57" s="15">
         <v>0</v>
       </c>
-      <c r="F57" s="16">
+      <c r="F57" s="15">
         <v>0</v>
       </c>
-      <c r="G57" s="16">
+      <c r="G57" s="15">
         <v>0</v>
       </c>
-      <c r="H57" s="16">
+      <c r="H57" s="15">
         <v>0</v>
       </c>
-      <c r="I57" s="16">
+      <c r="I57" s="15">
         <v>0</v>
       </c>
-      <c r="J57" s="16">
+      <c r="J57" s="15">
         <v>0.22831050228310504</v>
       </c>
-      <c r="K57" s="16">
+      <c r="K57" s="15">
         <v>0.11415525114155252</v>
       </c>
-      <c r="L57" s="16">
+      <c r="L57" s="15">
         <v>0.45662100456621008</v>
       </c>
-      <c r="M57" s="16">
+      <c r="M57" s="15">
         <v>0.68493150684931503</v>
       </c>
-      <c r="N57" s="16">
+      <c r="N57" s="15">
         <v>0.7990867579908677</v>
       </c>
-      <c r="O57" s="16">
+      <c r="O57" s="15">
         <v>0.41856925418569257</v>
       </c>
-      <c r="P57" s="16">
+      <c r="P57" s="15">
         <v>0.57077625570776258</v>
       </c>
-      <c r="Q57" s="16">
+      <c r="Q57" s="15">
         <v>0.61643835616438358</v>
       </c>
-      <c r="R57" s="16">
+      <c r="R57" s="15">
         <v>0.66590563165905636</v>
       </c>
-      <c r="S57" s="16">
+      <c r="S57" s="15">
         <v>0.91324200913242015</v>
       </c>
-      <c r="T57" s="16">
+      <c r="T57" s="15">
         <v>2.5603392041748205</v>
       </c>
-      <c r="U57" s="16">
+      <c r="U57" s="15">
         <v>3.4627092846270933</v>
       </c>
-      <c r="V57" s="16">
+      <c r="V57" s="15">
         <v>3.8812785388127851</v>
       </c>
-      <c r="W57" s="16">
+      <c r="W57" s="15">
         <v>5.9132420091324196</v>
       </c>
-      <c r="X57" s="16">
+      <c r="X57" s="15">
         <v>5.1141552511415531</v>
       </c>
-      <c r="Y57" s="16">
+      <c r="Y57" s="15">
         <v>4.9771689497716896</v>
       </c>
     </row>
@@ -49019,76 +49082,76 @@
       <c r="A58" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B58" s="17">
+      <c r="B58" s="16">
         <v>0.34409073920603195</v>
       </c>
-      <c r="C58" s="17">
+      <c r="C58" s="16">
         <v>0.39609028421001313</v>
       </c>
-      <c r="D58" s="17">
+      <c r="D58" s="16">
         <v>0.34896569655015519</v>
       </c>
-      <c r="E58" s="17">
+      <c r="E58" s="16">
         <v>0.3908090804205463</v>
       </c>
-      <c r="F58" s="17">
+      <c r="F58" s="16">
         <v>0.3922789539227895</v>
       </c>
-      <c r="G58" s="17">
+      <c r="G58" s="16">
         <v>0.38314653383146535</v>
       </c>
-      <c r="H58" s="17">
+      <c r="H58" s="16">
         <v>0.396222498962225</v>
       </c>
-      <c r="I58" s="17">
+      <c r="I58" s="16">
         <v>0.46430053964300544</v>
       </c>
-      <c r="J58" s="17">
+      <c r="J58" s="16">
         <v>0.48111249481112495</v>
       </c>
-      <c r="K58" s="17">
+      <c r="K58" s="16">
         <v>0.42782873873654675</v>
       </c>
-      <c r="L58" s="17">
+      <c r="L58" s="16">
         <v>0.45844586648499153</v>
       </c>
-      <c r="M58" s="17">
+      <c r="M58" s="16">
         <v>0.49726171897578175</v>
       </c>
-      <c r="N58" s="17">
+      <c r="N58" s="16">
         <v>0.41309028379862439</v>
       </c>
-      <c r="O58" s="17">
+      <c r="O58" s="16">
         <v>0.36227010141320837</v>
       </c>
-      <c r="P58" s="17">
+      <c r="P58" s="16">
         <v>0.41231328844516674</v>
       </c>
-      <c r="Q58" s="17">
+      <c r="Q58" s="16">
         <v>0.50828415182197206</v>
       </c>
-      <c r="R58" s="17">
+      <c r="R58" s="16">
         <v>0.4369935206742831</v>
       </c>
-      <c r="S58" s="17">
+      <c r="S58" s="16">
         <v>0.46734400271649285</v>
       </c>
-      <c r="T58" s="17">
+      <c r="T58" s="16">
         <v>0.41685655309224456</v>
       </c>
-      <c r="U58" s="17">
+      <c r="U58" s="16">
         <v>0.38424076705180099</v>
       </c>
-      <c r="V58" s="17">
+      <c r="V58" s="16">
         <v>0.30180771877150181</v>
       </c>
-      <c r="W58" s="17">
+      <c r="W58" s="16">
         <v>0.38178341330902782</v>
       </c>
-      <c r="X58" s="17">
+      <c r="X58" s="16">
         <v>0.48677943686388042</v>
       </c>
-      <c r="Y58" s="17">
+      <c r="Y58" s="16">
         <v>0.25824553878597789</v>
       </c>
     </row>
@@ -49096,76 +49159,76 @@
       <c r="A59" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B59" s="16">
+      <c r="B59" s="15">
         <v>0.19642930601834707</v>
       </c>
-      <c r="C59" s="16">
+      <c r="C59" s="15">
         <v>0.19642930601834707</v>
       </c>
-      <c r="D59" s="16">
+      <c r="D59" s="15">
         <v>0.1583775556378296</v>
       </c>
-      <c r="E59" s="16">
+      <c r="E59" s="15">
         <v>0.18100292072894811</v>
       </c>
-      <c r="F59" s="16">
+      <c r="F59" s="15">
         <v>0.15323542720802993</v>
       </c>
-      <c r="G59" s="16">
+      <c r="G59" s="15">
         <v>0.1779176436710683</v>
       </c>
-      <c r="H59" s="16">
+      <c r="H59" s="15">
         <v>0.22213994816734542</v>
       </c>
-      <c r="I59" s="16">
+      <c r="I59" s="15">
         <v>0.23228111971411552</v>
       </c>
-      <c r="J59" s="16">
+      <c r="J59" s="15">
         <v>0.23426642842962081</v>
       </c>
-      <c r="K59" s="16">
+      <c r="K59" s="15">
         <v>0.19456025411951558</v>
       </c>
-      <c r="L59" s="16">
+      <c r="L59" s="15">
         <v>0.19555290847726822</v>
       </c>
-      <c r="M59" s="16">
+      <c r="M59" s="15">
         <v>0.19786910197869106</v>
       </c>
-      <c r="N59" s="16">
+      <c r="N59" s="15">
         <v>0.22450532724505329</v>
       </c>
-      <c r="O59" s="16">
+      <c r="O59" s="15">
         <v>0.2226027397260274</v>
       </c>
-      <c r="P59" s="16">
+      <c r="P59" s="15">
         <v>0.20357686453576868</v>
       </c>
-      <c r="Q59" s="16">
+      <c r="Q59" s="15">
         <v>0.17694063926940642</v>
       </c>
-      <c r="R59" s="16">
+      <c r="R59" s="15">
         <v>0.1950152207001522</v>
       </c>
-      <c r="S59" s="16">
+      <c r="S59" s="15">
         <v>0.18359969558599698</v>
       </c>
-      <c r="T59" s="16">
+      <c r="T59" s="15">
         <v>0.19216133942161343</v>
       </c>
-      <c r="U59" s="16">
+      <c r="U59" s="15">
         <v>0.20452815829528159</v>
       </c>
-      <c r="V59" s="16">
+      <c r="V59" s="15">
         <v>0.21784627092846273</v>
       </c>
-      <c r="W59" s="16">
+      <c r="W59" s="15">
         <v>0.29014459665144599</v>
       </c>
-      <c r="X59" s="16">
+      <c r="X59" s="15">
         <v>0.1950152207001522</v>
       </c>
-      <c r="Y59" s="16">
+      <c r="Y59" s="15">
         <v>0.14840182648401828</v>
       </c>
     </row>
@@ -49173,76 +49236,76 @@
       <c r="A60" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="B60" s="17">
+      <c r="B60" s="16">
         <v>0.29434148088459128</v>
       </c>
-      <c r="C60" s="17">
+      <c r="C60" s="16">
         <v>0.22423352902804958</v>
       </c>
-      <c r="D60" s="17">
+      <c r="D60" s="16">
         <v>0.22408253001860307</v>
       </c>
-      <c r="E60" s="17">
+      <c r="E60" s="16">
         <v>0.20686315206863154</v>
       </c>
-      <c r="F60" s="17">
+      <c r="F60" s="16">
         <v>0.18103408514367419</v>
       </c>
-      <c r="G60" s="17">
+      <c r="G60" s="16">
         <v>0.24791291914579586</v>
       </c>
-      <c r="H60" s="17">
+      <c r="H60" s="16">
         <v>0.2427240440939071</v>
       </c>
-      <c r="I60" s="17">
+      <c r="I60" s="16">
         <v>0.16072605011472321</v>
       </c>
-      <c r="J60" s="17">
+      <c r="J60" s="16">
         <v>0.1502326182476092</v>
       </c>
-      <c r="K60" s="17">
+      <c r="K60" s="16">
         <v>0.18296846327828276</v>
       </c>
-      <c r="L60" s="17">
+      <c r="L60" s="16">
         <v>0.26339491433119683</v>
       </c>
-      <c r="M60" s="17">
+      <c r="M60" s="16">
         <v>0.14626141552511415</v>
       </c>
-      <c r="N60" s="17">
+      <c r="N60" s="16">
         <v>0.15647142182333496</v>
       </c>
-      <c r="O60" s="17">
+      <c r="O60" s="16">
         <v>0.19708855325293684</v>
       </c>
-      <c r="P60" s="17">
+      <c r="P60" s="16">
         <v>0.22250599798777185</v>
       </c>
-      <c r="Q60" s="17">
+      <c r="Q60" s="16">
         <v>0.27329541057193724</v>
       </c>
-      <c r="R60" s="17">
+      <c r="R60" s="16">
         <v>0.18767897221577279</v>
       </c>
-      <c r="S60" s="17">
+      <c r="S60" s="16">
         <v>0.12870890865760704</v>
       </c>
-      <c r="T60" s="17">
+      <c r="T60" s="16">
         <v>0.23422292564900221</v>
       </c>
-      <c r="U60" s="17">
+      <c r="U60" s="16">
         <v>0.13325692663137406</v>
       </c>
-      <c r="V60" s="17">
+      <c r="V60" s="16">
         <v>0.12825410686023031</v>
       </c>
-      <c r="W60" s="17">
+      <c r="W60" s="16">
         <v>0.21921446633557101</v>
       </c>
-      <c r="X60" s="17">
+      <c r="X60" s="16">
         <v>0.17145847997545438</v>
       </c>
-      <c r="Y60" s="17">
+      <c r="Y60" s="16">
         <v>0.14032522966412186</v>
       </c>
     </row>
@@ -49250,76 +49313,76 @@
       <c r="A61" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B61" s="16">
+      <c r="B61" s="15">
         <v>0.58791571267802401</v>
       </c>
-      <c r="C61" s="16">
+      <c r="C61" s="15">
         <v>0.632219592016247</v>
       </c>
-      <c r="D61" s="16">
+      <c r="D61" s="15">
         <v>0.84860999194198217</v>
       </c>
-      <c r="E61" s="16">
+      <c r="E61" s="15">
         <v>0.72522159548751008</v>
       </c>
-      <c r="F61" s="16">
+      <c r="F61" s="15">
         <v>0.70591592801504166</v>
       </c>
-      <c r="G61" s="16">
+      <c r="G61" s="15">
         <v>0.78271890948160072</v>
       </c>
-      <c r="H61" s="16">
+      <c r="H61" s="15">
         <v>0.81797273704002138</v>
       </c>
-      <c r="I61" s="16">
+      <c r="I61" s="15">
         <v>0.88425019931869253</v>
       </c>
-      <c r="J61" s="16">
+      <c r="J61" s="15">
         <v>0.95250175158850958</v>
       </c>
-      <c r="K61" s="16">
+      <c r="K61" s="15">
         <v>0.92169795366142393</v>
       </c>
-      <c r="L61" s="16">
+      <c r="L61" s="15">
         <v>0.92109395762363799</v>
       </c>
-      <c r="M61" s="16">
+      <c r="M61" s="15">
         <v>0.98511753762895304</v>
       </c>
-      <c r="N61" s="16">
+      <c r="N61" s="15">
         <v>0.94312558272968505</v>
       </c>
-      <c r="O61" s="16">
+      <c r="O61" s="15">
         <v>0.81695954983626218</v>
       </c>
-      <c r="P61" s="16">
+      <c r="P61" s="15">
         <v>0.91497163414971638</v>
       </c>
-      <c r="Q61" s="16">
+      <c r="Q61" s="15">
         <v>0.88672109220054429</v>
       </c>
-      <c r="R61" s="16">
+      <c r="R61" s="15">
         <v>0.91440094569223274</v>
       </c>
-      <c r="S61" s="16">
+      <c r="S61" s="15">
         <v>0.90107317525438657</v>
       </c>
-      <c r="T61" s="16">
+      <c r="T61" s="15">
         <v>0.91608169199663791</v>
       </c>
-      <c r="U61" s="16">
+      <c r="U61" s="15">
         <v>0.94050296462891025</v>
       </c>
-      <c r="V61" s="16">
+      <c r="V61" s="15">
         <v>0.9444785206388151</v>
       </c>
-      <c r="W61" s="16">
+      <c r="W61" s="15">
         <v>0.93652740861900541</v>
       </c>
-      <c r="X61" s="16">
+      <c r="X61" s="15">
         <v>0.93482359890047495</v>
       </c>
-      <c r="Y61" s="16">
+      <c r="Y61" s="15">
         <v>0.91778550171516859</v>
       </c>
     </row>
@@ -49327,76 +49390,76 @@
       <c r="A62" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="B62" s="17">
+      <c r="B62" s="16">
         <v>65535</v>
       </c>
-      <c r="C62" s="17">
+      <c r="C62" s="16">
         <v>65535</v>
       </c>
-      <c r="D62" s="17">
+      <c r="D62" s="16">
         <v>65535</v>
       </c>
-      <c r="E62" s="17">
+      <c r="E62" s="16">
         <v>65535</v>
       </c>
-      <c r="F62" s="17">
+      <c r="F62" s="16">
         <v>65535</v>
       </c>
-      <c r="G62" s="17">
+      <c r="G62" s="16">
         <v>65535</v>
       </c>
-      <c r="H62" s="17">
+      <c r="H62" s="16">
         <v>65535</v>
       </c>
-      <c r="I62" s="17">
+      <c r="I62" s="16">
         <v>65535</v>
       </c>
-      <c r="J62" s="17">
+      <c r="J62" s="16">
         <v>65535</v>
       </c>
-      <c r="K62" s="17">
+      <c r="K62" s="16">
         <v>65535</v>
       </c>
-      <c r="L62" s="17">
+      <c r="L62" s="16">
         <v>65535</v>
       </c>
-      <c r="M62" s="17">
+      <c r="M62" s="16">
         <v>65535</v>
       </c>
-      <c r="N62" s="17">
+      <c r="N62" s="16">
         <v>65535</v>
       </c>
-      <c r="O62" s="17">
+      <c r="O62" s="16">
         <v>65535</v>
       </c>
-      <c r="P62" s="17">
+      <c r="P62" s="16">
         <v>65535</v>
       </c>
-      <c r="Q62" s="17">
+      <c r="Q62" s="16">
         <v>65535</v>
       </c>
-      <c r="R62" s="17">
+      <c r="R62" s="16">
         <v>65535</v>
       </c>
-      <c r="S62" s="17">
+      <c r="S62" s="16">
         <v>65535</v>
       </c>
-      <c r="T62" s="17">
+      <c r="T62" s="16">
         <v>65535</v>
       </c>
-      <c r="U62" s="17">
+      <c r="U62" s="16">
         <v>65535</v>
       </c>
-      <c r="V62" s="17">
+      <c r="V62" s="16">
         <v>65535</v>
       </c>
-      <c r="W62" s="17">
+      <c r="W62" s="16">
         <v>65535</v>
       </c>
-      <c r="X62" s="17">
+      <c r="X62" s="16">
         <v>65535</v>
       </c>
-      <c r="Y62" s="17">
+      <c r="Y62" s="16">
         <v>65535</v>
       </c>
     </row>
@@ -49404,56 +49467,56 @@
       <c r="A63" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B63" s="16"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="16"/>
-      <c r="I63" s="16"/>
-      <c r="J63" s="16"/>
-      <c r="K63" s="16"/>
-      <c r="L63" s="16">
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15">
         <v>3.8051750380517509E-2</v>
       </c>
-      <c r="M63" s="16">
+      <c r="M63" s="15">
         <v>7.6103500761035017E-2</v>
       </c>
-      <c r="N63" s="16">
+      <c r="N63" s="15">
         <v>9.6783799880881469E-2</v>
       </c>
-      <c r="O63" s="16">
+      <c r="O63" s="15">
         <v>0.1525728837372673</v>
       </c>
-      <c r="P63" s="16">
+      <c r="P63" s="15">
         <v>0.13964622955180209</v>
       </c>
-      <c r="Q63" s="16">
+      <c r="Q63" s="15">
         <v>0.15294587046149752</v>
       </c>
-      <c r="R63" s="16">
+      <c r="R63" s="15">
         <v>0.1540541738706388</v>
       </c>
-      <c r="S63" s="16">
+      <c r="S63" s="15">
         <v>0.15516247727978011</v>
       </c>
-      <c r="T63" s="16">
+      <c r="T63" s="15">
         <v>0.14851265682493239</v>
       </c>
-      <c r="U63" s="16">
+      <c r="U63" s="15">
         <v>0.15586582367404284</v>
       </c>
-      <c r="V63" s="16">
+      <c r="V63" s="15">
         <v>0.15255292652552924</v>
       </c>
-      <c r="W63" s="16">
+      <c r="W63" s="15">
         <v>0.13213245604573401</v>
       </c>
-      <c r="X63" s="16">
+      <c r="X63" s="15">
         <v>0.13711751430220961</v>
       </c>
-      <c r="Y63" s="16">
+      <c r="Y63" s="15">
         <v>0.13667567483614451</v>
       </c>
     </row>
@@ -49461,66 +49524,66 @@
       <c r="A64" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17">
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16">
         <v>0</v>
       </c>
-      <c r="H64" s="17">
+      <c r="H64" s="16">
         <v>7.6103500761035017E-2</v>
       </c>
-      <c r="I64" s="17">
+      <c r="I64" s="16">
         <v>0.19025875190258754</v>
       </c>
-      <c r="J64" s="17">
+      <c r="J64" s="16">
         <v>0.12453300124533001</v>
       </c>
-      <c r="K64" s="17">
+      <c r="K64" s="16">
         <v>8.3022000830220002E-2</v>
       </c>
-      <c r="L64" s="17">
+      <c r="L64" s="16">
         <v>0.15841953219644023</v>
       </c>
-      <c r="M64" s="17">
+      <c r="M64" s="16">
         <v>0.18180280737358362</v>
       </c>
-      <c r="N64" s="17">
+      <c r="N64" s="16">
         <v>0.20480795057749127</v>
       </c>
-      <c r="O64" s="17">
+      <c r="O64" s="16">
         <v>0.22998925597636316</v>
       </c>
-      <c r="P64" s="17">
+      <c r="P64" s="16">
         <v>0.21689497716894979</v>
       </c>
-      <c r="Q64" s="17">
+      <c r="Q64" s="16">
         <v>0.23646444879321593</v>
       </c>
-      <c r="R64" s="17">
+      <c r="R64" s="16">
         <v>0.23157208088714937</v>
       </c>
-      <c r="S64" s="17">
+      <c r="S64" s="16">
         <v>0.24461839530332682</v>
       </c>
-      <c r="T64" s="17">
+      <c r="T64" s="16">
         <v>0.21526418786692761</v>
       </c>
-      <c r="U64" s="17">
+      <c r="U64" s="16">
         <v>0.21526418786692761</v>
       </c>
-      <c r="V64" s="17">
+      <c r="V64" s="16">
         <v>0.24135681669928247</v>
       </c>
-      <c r="W64" s="17">
+      <c r="W64" s="16">
         <v>0.23320287018917157</v>
       </c>
-      <c r="X64" s="17">
+      <c r="X64" s="16">
         <v>0.23483365949119375</v>
       </c>
-      <c r="Y64" s="17">
+      <c r="Y64" s="16">
         <v>0.25277234181343772</v>
       </c>
     </row>
@@ -49607,57 +49670,57 @@
       <c r="A68" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="16"/>
-      <c r="J68" s="16">
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="15">
         <v>0.30441400304414001</v>
       </c>
-      <c r="K68" s="16">
+      <c r="K68" s="15">
         <v>0.10147133434804669</v>
       </c>
-      <c r="L68" s="16">
+      <c r="L68" s="15">
         <v>0.40447488584474894</v>
       </c>
-      <c r="M68" s="16">
+      <c r="M68" s="15">
         <v>0.5811540058115402</v>
       </c>
-      <c r="N68" s="16">
+      <c r="N68" s="15">
         <v>0.53816046966731901</v>
       </c>
-      <c r="O68" s="16">
+      <c r="O68" s="15">
         <v>0.37067553048616708</v>
       </c>
-      <c r="P68" s="16">
+      <c r="P68" s="15">
         <v>0.57077625570776258</v>
       </c>
-      <c r="Q68" s="16">
+      <c r="Q68" s="15">
         <v>0.57500422797226458</v>
       </c>
-      <c r="R68" s="16">
+      <c r="R68" s="15">
         <v>0.70696146759593048</v>
       </c>
-      <c r="S68" s="16">
+      <c r="S68" s="15">
         <v>0.86924428402751963</v>
       </c>
-      <c r="T68" s="16">
+      <c r="T68" s="15">
         <v>2.5863099724480505</v>
       </c>
-      <c r="U68" s="16">
+      <c r="U68" s="15">
         <v>3.6549813955986812</v>
       </c>
-      <c r="V68" s="16">
+      <c r="V68" s="15">
         <v>4.036889720525596</v>
       </c>
-      <c r="W68" s="16">
+      <c r="W68" s="15">
         <v>6.2453375126974553</v>
       </c>
-      <c r="X68" s="16">
+      <c r="X68" s="15">
         <v>3.2548137163984849</v>
       </c>
     </row>
@@ -49665,73 +49728,73 @@
       <c r="A69" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="B69" s="17">
+      <c r="B69" s="16">
         <v>0.17918731176527739</v>
       </c>
-      <c r="C69" s="17">
+      <c r="C69" s="16">
         <v>0.14535545467936098</v>
       </c>
-      <c r="D69" s="17">
+      <c r="D69" s="16">
         <v>0.15845780240593327</v>
       </c>
-      <c r="E69" s="17">
+      <c r="E69" s="16">
         <v>0.1498316039834055</v>
       </c>
-      <c r="F69" s="17">
+      <c r="F69" s="16">
         <v>0.1347902156764661</v>
       </c>
-      <c r="G69" s="17">
+      <c r="G69" s="16">
         <v>0.18958653994151151</v>
       </c>
-      <c r="H69" s="17">
+      <c r="H69" s="16">
         <v>0.18353719344825822</v>
       </c>
-      <c r="I69" s="17">
+      <c r="I69" s="16">
         <v>0.12836507928947488</v>
       </c>
-      <c r="J69" s="17">
+      <c r="J69" s="16">
         <v>0.12535509016122517</v>
       </c>
-      <c r="K69" s="17">
+      <c r="K69" s="16">
         <v>0.15416139825537606</v>
       </c>
-      <c r="L69" s="17">
+      <c r="L69" s="16">
         <v>0.21319901365069094</v>
       </c>
-      <c r="M69" s="17">
+      <c r="M69" s="16">
         <v>0.13556538436675425</v>
       </c>
-      <c r="N69" s="17">
+      <c r="N69" s="16">
         <v>0.1426745416205524</v>
       </c>
-      <c r="O69" s="17">
+      <c r="O69" s="16">
         <v>0.17089921406444017</v>
       </c>
-      <c r="P69" s="17">
+      <c r="P69" s="16">
         <v>0.18308207829936693</v>
       </c>
-      <c r="Q69" s="17">
+      <c r="Q69" s="16">
         <v>0.21797454043557021</v>
       </c>
-      <c r="R69" s="17">
+      <c r="R69" s="16">
         <v>0.16178813238750592</v>
       </c>
-      <c r="S69" s="17">
+      <c r="S69" s="16">
         <v>0.11826549026371555</v>
       </c>
-      <c r="T69" s="17">
+      <c r="T69" s="16">
         <v>0.18320015783762453</v>
       </c>
-      <c r="U69" s="17">
+      <c r="U69" s="16">
         <v>0.11430375923833559</v>
       </c>
-      <c r="V69" s="17">
+      <c r="V69" s="16">
         <v>0.11225524213694742</v>
       </c>
-      <c r="W69" s="17">
+      <c r="W69" s="16">
         <v>0.1716829439171017</v>
       </c>
-      <c r="X69" s="17">
+      <c r="X69" s="16">
         <v>0.13069358514235713</v>
       </c>
     </row>
@@ -49739,73 +49802,73 @@
       <c r="A70" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B70" s="16">
+      <c r="B70" s="15">
         <v>0.58751816400088952</v>
       </c>
-      <c r="C70" s="16">
+      <c r="C70" s="15">
         <v>0.63195855763612019</v>
       </c>
-      <c r="D70" s="16">
+      <c r="D70" s="15">
         <v>0.84807034848805107</v>
       </c>
-      <c r="E70" s="16">
+      <c r="E70" s="15">
         <v>0.72468873612271401</v>
       </c>
-      <c r="F70" s="16">
+      <c r="F70" s="15">
         <v>0.70518756353607848</v>
       </c>
-      <c r="G70" s="16">
+      <c r="G70" s="15">
         <v>0.78226961776024206</v>
       </c>
-      <c r="H70" s="16">
+      <c r="H70" s="15">
         <v>0.81749754243287398</v>
       </c>
-      <c r="I70" s="16">
+      <c r="I70" s="15">
         <v>0.88349648121868596</v>
       </c>
-      <c r="J70" s="16">
+      <c r="J70" s="15">
         <v>0.95119319991890894</v>
       </c>
-      <c r="K70" s="16">
+      <c r="K70" s="15">
         <v>0.92048229990249752</v>
       </c>
-      <c r="L70" s="16">
+      <c r="L70" s="15">
         <v>0.92005994960757642</v>
       </c>
-      <c r="M70" s="16">
+      <c r="M70" s="15">
         <v>0.98431753019201262</v>
       </c>
-      <c r="N70" s="16">
+      <c r="N70" s="15">
         <v>0.94540432280661413</v>
       </c>
-      <c r="O70" s="16">
+      <c r="O70" s="15">
         <v>0.81619276686525755</v>
       </c>
-      <c r="P70" s="16">
+      <c r="P70" s="15">
         <v>0.91711461765215874</v>
       </c>
-      <c r="Q70" s="16">
+      <c r="Q70" s="15">
         <v>0.88913935610658323</v>
       </c>
-      <c r="R70" s="16">
+      <c r="R70" s="15">
         <v>0.91556341739152636</v>
       </c>
-      <c r="S70" s="16">
+      <c r="S70" s="15">
         <v>0.90218624426321981</v>
       </c>
-      <c r="T70" s="16">
+      <c r="T70" s="15">
         <v>0.91672584775055033</v>
       </c>
-      <c r="U70" s="16">
+      <c r="U70" s="15">
         <v>0.942110199083116</v>
       </c>
-      <c r="V70" s="16">
+      <c r="V70" s="15">
         <v>0.94612082701666678</v>
       </c>
-      <c r="W70" s="16">
+      <c r="W70" s="15">
         <v>0.9382181082323805</v>
       </c>
-      <c r="X70" s="16">
+      <c r="X70" s="15">
         <v>0.93680249206717758</v>
       </c>
     </row>
@@ -49813,73 +49876,73 @@
       <c r="A71" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="B71" s="17">
+      <c r="B71" s="16">
         <v>1.3728687025740881E-2</v>
       </c>
-      <c r="C71" s="17">
+      <c r="C71" s="16">
         <v>8.9246408872480296E-3</v>
       </c>
-      <c r="D71" s="17">
+      <c r="D71" s="16">
         <v>1.4064542368890371E-2</v>
       </c>
-      <c r="E71" s="17">
+      <c r="E71" s="16">
         <v>1.3440969291696423E-2</v>
       </c>
-      <c r="F71" s="17">
+      <c r="F71" s="16">
         <v>1.4367639360976603E-2</v>
       </c>
-      <c r="G71" s="17">
+      <c r="G71" s="16">
         <v>1.06544901065449E-2</v>
       </c>
-      <c r="H71" s="17">
+      <c r="H71" s="16">
         <v>6.8721033906174785E-3</v>
       </c>
-      <c r="I71" s="17">
+      <c r="I71" s="16">
         <v>1.3383397499030053E-2</v>
       </c>
-      <c r="J71" s="17">
+      <c r="J71" s="16">
         <v>6.8134032678754683E-3</v>
       </c>
-      <c r="K71" s="17">
+      <c r="K71" s="16">
         <v>8.974387151398696E-3</v>
       </c>
-      <c r="L71" s="17">
+      <c r="L71" s="16">
         <v>1.0171012962918537E-2</v>
       </c>
-      <c r="M71" s="17">
+      <c r="M71" s="16">
         <v>4.0275281549390085E-3</v>
       </c>
-      <c r="N71" s="17">
+      <c r="N71" s="16">
         <v>5.4770281784942507E-3</v>
       </c>
-      <c r="O71" s="17">
+      <c r="O71" s="16">
         <v>5.9193423561722108E-3</v>
       </c>
-      <c r="P71" s="17">
+      <c r="P71" s="16">
         <v>5.7979529360833674E-3</v>
       </c>
-      <c r="Q71" s="17">
+      <c r="Q71" s="16">
         <v>5.9440758150922698E-3</v>
       </c>
-      <c r="R71" s="17">
+      <c r="R71" s="16">
         <v>1.0672682178439969E-2</v>
       </c>
-      <c r="S71" s="17">
+      <c r="S71" s="16">
         <v>1.3166338195431674E-2</v>
       </c>
-      <c r="T71" s="17">
+      <c r="T71" s="16">
         <v>1.0273264456408587E-2</v>
       </c>
-      <c r="U71" s="17">
+      <c r="U71" s="16">
         <v>1.1459284473580975E-2</v>
       </c>
-      <c r="V71" s="17">
+      <c r="V71" s="16">
         <v>1.0273784895450284E-2</v>
       </c>
-      <c r="W71" s="17">
+      <c r="W71" s="16">
         <v>1.1799059936493149E-2</v>
       </c>
-      <c r="X71" s="17">
+      <c r="X71" s="16">
         <v>1.5180712412366853E-2</v>
       </c>
     </row>
@@ -49887,59 +49950,59 @@
       <c r="A72" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16">
+      <c r="B72" s="15"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15">
         <v>0.22831050228310501</v>
       </c>
-      <c r="J72" s="16">
+      <c r="J72" s="15">
         <v>0.1906392694063927</v>
       </c>
-      <c r="K72" s="16">
+      <c r="K72" s="15">
         <v>0.18647260273972602</v>
       </c>
-      <c r="L72" s="16">
+      <c r="L72" s="15">
         <v>6.7876712328767116E-2</v>
       </c>
-      <c r="M72" s="16">
+      <c r="M72" s="15">
         <v>7.476575935480044E-2</v>
       </c>
-      <c r="N72" s="16">
+      <c r="N72" s="15">
         <v>9.6412405035707568E-2</v>
       </c>
-      <c r="O72" s="16">
+      <c r="O72" s="15">
         <v>0.15293804193529958</v>
       </c>
-      <c r="P72" s="16">
+      <c r="P72" s="15">
         <v>0.13941040865139273</v>
       </c>
-      <c r="Q72" s="16">
+      <c r="Q72" s="15">
         <v>0.1534278778672068</v>
       </c>
-      <c r="R72" s="16">
+      <c r="R72" s="15">
         <v>0.15383140488540142</v>
       </c>
-      <c r="S72" s="16">
+      <c r="S72" s="15">
         <v>0.15538589047072227</v>
       </c>
-      <c r="T72" s="16">
+      <c r="T72" s="15">
         <v>0.14838111835914639</v>
       </c>
-      <c r="U72" s="16">
+      <c r="U72" s="15">
         <v>0.15491400651998427</v>
       </c>
-      <c r="V72" s="16">
+      <c r="V72" s="15">
         <v>0.15239085998651261</v>
       </c>
-      <c r="W72" s="16">
+      <c r="W72" s="15">
         <v>0.13133926069138591</v>
       </c>
-      <c r="X72" s="16">
+      <c r="X72" s="15">
         <v>0.13764325363624622</v>
       </c>
     </row>
@@ -49947,65 +50010,65 @@
       <c r="A73" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="B73" s="17"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="17">
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16">
         <v>0.11415525114155251</v>
       </c>
-      <c r="G73" s="17">
+      <c r="G73" s="16">
         <v>6.5453767123287668E-2</v>
       </c>
-      <c r="H73" s="17">
+      <c r="H73" s="16">
         <v>8.4758159986470502E-2</v>
       </c>
-      <c r="I73" s="17">
+      <c r="I73" s="16">
         <v>0.17808980213089803</v>
       </c>
-      <c r="J73" s="17">
+      <c r="J73" s="16">
         <v>0.12192381639029079</v>
       </c>
-      <c r="K73" s="17">
+      <c r="K73" s="16">
         <v>8.1248714467892558E-2</v>
       </c>
-      <c r="L73" s="17">
+      <c r="L73" s="16">
         <v>0.15938903548169775</v>
       </c>
-      <c r="M73" s="17">
+      <c r="M73" s="16">
         <v>0.18169781142649755</v>
       </c>
-      <c r="N73" s="17">
+      <c r="N73" s="16">
         <v>0.2058669391554197</v>
       </c>
-      <c r="O73" s="17">
+      <c r="O73" s="16">
         <v>0.22956604290766625</v>
       </c>
-      <c r="P73" s="17">
+      <c r="P73" s="16">
         <v>0.2172995015710637</v>
       </c>
-      <c r="Q73" s="17">
+      <c r="Q73" s="16">
         <v>0.23704950320418605</v>
       </c>
-      <c r="R73" s="17">
+      <c r="R73" s="16">
         <v>0.23271503321770831</v>
       </c>
-      <c r="S73" s="17">
+      <c r="S73" s="16">
         <v>0.24584659524473154</v>
       </c>
-      <c r="T73" s="17">
+      <c r="T73" s="16">
         <v>0.21529025081619735</v>
       </c>
-      <c r="U73" s="17">
+      <c r="U73" s="16">
         <v>0.21381996798613462</v>
       </c>
-      <c r="V73" s="17">
+      <c r="V73" s="16">
         <v>0.23992922634315969</v>
       </c>
-      <c r="W73" s="17">
+      <c r="W73" s="16">
         <v>0.2323315222455867</v>
       </c>
-      <c r="X73" s="17">
+      <c r="X73" s="16">
         <v>0.24297964087912982</v>
       </c>
     </row>

--- a/VerveStacks_BGR/source_data/VerveStacks_BGR.xlsx
+++ b/VerveStacks_BGR/source_data/VerveStacks_BGR.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VerveStacks\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6100157-C9A0-40BB-8C04-D7F98881DD26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF26FF4C-B131-45A4-B784-203AF4C31CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="iamc_data" sheetId="59" r:id="rId1"/>
-    <sheet name="iamc_charts" sheetId="58" r:id="rId2"/>
-    <sheet name="weo_pg" sheetId="57" r:id="rId3"/>
-    <sheet name="re_targets" sheetId="56" r:id="rId4"/>
-    <sheet name="ccs_retrofits" sheetId="55" r:id="rId5"/>
-    <sheet name="Calibration" sheetId="54" r:id="rId6"/>
-    <sheet name="existing_stock" sheetId="53" r:id="rId7"/>
+    <sheet name="iamc_data" sheetId="66" r:id="rId1"/>
+    <sheet name="iamc_charts" sheetId="65" r:id="rId2"/>
+    <sheet name="weo_pg" sheetId="64" r:id="rId3"/>
+    <sheet name="re_targets" sheetId="63" r:id="rId4"/>
+    <sheet name="ccs_retrofits" sheetId="62" r:id="rId5"/>
+    <sheet name="Calibration" sheetId="61" r:id="rId6"/>
+    <sheet name="existing_stock" sheetId="60" r:id="rId7"/>
     <sheet name="historical_data_long" sheetId="5" r:id="rId8"/>
     <sheet name="historical_data" sheetId="4" r:id="rId9"/>
     <sheet name="system_settings" sheetId="1" r:id="rId10"/>
@@ -29,149 +29,6 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Amit Kanudia</author>
-  </authors>
-  <commentList>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{FF9212EF-2CD7-40CF-97A7-BCFB21732665}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>💡 Standardized fuel type for VEDA/TIMES model compatibility
-📊 CALCULATION: Technology mapping from GEM fuel types to model categories
-📁 DATA SOURCE: VS_mappings.xlsx (gem_fuel_mapping sheet)
-🔧 METHODOLOGY: GEM fuel types mapped to standard categories: nuclear, gas, coal, hydro, solar, wind, etc.
-✅ QUALITY: All fuel types validated against VEDA conventions. Unmapped fuels flagged for review.
-→ See row 4 for complete methodology</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{71613E1D-9F5C-486B-BB93-ECA51EAAE738}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>💡 Plant commissioning year for retirement scheduling
-📊 CALCULATION: GEM commissioning date or estimated for gap-filled plants
-📁 DATA SOURCE: GEM database, gap plants assigned 2022 (latest statistical year)
-🔧 METHODOLOGY: Historical plants use GEM dates. Gap plants represent recent additions not in GEM
-✅ QUALITY: Years validated against realistic ranges (1900-2025). Future plants excluded.
-→ See row 4 for complete methodology</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J6" authorId="0" shapeId="0" xr:uid="{FB0405B8-3B39-453D-BEDC-1DED4B774082}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>💡 Output commodity for VEDA/TIMES model linkage
-📊 CALCULATION: Spatial assignment based on grid modeling mode and technology type
-📁 DATA SOURCE: Generated from REZoning zones (grid ON) or country codes (grid OFF)
-🔧 METHODOLOGY: Grid ON: elc_spv-CHE_001 (renewables), e_w123 (thermal). Grid OFF: elc_sol-CHE, ELC
-✅ QUALITY: All assignments verified against spatial boundaries. Commodity names follow VEDA conventions.
-→ See row 4 for complete methodology</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L6" authorId="0" shapeId="0" xr:uid="{D531B340-C231-43B7-8707-E6458F8557E5}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>💡 Capital expenditure in $/kW (capacity-weighted average)
-📊 CALCULATION: Multi-factor: Base cost × Size multiplier × Regional multiplier
-📁 DATA SOURCE: ep_technoeconomic_assumptions.xlsx (costs, size_multipliers, regional_multipliers sheets)
-🔧 METHODOLOGY: Weighted average: SUM(MW × capex) / SUM(MW) by technology group and vintage
-✅ QUALITY: Values validated against international benchmarks. Outliers investigated and documented.
-→ See row 4 for complete methodology</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M6" authorId="0" shapeId="0" xr:uid="{CCB968CF-46BC-430B-8431-5653C70E5A8C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>💡 Fixed O&amp;M costs in $/kW-year (capacity-weighted average)
-📊 CALCULATION: Multi-factor: Base cost × Size multiplier × Regional multiplier
-📁 DATA SOURCE: ep_technoeconomic_assumptions.xlsx (costs, size_multipliers, regional_multipliers sheets)
-🔧 METHODOLOGY: Weighted average: SUM(MW × fixom) / SUM(MW) by technology group and vintage
-✅ QUALITY: Includes maintenance, insurance, and fixed labor costs. Regional adjustments applied.
-→ See row 4 for complete methodology</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N6" authorId="0" shapeId="0" xr:uid="{8EFC1DC0-F9B6-4C7D-93B5-06DF7CAE61D4}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>💡 Variable O&amp;M costs in $/MWh (capacity-weighted average)
-📊 CALCULATION: Multi-factor: Base cost × Size multiplier × Regional multiplier
-📁 DATA SOURCE: ep_technoeconomic_assumptions.xlsx (costs, size_multipliers, regional_multipliers sheets)
-🔧 METHODOLOGY: Weighted average: SUM(MW × varom) / SUM(MW) by technology group and vintage
-✅ QUALITY: Excludes fuel costs. Covers variable maintenance and consumables only.
-→ See row 4 for complete methodology</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O6" authorId="0" shapeId="0" xr:uid="{F5B48DAE-8D94-4679-9FE5-241312BF6463}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>💡 Thermal efficiency - electrical output / fuel input (capacity-weighted average)
-📊 CALCULATION: Vintage-based efficiency × Regional multiplier, capacity-weighted
-📁 DATA SOURCE: ep_technoeconomic_assumptions.xlsx (thermal_eff, regional_multipliers sheets)
-🔧 METHODOLOGY: Efficiency by commissioning year and size class. Weighted: SUM(MW × eff) / SUM(MW)
-✅ QUALITY: Range validated (0.25-0.65 for thermal plants). Technology-specific realistic bounds applied.
-→ See row 4 for complete methodology</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Amit Kanudia</author>
@@ -199,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8727" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8725" uniqueCount="394">
   <si>
     <t>Time Slices</t>
   </si>
@@ -1356,14 +1213,6 @@
     <t>Net Zero 2050</t>
   </si>
   <si>
-    <t xml:space="preserve">Data Source: Global Energy Monitor plant database + IRENA/EMBER statistics with spatial gap-filling
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complete power plant inventory combining GEM facility-level data with statistical capacity gaps from IRENA  (renewables) and EMBER (thermal). Missing capacity distributed spatially using resource quality rankings  and existing plant locations. Technology costs calculated as capacity-weighted averages with regional and  size adjustments. All parameters validated against realistic ranges. Hover over column headers for detailed  calculation methods and data sources.
-</t>
-  </si>
-  <si>
     <t>capacity_gw_gem</t>
   </si>
   <si>
@@ -1413,7 +1262,7 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1455,20 +1304,6 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -1547,7 +1382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1562,25 +1397,13 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1619,7 +1442,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85E32FE2-CDE6-5283-95CB-7F11B092732F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A3C9F48-8CF8-FE6E-A343-2EC54FA369B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1674,7 +1497,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36CFCF30-3C8A-0A15-E284-5E6CE10340CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A99FF136-5D3B-FB6D-3E13-17A9C5B214D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1729,7 +1552,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44D2E562-8E93-49C3-3E28-B9282D111558}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{291FFA82-2BC3-8128-4EA5-C966A3BCEE80}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1784,7 +1607,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{565F6AFF-0F8B-1825-CE18-EC892A233475}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C059A7F7-FFEB-EEA3-0226-27F6010C1044}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1839,7 +1662,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDF0B4DB-1F17-F513-05F7-5CD1387DA604}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B3E5662-BA1D-EFC1-E119-D53351309B11}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2276,6 +2099,56 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>296863</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D646D25-A21D-232D-0FF4-B74F9C313D9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17479963" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2595,7 +2468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DCF889-1951-431D-8B44-EEDB671CB881}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E195A411-13A6-4870-839B-DFC5524C1286}">
   <dimension ref="A1:L638"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -25361,7 +25234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD19821-BD73-470D-BAC9-90E9B59DD1A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378246EE-FD64-4798-9F89-62879356AE08}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -25374,7 +25247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E956688A-01FE-40BC-81FA-D76BA36AFB53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472E8ADB-CE1A-4DFD-AC8A-1D74C387F585}">
   <dimension ref="A1:I129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28594,7 +28467,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C817CB3D-80AB-40F9-A490-4D2BEF631D7A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8AA177C-947F-4791-BAD2-E10B0B3EB2BA}">
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -29271,7 +29144,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239396D2-8E8E-4B47-BE18-EA14FEDA16BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892585A0-1B54-4C0A-923C-A07CDE4BB63E}">
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -30213,7 +30086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D9F578-C299-489B-879A-80B159368308}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81101B1B-A48B-4F3C-AAC3-AC3299C81429}">
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -30228,13 +30101,13 @@
         <v>56</v>
       </c>
       <c r="C1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E1" t="s">
         <v>383</v>
-      </c>
-      <c r="D1" t="s">
-        <v>384</v>
-      </c>
-      <c r="E1" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -30358,16 +30231,16 @@
         <v>56</v>
       </c>
       <c r="C11" t="s">
+        <v>384</v>
+      </c>
+      <c r="D11" t="s">
+        <v>385</v>
+      </c>
+      <c r="E11" t="s">
         <v>386</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>387</v>
-      </c>
-      <c r="E11" t="s">
-        <v>388</v>
-      </c>
-      <c r="F11" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
@@ -30506,22 +30379,22 @@
         <v>56</v>
       </c>
       <c r="C21" t="s">
+        <v>388</v>
+      </c>
+      <c r="D21" t="s">
+        <v>389</v>
+      </c>
+      <c r="E21" t="s">
         <v>390</v>
       </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
         <v>391</v>
       </c>
-      <c r="E21" t="s">
+      <c r="G21" t="s">
         <v>392</v>
       </c>
-      <c r="F21" t="s">
+      <c r="H21" t="s">
         <v>393</v>
-      </c>
-      <c r="G21" t="s">
-        <v>394</v>
-      </c>
-      <c r="H21" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
@@ -30688,7 +30561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B48326AF-AD64-410F-8803-2EC02370AECF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4AE6F7D-D734-46F1-BA11-3758AA01D15B}">
   <dimension ref="A1:W91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -30741,34 +30614,8 @@
       <c r="T1" s="19"/>
       <c r="U1" s="19"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A3" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A4" s="22" t="s">
-        <v>382</v>
-      </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-    </row>
+    <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="1:23" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
         <v>53</v>
@@ -35919,14 +35766,11 @@
       <c r="W91" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="A1:U1"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/VerveStacks_BGR/source_data/VerveStacks_BGR.xlsx
+++ b/VerveStacks_BGR/source_data/VerveStacks_BGR.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VerveStacks\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF26FF4C-B131-45A4-B784-203AF4C31CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE420B6-172E-4A28-B475-41BED6F546FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="iamc_data" sheetId="66" r:id="rId1"/>
-    <sheet name="iamc_charts" sheetId="65" r:id="rId2"/>
-    <sheet name="weo_pg" sheetId="64" r:id="rId3"/>
-    <sheet name="re_targets" sheetId="63" r:id="rId4"/>
-    <sheet name="ccs_retrofits" sheetId="62" r:id="rId5"/>
-    <sheet name="Calibration" sheetId="61" r:id="rId6"/>
-    <sheet name="existing_stock" sheetId="60" r:id="rId7"/>
+    <sheet name="iamc_data" sheetId="73" r:id="rId1"/>
+    <sheet name="iamc_charts" sheetId="72" r:id="rId2"/>
+    <sheet name="weo_pg" sheetId="71" r:id="rId3"/>
+    <sheet name="re_targets" sheetId="70" r:id="rId4"/>
+    <sheet name="ccs_retrofits" sheetId="69" r:id="rId5"/>
+    <sheet name="Calibration" sheetId="68" r:id="rId6"/>
+    <sheet name="existing_stock" sheetId="67" r:id="rId7"/>
     <sheet name="historical_data_long" sheetId="5" r:id="rId8"/>
     <sheet name="historical_data" sheetId="4" r:id="rId9"/>
     <sheet name="system_settings" sheetId="1" r:id="rId10"/>
@@ -29,6 +29,254 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Amit Kanudia</author>
+  </authors>
+  <commentList>
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{6705E15F-52A0-4A16-9FD5-6A98D6455E38}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>💡 Three-letter ISO country code
+📊 CALCULATION: Direct from source data
+📁 DATA SOURCE: ISO 3166-1 alpha-3 standard
+🔧 METHODOLOGY: Standardized country identification
+✅ QUALITY: Verified against official ISO registry
+→ See row 4 for complete methodology</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{80150844-B1F9-40D9-9CCE-56FDEB6B1488}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>💡 Standardized fuel/technology category
+📊 CALCULATION: Mapped from source technology classifications
+📁 DATA SOURCE: GEM/IRENA/EMBER technology categories
+🔧 METHODOLOGY: Harmonized technology mapping across all sources
+✅ QUALITY: Consistent categorization ensures comparability
+→ See row 4 for complete methodology</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{82ABAAA5-D6C4-413A-B1CE-5827CCBBCA45}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>💡 Installed capacity from Global Energy Monitor
+📊 CALCULATION: Sum of individual plant capacities by technology
+📁 DATA SOURCE: GEM Global Power Plant Tracker
+🔧 METHODOLOGY: Facility-level data aggregated by fuel type
+✅ QUALITY: Most granular source with individual plant details
+→ See row 4 for complete methodology</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{78515C2B-5B41-4507-92DF-51CEF6F402A8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>💡 Installed capacity from IRENA statistics
+📊 CALCULATION: National statistics by technology category
+📁 DATA SOURCE: IRENA Renewable Energy Statistics
+🔧 METHODOLOGY: Official government reporting aggregated by IRENA
+✅ QUALITY: Authoritative for renewables, may include distributed generation
+→ See row 4 for complete methodology</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{00C261AA-19F8-45A4-B3FD-9DFF6A427FC7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>💡 Installed capacity from Ember statistics
+📊 CALCULATION: National statistics by technology category
+📁 DATA SOURCE: Ember Global Electricity Review
+🔧 METHODOLOGY: Statistical analysis of electricity sector data
+✅ QUALITY: Focus on electricity sector, excludes some industrial capacity
+→ See row 4 for complete methodology</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Amit Kanudia</author>
+  </authors>
+  <commentList>
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{7048D575-D9A3-413B-A0E6-484216D28FE4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>💡 Standardized fuel type for VEDA/TIMES model compatibility
+📊 CALCULATION: Technology mapping from GEM fuel types to model categories
+📁 DATA SOURCE: VS_mappings.xlsx (gem_fuel_mapping sheet)
+🔧 METHODOLOGY: GEM fuel types mapped to standard categories: nuclear, gas, coal, hydro, solar, wind, etc.
+✅ QUALITY: All fuel types validated against VEDA conventions. Unmapped fuels flagged for review.
+→ See row 4 for complete methodology</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{60846A03-CAC0-4D5B-88DD-6FEA0573C83F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>💡 Plant commissioning year for retirement scheduling
+📊 CALCULATION: GEM commissioning date or estimated for gap-filled plants
+📁 DATA SOURCE: GEM database, gap plants assigned 2022 (latest statistical year)
+🔧 METHODOLOGY: Historical plants use GEM dates. Gap plants represent recent additions not in GEM
+✅ QUALITY: Years validated against realistic ranges (1900-2025). Future plants excluded.
+→ See row 4 for complete methodology</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J6" authorId="0" shapeId="0" xr:uid="{EA13D1FC-B224-473D-85CE-EFC7B10F4306}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>💡 Output commodity for VEDA/TIMES model linkage
+📊 CALCULATION: Spatial assignment based on grid modeling mode and technology type
+📁 DATA SOURCE: Generated from REZoning zones (grid ON) or country codes (grid OFF)
+🔧 METHODOLOGY: Grid ON: elc_spv-CHE_001 (renewables), e_w123 (thermal). Grid OFF: elc_sol-CHE, ELC
+✅ QUALITY: All assignments verified against spatial boundaries. Commodity names follow VEDA conventions.
+→ See row 4 for complete methodology</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L6" authorId="0" shapeId="0" xr:uid="{78F9E225-C70D-4084-BE56-CEC2FC89A0A5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>💡 Capital expenditure in $/kW (capacity-weighted average)
+📊 CALCULATION: Multi-factor: Base cost × Size multiplier × Regional multiplier
+📁 DATA SOURCE: ep_technoeconomic_assumptions.xlsx (costs, size_multipliers, regional_multipliers sheets)
+🔧 METHODOLOGY: Weighted average: SUM(MW × capex) / SUM(MW) by technology group and vintage
+✅ QUALITY: Values validated against international benchmarks. Outliers investigated and documented.
+→ See row 4 for complete methodology</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M6" authorId="0" shapeId="0" xr:uid="{A8A96C4B-C3A8-4312-A5D0-5852ECC2CED0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>💡 Fixed O&amp;M costs in $/kW-year (capacity-weighted average)
+📊 CALCULATION: Multi-factor: Base cost × Size multiplier × Regional multiplier
+📁 DATA SOURCE: ep_technoeconomic_assumptions.xlsx (costs, size_multipliers, regional_multipliers sheets)
+🔧 METHODOLOGY: Weighted average: SUM(MW × fixom) / SUM(MW) by technology group and vintage
+✅ QUALITY: Includes maintenance, insurance, and fixed labor costs. Regional adjustments applied.
+→ See row 4 for complete methodology</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N6" authorId="0" shapeId="0" xr:uid="{CD63214C-6711-447F-8D10-856F48D8C21A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>💡 Variable O&amp;M costs in $/MWh (capacity-weighted average)
+📊 CALCULATION: Multi-factor: Base cost × Size multiplier × Regional multiplier
+📁 DATA SOURCE: ep_technoeconomic_assumptions.xlsx (costs, size_multipliers, regional_multipliers sheets)
+🔧 METHODOLOGY: Weighted average: SUM(MW × varom) / SUM(MW) by technology group and vintage
+✅ QUALITY: Excludes fuel costs. Covers variable maintenance and consumables only.
+→ See row 4 for complete methodology</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O6" authorId="0" shapeId="0" xr:uid="{385C3DAD-616F-47ED-9956-EE671891E332}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>💡 Thermal efficiency - electrical output / fuel input (capacity-weighted average)
+📊 CALCULATION: Vintage-based efficiency × Regional multiplier, capacity-weighted
+📁 DATA SOURCE: ep_technoeconomic_assumptions.xlsx (thermal_eff, regional_multipliers sheets)
+🔧 METHODOLOGY: Efficiency by commissioning year and size class. Weighted: SUM(MW × eff) / SUM(MW)
+✅ QUALITY: Range validated (0.25-0.65 for thermal plants). Technology-specific realistic bounds applied.
+→ See row 4 for complete methodology</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Amit Kanudia</author>
@@ -56,7 +304,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8725" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8736" uniqueCount="404">
   <si>
     <t>Time Slices</t>
   </si>
@@ -1251,6 +1499,40 @@
   <si>
     <t>fuel_consumed_unsd_twh</t>
   </si>
+  <si>
+    <t xml:space="preserve">Data Source: Global Energy Monitor plant database + IRENA/EMBER statistics with spatial gap-filling
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete power plant inventory combining GEM facility-level data with statistical capacity gaps from IRENA  (renewables) and EMBER (thermal). Missing capacity distributed spatially using resource quality rankings  and existing plant locations. Technology costs calculated as capacity-weighted averages with regional and  size adjustments. All parameters validated against realistic ranges. Hover over column headers for detailed  calculation methods and data sources.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Source: GEM plant database + IRENA/EMBER statistics + UNSD energy balances
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comprehensive calibration analysis comparing capacity and generation data across three authoritative sources. Table 1 shows installed capacity by technology from GEM vs IRENA/EMBER statistics. Table 2 compares calculated generation using capacity and utilization factors. Table 3 provides detailed metrics including efficiency, utilization factors, and fuel consumption estimates. All data reconciled for base year 2022 to ensure model accuracy.
+</t>
+  </si>
+  <si>
+    <t>Table 1: Installed Capacity Comparison (GW)</t>
+  </si>
+  <si>
+    <t>calibration_capacity</t>
+  </si>
+  <si>
+    <t>Table 2: Generation Analysis (TWh)</t>
+  </si>
+  <si>
+    <t>calibration_generation</t>
+  </si>
+  <si>
+    <t>Table 3: Detailed Metrics &amp; Validation</t>
+  </si>
+  <si>
+    <t>calibration_analysis</t>
+  </si>
 </sst>
 </file>
 
@@ -1262,7 +1544,7 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1312,6 +1594,28 @@
       <color rgb="FF0064C8"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1382,7 +1686,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1398,12 +1702,25 @@
     <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="167" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1442,7 +1759,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A3C9F48-8CF8-FE6E-A343-2EC54FA369B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FED7B2F-9974-47C5-A93B-FE7DF48B1AE8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1497,7 +1814,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A99FF136-5D3B-FB6D-3E13-17A9C5B214D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E48E0751-F35B-E442-F5F5-5B15BCF62A95}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1552,7 +1869,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{291FFA82-2BC3-8128-4EA5-C966A3BCEE80}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C4976A7-D86B-3CD7-2A4D-DA16AEC982EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1607,7 +1924,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C059A7F7-FFEB-EEA3-0226-27F6010C1044}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A11AC5F-22BF-4144-03D8-9F8075E1779C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1646,6 +1963,61 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F93D73FF-0196-7187-71B8-0ADEA2B0FE08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5245100" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -1662,7 +2034,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B3E5662-BA1D-EFC1-E119-D53351309B11}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0CE8627-D7A7-53F1-7B1A-7412A71B932B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1697,7 +2069,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2149,6 +2521,56 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>296863</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07FF0BC3-711A-E0FF-625B-70E32B0B9152}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17479963" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2468,7 +2890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E195A411-13A6-4870-839B-DFC5524C1286}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D460486-16B9-416D-A774-93682F7286B6}">
   <dimension ref="A1:L638"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -25234,7 +25656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378246EE-FD64-4798-9F89-62879356AE08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32DDF671-E877-4C61-BE69-98C34EB2EE11}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -25247,7 +25669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472E8ADB-CE1A-4DFD-AC8A-1D74C387F585}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB5F688-EBFC-4887-90C5-502147C8F2F8}">
   <dimension ref="A1:I129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -25265,16 +25687,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="2" t="s">
@@ -28467,7 +28889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8AA177C-947F-4791-BAD2-E10B0B3EB2BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD4DD3E8-036B-4D45-B8C9-9FA4701BE14C}">
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28487,17 +28909,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="2" t="s">
@@ -28561,7 +28983,7 @@
       <c r="H4" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="18">
         <v>45343</v>
       </c>
       <c r="J4" s="4" t="s">
@@ -28596,7 +29018,7 @@
       <c r="H5" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="19">
         <v>44949</v>
       </c>
       <c r="J5" s="9" t="s">
@@ -28631,7 +29053,7 @@
       <c r="H6" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="18">
         <v>44949</v>
       </c>
       <c r="J6" s="4" t="s">
@@ -28666,7 +29088,7 @@
       <c r="H7" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="19">
         <v>45343</v>
       </c>
       <c r="J7" s="9" t="s">
@@ -28701,7 +29123,7 @@
       <c r="H8" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="18">
         <v>44949</v>
       </c>
       <c r="J8" s="4" t="s">
@@ -28736,7 +29158,7 @@
       <c r="H9" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="19">
         <v>45343</v>
       </c>
       <c r="J9" s="9" t="s">
@@ -28771,7 +29193,7 @@
       <c r="H10" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="18">
         <v>44949</v>
       </c>
       <c r="J10" s="4" t="s">
@@ -28806,7 +29228,7 @@
       <c r="H11" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="19">
         <v>44949</v>
       </c>
       <c r="J11" s="9" t="s">
@@ -28841,7 +29263,7 @@
       <c r="H12" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="18">
         <v>45343</v>
       </c>
       <c r="J12" s="4" t="s">
@@ -28876,7 +29298,7 @@
       <c r="H13" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="19">
         <v>44949</v>
       </c>
       <c r="J13" s="9" t="s">
@@ -28911,7 +29333,7 @@
       <c r="H14" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="18">
         <v>45343</v>
       </c>
       <c r="J14" s="4" t="s">
@@ -28946,7 +29368,7 @@
       <c r="H15" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="19">
         <v>45343</v>
       </c>
       <c r="J15" s="9" t="s">
@@ -28981,7 +29403,7 @@
       <c r="H16" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="18">
         <v>45343</v>
       </c>
       <c r="J16" s="4" t="s">
@@ -29016,7 +29438,7 @@
       <c r="H17" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="19">
         <v>45343</v>
       </c>
       <c r="J17" s="9" t="s">
@@ -29051,7 +29473,7 @@
       <c r="H18" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="18">
         <v>45343</v>
       </c>
       <c r="J18" s="4" t="s">
@@ -29086,7 +29508,7 @@
       <c r="H19" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="19">
         <v>45343</v>
       </c>
       <c r="J19" s="9" t="s">
@@ -29121,7 +29543,7 @@
       <c r="H20" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I20" s="18">
         <v>45343</v>
       </c>
       <c r="J20" s="4" t="s">
@@ -29144,7 +29566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892585A0-1B54-4C0A-923C-A07CDE4BB63E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6025E80C-DFD4-48E4-804D-579844FE5DA8}">
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -29161,16 +29583,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="2" t="s">
@@ -30086,482 +30508,584 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81101B1B-A48B-4F3C-AAC3-AC3299C81429}">
-  <dimension ref="A1:H28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D9EC6EA-F3D7-44CF-B0FC-0D99A2B915E3}">
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="2" width="10.59765625" customWidth="1"/>
+    <col min="3" max="3" width="20.53125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.9296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.46484375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A4" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A6" s="15" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A8" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B8" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C8" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D8" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E8" s="14" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C2">
+      <c r="C9" s="8">
         <v>0.1</v>
       </c>
-      <c r="D2">
+      <c r="D9" s="8">
         <v>0.1</v>
       </c>
-      <c r="E2">
+      <c r="E9" s="8">
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A10" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C3">
+      <c r="C10" s="13">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E3">
+      <c r="D10" s="13"/>
+      <c r="E10" s="13">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C4">
+      <c r="C11" s="8">
         <v>1.2</v>
       </c>
-      <c r="E4">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8">
         <v>1.2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A12" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="C5">
+      <c r="C12" s="13">
         <v>3.3</v>
       </c>
-      <c r="D5">
+      <c r="D12" s="13">
         <v>3.3</v>
       </c>
-      <c r="E5">
+      <c r="E12" s="13">
         <v>2.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C6">
+      <c r="C13" s="8">
         <v>2.1</v>
       </c>
-      <c r="D6">
+      <c r="D13" s="8">
         <v>2</v>
       </c>
-      <c r="E6">
+      <c r="E13" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A14" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="C7">
+      <c r="C14" s="13">
         <v>1.7</v>
       </c>
-      <c r="D7">
+      <c r="D14" s="13">
         <v>1.7</v>
       </c>
-      <c r="E7">
+      <c r="E14" s="13">
         <v>1.7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C8">
+      <c r="C15" s="8">
         <v>0.7</v>
       </c>
-      <c r="D8">
+      <c r="D15" s="8">
         <v>0.7</v>
       </c>
-      <c r="E8">
+      <c r="E15" s="8">
         <v>0.7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" s="15" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A21" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B21" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C21" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D21" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E21" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F21" s="3" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C12">
+      <c r="C22" s="7">
         <v>1.4</v>
       </c>
-      <c r="D12">
+      <c r="D22" s="7">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E12">
+      <c r="E22" s="7">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F12">
+      <c r="F22" s="7">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D13">
+      <c r="C23" s="12"/>
+      <c r="D23" s="12">
         <v>21.8</v>
       </c>
-      <c r="F13">
+      <c r="E23" s="12"/>
+      <c r="F23" s="12">
         <v>21.8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D14">
+      <c r="C24" s="7"/>
+      <c r="D24" s="7">
         <v>2.1</v>
       </c>
-      <c r="F14">
+      <c r="E24" s="7"/>
+      <c r="F24" s="7">
         <v>2.1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="C15">
+      <c r="C25" s="12">
         <v>3.8</v>
       </c>
-      <c r="D15">
+      <c r="D25" s="12">
         <v>5</v>
       </c>
-      <c r="E15">
+      <c r="E25" s="12">
         <v>3.8</v>
       </c>
-      <c r="F15">
+      <c r="F25" s="12">
         <v>3.8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C16">
+      <c r="C26" s="7">
         <v>17.100000000000001</v>
       </c>
-      <c r="D16">
+      <c r="D26" s="7">
         <v>17</v>
       </c>
-      <c r="E16">
+      <c r="E26" s="7">
         <v>16.5</v>
       </c>
-      <c r="F16">
+      <c r="F26" s="7">
         <v>16.5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="C17">
+      <c r="C27" s="12">
         <v>2.1</v>
       </c>
-      <c r="D17">
+      <c r="D27" s="12">
         <v>2.1</v>
       </c>
-      <c r="E17">
+      <c r="E27" s="12">
         <v>2.1</v>
       </c>
-      <c r="F17">
+      <c r="F27" s="12">
         <v>2.1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C18">
+      <c r="C28" s="7">
         <v>1.5</v>
       </c>
-      <c r="D18">
+      <c r="D28" s="7">
         <v>1.4</v>
       </c>
-      <c r="E18">
+      <c r="E28" s="7">
         <v>1.5</v>
       </c>
-      <c r="F18">
+      <c r="F28" s="7">
         <v>1.4</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32" s="15" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A34" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B34" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C34" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D34" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E34" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F34" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G34" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H34" s="3" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A35" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C22">
+      <c r="C35" s="8">
         <v>3.25</v>
       </c>
-      <c r="D22">
+      <c r="D35" s="8">
         <v>5.1100000000000003</v>
       </c>
-      <c r="E22">
+      <c r="E35" s="8">
         <v>0.33</v>
       </c>
-      <c r="F22">
+      <c r="F35" s="7">
         <v>4.3</v>
       </c>
-      <c r="G22">
+      <c r="G35" s="7">
         <v>6.8</v>
       </c>
-      <c r="H22">
+      <c r="H35" s="7">
         <v>7.6</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A36" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D23">
+      <c r="C36" s="13"/>
+      <c r="D36" s="13">
         <v>0.49</v>
       </c>
-      <c r="E23">
+      <c r="E36" s="13">
         <v>0.33</v>
       </c>
-      <c r="G23">
+      <c r="F36" s="12"/>
+      <c r="G36" s="12">
         <v>66</v>
       </c>
-      <c r="H23">
+      <c r="H36" s="12">
         <v>110.7</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A37" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D24">
+      <c r="C37" s="8"/>
+      <c r="D37" s="8">
         <v>0.2</v>
       </c>
-      <c r="E24">
+      <c r="E37" s="8">
         <v>0.36</v>
       </c>
-      <c r="G24">
+      <c r="F37" s="7"/>
+      <c r="G37" s="7">
         <v>5.9</v>
       </c>
-      <c r="H24">
+      <c r="H37" s="7">
         <v>10.3</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A38" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="C25">
+      <c r="C38" s="13">
         <v>0.13</v>
       </c>
-      <c r="D25">
+      <c r="D38" s="13">
         <v>0.17</v>
       </c>
-      <c r="E25">
+      <c r="E38" s="13">
         <v>1</v>
       </c>
-      <c r="F25">
+      <c r="F38" s="12">
         <v>3.8</v>
       </c>
-      <c r="G25">
+      <c r="G38" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="H38" s="12"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A39" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C26">
+      <c r="C39" s="8">
         <v>0.94</v>
       </c>
-      <c r="D26">
+      <c r="D39" s="8">
         <v>0.93</v>
       </c>
-      <c r="E26">
+      <c r="E39" s="8">
         <v>1</v>
       </c>
-      <c r="F26">
+      <c r="F39" s="7">
         <v>17.100000000000001</v>
       </c>
-      <c r="G26">
+      <c r="G39" s="7">
         <v>17</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A40" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="C27">
+      <c r="C40" s="13">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D27">
+      <c r="D40" s="13">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E27">
+      <c r="E40" s="13">
         <v>1</v>
       </c>
-      <c r="F27">
+      <c r="F40" s="12">
         <v>2.1</v>
       </c>
-      <c r="G27">
+      <c r="G40" s="12">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="H40" s="12"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A41" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C28">
+      <c r="C41" s="8">
         <v>0.24</v>
       </c>
-      <c r="D28">
+      <c r="D41" s="8">
         <v>0.23</v>
       </c>
-      <c r="E28">
+      <c r="E41" s="8">
         <v>1</v>
       </c>
-      <c r="F28">
+      <c r="F41" s="7">
         <v>1.5</v>
       </c>
-      <c r="G28">
+      <c r="G41" s="7">
         <v>1.4</v>
       </c>
+      <c r="H41" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4AE6F7D-D734-46F1-BA11-3758AA01D15B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA87927B-DE2E-4A38-B100-E3F22D8920E9}">
   <dimension ref="A1:W91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -30590,32 +31114,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-    </row>
-    <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A3" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A4" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+    </row>
     <row r="5" spans="1:23" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
         <v>53</v>
@@ -35766,11 +36316,14 @@
       <c r="W91" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -45467,31 +46020,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
     </row>
     <row r="2" spans="1:25" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
@@ -48849,76 +49402,76 @@
       <c r="A57" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B57" s="15">
+      <c r="B57" s="16">
         <v>0</v>
       </c>
-      <c r="C57" s="15">
+      <c r="C57" s="16">
         <v>0</v>
       </c>
-      <c r="D57" s="15">
+      <c r="D57" s="16">
         <v>0</v>
       </c>
-      <c r="E57" s="15">
+      <c r="E57" s="16">
         <v>0</v>
       </c>
-      <c r="F57" s="15">
+      <c r="F57" s="16">
         <v>0</v>
       </c>
-      <c r="G57" s="15">
+      <c r="G57" s="16">
         <v>0</v>
       </c>
-      <c r="H57" s="15">
+      <c r="H57" s="16">
         <v>0</v>
       </c>
-      <c r="I57" s="15">
+      <c r="I57" s="16">
         <v>0</v>
       </c>
-      <c r="J57" s="15">
+      <c r="J57" s="16">
         <v>0.22831050228310504</v>
       </c>
-      <c r="K57" s="15">
+      <c r="K57" s="16">
         <v>0.11415525114155252</v>
       </c>
-      <c r="L57" s="15">
+      <c r="L57" s="16">
         <v>0.45662100456621008</v>
       </c>
-      <c r="M57" s="15">
+      <c r="M57" s="16">
         <v>0.68493150684931503</v>
       </c>
-      <c r="N57" s="15">
+      <c r="N57" s="16">
         <v>0.7990867579908677</v>
       </c>
-      <c r="O57" s="15">
+      <c r="O57" s="16">
         <v>0.41856925418569257</v>
       </c>
-      <c r="P57" s="15">
+      <c r="P57" s="16">
         <v>0.57077625570776258</v>
       </c>
-      <c r="Q57" s="15">
+      <c r="Q57" s="16">
         <v>0.61643835616438358</v>
       </c>
-      <c r="R57" s="15">
+      <c r="R57" s="16">
         <v>0.66590563165905636</v>
       </c>
-      <c r="S57" s="15">
+      <c r="S57" s="16">
         <v>0.91324200913242015</v>
       </c>
-      <c r="T57" s="15">
+      <c r="T57" s="16">
         <v>2.5603392041748205</v>
       </c>
-      <c r="U57" s="15">
+      <c r="U57" s="16">
         <v>3.4627092846270933</v>
       </c>
-      <c r="V57" s="15">
+      <c r="V57" s="16">
         <v>3.8812785388127851</v>
       </c>
-      <c r="W57" s="15">
+      <c r="W57" s="16">
         <v>5.9132420091324196</v>
       </c>
-      <c r="X57" s="15">
+      <c r="X57" s="16">
         <v>5.1141552511415531</v>
       </c>
-      <c r="Y57" s="15">
+      <c r="Y57" s="16">
         <v>4.9771689497716896</v>
       </c>
     </row>
@@ -48926,76 +49479,76 @@
       <c r="A58" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B58" s="16">
+      <c r="B58" s="17">
         <v>0.34409073920603195</v>
       </c>
-      <c r="C58" s="16">
+      <c r="C58" s="17">
         <v>0.39609028421001313</v>
       </c>
-      <c r="D58" s="16">
+      <c r="D58" s="17">
         <v>0.34896569655015519</v>
       </c>
-      <c r="E58" s="16">
+      <c r="E58" s="17">
         <v>0.3908090804205463</v>
       </c>
-      <c r="F58" s="16">
+      <c r="F58" s="17">
         <v>0.3922789539227895</v>
       </c>
-      <c r="G58" s="16">
+      <c r="G58" s="17">
         <v>0.38314653383146535</v>
       </c>
-      <c r="H58" s="16">
+      <c r="H58" s="17">
         <v>0.396222498962225</v>
       </c>
-      <c r="I58" s="16">
+      <c r="I58" s="17">
         <v>0.46430053964300544</v>
       </c>
-      <c r="J58" s="16">
+      <c r="J58" s="17">
         <v>0.48111249481112495</v>
       </c>
-      <c r="K58" s="16">
+      <c r="K58" s="17">
         <v>0.42782873873654675</v>
       </c>
-      <c r="L58" s="16">
+      <c r="L58" s="17">
         <v>0.45844586648499153</v>
       </c>
-      <c r="M58" s="16">
+      <c r="M58" s="17">
         <v>0.49726171897578175</v>
       </c>
-      <c r="N58" s="16">
+      <c r="N58" s="17">
         <v>0.41309028379862439</v>
       </c>
-      <c r="O58" s="16">
+      <c r="O58" s="17">
         <v>0.36227010141320837</v>
       </c>
-      <c r="P58" s="16">
+      <c r="P58" s="17">
         <v>0.41231328844516674</v>
       </c>
-      <c r="Q58" s="16">
+      <c r="Q58" s="17">
         <v>0.50828415182197206</v>
       </c>
-      <c r="R58" s="16">
+      <c r="R58" s="17">
         <v>0.4369935206742831</v>
       </c>
-      <c r="S58" s="16">
+      <c r="S58" s="17">
         <v>0.46734400271649285</v>
       </c>
-      <c r="T58" s="16">
+      <c r="T58" s="17">
         <v>0.41685655309224456</v>
       </c>
-      <c r="U58" s="16">
+      <c r="U58" s="17">
         <v>0.38424076705180099</v>
       </c>
-      <c r="V58" s="16">
+      <c r="V58" s="17">
         <v>0.30180771877150181</v>
       </c>
-      <c r="W58" s="16">
+      <c r="W58" s="17">
         <v>0.38178341330902782</v>
       </c>
-      <c r="X58" s="16">
+      <c r="X58" s="17">
         <v>0.48677943686388042</v>
       </c>
-      <c r="Y58" s="16">
+      <c r="Y58" s="17">
         <v>0.25824553878597789</v>
       </c>
     </row>
@@ -49003,76 +49556,76 @@
       <c r="A59" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B59" s="15">
+      <c r="B59" s="16">
         <v>0.19642930601834707</v>
       </c>
-      <c r="C59" s="15">
+      <c r="C59" s="16">
         <v>0.19642930601834707</v>
       </c>
-      <c r="D59" s="15">
+      <c r="D59" s="16">
         <v>0.1583775556378296</v>
       </c>
-      <c r="E59" s="15">
+      <c r="E59" s="16">
         <v>0.18100292072894811</v>
       </c>
-      <c r="F59" s="15">
+      <c r="F59" s="16">
         <v>0.15323542720802993</v>
       </c>
-      <c r="G59" s="15">
+      <c r="G59" s="16">
         <v>0.1779176436710683</v>
       </c>
-      <c r="H59" s="15">
+      <c r="H59" s="16">
         <v>0.22213994816734542</v>
       </c>
-      <c r="I59" s="15">
+      <c r="I59" s="16">
         <v>0.23228111971411552</v>
       </c>
-      <c r="J59" s="15">
+      <c r="J59" s="16">
         <v>0.23426642842962081</v>
       </c>
-      <c r="K59" s="15">
+      <c r="K59" s="16">
         <v>0.19456025411951558</v>
       </c>
-      <c r="L59" s="15">
+      <c r="L59" s="16">
         <v>0.19555290847726822</v>
       </c>
-      <c r="M59" s="15">
+      <c r="M59" s="16">
         <v>0.19786910197869106</v>
       </c>
-      <c r="N59" s="15">
+      <c r="N59" s="16">
         <v>0.22450532724505329</v>
       </c>
-      <c r="O59" s="15">
+      <c r="O59" s="16">
         <v>0.2226027397260274</v>
       </c>
-      <c r="P59" s="15">
+      <c r="P59" s="16">
         <v>0.20357686453576868</v>
       </c>
-      <c r="Q59" s="15">
+      <c r="Q59" s="16">
         <v>0.17694063926940642</v>
       </c>
-      <c r="R59" s="15">
+      <c r="R59" s="16">
         <v>0.1950152207001522</v>
       </c>
-      <c r="S59" s="15">
+      <c r="S59" s="16">
         <v>0.18359969558599698</v>
       </c>
-      <c r="T59" s="15">
+      <c r="T59" s="16">
         <v>0.19216133942161343</v>
       </c>
-      <c r="U59" s="15">
+      <c r="U59" s="16">
         <v>0.20452815829528159</v>
       </c>
-      <c r="V59" s="15">
+      <c r="V59" s="16">
         <v>0.21784627092846273</v>
       </c>
-      <c r="W59" s="15">
+      <c r="W59" s="16">
         <v>0.29014459665144599</v>
       </c>
-      <c r="X59" s="15">
+      <c r="X59" s="16">
         <v>0.1950152207001522</v>
       </c>
-      <c r="Y59" s="15">
+      <c r="Y59" s="16">
         <v>0.14840182648401828</v>
       </c>
     </row>
@@ -49080,76 +49633,76 @@
       <c r="A60" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="B60" s="16">
+      <c r="B60" s="17">
         <v>0.29434148088459128</v>
       </c>
-      <c r="C60" s="16">
+      <c r="C60" s="17">
         <v>0.22423352902804958</v>
       </c>
-      <c r="D60" s="16">
+      <c r="D60" s="17">
         <v>0.22408253001860307</v>
       </c>
-      <c r="E60" s="16">
+      <c r="E60" s="17">
         <v>0.20686315206863154</v>
       </c>
-      <c r="F60" s="16">
+      <c r="F60" s="17">
         <v>0.18103408514367419</v>
       </c>
-      <c r="G60" s="16">
+      <c r="G60" s="17">
         <v>0.24791291914579586</v>
       </c>
-      <c r="H60" s="16">
+      <c r="H60" s="17">
         <v>0.2427240440939071</v>
       </c>
-      <c r="I60" s="16">
+      <c r="I60" s="17">
         <v>0.16072605011472321</v>
       </c>
-      <c r="J60" s="16">
+      <c r="J60" s="17">
         <v>0.1502326182476092</v>
       </c>
-      <c r="K60" s="16">
+      <c r="K60" s="17">
         <v>0.18296846327828276</v>
       </c>
-      <c r="L60" s="16">
+      <c r="L60" s="17">
         <v>0.26339491433119683</v>
       </c>
-      <c r="M60" s="16">
+      <c r="M60" s="17">
         <v>0.14626141552511415</v>
       </c>
-      <c r="N60" s="16">
+      <c r="N60" s="17">
         <v>0.15647142182333496</v>
       </c>
-      <c r="O60" s="16">
+      <c r="O60" s="17">
         <v>0.19708855325293684</v>
       </c>
-      <c r="P60" s="16">
+      <c r="P60" s="17">
         <v>0.22250599798777185</v>
       </c>
-      <c r="Q60" s="16">
+      <c r="Q60" s="17">
         <v>0.27329541057193724</v>
       </c>
-      <c r="R60" s="16">
+      <c r="R60" s="17">
         <v>0.18767897221577279</v>
       </c>
-      <c r="S60" s="16">
+      <c r="S60" s="17">
         <v>0.12870890865760704</v>
       </c>
-      <c r="T60" s="16">
+      <c r="T60" s="17">
         <v>0.23422292564900221</v>
       </c>
-      <c r="U60" s="16">
+      <c r="U60" s="17">
         <v>0.13325692663137406</v>
       </c>
-      <c r="V60" s="16">
+      <c r="V60" s="17">
         <v>0.12825410686023031</v>
       </c>
-      <c r="W60" s="16">
+      <c r="W60" s="17">
         <v>0.21921446633557101</v>
       </c>
-      <c r="X60" s="16">
+      <c r="X60" s="17">
         <v>0.17145847997545438</v>
       </c>
-      <c r="Y60" s="16">
+      <c r="Y60" s="17">
         <v>0.14032522966412186</v>
       </c>
     </row>
@@ -49157,76 +49710,76 @@
       <c r="A61" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B61" s="15">
+      <c r="B61" s="16">
         <v>0.58791571267802401</v>
       </c>
-      <c r="C61" s="15">
+      <c r="C61" s="16">
         <v>0.632219592016247</v>
       </c>
-      <c r="D61" s="15">
+      <c r="D61" s="16">
         <v>0.84860999194198217</v>
       </c>
-      <c r="E61" s="15">
+      <c r="E61" s="16">
         <v>0.72522159548751008</v>
       </c>
-      <c r="F61" s="15">
+      <c r="F61" s="16">
         <v>0.70591592801504166</v>
       </c>
-      <c r="G61" s="15">
+      <c r="G61" s="16">
         <v>0.78271890948160072</v>
       </c>
-      <c r="H61" s="15">
+      <c r="H61" s="16">
         <v>0.81797273704002138</v>
       </c>
-      <c r="I61" s="15">
+      <c r="I61" s="16">
         <v>0.88425019931869253</v>
       </c>
-      <c r="J61" s="15">
+      <c r="J61" s="16">
         <v>0.95250175158850958</v>
       </c>
-      <c r="K61" s="15">
+      <c r="K61" s="16">
         <v>0.92169795366142393</v>
       </c>
-      <c r="L61" s="15">
+      <c r="L61" s="16">
         <v>0.92109395762363799</v>
       </c>
-      <c r="M61" s="15">
+      <c r="M61" s="16">
         <v>0.98511753762895304</v>
       </c>
-      <c r="N61" s="15">
+      <c r="N61" s="16">
         <v>0.94312558272968505</v>
       </c>
-      <c r="O61" s="15">
+      <c r="O61" s="16">
         <v>0.81695954983626218</v>
       </c>
-      <c r="P61" s="15">
+      <c r="P61" s="16">
         <v>0.91497163414971638</v>
       </c>
-      <c r="Q61" s="15">
+      <c r="Q61" s="16">
         <v>0.88672109220054429</v>
       </c>
-      <c r="R61" s="15">
+      <c r="R61" s="16">
         <v>0.91440094569223274</v>
       </c>
-      <c r="S61" s="15">
+      <c r="S61" s="16">
         <v>0.90107317525438657</v>
       </c>
-      <c r="T61" s="15">
+      <c r="T61" s="16">
         <v>0.91608169199663791</v>
       </c>
-      <c r="U61" s="15">
+      <c r="U61" s="16">
         <v>0.94050296462891025</v>
       </c>
-      <c r="V61" s="15">
+      <c r="V61" s="16">
         <v>0.9444785206388151</v>
       </c>
-      <c r="W61" s="15">
+      <c r="W61" s="16">
         <v>0.93652740861900541</v>
       </c>
-      <c r="X61" s="15">
+      <c r="X61" s="16">
         <v>0.93482359890047495</v>
       </c>
-      <c r="Y61" s="15">
+      <c r="Y61" s="16">
         <v>0.91778550171516859</v>
       </c>
     </row>
@@ -49234,76 +49787,76 @@
       <c r="A62" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="B62" s="16">
+      <c r="B62" s="17">
         <v>65535</v>
       </c>
-      <c r="C62" s="16">
+      <c r="C62" s="17">
         <v>65535</v>
       </c>
-      <c r="D62" s="16">
+      <c r="D62" s="17">
         <v>65535</v>
       </c>
-      <c r="E62" s="16">
+      <c r="E62" s="17">
         <v>65535</v>
       </c>
-      <c r="F62" s="16">
+      <c r="F62" s="17">
         <v>65535</v>
       </c>
-      <c r="G62" s="16">
+      <c r="G62" s="17">
         <v>65535</v>
       </c>
-      <c r="H62" s="16">
+      <c r="H62" s="17">
         <v>65535</v>
       </c>
-      <c r="I62" s="16">
+      <c r="I62" s="17">
         <v>65535</v>
       </c>
-      <c r="J62" s="16">
+      <c r="J62" s="17">
         <v>65535</v>
       </c>
-      <c r="K62" s="16">
+      <c r="K62" s="17">
         <v>65535</v>
       </c>
-      <c r="L62" s="16">
+      <c r="L62" s="17">
         <v>65535</v>
       </c>
-      <c r="M62" s="16">
+      <c r="M62" s="17">
         <v>65535</v>
       </c>
-      <c r="N62" s="16">
+      <c r="N62" s="17">
         <v>65535</v>
       </c>
-      <c r="O62" s="16">
+      <c r="O62" s="17">
         <v>65535</v>
       </c>
-      <c r="P62" s="16">
+      <c r="P62" s="17">
         <v>65535</v>
       </c>
-      <c r="Q62" s="16">
+      <c r="Q62" s="17">
         <v>65535</v>
       </c>
-      <c r="R62" s="16">
+      <c r="R62" s="17">
         <v>65535</v>
       </c>
-      <c r="S62" s="16">
+      <c r="S62" s="17">
         <v>65535</v>
       </c>
-      <c r="T62" s="16">
+      <c r="T62" s="17">
         <v>65535</v>
       </c>
-      <c r="U62" s="16">
+      <c r="U62" s="17">
         <v>65535</v>
       </c>
-      <c r="V62" s="16">
+      <c r="V62" s="17">
         <v>65535</v>
       </c>
-      <c r="W62" s="16">
+      <c r="W62" s="17">
         <v>65535</v>
       </c>
-      <c r="X62" s="16">
+      <c r="X62" s="17">
         <v>65535</v>
       </c>
-      <c r="Y62" s="16">
+      <c r="Y62" s="17">
         <v>65535</v>
       </c>
     </row>
@@ -49311,56 +49864,56 @@
       <c r="A63" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="15"/>
-      <c r="K63" s="15"/>
-      <c r="L63" s="15">
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="16"/>
+      <c r="L63" s="16">
         <v>3.8051750380517509E-2</v>
       </c>
-      <c r="M63" s="15">
+      <c r="M63" s="16">
         <v>7.6103500761035017E-2</v>
       </c>
-      <c r="N63" s="15">
+      <c r="N63" s="16">
         <v>9.6783799880881469E-2</v>
       </c>
-      <c r="O63" s="15">
+      <c r="O63" s="16">
         <v>0.1525728837372673</v>
       </c>
-      <c r="P63" s="15">
+      <c r="P63" s="16">
         <v>0.13964622955180209</v>
       </c>
-      <c r="Q63" s="15">
+      <c r="Q63" s="16">
         <v>0.15294587046149752</v>
       </c>
-      <c r="R63" s="15">
+      <c r="R63" s="16">
         <v>0.1540541738706388</v>
       </c>
-      <c r="S63" s="15">
+      <c r="S63" s="16">
         <v>0.15516247727978011</v>
       </c>
-      <c r="T63" s="15">
+      <c r="T63" s="16">
         <v>0.14851265682493239</v>
       </c>
-      <c r="U63" s="15">
+      <c r="U63" s="16">
         <v>0.15586582367404284</v>
       </c>
-      <c r="V63" s="15">
+      <c r="V63" s="16">
         <v>0.15255292652552924</v>
       </c>
-      <c r="W63" s="15">
+      <c r="W63" s="16">
         <v>0.13213245604573401</v>
       </c>
-      <c r="X63" s="15">
+      <c r="X63" s="16">
         <v>0.13711751430220961</v>
       </c>
-      <c r="Y63" s="15">
+      <c r="Y63" s="16">
         <v>0.13667567483614451</v>
       </c>
     </row>
@@ -49368,66 +49921,66 @@
       <c r="A64" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16">
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17">
         <v>0</v>
       </c>
-      <c r="H64" s="16">
+      <c r="H64" s="17">
         <v>7.6103500761035017E-2</v>
       </c>
-      <c r="I64" s="16">
+      <c r="I64" s="17">
         <v>0.19025875190258754</v>
       </c>
-      <c r="J64" s="16">
+      <c r="J64" s="17">
         <v>0.12453300124533001</v>
       </c>
-      <c r="K64" s="16">
+      <c r="K64" s="17">
         <v>8.3022000830220002E-2</v>
       </c>
-      <c r="L64" s="16">
+      <c r="L64" s="17">
         <v>0.15841953219644023</v>
       </c>
-      <c r="M64" s="16">
+      <c r="M64" s="17">
         <v>0.18180280737358362</v>
       </c>
-      <c r="N64" s="16">
+      <c r="N64" s="17">
         <v>0.20480795057749127</v>
       </c>
-      <c r="O64" s="16">
+      <c r="O64" s="17">
         <v>0.22998925597636316</v>
       </c>
-      <c r="P64" s="16">
+      <c r="P64" s="17">
         <v>0.21689497716894979</v>
       </c>
-      <c r="Q64" s="16">
+      <c r="Q64" s="17">
         <v>0.23646444879321593</v>
       </c>
-      <c r="R64" s="16">
+      <c r="R64" s="17">
         <v>0.23157208088714937</v>
       </c>
-      <c r="S64" s="16">
+      <c r="S64" s="17">
         <v>0.24461839530332682</v>
       </c>
-      <c r="T64" s="16">
+      <c r="T64" s="17">
         <v>0.21526418786692761</v>
       </c>
-      <c r="U64" s="16">
+      <c r="U64" s="17">
         <v>0.21526418786692761</v>
       </c>
-      <c r="V64" s="16">
+      <c r="V64" s="17">
         <v>0.24135681669928247</v>
       </c>
-      <c r="W64" s="16">
+      <c r="W64" s="17">
         <v>0.23320287018917157</v>
       </c>
-      <c r="X64" s="16">
+      <c r="X64" s="17">
         <v>0.23483365949119375</v>
       </c>
-      <c r="Y64" s="16">
+      <c r="Y64" s="17">
         <v>0.25277234181343772</v>
       </c>
     </row>
@@ -49514,57 +50067,57 @@
       <c r="A68" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="15">
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="16">
         <v>0.30441400304414001</v>
       </c>
-      <c r="K68" s="15">
+      <c r="K68" s="16">
         <v>0.10147133434804669</v>
       </c>
-      <c r="L68" s="15">
+      <c r="L68" s="16">
         <v>0.40447488584474894</v>
       </c>
-      <c r="M68" s="15">
+      <c r="M68" s="16">
         <v>0.5811540058115402</v>
       </c>
-      <c r="N68" s="15">
+      <c r="N68" s="16">
         <v>0.53816046966731901</v>
       </c>
-      <c r="O68" s="15">
+      <c r="O68" s="16">
         <v>0.37067553048616708</v>
       </c>
-      <c r="P68" s="15">
+      <c r="P68" s="16">
         <v>0.57077625570776258</v>
       </c>
-      <c r="Q68" s="15">
+      <c r="Q68" s="16">
         <v>0.57500422797226458</v>
       </c>
-      <c r="R68" s="15">
+      <c r="R68" s="16">
         <v>0.70696146759593048</v>
       </c>
-      <c r="S68" s="15">
+      <c r="S68" s="16">
         <v>0.86924428402751963</v>
       </c>
-      <c r="T68" s="15">
+      <c r="T68" s="16">
         <v>2.5863099724480505</v>
       </c>
-      <c r="U68" s="15">
+      <c r="U68" s="16">
         <v>3.6549813955986812</v>
       </c>
-      <c r="V68" s="15">
+      <c r="V68" s="16">
         <v>4.036889720525596</v>
       </c>
-      <c r="W68" s="15">
+      <c r="W68" s="16">
         <v>6.2453375126974553</v>
       </c>
-      <c r="X68" s="15">
+      <c r="X68" s="16">
         <v>3.2548137163984849</v>
       </c>
     </row>
@@ -49572,73 +50125,73 @@
       <c r="A69" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="B69" s="16">
+      <c r="B69" s="17">
         <v>0.17918731176527739</v>
       </c>
-      <c r="C69" s="16">
+      <c r="C69" s="17">
         <v>0.14535545467936098</v>
       </c>
-      <c r="D69" s="16">
+      <c r="D69" s="17">
         <v>0.15845780240593327</v>
       </c>
-      <c r="E69" s="16">
+      <c r="E69" s="17">
         <v>0.1498316039834055</v>
       </c>
-      <c r="F69" s="16">
+      <c r="F69" s="17">
         <v>0.1347902156764661</v>
       </c>
-      <c r="G69" s="16">
+      <c r="G69" s="17">
         <v>0.18958653994151151</v>
       </c>
-      <c r="H69" s="16">
+      <c r="H69" s="17">
         <v>0.18353719344825822</v>
       </c>
-      <c r="I69" s="16">
+      <c r="I69" s="17">
         <v>0.12836507928947488</v>
       </c>
-      <c r="J69" s="16">
+      <c r="J69" s="17">
         <v>0.12535509016122517</v>
       </c>
-      <c r="K69" s="16">
+      <c r="K69" s="17">
         <v>0.15416139825537606</v>
       </c>
-      <c r="L69" s="16">
+      <c r="L69" s="17">
         <v>0.21319901365069094</v>
       </c>
-      <c r="M69" s="16">
+      <c r="M69" s="17">
         <v>0.13556538436675425</v>
       </c>
-      <c r="N69" s="16">
+      <c r="N69" s="17">
         <v>0.1426745416205524</v>
       </c>
-      <c r="O69" s="16">
+      <c r="O69" s="17">
         <v>0.17089921406444017</v>
       </c>
-      <c r="P69" s="16">
+      <c r="P69" s="17">
         <v>0.18308207829936693</v>
       </c>
-      <c r="Q69" s="16">
+      <c r="Q69" s="17">
         <v>0.21797454043557021</v>
       </c>
-      <c r="R69" s="16">
+      <c r="R69" s="17">
         <v>0.16178813238750592</v>
       </c>
-      <c r="S69" s="16">
+      <c r="S69" s="17">
         <v>0.11826549026371555</v>
       </c>
-      <c r="T69" s="16">
+      <c r="T69" s="17">
         <v>0.18320015783762453</v>
       </c>
-      <c r="U69" s="16">
+      <c r="U69" s="17">
         <v>0.11430375923833559</v>
       </c>
-      <c r="V69" s="16">
+      <c r="V69" s="17">
         <v>0.11225524213694742</v>
       </c>
-      <c r="W69" s="16">
+      <c r="W69" s="17">
         <v>0.1716829439171017</v>
       </c>
-      <c r="X69" s="16">
+      <c r="X69" s="17">
         <v>0.13069358514235713</v>
       </c>
     </row>
@@ -49646,73 +50199,73 @@
       <c r="A70" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B70" s="15">
+      <c r="B70" s="16">
         <v>0.58751816400088952</v>
       </c>
-      <c r="C70" s="15">
+      <c r="C70" s="16">
         <v>0.63195855763612019</v>
       </c>
-      <c r="D70" s="15">
+      <c r="D70" s="16">
         <v>0.84807034848805107</v>
       </c>
-      <c r="E70" s="15">
+      <c r="E70" s="16">
         <v>0.72468873612271401</v>
       </c>
-      <c r="F70" s="15">
+      <c r="F70" s="16">
         <v>0.70518756353607848</v>
       </c>
-      <c r="G70" s="15">
+      <c r="G70" s="16">
         <v>0.78226961776024206</v>
       </c>
-      <c r="H70" s="15">
+      <c r="H70" s="16">
         <v>0.81749754243287398</v>
       </c>
-      <c r="I70" s="15">
+      <c r="I70" s="16">
         <v>0.88349648121868596</v>
       </c>
-      <c r="J70" s="15">
+      <c r="J70" s="16">
         <v>0.95119319991890894</v>
       </c>
-      <c r="K70" s="15">
+      <c r="K70" s="16">
         <v>0.92048229990249752</v>
       </c>
-      <c r="L70" s="15">
+      <c r="L70" s="16">
         <v>0.92005994960757642</v>
       </c>
-      <c r="M70" s="15">
+      <c r="M70" s="16">
         <v>0.98431753019201262</v>
       </c>
-      <c r="N70" s="15">
+      <c r="N70" s="16">
         <v>0.94540432280661413</v>
       </c>
-      <c r="O70" s="15">
+      <c r="O70" s="16">
         <v>0.81619276686525755</v>
       </c>
-      <c r="P70" s="15">
+      <c r="P70" s="16">
         <v>0.91711461765215874</v>
       </c>
-      <c r="Q70" s="15">
+      <c r="Q70" s="16">
         <v>0.88913935610658323</v>
       </c>
-      <c r="R70" s="15">
+      <c r="R70" s="16">
         <v>0.91556341739152636</v>
       </c>
-      <c r="S70" s="15">
+      <c r="S70" s="16">
         <v>0.90218624426321981</v>
       </c>
-      <c r="T70" s="15">
+      <c r="T70" s="16">
         <v>0.91672584775055033</v>
       </c>
-      <c r="U70" s="15">
+      <c r="U70" s="16">
         <v>0.942110199083116</v>
       </c>
-      <c r="V70" s="15">
+      <c r="V70" s="16">
         <v>0.94612082701666678</v>
       </c>
-      <c r="W70" s="15">
+      <c r="W70" s="16">
         <v>0.9382181082323805</v>
       </c>
-      <c r="X70" s="15">
+      <c r="X70" s="16">
         <v>0.93680249206717758</v>
       </c>
     </row>
@@ -49720,73 +50273,73 @@
       <c r="A71" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="B71" s="16">
+      <c r="B71" s="17">
         <v>1.3728687025740881E-2</v>
       </c>
-      <c r="C71" s="16">
+      <c r="C71" s="17">
         <v>8.9246408872480296E-3</v>
       </c>
-      <c r="D71" s="16">
+      <c r="D71" s="17">
         <v>1.4064542368890371E-2</v>
       </c>
-      <c r="E71" s="16">
+      <c r="E71" s="17">
         <v>1.3440969291696423E-2</v>
       </c>
-      <c r="F71" s="16">
+      <c r="F71" s="17">
         <v>1.4367639360976603E-2</v>
       </c>
-      <c r="G71" s="16">
+      <c r="G71" s="17">
         <v>1.06544901065449E-2</v>
       </c>
-      <c r="H71" s="16">
+      <c r="H71" s="17">
         <v>6.8721033906174785E-3</v>
       </c>
-      <c r="I71" s="16">
+      <c r="I71" s="17">
         <v>1.3383397499030053E-2</v>
       </c>
-      <c r="J71" s="16">
+      <c r="J71" s="17">
         <v>6.8134032678754683E-3</v>
       </c>
-      <c r="K71" s="16">
+      <c r="K71" s="17">
         <v>8.974387151398696E-3</v>
       </c>
-      <c r="L71" s="16">
+      <c r="L71" s="17">
         <v>1.0171012962918537E-2</v>
       </c>
-      <c r="M71" s="16">
+      <c r="M71" s="17">
         <v>4.0275281549390085E-3</v>
       </c>
-      <c r="N71" s="16">
+      <c r="N71" s="17">
         <v>5.4770281784942507E-3</v>
       </c>
-      <c r="O71" s="16">
+      <c r="O71" s="17">
         <v>5.9193423561722108E-3</v>
       </c>
-      <c r="P71" s="16">
+      <c r="P71" s="17">
         <v>5.7979529360833674E-3</v>
       </c>
-      <c r="Q71" s="16">
+      <c r="Q71" s="17">
         <v>5.9440758150922698E-3</v>
       </c>
-      <c r="R71" s="16">
+      <c r="R71" s="17">
         <v>1.0672682178439969E-2</v>
       </c>
-      <c r="S71" s="16">
+      <c r="S71" s="17">
         <v>1.3166338195431674E-2</v>
       </c>
-      <c r="T71" s="16">
+      <c r="T71" s="17">
         <v>1.0273264456408587E-2</v>
       </c>
-      <c r="U71" s="16">
+      <c r="U71" s="17">
         <v>1.1459284473580975E-2</v>
       </c>
-      <c r="V71" s="16">
+      <c r="V71" s="17">
         <v>1.0273784895450284E-2</v>
       </c>
-      <c r="W71" s="16">
+      <c r="W71" s="17">
         <v>1.1799059936493149E-2</v>
       </c>
-      <c r="X71" s="16">
+      <c r="X71" s="17">
         <v>1.5180712412366853E-2</v>
       </c>
     </row>
@@ -49794,59 +50347,59 @@
       <c r="A72" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B72" s="15"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15">
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16">
         <v>0.22831050228310501</v>
       </c>
-      <c r="J72" s="15">
+      <c r="J72" s="16">
         <v>0.1906392694063927</v>
       </c>
-      <c r="K72" s="15">
+      <c r="K72" s="16">
         <v>0.18647260273972602</v>
       </c>
-      <c r="L72" s="15">
+      <c r="L72" s="16">
         <v>6.7876712328767116E-2</v>
       </c>
-      <c r="M72" s="15">
+      <c r="M72" s="16">
         <v>7.476575935480044E-2</v>
       </c>
-      <c r="N72" s="15">
+      <c r="N72" s="16">
         <v>9.6412405035707568E-2</v>
       </c>
-      <c r="O72" s="15">
+      <c r="O72" s="16">
         <v>0.15293804193529958</v>
       </c>
-      <c r="P72" s="15">
+      <c r="P72" s="16">
         <v>0.13941040865139273</v>
       </c>
-      <c r="Q72" s="15">
+      <c r="Q72" s="16">
         <v>0.1534278778672068</v>
       </c>
-      <c r="R72" s="15">
+      <c r="R72" s="16">
         <v>0.15383140488540142</v>
       </c>
-      <c r="S72" s="15">
+      <c r="S72" s="16">
         <v>0.15538589047072227</v>
       </c>
-      <c r="T72" s="15">
+      <c r="T72" s="16">
         <v>0.14838111835914639</v>
       </c>
-      <c r="U72" s="15">
+      <c r="U72" s="16">
         <v>0.15491400651998427</v>
       </c>
-      <c r="V72" s="15">
+      <c r="V72" s="16">
         <v>0.15239085998651261</v>
       </c>
-      <c r="W72" s="15">
+      <c r="W72" s="16">
         <v>0.13133926069138591</v>
       </c>
-      <c r="X72" s="15">
+      <c r="X72" s="16">
         <v>0.13764325363624622</v>
       </c>
     </row>
@@ -49854,65 +50407,65 @@
       <c r="A73" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16">
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17">
         <v>0.11415525114155251</v>
       </c>
-      <c r="G73" s="16">
+      <c r="G73" s="17">
         <v>6.5453767123287668E-2</v>
       </c>
-      <c r="H73" s="16">
+      <c r="H73" s="17">
         <v>8.4758159986470502E-2</v>
       </c>
-      <c r="I73" s="16">
+      <c r="I73" s="17">
         <v>0.17808980213089803</v>
       </c>
-      <c r="J73" s="16">
+      <c r="J73" s="17">
         <v>0.12192381639029079</v>
       </c>
-      <c r="K73" s="16">
+      <c r="K73" s="17">
         <v>8.1248714467892558E-2</v>
       </c>
-      <c r="L73" s="16">
+      <c r="L73" s="17">
         <v>0.15938903548169775</v>
       </c>
-      <c r="M73" s="16">
+      <c r="M73" s="17">
         <v>0.18169781142649755</v>
       </c>
-      <c r="N73" s="16">
+      <c r="N73" s="17">
         <v>0.2058669391554197</v>
       </c>
-      <c r="O73" s="16">
+      <c r="O73" s="17">
         <v>0.22956604290766625</v>
       </c>
-      <c r="P73" s="16">
+      <c r="P73" s="17">
         <v>0.2172995015710637</v>
       </c>
-      <c r="Q73" s="16">
+      <c r="Q73" s="17">
         <v>0.23704950320418605</v>
       </c>
-      <c r="R73" s="16">
+      <c r="R73" s="17">
         <v>0.23271503321770831</v>
       </c>
-      <c r="S73" s="16">
+      <c r="S73" s="17">
         <v>0.24584659524473154</v>
       </c>
-      <c r="T73" s="16">
+      <c r="T73" s="17">
         <v>0.21529025081619735</v>
       </c>
-      <c r="U73" s="16">
+      <c r="U73" s="17">
         <v>0.21381996798613462</v>
       </c>
-      <c r="V73" s="16">
+      <c r="V73" s="17">
         <v>0.23992922634315969</v>
       </c>
-      <c r="W73" s="16">
+      <c r="W73" s="17">
         <v>0.2323315222455867</v>
       </c>
-      <c r="X73" s="16">
+      <c r="X73" s="17">
         <v>0.24297964087912982</v>
       </c>
     </row>

--- a/VerveStacks_BGR/source_data/VerveStacks_BGR.xlsx
+++ b/VerveStacks_BGR/source_data/VerveStacks_BGR.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VerveStacks\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE420B6-172E-4A28-B475-41BED6F546FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74F82C7-8A69-4CF7-A6E8-B5C830FD4772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="iamc_data" sheetId="73" r:id="rId1"/>
-    <sheet name="iamc_charts" sheetId="72" r:id="rId2"/>
-    <sheet name="weo_pg" sheetId="71" r:id="rId3"/>
-    <sheet name="re_targets" sheetId="70" r:id="rId4"/>
-    <sheet name="ccs_retrofits" sheetId="69" r:id="rId5"/>
-    <sheet name="Calibration" sheetId="68" r:id="rId6"/>
-    <sheet name="existing_stock" sheetId="67" r:id="rId7"/>
+    <sheet name="iamc_data" sheetId="80" r:id="rId1"/>
+    <sheet name="iamc_charts" sheetId="79" r:id="rId2"/>
+    <sheet name="weo_pg" sheetId="78" r:id="rId3"/>
+    <sheet name="re_targets" sheetId="77" r:id="rId4"/>
+    <sheet name="ccs_retrofits" sheetId="76" r:id="rId5"/>
+    <sheet name="Calibration" sheetId="75" r:id="rId6"/>
+    <sheet name="existing_stock" sheetId="74" r:id="rId7"/>
     <sheet name="historical_data_long" sheetId="5" r:id="rId8"/>
     <sheet name="historical_data" sheetId="4" r:id="rId9"/>
     <sheet name="system_settings" sheetId="1" r:id="rId10"/>
@@ -34,112 +34,7 @@
     <author>Amit Kanudia</author>
   </authors>
   <commentList>
-    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{6705E15F-52A0-4A16-9FD5-6A98D6455E38}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>💡 Three-letter ISO country code
-📊 CALCULATION: Direct from source data
-📁 DATA SOURCE: ISO 3166-1 alpha-3 standard
-🔧 METHODOLOGY: Standardized country identification
-✅ QUALITY: Verified against official ISO registry
-→ See row 4 for complete methodology</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{80150844-B1F9-40D9-9CCE-56FDEB6B1488}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>💡 Standardized fuel/technology category
-📊 CALCULATION: Mapped from source technology classifications
-📁 DATA SOURCE: GEM/IRENA/EMBER technology categories
-🔧 METHODOLOGY: Harmonized technology mapping across all sources
-✅ QUALITY: Consistent categorization ensures comparability
-→ See row 4 for complete methodology</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{82ABAAA5-D6C4-413A-B1CE-5827CCBBCA45}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>💡 Installed capacity from Global Energy Monitor
-📊 CALCULATION: Sum of individual plant capacities by technology
-📁 DATA SOURCE: GEM Global Power Plant Tracker
-🔧 METHODOLOGY: Facility-level data aggregated by fuel type
-✅ QUALITY: Most granular source with individual plant details
-→ See row 4 for complete methodology</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{78515C2B-5B41-4507-92DF-51CEF6F402A8}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>💡 Installed capacity from IRENA statistics
-📊 CALCULATION: National statistics by technology category
-📁 DATA SOURCE: IRENA Renewable Energy Statistics
-🔧 METHODOLOGY: Official government reporting aggregated by IRENA
-✅ QUALITY: Authoritative for renewables, may include distributed generation
-→ See row 4 for complete methodology</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{00C261AA-19F8-45A4-B3FD-9DFF6A427FC7}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>💡 Installed capacity from Ember statistics
-📊 CALCULATION: National statistics by technology category
-📁 DATA SOURCE: Ember Global Electricity Review
-🔧 METHODOLOGY: Statistical analysis of electricity sector data
-✅ QUALITY: Focus on electricity sector, excludes some industrial capacity
-→ See row 4 for complete methodology</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Amit Kanudia</author>
-  </authors>
-  <commentList>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{7048D575-D9A3-413B-A0E6-484216D28FE4}">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{14D2474C-0145-49F9-BCDD-6EA1FD5BC86F}">
       <text>
         <r>
           <rPr>
@@ -158,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{60846A03-CAC0-4D5B-88DD-6FEA0573C83F}">
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{BB38EFF4-D337-4C3C-BEE6-9F1033171677}">
       <text>
         <r>
           <rPr>
@@ -177,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J6" authorId="0" shapeId="0" xr:uid="{EA13D1FC-B224-473D-85CE-EFC7B10F4306}">
+    <comment ref="J6" authorId="0" shapeId="0" xr:uid="{E8C4748B-F58E-4349-996A-13C4E7691F5C}">
       <text>
         <r>
           <rPr>
@@ -196,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L6" authorId="0" shapeId="0" xr:uid="{78F9E225-C70D-4084-BE56-CEC2FC89A0A5}">
+    <comment ref="L6" authorId="0" shapeId="0" xr:uid="{4B640805-4C4A-4670-B1FA-8A2B94BB440C}">
       <text>
         <r>
           <rPr>
@@ -215,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M6" authorId="0" shapeId="0" xr:uid="{A8A96C4B-C3A8-4312-A5D0-5852ECC2CED0}">
+    <comment ref="M6" authorId="0" shapeId="0" xr:uid="{0743E34E-BD20-444C-802D-7693347B5663}">
       <text>
         <r>
           <rPr>
@@ -234,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N6" authorId="0" shapeId="0" xr:uid="{CD63214C-6711-447F-8D10-856F48D8C21A}">
+    <comment ref="N6" authorId="0" shapeId="0" xr:uid="{0C081194-44F7-45BA-A11C-D2C6CF480B3E}">
       <text>
         <r>
           <rPr>
@@ -253,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O6" authorId="0" shapeId="0" xr:uid="{385C3DAD-616F-47ED-9956-EE671891E332}">
+    <comment ref="O6" authorId="0" shapeId="0" xr:uid="{F67CF14F-E95F-42E4-9F0D-07F28DF3A866}">
       <text>
         <r>
           <rPr>
@@ -276,7 +171,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Amit Kanudia</author>
@@ -304,7 +199,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8736" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8733" uniqueCount="401">
   <si>
     <t>Time Slices</t>
   </si>
@@ -1516,22 +1411,13 @@
 </t>
   </si>
   <si>
-    <t>Table 1: Installed Capacity Comparison (GW)</t>
-  </si>
-  <si>
-    <t>calibration_capacity</t>
-  </si>
-  <si>
     <t>Table 2: Generation Analysis (TWh)</t>
-  </si>
-  <si>
-    <t>calibration_generation</t>
   </si>
   <si>
     <t>Table 3: Detailed Metrics &amp; Validation</t>
   </si>
   <si>
-    <t>calibration_analysis</t>
+    <t>Table 1: Capacity Comparison (GW)</t>
   </si>
 </sst>
 </file>
@@ -1544,7 +1430,7 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1609,16 +1495,8 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1640,6 +1518,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF7F9FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0F8FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1686,7 +1570,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1702,7 +1586,6 @@
     <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="167" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1710,13 +1593,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1759,7 +1642,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FED7B2F-9974-47C5-A93B-FE7DF48B1AE8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DB908F9-9827-425B-3B65-742F7A9ACE82}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1814,7 +1697,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E48E0751-F35B-E442-F5F5-5B15BCF62A95}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BD3D33C-B18A-6265-A4EF-69BB68BF7F4C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1869,7 +1752,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C4976A7-D86B-3CD7-2A4D-DA16AEC982EF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{097E44CD-4AA0-AF92-75BC-8DB0538720D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1924,7 +1807,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A11AC5F-22BF-4144-03D8-9F8075E1779C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4295E313-B9EF-3065-745A-7650E5E4DFCE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1979,7 +1862,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F93D73FF-0196-7187-71B8-0ADEA2B0FE08}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CACB5D0F-D623-8596-6CF0-C19325C61078}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2034,7 +1917,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0CE8627-D7A7-53F1-7B1A-7412A71B932B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC98DB86-FD70-7047-53C6-58E9C5A1C301}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2571,6 +2454,56 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>296863</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{088654C1-45A0-6F86-6FAC-EFAFC6B134CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17479963" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2890,7 +2823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D460486-16B9-416D-A774-93682F7286B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B752AA81-2F31-413C-BFAD-255BBE959670}">
   <dimension ref="A1:L638"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -25656,7 +25589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32DDF671-E877-4C61-BE69-98C34EB2EE11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB85094-C4B3-41DD-A2D1-3FCC7EC58A91}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -25669,7 +25602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB5F688-EBFC-4887-90C5-502147C8F2F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392E1D91-98D4-4969-A3B2-5884029CB337}">
   <dimension ref="A1:I129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -25687,16 +25620,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="2" t="s">
@@ -28889,7 +28822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD4DD3E8-036B-4D45-B8C9-9FA4701BE14C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D7B59D-B3EC-4F80-9EEA-44CBE2F4A94B}">
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28909,17 +28842,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="2" t="s">
@@ -28983,7 +28916,7 @@
       <c r="H4" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="17">
         <v>45343</v>
       </c>
       <c r="J4" s="4" t="s">
@@ -29018,7 +28951,7 @@
       <c r="H5" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="18">
         <v>44949</v>
       </c>
       <c r="J5" s="9" t="s">
@@ -29053,7 +28986,7 @@
       <c r="H6" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="17">
         <v>44949</v>
       </c>
       <c r="J6" s="4" t="s">
@@ -29088,7 +29021,7 @@
       <c r="H7" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="18">
         <v>45343</v>
       </c>
       <c r="J7" s="9" t="s">
@@ -29123,7 +29056,7 @@
       <c r="H8" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="17">
         <v>44949</v>
       </c>
       <c r="J8" s="4" t="s">
@@ -29158,7 +29091,7 @@
       <c r="H9" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="18">
         <v>45343</v>
       </c>
       <c r="J9" s="9" t="s">
@@ -29193,7 +29126,7 @@
       <c r="H10" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="17">
         <v>44949</v>
       </c>
       <c r="J10" s="4" t="s">
@@ -29228,7 +29161,7 @@
       <c r="H11" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="18">
         <v>44949</v>
       </c>
       <c r="J11" s="9" t="s">
@@ -29263,7 +29196,7 @@
       <c r="H12" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="17">
         <v>45343</v>
       </c>
       <c r="J12" s="4" t="s">
@@ -29298,7 +29231,7 @@
       <c r="H13" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="18">
         <v>44949</v>
       </c>
       <c r="J13" s="9" t="s">
@@ -29333,7 +29266,7 @@
       <c r="H14" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="17">
         <v>45343</v>
       </c>
       <c r="J14" s="4" t="s">
@@ -29368,7 +29301,7 @@
       <c r="H15" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="18">
         <v>45343</v>
       </c>
       <c r="J15" s="9" t="s">
@@ -29403,7 +29336,7 @@
       <c r="H16" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="17">
         <v>45343</v>
       </c>
       <c r="J16" s="4" t="s">
@@ -29438,7 +29371,7 @@
       <c r="H17" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I17" s="18">
         <v>45343</v>
       </c>
       <c r="J17" s="9" t="s">
@@ -29473,7 +29406,7 @@
       <c r="H18" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="17">
         <v>45343</v>
       </c>
       <c r="J18" s="4" t="s">
@@ -29508,7 +29441,7 @@
       <c r="H19" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="18">
         <v>45343</v>
       </c>
       <c r="J19" s="9" t="s">
@@ -29543,7 +29476,7 @@
       <c r="H20" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20" s="17">
         <v>45343</v>
       </c>
       <c r="J20" s="4" t="s">
@@ -29566,7 +29499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6025E80C-DFD4-48E4-804D-579844FE5DA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFF9BFC-582E-47CF-A041-2254B3BA892D}">
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -29583,16 +29516,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="2" t="s">
@@ -30508,8 +30441,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D9EC6EA-F3D7-44CF-B0FC-0D99A2B915E3}">
-  <dimension ref="A1:J41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845885DD-2311-4D11-90D9-243F08628A97}">
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:H1"/>
@@ -30527,70 +30460,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>396</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>397</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" s="15" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="14" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+    </row>
+    <row r="5" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C6" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D6" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E6" s="3" t="s">
         <v>383</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A8" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="13">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13">
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
@@ -30598,16 +30558,14 @@
         <v>52</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="C9" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0.1</v>
-      </c>
+        <v>1.2</v>
+      </c>
+      <c r="D9" s="8"/>
       <c r="E9" s="8">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
@@ -30615,14 +30573,16 @@
         <v>52</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="C10" s="13">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D10" s="13"/>
+        <v>3.3</v>
+      </c>
+      <c r="D10" s="13">
+        <v>3.3</v>
+      </c>
       <c r="E10" s="13">
-        <v>5.0999999999999996</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
@@ -30630,14 +30590,16 @@
         <v>52</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="C11" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="D11" s="8"/>
+        <v>2.1</v>
+      </c>
+      <c r="D11" s="8">
+        <v>2</v>
+      </c>
       <c r="E11" s="8">
-        <v>1.2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
@@ -30645,16 +30607,16 @@
         <v>52</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="C12" s="13">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="D12" s="13">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="E12" s="13">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
@@ -30662,415 +30624,371 @@
         <v>52</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E18" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F18" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12">
+        <v>21.8</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C21" s="12">
+        <v>3.8</v>
+      </c>
+      <c r="D21" s="12">
+        <v>5</v>
+      </c>
+      <c r="E21" s="12">
+        <v>3.8</v>
+      </c>
+      <c r="F21" s="12">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C22" s="7">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="D22" s="7">
+        <v>17</v>
+      </c>
+      <c r="E22" s="7">
+        <v>16.5</v>
+      </c>
+      <c r="F22" s="7">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C23" s="12">
         <v>2.1</v>
       </c>
-      <c r="D13" s="8">
-        <v>2</v>
-      </c>
-      <c r="E13" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A14" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="9" t="s">
+      <c r="D23" s="12">
+        <v>2.1</v>
+      </c>
+      <c r="E23" s="12">
+        <v>2.1</v>
+      </c>
+      <c r="F23" s="12">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C24" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="F24" s="7">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="8">
+        <v>3.25</v>
+      </c>
+      <c r="D29" s="8">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="E29" s="8">
+        <v>0.33</v>
+      </c>
+      <c r="F29" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="G29" s="7">
+        <v>6.8</v>
+      </c>
+      <c r="H29" s="7">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A30" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13">
+        <v>0.49</v>
+      </c>
+      <c r="E30" s="13">
+        <v>0.33</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12">
+        <v>66</v>
+      </c>
+      <c r="H30" s="12">
+        <v>110.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A31" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="E31" s="8">
+        <v>0.36</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7">
+        <v>5.9</v>
+      </c>
+      <c r="H31" s="7">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A32" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C32" s="13">
+        <v>0.13</v>
+      </c>
+      <c r="D32" s="13">
+        <v>0.17</v>
+      </c>
+      <c r="E32" s="13">
+        <v>1</v>
+      </c>
+      <c r="F32" s="12">
+        <v>3.8</v>
+      </c>
+      <c r="G32" s="12">
+        <v>5</v>
+      </c>
+      <c r="H32" s="12"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A33" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C33" s="8">
+        <v>0.94</v>
+      </c>
+      <c r="D33" s="8">
+        <v>0.93</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1</v>
+      </c>
+      <c r="F33" s="7">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="G33" s="7">
+        <v>17</v>
+      </c>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A34" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="C14" s="13">
-        <v>1.7</v>
-      </c>
-      <c r="D14" s="13">
-        <v>1.7</v>
-      </c>
-      <c r="E14" s="13">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C15" s="8">
-        <v>0.7</v>
-      </c>
-      <c r="D15" s="8">
-        <v>0.7</v>
-      </c>
-      <c r="E15" s="8">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" s="15" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A21" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="7">
-        <v>1.4</v>
-      </c>
-      <c r="D22" s="7">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E22" s="7">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F22" s="7">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12">
-        <v>21.8</v>
-      </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12">
-        <v>21.8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7">
+      <c r="C34" s="13">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D34" s="13">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E34" s="13">
+        <v>1</v>
+      </c>
+      <c r="F34" s="12">
         <v>2.1</v>
       </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7">
+      <c r="G34" s="12">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C25" s="12">
-        <v>3.8</v>
-      </c>
-      <c r="D25" s="12">
-        <v>5</v>
-      </c>
-      <c r="E25" s="12">
-        <v>3.8</v>
-      </c>
-      <c r="F25" s="12">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A26" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C26" s="7">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="D26" s="7">
-        <v>17</v>
-      </c>
-      <c r="E26" s="7">
-        <v>16.5</v>
-      </c>
-      <c r="F26" s="7">
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A27" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C27" s="12">
-        <v>2.1</v>
-      </c>
-      <c r="D27" s="12">
-        <v>2.1</v>
-      </c>
-      <c r="E27" s="12">
-        <v>2.1</v>
-      </c>
-      <c r="F27" s="12">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A28" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C28" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="D28" s="7">
-        <v>1.4</v>
-      </c>
-      <c r="E28" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="F28" s="7">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A32" s="15" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A34" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>393</v>
-      </c>
+      <c r="H34" s="12"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>79</v>
+        <v>209</v>
       </c>
       <c r="C35" s="8">
-        <v>3.25</v>
+        <v>0.24</v>
       </c>
       <c r="D35" s="8">
-        <v>5.1100000000000003</v>
+        <v>0.23</v>
       </c>
       <c r="E35" s="8">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="F35" s="7">
-        <v>4.3</v>
+        <v>1.5</v>
       </c>
       <c r="G35" s="7">
-        <v>6.8</v>
-      </c>
-      <c r="H35" s="7">
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A36" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13">
-        <v>0.49</v>
-      </c>
-      <c r="E36" s="13">
-        <v>0.33</v>
-      </c>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12">
-        <v>66</v>
-      </c>
-      <c r="H36" s="12">
-        <v>110.7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A37" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="E37" s="8">
-        <v>0.36</v>
-      </c>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7">
-        <v>5.9</v>
-      </c>
-      <c r="H37" s="7">
-        <v>10.3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A38" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C38" s="13">
-        <v>0.13</v>
-      </c>
-      <c r="D38" s="13">
-        <v>0.17</v>
-      </c>
-      <c r="E38" s="13">
-        <v>1</v>
-      </c>
-      <c r="F38" s="12">
-        <v>3.8</v>
-      </c>
-      <c r="G38" s="12">
-        <v>5</v>
-      </c>
-      <c r="H38" s="12"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A39" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C39" s="8">
-        <v>0.94</v>
-      </c>
-      <c r="D39" s="8">
-        <v>0.93</v>
-      </c>
-      <c r="E39" s="8">
-        <v>1</v>
-      </c>
-      <c r="F39" s="7">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="G39" s="7">
-        <v>17</v>
-      </c>
-      <c r="H39" s="7"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A40" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C40" s="13">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D40" s="13">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E40" s="13">
-        <v>1</v>
-      </c>
-      <c r="F40" s="12">
-        <v>2.1</v>
-      </c>
-      <c r="G40" s="12">
-        <v>2.1</v>
-      </c>
-      <c r="H40" s="12"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A41" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C41" s="8">
-        <v>0.24</v>
-      </c>
-      <c r="D41" s="8">
-        <v>0.23</v>
-      </c>
-      <c r="E41" s="8">
-        <v>1</v>
-      </c>
-      <c r="F41" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="G41" s="7">
         <v>1.4</v>
       </c>
-      <c r="H41" s="7"/>
+      <c r="H35" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -31080,12 +30998,11 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA87927B-DE2E-4A38-B100-E3F22D8920E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23354DE-66D9-4D8F-988B-DC2ABB584402}">
   <dimension ref="A1:W91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -31114,57 +31031,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>394</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>395</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
     </row>
     <row r="5" spans="1:23" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
@@ -46020,31 +45937,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
     </row>
     <row r="2" spans="1:25" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
@@ -49402,76 +49319,76 @@
       <c r="A57" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B57" s="16">
+      <c r="B57" s="15">
         <v>0</v>
       </c>
-      <c r="C57" s="16">
+      <c r="C57" s="15">
         <v>0</v>
       </c>
-      <c r="D57" s="16">
+      <c r="D57" s="15">
         <v>0</v>
       </c>
-      <c r="E57" s="16">
+      <c r="E57" s="15">
         <v>0</v>
       </c>
-      <c r="F57" s="16">
+      <c r="F57" s="15">
         <v>0</v>
       </c>
-      <c r="G57" s="16">
+      <c r="G57" s="15">
         <v>0</v>
       </c>
-      <c r="H57" s="16">
+      <c r="H57" s="15">
         <v>0</v>
       </c>
-      <c r="I57" s="16">
+      <c r="I57" s="15">
         <v>0</v>
       </c>
-      <c r="J57" s="16">
+      <c r="J57" s="15">
         <v>0.22831050228310504</v>
       </c>
-      <c r="K57" s="16">
+      <c r="K57" s="15">
         <v>0.11415525114155252</v>
       </c>
-      <c r="L57" s="16">
+      <c r="L57" s="15">
         <v>0.45662100456621008</v>
       </c>
-      <c r="M57" s="16">
+      <c r="M57" s="15">
         <v>0.68493150684931503</v>
       </c>
-      <c r="N57" s="16">
+      <c r="N57" s="15">
         <v>0.7990867579908677</v>
       </c>
-      <c r="O57" s="16">
+      <c r="O57" s="15">
         <v>0.41856925418569257</v>
       </c>
-      <c r="P57" s="16">
+      <c r="P57" s="15">
         <v>0.57077625570776258</v>
       </c>
-      <c r="Q57" s="16">
+      <c r="Q57" s="15">
         <v>0.61643835616438358</v>
       </c>
-      <c r="R57" s="16">
+      <c r="R57" s="15">
         <v>0.66590563165905636</v>
       </c>
-      <c r="S57" s="16">
+      <c r="S57" s="15">
         <v>0.91324200913242015</v>
       </c>
-      <c r="T57" s="16">
+      <c r="T57" s="15">
         <v>2.5603392041748205</v>
       </c>
-      <c r="U57" s="16">
+      <c r="U57" s="15">
         <v>3.4627092846270933</v>
       </c>
-      <c r="V57" s="16">
+      <c r="V57" s="15">
         <v>3.8812785388127851</v>
       </c>
-      <c r="W57" s="16">
+      <c r="W57" s="15">
         <v>5.9132420091324196</v>
       </c>
-      <c r="X57" s="16">
+      <c r="X57" s="15">
         <v>5.1141552511415531</v>
       </c>
-      <c r="Y57" s="16">
+      <c r="Y57" s="15">
         <v>4.9771689497716896</v>
       </c>
     </row>
@@ -49479,76 +49396,76 @@
       <c r="A58" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B58" s="17">
+      <c r="B58" s="16">
         <v>0.34409073920603195</v>
       </c>
-      <c r="C58" s="17">
+      <c r="C58" s="16">
         <v>0.39609028421001313</v>
       </c>
-      <c r="D58" s="17">
+      <c r="D58" s="16">
         <v>0.34896569655015519</v>
       </c>
-      <c r="E58" s="17">
+      <c r="E58" s="16">
         <v>0.3908090804205463</v>
       </c>
-      <c r="F58" s="17">
+      <c r="F58" s="16">
         <v>0.3922789539227895</v>
       </c>
-      <c r="G58" s="17">
+      <c r="G58" s="16">
         <v>0.38314653383146535</v>
       </c>
-      <c r="H58" s="17">
+      <c r="H58" s="16">
         <v>0.396222498962225</v>
       </c>
-      <c r="I58" s="17">
+      <c r="I58" s="16">
         <v>0.46430053964300544</v>
       </c>
-      <c r="J58" s="17">
+      <c r="J58" s="16">
         <v>0.48111249481112495</v>
       </c>
-      <c r="K58" s="17">
+      <c r="K58" s="16">
         <v>0.42782873873654675</v>
       </c>
-      <c r="L58" s="17">
+      <c r="L58" s="16">
         <v>0.45844586648499153</v>
       </c>
-      <c r="M58" s="17">
+      <c r="M58" s="16">
         <v>0.49726171897578175</v>
       </c>
-      <c r="N58" s="17">
+      <c r="N58" s="16">
         <v>0.41309028379862439</v>
       </c>
-      <c r="O58" s="17">
+      <c r="O58" s="16">
         <v>0.36227010141320837</v>
       </c>
-      <c r="P58" s="17">
+      <c r="P58" s="16">
         <v>0.41231328844516674</v>
       </c>
-      <c r="Q58" s="17">
+      <c r="Q58" s="16">
         <v>0.50828415182197206</v>
       </c>
-      <c r="R58" s="17">
+      <c r="R58" s="16">
         <v>0.4369935206742831</v>
       </c>
-      <c r="S58" s="17">
+      <c r="S58" s="16">
         <v>0.46734400271649285</v>
       </c>
-      <c r="T58" s="17">
+      <c r="T58" s="16">
         <v>0.41685655309224456</v>
       </c>
-      <c r="U58" s="17">
+      <c r="U58" s="16">
         <v>0.38424076705180099</v>
       </c>
-      <c r="V58" s="17">
+      <c r="V58" s="16">
         <v>0.30180771877150181</v>
       </c>
-      <c r="W58" s="17">
+      <c r="W58" s="16">
         <v>0.38178341330902782</v>
       </c>
-      <c r="X58" s="17">
+      <c r="X58" s="16">
         <v>0.48677943686388042</v>
       </c>
-      <c r="Y58" s="17">
+      <c r="Y58" s="16">
         <v>0.25824553878597789</v>
       </c>
     </row>
@@ -49556,76 +49473,76 @@
       <c r="A59" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B59" s="16">
+      <c r="B59" s="15">
         <v>0.19642930601834707</v>
       </c>
-      <c r="C59" s="16">
+      <c r="C59" s="15">
         <v>0.19642930601834707</v>
       </c>
-      <c r="D59" s="16">
+      <c r="D59" s="15">
         <v>0.1583775556378296</v>
       </c>
-      <c r="E59" s="16">
+      <c r="E59" s="15">
         <v>0.18100292072894811</v>
       </c>
-      <c r="F59" s="16">
+      <c r="F59" s="15">
         <v>0.15323542720802993</v>
       </c>
-      <c r="G59" s="16">
+      <c r="G59" s="15">
         <v>0.1779176436710683</v>
       </c>
-      <c r="H59" s="16">
+      <c r="H59" s="15">
         <v>0.22213994816734542</v>
       </c>
-      <c r="I59" s="16">
+      <c r="I59" s="15">
         <v>0.23228111971411552</v>
       </c>
-      <c r="J59" s="16">
+      <c r="J59" s="15">
         <v>0.23426642842962081</v>
       </c>
-      <c r="K59" s="16">
+      <c r="K59" s="15">
         <v>0.19456025411951558</v>
       </c>
-      <c r="L59" s="16">
+      <c r="L59" s="15">
         <v>0.19555290847726822</v>
       </c>
-      <c r="M59" s="16">
+      <c r="M59" s="15">
         <v>0.19786910197869106</v>
       </c>
-      <c r="N59" s="16">
+      <c r="N59" s="15">
         <v>0.22450532724505329</v>
       </c>
-      <c r="O59" s="16">
+      <c r="O59" s="15">
         <v>0.2226027397260274</v>
       </c>
-      <c r="P59" s="16">
+      <c r="P59" s="15">
         <v>0.20357686453576868</v>
       </c>
-      <c r="Q59" s="16">
+      <c r="Q59" s="15">
         <v>0.17694063926940642</v>
       </c>
-      <c r="R59" s="16">
+      <c r="R59" s="15">
         <v>0.1950152207001522</v>
       </c>
-      <c r="S59" s="16">
+      <c r="S59" s="15">
         <v>0.18359969558599698</v>
       </c>
-      <c r="T59" s="16">
+      <c r="T59" s="15">
         <v>0.19216133942161343</v>
       </c>
-      <c r="U59" s="16">
+      <c r="U59" s="15">
         <v>0.20452815829528159</v>
       </c>
-      <c r="V59" s="16">
+      <c r="V59" s="15">
         <v>0.21784627092846273</v>
       </c>
-      <c r="W59" s="16">
+      <c r="W59" s="15">
         <v>0.29014459665144599</v>
       </c>
-      <c r="X59" s="16">
+      <c r="X59" s="15">
         <v>0.1950152207001522</v>
       </c>
-      <c r="Y59" s="16">
+      <c r="Y59" s="15">
         <v>0.14840182648401828</v>
       </c>
     </row>
@@ -49633,76 +49550,76 @@
       <c r="A60" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="B60" s="17">
+      <c r="B60" s="16">
         <v>0.29434148088459128</v>
       </c>
-      <c r="C60" s="17">
+      <c r="C60" s="16">
         <v>0.22423352902804958</v>
       </c>
-      <c r="D60" s="17">
+      <c r="D60" s="16">
         <v>0.22408253001860307</v>
       </c>
-      <c r="E60" s="17">
+      <c r="E60" s="16">
         <v>0.20686315206863154</v>
       </c>
-      <c r="F60" s="17">
+      <c r="F60" s="16">
         <v>0.18103408514367419</v>
       </c>
-      <c r="G60" s="17">
+      <c r="G60" s="16">
         <v>0.24791291914579586</v>
       </c>
-      <c r="H60" s="17">
+      <c r="H60" s="16">
         <v>0.2427240440939071</v>
       </c>
-      <c r="I60" s="17">
+      <c r="I60" s="16">
         <v>0.16072605011472321</v>
       </c>
-      <c r="J60" s="17">
+      <c r="J60" s="16">
         <v>0.1502326182476092</v>
       </c>
-      <c r="K60" s="17">
+      <c r="K60" s="16">
         <v>0.18296846327828276</v>
       </c>
-      <c r="L60" s="17">
+      <c r="L60" s="16">
         <v>0.26339491433119683</v>
       </c>
-      <c r="M60" s="17">
+      <c r="M60" s="16">
         <v>0.14626141552511415</v>
       </c>
-      <c r="N60" s="17">
+      <c r="N60" s="16">
         <v>0.15647142182333496</v>
       </c>
-      <c r="O60" s="17">
+      <c r="O60" s="16">
         <v>0.19708855325293684</v>
       </c>
-      <c r="P60" s="17">
+      <c r="P60" s="16">
         <v>0.22250599798777185</v>
       </c>
-      <c r="Q60" s="17">
+      <c r="Q60" s="16">
         <v>0.27329541057193724</v>
       </c>
-      <c r="R60" s="17">
+      <c r="R60" s="16">
         <v>0.18767897221577279</v>
       </c>
-      <c r="S60" s="17">
+      <c r="S60" s="16">
         <v>0.12870890865760704</v>
       </c>
-      <c r="T60" s="17">
+      <c r="T60" s="16">
         <v>0.23422292564900221</v>
       </c>
-      <c r="U60" s="17">
+      <c r="U60" s="16">
         <v>0.13325692663137406</v>
       </c>
-      <c r="V60" s="17">
+      <c r="V60" s="16">
         <v>0.12825410686023031</v>
       </c>
-      <c r="W60" s="17">
+      <c r="W60" s="16">
         <v>0.21921446633557101</v>
       </c>
-      <c r="X60" s="17">
+      <c r="X60" s="16">
         <v>0.17145847997545438</v>
       </c>
-      <c r="Y60" s="17">
+      <c r="Y60" s="16">
         <v>0.14032522966412186</v>
       </c>
     </row>
@@ -49710,76 +49627,76 @@
       <c r="A61" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B61" s="16">
+      <c r="B61" s="15">
         <v>0.58791571267802401</v>
       </c>
-      <c r="C61" s="16">
+      <c r="C61" s="15">
         <v>0.632219592016247</v>
       </c>
-      <c r="D61" s="16">
+      <c r="D61" s="15">
         <v>0.84860999194198217</v>
       </c>
-      <c r="E61" s="16">
+      <c r="E61" s="15">
         <v>0.72522159548751008</v>
       </c>
-      <c r="F61" s="16">
+      <c r="F61" s="15">
         <v>0.70591592801504166</v>
       </c>
-      <c r="G61" s="16">
+      <c r="G61" s="15">
         <v>0.78271890948160072</v>
       </c>
-      <c r="H61" s="16">
+      <c r="H61" s="15">
         <v>0.81797273704002138</v>
       </c>
-      <c r="I61" s="16">
+      <c r="I61" s="15">
         <v>0.88425019931869253</v>
       </c>
-      <c r="J61" s="16">
+      <c r="J61" s="15">
         <v>0.95250175158850958</v>
       </c>
-      <c r="K61" s="16">
+      <c r="K61" s="15">
         <v>0.92169795366142393</v>
       </c>
-      <c r="L61" s="16">
+      <c r="L61" s="15">
         <v>0.92109395762363799</v>
       </c>
-      <c r="M61" s="16">
+      <c r="M61" s="15">
         <v>0.98511753762895304</v>
       </c>
-      <c r="N61" s="16">
+      <c r="N61" s="15">
         <v>0.94312558272968505</v>
       </c>
-      <c r="O61" s="16">
+      <c r="O61" s="15">
         <v>0.81695954983626218</v>
       </c>
-      <c r="P61" s="16">
+      <c r="P61" s="15">
         <v>0.91497163414971638</v>
       </c>
-      <c r="Q61" s="16">
+      <c r="Q61" s="15">
         <v>0.88672109220054429</v>
       </c>
-      <c r="R61" s="16">
+      <c r="R61" s="15">
         <v>0.91440094569223274</v>
       </c>
-      <c r="S61" s="16">
+      <c r="S61" s="15">
         <v>0.90107317525438657</v>
       </c>
-      <c r="T61" s="16">
+      <c r="T61" s="15">
         <v>0.91608169199663791</v>
       </c>
-      <c r="U61" s="16">
+      <c r="U61" s="15">
         <v>0.94050296462891025</v>
       </c>
-      <c r="V61" s="16">
+      <c r="V61" s="15">
         <v>0.9444785206388151</v>
       </c>
-      <c r="W61" s="16">
+      <c r="W61" s="15">
         <v>0.93652740861900541</v>
       </c>
-      <c r="X61" s="16">
+      <c r="X61" s="15">
         <v>0.93482359890047495</v>
       </c>
-      <c r="Y61" s="16">
+      <c r="Y61" s="15">
         <v>0.91778550171516859</v>
       </c>
     </row>
@@ -49787,76 +49704,76 @@
       <c r="A62" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="B62" s="17">
+      <c r="B62" s="16">
         <v>65535</v>
       </c>
-      <c r="C62" s="17">
+      <c r="C62" s="16">
         <v>65535</v>
       </c>
-      <c r="D62" s="17">
+      <c r="D62" s="16">
         <v>65535</v>
       </c>
-      <c r="E62" s="17">
+      <c r="E62" s="16">
         <v>65535</v>
       </c>
-      <c r="F62" s="17">
+      <c r="F62" s="16">
         <v>65535</v>
       </c>
-      <c r="G62" s="17">
+      <c r="G62" s="16">
         <v>65535</v>
       </c>
-      <c r="H62" s="17">
+      <c r="H62" s="16">
         <v>65535</v>
       </c>
-      <c r="I62" s="17">
+      <c r="I62" s="16">
         <v>65535</v>
       </c>
-      <c r="J62" s="17">
+      <c r="J62" s="16">
         <v>65535</v>
       </c>
-      <c r="K62" s="17">
+      <c r="K62" s="16">
         <v>65535</v>
       </c>
-      <c r="L62" s="17">
+      <c r="L62" s="16">
         <v>65535</v>
       </c>
-      <c r="M62" s="17">
+      <c r="M62" s="16">
         <v>65535</v>
       </c>
-      <c r="N62" s="17">
+      <c r="N62" s="16">
         <v>65535</v>
       </c>
-      <c r="O62" s="17">
+      <c r="O62" s="16">
         <v>65535</v>
       </c>
-      <c r="P62" s="17">
+      <c r="P62" s="16">
         <v>65535</v>
       </c>
-      <c r="Q62" s="17">
+      <c r="Q62" s="16">
         <v>65535</v>
       </c>
-      <c r="R62" s="17">
+      <c r="R62" s="16">
         <v>65535</v>
       </c>
-      <c r="S62" s="17">
+      <c r="S62" s="16">
         <v>65535</v>
       </c>
-      <c r="T62" s="17">
+      <c r="T62" s="16">
         <v>65535</v>
       </c>
-      <c r="U62" s="17">
+      <c r="U62" s="16">
         <v>65535</v>
       </c>
-      <c r="V62" s="17">
+      <c r="V62" s="16">
         <v>65535</v>
       </c>
-      <c r="W62" s="17">
+      <c r="W62" s="16">
         <v>65535</v>
       </c>
-      <c r="X62" s="17">
+      <c r="X62" s="16">
         <v>65535</v>
       </c>
-      <c r="Y62" s="17">
+      <c r="Y62" s="16">
         <v>65535</v>
       </c>
     </row>
@@ -49864,56 +49781,56 @@
       <c r="A63" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B63" s="16"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="16"/>
-      <c r="I63" s="16"/>
-      <c r="J63" s="16"/>
-      <c r="K63" s="16"/>
-      <c r="L63" s="16">
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15">
         <v>3.8051750380517509E-2</v>
       </c>
-      <c r="M63" s="16">
+      <c r="M63" s="15">
         <v>7.6103500761035017E-2</v>
       </c>
-      <c r="N63" s="16">
+      <c r="N63" s="15">
         <v>9.6783799880881469E-2</v>
       </c>
-      <c r="O63" s="16">
+      <c r="O63" s="15">
         <v>0.1525728837372673</v>
       </c>
-      <c r="P63" s="16">
+      <c r="P63" s="15">
         <v>0.13964622955180209</v>
       </c>
-      <c r="Q63" s="16">
+      <c r="Q63" s="15">
         <v>0.15294587046149752</v>
       </c>
-      <c r="R63" s="16">
+      <c r="R63" s="15">
         <v>0.1540541738706388</v>
       </c>
-      <c r="S63" s="16">
+      <c r="S63" s="15">
         <v>0.15516247727978011</v>
       </c>
-      <c r="T63" s="16">
+      <c r="T63" s="15">
         <v>0.14851265682493239</v>
       </c>
-      <c r="U63" s="16">
+      <c r="U63" s="15">
         <v>0.15586582367404284</v>
       </c>
-      <c r="V63" s="16">
+      <c r="V63" s="15">
         <v>0.15255292652552924</v>
       </c>
-      <c r="W63" s="16">
+      <c r="W63" s="15">
         <v>0.13213245604573401</v>
       </c>
-      <c r="X63" s="16">
+      <c r="X63" s="15">
         <v>0.13711751430220961</v>
       </c>
-      <c r="Y63" s="16">
+      <c r="Y63" s="15">
         <v>0.13667567483614451</v>
       </c>
     </row>
@@ -49921,66 +49838,66 @@
       <c r="A64" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17">
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16">
         <v>0</v>
       </c>
-      <c r="H64" s="17">
+      <c r="H64" s="16">
         <v>7.6103500761035017E-2</v>
       </c>
-      <c r="I64" s="17">
+      <c r="I64" s="16">
         <v>0.19025875190258754</v>
       </c>
-      <c r="J64" s="17">
+      <c r="J64" s="16">
         <v>0.12453300124533001</v>
       </c>
-      <c r="K64" s="17">
+      <c r="K64" s="16">
         <v>8.3022000830220002E-2</v>
       </c>
-      <c r="L64" s="17">
+      <c r="L64" s="16">
         <v>0.15841953219644023</v>
       </c>
-      <c r="M64" s="17">
+      <c r="M64" s="16">
         <v>0.18180280737358362</v>
       </c>
-      <c r="N64" s="17">
+      <c r="N64" s="16">
         <v>0.20480795057749127</v>
       </c>
-      <c r="O64" s="17">
+      <c r="O64" s="16">
         <v>0.22998925597636316</v>
       </c>
-      <c r="P64" s="17">
+      <c r="P64" s="16">
         <v>0.21689497716894979</v>
       </c>
-      <c r="Q64" s="17">
+      <c r="Q64" s="16">
         <v>0.23646444879321593</v>
       </c>
-      <c r="R64" s="17">
+      <c r="R64" s="16">
         <v>0.23157208088714937</v>
       </c>
-      <c r="S64" s="17">
+      <c r="S64" s="16">
         <v>0.24461839530332682</v>
       </c>
-      <c r="T64" s="17">
+      <c r="T64" s="16">
         <v>0.21526418786692761</v>
       </c>
-      <c r="U64" s="17">
+      <c r="U64" s="16">
         <v>0.21526418786692761</v>
       </c>
-      <c r="V64" s="17">
+      <c r="V64" s="16">
         <v>0.24135681669928247</v>
       </c>
-      <c r="W64" s="17">
+      <c r="W64" s="16">
         <v>0.23320287018917157</v>
       </c>
-      <c r="X64" s="17">
+      <c r="X64" s="16">
         <v>0.23483365949119375</v>
       </c>
-      <c r="Y64" s="17">
+      <c r="Y64" s="16">
         <v>0.25277234181343772</v>
       </c>
     </row>
@@ -50067,57 +49984,57 @@
       <c r="A68" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="16"/>
-      <c r="J68" s="16">
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="15">
         <v>0.30441400304414001</v>
       </c>
-      <c r="K68" s="16">
+      <c r="K68" s="15">
         <v>0.10147133434804669</v>
       </c>
-      <c r="L68" s="16">
+      <c r="L68" s="15">
         <v>0.40447488584474894</v>
       </c>
-      <c r="M68" s="16">
+      <c r="M68" s="15">
         <v>0.5811540058115402</v>
       </c>
-      <c r="N68" s="16">
+      <c r="N68" s="15">
         <v>0.53816046966731901</v>
       </c>
-      <c r="O68" s="16">
+      <c r="O68" s="15">
         <v>0.37067553048616708</v>
       </c>
-      <c r="P68" s="16">
+      <c r="P68" s="15">
         <v>0.57077625570776258</v>
       </c>
-      <c r="Q68" s="16">
+      <c r="Q68" s="15">
         <v>0.57500422797226458</v>
       </c>
-      <c r="R68" s="16">
+      <c r="R68" s="15">
         <v>0.70696146759593048</v>
       </c>
-      <c r="S68" s="16">
+      <c r="S68" s="15">
         <v>0.86924428402751963</v>
       </c>
-      <c r="T68" s="16">
+      <c r="T68" s="15">
         <v>2.5863099724480505</v>
       </c>
-      <c r="U68" s="16">
+      <c r="U68" s="15">
         <v>3.6549813955986812</v>
       </c>
-      <c r="V68" s="16">
+      <c r="V68" s="15">
         <v>4.036889720525596</v>
       </c>
-      <c r="W68" s="16">
+      <c r="W68" s="15">
         <v>6.2453375126974553</v>
       </c>
-      <c r="X68" s="16">
+      <c r="X68" s="15">
         <v>3.2548137163984849</v>
       </c>
     </row>
@@ -50125,73 +50042,73 @@
       <c r="A69" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="B69" s="17">
+      <c r="B69" s="16">
         <v>0.17918731176527739</v>
       </c>
-      <c r="C69" s="17">
+      <c r="C69" s="16">
         <v>0.14535545467936098</v>
       </c>
-      <c r="D69" s="17">
+      <c r="D69" s="16">
         <v>0.15845780240593327</v>
       </c>
-      <c r="E69" s="17">
+      <c r="E69" s="16">
         <v>0.1498316039834055</v>
       </c>
-      <c r="F69" s="17">
+      <c r="F69" s="16">
         <v>0.1347902156764661</v>
       </c>
-      <c r="G69" s="17">
+      <c r="G69" s="16">
         <v>0.18958653994151151</v>
       </c>
-      <c r="H69" s="17">
+      <c r="H69" s="16">
         <v>0.18353719344825822</v>
       </c>
-      <c r="I69" s="17">
+      <c r="I69" s="16">
         <v>0.12836507928947488</v>
       </c>
-      <c r="J69" s="17">
+      <c r="J69" s="16">
         <v>0.12535509016122517</v>
       </c>
-      <c r="K69" s="17">
+      <c r="K69" s="16">
         <v>0.15416139825537606</v>
       </c>
-      <c r="L69" s="17">
+      <c r="L69" s="16">
         <v>0.21319901365069094</v>
       </c>
-      <c r="M69" s="17">
+      <c r="M69" s="16">
         <v>0.13556538436675425</v>
       </c>
-      <c r="N69" s="17">
+      <c r="N69" s="16">
         <v>0.1426745416205524</v>
       </c>
-      <c r="O69" s="17">
+      <c r="O69" s="16">
         <v>0.17089921406444017</v>
       </c>
-      <c r="P69" s="17">
+      <c r="P69" s="16">
         <v>0.18308207829936693</v>
       </c>
-      <c r="Q69" s="17">
+      <c r="Q69" s="16">
         <v>0.21797454043557021</v>
       </c>
-      <c r="R69" s="17">
+      <c r="R69" s="16">
         <v>0.16178813238750592</v>
       </c>
-      <c r="S69" s="17">
+      <c r="S69" s="16">
         <v>0.11826549026371555</v>
       </c>
-      <c r="T69" s="17">
+      <c r="T69" s="16">
         <v>0.18320015783762453</v>
       </c>
-      <c r="U69" s="17">
+      <c r="U69" s="16">
         <v>0.11430375923833559</v>
       </c>
-      <c r="V69" s="17">
+      <c r="V69" s="16">
         <v>0.11225524213694742</v>
       </c>
-      <c r="W69" s="17">
+      <c r="W69" s="16">
         <v>0.1716829439171017</v>
       </c>
-      <c r="X69" s="17">
+      <c r="X69" s="16">
         <v>0.13069358514235713</v>
       </c>
     </row>
@@ -50199,73 +50116,73 @@
       <c r="A70" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B70" s="16">
+      <c r="B70" s="15">
         <v>0.58751816400088952</v>
       </c>
-      <c r="C70" s="16">
+      <c r="C70" s="15">
         <v>0.63195855763612019</v>
       </c>
-      <c r="D70" s="16">
+      <c r="D70" s="15">
         <v>0.84807034848805107</v>
       </c>
-      <c r="E70" s="16">
+      <c r="E70" s="15">
         <v>0.72468873612271401</v>
       </c>
-      <c r="F70" s="16">
+      <c r="F70" s="15">
         <v>0.70518756353607848</v>
       </c>
-      <c r="G70" s="16">
+      <c r="G70" s="15">
         <v>0.78226961776024206</v>
       </c>
-      <c r="H70" s="16">
+      <c r="H70" s="15">
         <v>0.81749754243287398</v>
       </c>
-      <c r="I70" s="16">
+      <c r="I70" s="15">
         <v>0.88349648121868596</v>
       </c>
-      <c r="J70" s="16">
+      <c r="J70" s="15">
         <v>0.95119319991890894</v>
       </c>
-      <c r="K70" s="16">
+      <c r="K70" s="15">
         <v>0.92048229990249752</v>
       </c>
-      <c r="L70" s="16">
+      <c r="L70" s="15">
         <v>0.92005994960757642</v>
       </c>
-      <c r="M70" s="16">
+      <c r="M70" s="15">
         <v>0.98431753019201262</v>
       </c>
-      <c r="N70" s="16">
+      <c r="N70" s="15">
         <v>0.94540432280661413</v>
       </c>
-      <c r="O70" s="16">
+      <c r="O70" s="15">
         <v>0.81619276686525755</v>
       </c>
-      <c r="P70" s="16">
+      <c r="P70" s="15">
         <v>0.91711461765215874</v>
       </c>
-      <c r="Q70" s="16">
+      <c r="Q70" s="15">
         <v>0.88913935610658323</v>
       </c>
-      <c r="R70" s="16">
+      <c r="R70" s="15">
         <v>0.91556341739152636</v>
       </c>
-      <c r="S70" s="16">
+      <c r="S70" s="15">
         <v>0.90218624426321981</v>
       </c>
-      <c r="T70" s="16">
+      <c r="T70" s="15">
         <v>0.91672584775055033</v>
       </c>
-      <c r="U70" s="16">
+      <c r="U70" s="15">
         <v>0.942110199083116</v>
       </c>
-      <c r="V70" s="16">
+      <c r="V70" s="15">
         <v>0.94612082701666678</v>
       </c>
-      <c r="W70" s="16">
+      <c r="W70" s="15">
         <v>0.9382181082323805</v>
       </c>
-      <c r="X70" s="16">
+      <c r="X70" s="15">
         <v>0.93680249206717758</v>
       </c>
     </row>
@@ -50273,73 +50190,73 @@
       <c r="A71" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="B71" s="17">
+      <c r="B71" s="16">
         <v>1.3728687025740881E-2</v>
       </c>
-      <c r="C71" s="17">
+      <c r="C71" s="16">
         <v>8.9246408872480296E-3</v>
       </c>
-      <c r="D71" s="17">
+      <c r="D71" s="16">
         <v>1.4064542368890371E-2</v>
       </c>
-      <c r="E71" s="17">
+      <c r="E71" s="16">
         <v>1.3440969291696423E-2</v>
       </c>
-      <c r="F71" s="17">
+      <c r="F71" s="16">
         <v>1.4367639360976603E-2</v>
       </c>
-      <c r="G71" s="17">
+      <c r="G71" s="16">
         <v>1.06544901065449E-2</v>
       </c>
-      <c r="H71" s="17">
+      <c r="H71" s="16">
         <v>6.8721033906174785E-3</v>
       </c>
-      <c r="I71" s="17">
+      <c r="I71" s="16">
         <v>1.3383397499030053E-2</v>
       </c>
-      <c r="J71" s="17">
+      <c r="J71" s="16">
         <v>6.8134032678754683E-3</v>
       </c>
-      <c r="K71" s="17">
+      <c r="K71" s="16">
         <v>8.974387151398696E-3</v>
       </c>
-      <c r="L71" s="17">
+      <c r="L71" s="16">
         <v>1.0171012962918537E-2</v>
       </c>
-      <c r="M71" s="17">
+      <c r="M71" s="16">
         <v>4.0275281549390085E-3</v>
       </c>
-      <c r="N71" s="17">
+      <c r="N71" s="16">
         <v>5.4770281784942507E-3</v>
       </c>
-      <c r="O71" s="17">
+      <c r="O71" s="16">
         <v>5.9193423561722108E-3</v>
       </c>
-      <c r="P71" s="17">
+      <c r="P71" s="16">
         <v>5.7979529360833674E-3</v>
       </c>
-      <c r="Q71" s="17">
+      <c r="Q71" s="16">
         <v>5.9440758150922698E-3</v>
       </c>
-      <c r="R71" s="17">
+      <c r="R71" s="16">
         <v>1.0672682178439969E-2</v>
       </c>
-      <c r="S71" s="17">
+      <c r="S71" s="16">
         <v>1.3166338195431674E-2</v>
       </c>
-      <c r="T71" s="17">
+      <c r="T71" s="16">
         <v>1.0273264456408587E-2</v>
       </c>
-      <c r="U71" s="17">
+      <c r="U71" s="16">
         <v>1.1459284473580975E-2</v>
       </c>
-      <c r="V71" s="17">
+      <c r="V71" s="16">
         <v>1.0273784895450284E-2</v>
       </c>
-      <c r="W71" s="17">
+      <c r="W71" s="16">
         <v>1.1799059936493149E-2</v>
       </c>
-      <c r="X71" s="17">
+      <c r="X71" s="16">
         <v>1.5180712412366853E-2</v>
       </c>
     </row>
@@ -50347,59 +50264,59 @@
       <c r="A72" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16">
+      <c r="B72" s="15"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15">
         <v>0.22831050228310501</v>
       </c>
-      <c r="J72" s="16">
+      <c r="J72" s="15">
         <v>0.1906392694063927</v>
       </c>
-      <c r="K72" s="16">
+      <c r="K72" s="15">
         <v>0.18647260273972602</v>
       </c>
-      <c r="L72" s="16">
+      <c r="L72" s="15">
         <v>6.7876712328767116E-2</v>
       </c>
-      <c r="M72" s="16">
+      <c r="M72" s="15">
         <v>7.476575935480044E-2</v>
       </c>
-      <c r="N72" s="16">
+      <c r="N72" s="15">
         <v>9.6412405035707568E-2</v>
       </c>
-      <c r="O72" s="16">
+      <c r="O72" s="15">
         <v>0.15293804193529958</v>
       </c>
-      <c r="P72" s="16">
+      <c r="P72" s="15">
         <v>0.13941040865139273</v>
       </c>
-      <c r="Q72" s="16">
+      <c r="Q72" s="15">
         <v>0.1534278778672068</v>
       </c>
-      <c r="R72" s="16">
+      <c r="R72" s="15">
         <v>0.15383140488540142</v>
       </c>
-      <c r="S72" s="16">
+      <c r="S72" s="15">
         <v>0.15538589047072227</v>
       </c>
-      <c r="T72" s="16">
+      <c r="T72" s="15">
         <v>0.14838111835914639</v>
       </c>
-      <c r="U72" s="16">
+      <c r="U72" s="15">
         <v>0.15491400651998427</v>
       </c>
-      <c r="V72" s="16">
+      <c r="V72" s="15">
         <v>0.15239085998651261</v>
       </c>
-      <c r="W72" s="16">
+      <c r="W72" s="15">
         <v>0.13133926069138591</v>
       </c>
-      <c r="X72" s="16">
+      <c r="X72" s="15">
         <v>0.13764325363624622</v>
       </c>
     </row>
@@ -50407,65 +50324,65 @@
       <c r="A73" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="B73" s="17"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="17">
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16">
         <v>0.11415525114155251</v>
       </c>
-      <c r="G73" s="17">
+      <c r="G73" s="16">
         <v>6.5453767123287668E-2</v>
       </c>
-      <c r="H73" s="17">
+      <c r="H73" s="16">
         <v>8.4758159986470502E-2</v>
       </c>
-      <c r="I73" s="17">
+      <c r="I73" s="16">
         <v>0.17808980213089803</v>
       </c>
-      <c r="J73" s="17">
+      <c r="J73" s="16">
         <v>0.12192381639029079</v>
       </c>
-      <c r="K73" s="17">
+      <c r="K73" s="16">
         <v>8.1248714467892558E-2</v>
       </c>
-      <c r="L73" s="17">
+      <c r="L73" s="16">
         <v>0.15938903548169775</v>
       </c>
-      <c r="M73" s="17">
+      <c r="M73" s="16">
         <v>0.18169781142649755</v>
       </c>
-      <c r="N73" s="17">
+      <c r="N73" s="16">
         <v>0.2058669391554197</v>
       </c>
-      <c r="O73" s="17">
+      <c r="O73" s="16">
         <v>0.22956604290766625</v>
       </c>
-      <c r="P73" s="17">
+      <c r="P73" s="16">
         <v>0.2172995015710637</v>
       </c>
-      <c r="Q73" s="17">
+      <c r="Q73" s="16">
         <v>0.23704950320418605</v>
       </c>
-      <c r="R73" s="17">
+      <c r="R73" s="16">
         <v>0.23271503321770831</v>
       </c>
-      <c r="S73" s="17">
+      <c r="S73" s="16">
         <v>0.24584659524473154</v>
       </c>
-      <c r="T73" s="17">
+      <c r="T73" s="16">
         <v>0.21529025081619735</v>
       </c>
-      <c r="U73" s="17">
+      <c r="U73" s="16">
         <v>0.21381996798613462</v>
       </c>
-      <c r="V73" s="17">
+      <c r="V73" s="16">
         <v>0.23992922634315969</v>
       </c>
-      <c r="W73" s="17">
+      <c r="W73" s="16">
         <v>0.2323315222455867</v>
       </c>
-      <c r="X73" s="17">
+      <c r="X73" s="16">
         <v>0.24297964087912982</v>
       </c>
     </row>

--- a/VerveStacks_BGR/source_data/VerveStacks_BGR.xlsx
+++ b/VerveStacks_BGR/source_data/VerveStacks_BGR.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VerveStacks\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74F82C7-8A69-4CF7-A6E8-B5C830FD4772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AB4ABF-1159-487C-A8D2-F714D83797DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="iamc_data" sheetId="80" r:id="rId1"/>
-    <sheet name="iamc_charts" sheetId="79" r:id="rId2"/>
-    <sheet name="weo_pg" sheetId="78" r:id="rId3"/>
-    <sheet name="re_targets" sheetId="77" r:id="rId4"/>
-    <sheet name="ccs_retrofits" sheetId="76" r:id="rId5"/>
-    <sheet name="Calibration" sheetId="75" r:id="rId6"/>
-    <sheet name="existing_stock" sheetId="74" r:id="rId7"/>
+    <sheet name="iamc_data" sheetId="87" r:id="rId1"/>
+    <sheet name="iamc_charts" sheetId="86" r:id="rId2"/>
+    <sheet name="weo_pg" sheetId="85" r:id="rId3"/>
+    <sheet name="re_targets" sheetId="84" r:id="rId4"/>
+    <sheet name="ccs_retrofits" sheetId="83" r:id="rId5"/>
+    <sheet name="Calibration" sheetId="82" r:id="rId6"/>
+    <sheet name="existing_stock" sheetId="81" r:id="rId7"/>
     <sheet name="historical_data_long" sheetId="5" r:id="rId8"/>
     <sheet name="historical_data" sheetId="4" r:id="rId9"/>
     <sheet name="system_settings" sheetId="1" r:id="rId10"/>
@@ -34,7 +34,7 @@
     <author>Amit Kanudia</author>
   </authors>
   <commentList>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{14D2474C-0145-49F9-BCDD-6EA1FD5BC86F}">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{DCA0443A-07F2-41F1-B112-D66E36E92914}">
       <text>
         <r>
           <rPr>
@@ -44,16 +44,17 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>💡 Standardized fuel type for VEDA/TIMES model compatibility
+          <t>🎯 PURPOSE: Not specified
+💡 DESCRIPTION: Standardized fuel type for VEDA/TIMES model compatibility
 📊 CALCULATION: Technology mapping from GEM fuel types to model categories
 📁 DATA SOURCE: VS_mappings.xlsx (gem_fuel_mapping sheet)
 🔧 METHODOLOGY: GEM fuel types mapped to standard categories: nuclear, gas, coal, hydro, solar, wind, etc.
 ✅ QUALITY: All fuel types validated against VEDA conventions. Unmapped fuels flagged for review.
-→ See row 4 for complete methodology</t>
+→ See rows 3-5 for complete documentation</t>
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{BB38EFF4-D337-4C3C-BEE6-9F1033171677}">
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{7D338445-04A0-4C2D-B5F2-69F7ECFEDF37}">
       <text>
         <r>
           <rPr>
@@ -63,16 +64,17 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>💡 Plant commissioning year for retirement scheduling
+          <t>🎯 PURPOSE: Not specified
+💡 DESCRIPTION: Plant commissioning year for retirement scheduling
 📊 CALCULATION: GEM commissioning date or estimated for gap-filled plants
 📁 DATA SOURCE: GEM database, gap plants assigned 2022 (latest statistical year)
 🔧 METHODOLOGY: Historical plants use GEM dates. Gap plants represent recent additions not in GEM
 ✅ QUALITY: Years validated against realistic ranges (1900-2025). Future plants excluded.
-→ See row 4 for complete methodology</t>
+→ See rows 3-5 for complete documentation</t>
         </r>
       </text>
     </comment>
-    <comment ref="J6" authorId="0" shapeId="0" xr:uid="{E8C4748B-F58E-4349-996A-13C4E7691F5C}">
+    <comment ref="J6" authorId="0" shapeId="0" xr:uid="{4600CC27-0D0A-4E31-90C6-21216461A567}">
       <text>
         <r>
           <rPr>
@@ -82,16 +84,17 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>💡 Output commodity for VEDA/TIMES model linkage
-📊 CALCULATION: Spatial assignment based on grid modeling mode and technology type
-📁 DATA SOURCE: Generated from REZoning zones (grid ON) or country codes (grid OFF)
-🔧 METHODOLOGY: Grid ON: elc_spv-CHE_001 (renewables), e_w123 (thermal). Grid OFF: elc_sol-CHE, ELC
-✅ QUALITY: All assignments verified against spatial boundaries. Commodity names follow VEDA conventions.
-→ See row 4 for complete methodology</t>
+          <t>🎯 PURPOSE: Not specified
+💡 DESCRIPTION: Output commodity for VEDA/TIMES model linkage
+📊 CALCULATION: Country-level commodity assignment based on technology type
+📁 DATA SOURCE: Generated from country codes and technology classifications
+🔧 METHODOLOGY: Standard assignments: elc_sol-CHE (renewables), ELC (thermal/other)
+✅ QUALITY: All assignments verified against model conventions. Commodity names follow VEDA standards.
+→ See rows 3-5 for complete documentation</t>
         </r>
       </text>
     </comment>
-    <comment ref="L6" authorId="0" shapeId="0" xr:uid="{4B640805-4C4A-4670-B1FA-8A2B94BB440C}">
+    <comment ref="L6" authorId="0" shapeId="0" xr:uid="{6D2987CD-EB33-408B-A177-E02EBF335C8D}">
       <text>
         <r>
           <rPr>
@@ -101,16 +104,17 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>💡 Capital expenditure in $/kW (capacity-weighted average)
+          <t>🎯 PURPOSE: Not specified
+💡 DESCRIPTION: Capital expenditure in $/kW (capacity-weighted average)
 📊 CALCULATION: Multi-factor: Base cost × Size multiplier × Regional multiplier
 📁 DATA SOURCE: ep_technoeconomic_assumptions.xlsx (costs, size_multipliers, regional_multipliers sheets)
 🔧 METHODOLOGY: Weighted average: SUM(MW × capex) / SUM(MW) by technology group and vintage
 ✅ QUALITY: Values validated against international benchmarks. Outliers investigated and documented.
-→ See row 4 for complete methodology</t>
+→ See rows 3-5 for complete documentation</t>
         </r>
       </text>
     </comment>
-    <comment ref="M6" authorId="0" shapeId="0" xr:uid="{0743E34E-BD20-444C-802D-7693347B5663}">
+    <comment ref="M6" authorId="0" shapeId="0" xr:uid="{C829B6F8-166C-4151-AB2B-4E1A8F8C3EAD}">
       <text>
         <r>
           <rPr>
@@ -120,16 +124,17 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>💡 Fixed O&amp;M costs in $/kW-year (capacity-weighted average)
+          <t>🎯 PURPOSE: Not specified
+💡 DESCRIPTION: Fixed O&amp;M costs in $/kW-year (capacity-weighted average)
 📊 CALCULATION: Multi-factor: Base cost × Size multiplier × Regional multiplier
 📁 DATA SOURCE: ep_technoeconomic_assumptions.xlsx (costs, size_multipliers, regional_multipliers sheets)
 🔧 METHODOLOGY: Weighted average: SUM(MW × fixom) / SUM(MW) by technology group and vintage
 ✅ QUALITY: Includes maintenance, insurance, and fixed labor costs. Regional adjustments applied.
-→ See row 4 for complete methodology</t>
+→ See rows 3-5 for complete documentation</t>
         </r>
       </text>
     </comment>
-    <comment ref="N6" authorId="0" shapeId="0" xr:uid="{0C081194-44F7-45BA-A11C-D2C6CF480B3E}">
+    <comment ref="N6" authorId="0" shapeId="0" xr:uid="{D9C7BD8A-745E-4F04-9194-3614760BD6E0}">
       <text>
         <r>
           <rPr>
@@ -139,16 +144,17 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>💡 Variable O&amp;M costs in $/MWh (capacity-weighted average)
+          <t>🎯 PURPOSE: Not specified
+💡 DESCRIPTION: Variable O&amp;M costs in $/MWh (capacity-weighted average)
 📊 CALCULATION: Multi-factor: Base cost × Size multiplier × Regional multiplier
 📁 DATA SOURCE: ep_technoeconomic_assumptions.xlsx (costs, size_multipliers, regional_multipliers sheets)
 🔧 METHODOLOGY: Weighted average: SUM(MW × varom) / SUM(MW) by technology group and vintage
 ✅ QUALITY: Excludes fuel costs. Covers variable maintenance and consumables only.
-→ See row 4 for complete methodology</t>
+→ See rows 3-5 for complete documentation</t>
         </r>
       </text>
     </comment>
-    <comment ref="O6" authorId="0" shapeId="0" xr:uid="{F67CF14F-E95F-42E4-9F0D-07F28DF3A866}">
+    <comment ref="O6" authorId="0" shapeId="0" xr:uid="{70A90AB0-1818-4E52-ABB5-8FA892997B93}">
       <text>
         <r>
           <rPr>
@@ -158,12 +164,13 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>💡 Thermal efficiency - electrical output / fuel input (capacity-weighted average)
+          <t>🎯 PURPOSE: Not specified
+💡 DESCRIPTION: Thermal efficiency - electrical output / fuel input (capacity-weighted average)
 📊 CALCULATION: Vintage-based efficiency × Regional multiplier, capacity-weighted
 📁 DATA SOURCE: ep_technoeconomic_assumptions.xlsx (thermal_eff, regional_multipliers sheets)
 🔧 METHODOLOGY: Efficiency by commissioning year and size class. Weighted: SUM(MW × eff) / SUM(MW)
 ✅ QUALITY: Range validated (0.25-0.65 for thermal plants). Technology-specific realistic bounds applied.
-→ See row 4 for complete methodology</t>
+→ See rows 3-5 for complete documentation</t>
         </r>
       </text>
     </comment>
@@ -1399,15 +1406,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Complete power plant inventory combining GEM facility-level data with statistical capacity gaps from IRENA  (renewables) and EMBER (thermal). Missing capacity distributed spatially using resource quality rankings  and existing plant locations. Technology costs calculated as capacity-weighted averages with regional and  size adjustments. All parameters validated against realistic ranges. Hover over column headers for detailed  calculation methods and data sources.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Data Source: GEM plant database + IRENA/EMBER statistics + UNSD energy balances
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comprehensive calibration analysis comparing capacity and generation data across three authoritative sources. Table 1 shows installed capacity by technology from GEM vs IRENA/EMBER statistics. Table 2 compares calculated generation using capacity and utilization factors. Table 3 provides detailed metrics including efficiency, utilization factors, and fuel consumption estimates. All data reconciled for base year 2022 to ensure model accuracy.
 </t>
   </si>
   <si>
@@ -1418,6 +1417,14 @@
   </si>
   <si>
     <t>Table 1: Capacity Comparison (GW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete power plant inventory combining GEM facility-level data with statistical capacity gaps from IRENA  (renewables) and EMBER (thermal). Missing capacity distributed spatially using resource quality rankings  and existing plant locations. Technology costs calculated as capacity-weighted averages with regional and  size adjustments. All parameters validated against realistic ranges. Hover over column headers for detailed  calculation methods - see online documentation for complete methodology.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comprehensive calibration analysis comparing capacity and generation data across three authoritative sources. Table 1 shows installed capacity by technology from GEM vs IRENA/EMBER statistics. Table 2 compares calculated generation using capacity and utilization factors. Table 3 provides detailed metrics including efficiency, utilization factors, and fuel consumption estimates. All data reconciled for base year 2022 - see online documentation for complete validation methodology.
+</t>
   </si>
 </sst>
 </file>
@@ -1430,7 +1437,7 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1494,6 +1501,14 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="7"/>
+      <color rgb="FF969696"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1570,7 +1585,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1603,6 +1618,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1642,7 +1660,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DB908F9-9827-425B-3B65-742F7A9ACE82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3F693AE-D47A-6231-8727-A6C2D1433B64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1697,7 +1715,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BD3D33C-B18A-6265-A4EF-69BB68BF7F4C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF9697E8-6011-4054-90DC-5EF5A9DA49DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1752,7 +1770,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{097E44CD-4AA0-AF92-75BC-8DB0538720D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BC7FCBA-11C2-6DE6-7DB5-3C3007A74372}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1807,7 +1825,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4295E313-B9EF-3065-745A-7650E5E4DFCE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0427927-42CC-E16A-8D31-FEDC33BDDB44}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1862,7 +1880,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CACB5D0F-D623-8596-6CF0-C19325C61078}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFDCCD51-8794-07F4-604E-7A0EC3677BDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1917,7 +1935,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC98DB86-FD70-7047-53C6-58E9C5A1C301}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC205FB9-7877-54C7-C638-DAF81F12815C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2504,6 +2522,56 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>296863</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2038B3C0-BD33-0A24-24CE-BD4C396B0458}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17479963" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2823,7 +2891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B752AA81-2F31-413C-BFAD-255BBE959670}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C292FD37-B2B3-4626-9CD3-9ADD46C0FA01}">
   <dimension ref="A1:L638"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -25589,7 +25657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB85094-C4B3-41DD-A2D1-3FCC7EC58A91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F39CE91F-0BF2-4677-93FE-2C60A8BFDC2F}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -25602,7 +25670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392E1D91-98D4-4969-A3B2-5884029CB337}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC93CAC-FDBB-45EE-80D3-8793498E1B40}">
   <dimension ref="A1:I129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28822,7 +28890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D7B59D-B3EC-4F80-9EEA-44CBE2F4A94B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76470851-265B-4192-8631-217F252A785F}">
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -29499,7 +29567,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFF9BFC-582E-47CF-A041-2254B3BA892D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAAA0AFD-BEAE-4DCA-8509-889222B52D46}">
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -30441,7 +30509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845885DD-2311-4D11-90D9-243F08628A97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFE5FC3-E523-4FC5-A9DD-3AD41CE7CCBB}">
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -30473,7 +30541,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="20" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -30487,7 +30555,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="22" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
@@ -30500,9 +30568,18 @@
       <c r="J4" s="23"/>
     </row>
     <row r="5" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="2" t="s">
-        <v>400</v>
-      </c>
+      <c r="A5" s="24" t="s">
+        <v>398</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="3" t="s">
@@ -30638,7 +30715,7 @@
     </row>
     <row r="16" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
@@ -30795,7 +30872,7 @@
     </row>
     <row r="27" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
@@ -30991,10 +31068,11 @@
       <c r="H35" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -31002,7 +31080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23354DE-66D9-4D8F-988B-DC2ABB584402}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260D5652-0B5E-4255-9136-CEE3FA2D010D}">
   <dimension ref="A1:W91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -31071,7 +31149,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A4" s="22" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
@@ -31084,9 +31162,18 @@
       <c r="J4" s="23"/>
     </row>
     <row r="5" spans="1:23" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="24" t="s">
         <v>53</v>
       </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
     </row>
     <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="3" t="s">
@@ -36233,10 +36320,11 @@
       <c r="W91" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
